--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19220" windowHeight="14620" tabRatio="888" firstSheet="22" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19220" windowHeight="14620" tabRatio="888" firstSheet="23" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -3358,7 +3358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="271">
   <si>
     <t>year</t>
   </si>
@@ -4169,6 +4169,9 @@
   <si>
     <t>Birth age</t>
   </si>
+  <si>
+    <t>Calculated in model</t>
+  </si>
 </sst>
 </file>
 
@@ -5214,7 +5217,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5320,9 +5323,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -5446,6 +5447,10 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="675">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -7555,7 +7560,7 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="88">
+      <c r="C2" s="86">
         <v>2017</v>
       </c>
     </row>
@@ -7777,102 +7782,102 @@
       <c r="A33" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="79" t="s">
         <v>111</v>
       </c>
       <c r="C33" s="39">
         <v>3032037</v>
       </c>
-      <c r="D33" s="86"/>
-      <c r="E33" s="85"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="83"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="79" t="s">
         <v>112</v>
       </c>
       <c r="C34" s="39">
         <v>4756743</v>
       </c>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="81" t="s">
+      <c r="B35" s="79" t="s">
         <v>113</v>
       </c>
       <c r="C35" s="39">
         <v>3406589</v>
       </c>
-      <c r="D35" s="86"/>
+      <c r="D35" s="84"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="81" t="s">
+      <c r="B36" s="79" t="s">
         <v>114</v>
       </c>
       <c r="C36" s="39">
         <v>2174712</v>
       </c>
-      <c r="D36" s="86"/>
+      <c r="D36" s="84"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="81"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="86"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="84"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="81"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="86"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="84"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="79" t="s">
         <v>111</v>
       </c>
       <c r="C39" s="37">
         <f>C33-C45</f>
         <v>2722830.7358748955</v>
       </c>
-      <c r="D39" s="86"/>
-      <c r="E39" s="85"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="83"/>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="81" t="s">
+      <c r="B40" s="79" t="s">
         <v>112</v>
       </c>
       <c r="C40" s="37">
         <f t="shared" ref="C40:C42" si="0">C34-C46</f>
         <v>3655781.3019787949</v>
       </c>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="81" t="s">
+      <c r="B41" s="79" t="s">
         <v>113</v>
       </c>
       <c r="C41" s="37">
         <f t="shared" si="0"/>
         <v>2593751.3208226422</v>
       </c>
-      <c r="D41" s="86"/>
+      <c r="D41" s="84"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="81" t="s">
+      <c r="B42" s="79" t="s">
         <v>114</v>
       </c>
       <c r="C42" s="37">
         <f t="shared" si="0"/>
         <v>1963889.5471874289</v>
       </c>
-      <c r="D42" s="86"/>
+      <c r="D42" s="84"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="81"/>
+      <c r="B43" s="79"/>
       <c r="C43" s="38"/>
-      <c r="D43" s="86"/>
+      <c r="D43" s="84"/>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="36"/>
@@ -7882,7 +7887,7 @@
       <c r="A45" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B45" s="81" t="s">
+      <c r="B45" s="79" t="s">
         <v>115</v>
       </c>
       <c r="C45" s="32">
@@ -7891,7 +7896,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="81" t="s">
+      <c r="B46" s="79" t="s">
         <v>116</v>
       </c>
       <c r="C46" s="32">
@@ -7900,7 +7905,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="79" t="s">
         <v>117</v>
       </c>
       <c r="C47" s="32">
@@ -7909,7 +7914,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="81" t="s">
+      <c r="B48" s="79" t="s">
         <v>118</v>
       </c>
       <c r="C48" s="32">
@@ -7921,34 +7926,34 @@
       <c r="A51" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="81" t="s">
+      <c r="B51" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="112">
+      <c r="C51" s="110">
         <v>0.12704523580365737</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="81" t="s">
+      <c r="B52" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="C52" s="112">
+      <c r="C52" s="110">
         <v>0.4523580365736285</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="81" t="s">
+      <c r="B53" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="C53" s="112">
+      <c r="C53" s="110">
         <v>0.33397497593840231</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="81" t="s">
+      <c r="B54" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="112">
+      <c r="C54" s="110">
         <v>8.662175168431184E-2</v>
       </c>
     </row>
@@ -8441,7 +8446,7 @@
       <c r="A2" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="134" t="s">
         <v>73</v>
       </c>
       <c r="C2" t="s">
@@ -8464,7 +8469,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="136"/>
+      <c r="B3" s="134"/>
       <c r="C3" t="s">
         <v>154</v>
       </c>
@@ -8486,7 +8491,7 @@
       <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="136"/>
+      <c r="B4" s="134"/>
       <c r="C4" t="s">
         <v>164</v>
       </c>
@@ -8508,7 +8513,7 @@
       <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="134" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -8531,7 +8536,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="136"/>
+      <c r="B6" s="134"/>
       <c r="C6" t="s">
         <v>154</v>
       </c>
@@ -8552,7 +8557,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="136"/>
+      <c r="B7" s="134"/>
       <c r="C7" t="s">
         <v>164</v>
       </c>
@@ -8573,7 +8578,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="136" t="s">
+      <c r="B8" s="134" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -8596,7 +8601,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="136"/>
+      <c r="B9" s="134"/>
       <c r="C9" t="s">
         <v>154</v>
       </c>
@@ -8617,7 +8622,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="136"/>
+      <c r="B10" s="134"/>
       <c r="C10" t="s">
         <v>164</v>
       </c>
@@ -8638,7 +8643,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="136" t="s">
+      <c r="B11" s="134" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -8661,7 +8666,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="136"/>
+      <c r="B12" s="134"/>
       <c r="C12" t="s">
         <v>154</v>
       </c>
@@ -8682,7 +8687,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="136"/>
+      <c r="B13" s="134"/>
       <c r="C13" t="s">
         <v>164</v>
       </c>
@@ -8703,7 +8708,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="136" t="s">
+      <c r="B14" s="134" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -8726,7 +8731,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="136"/>
+      <c r="B15" s="134"/>
       <c r="C15" t="s">
         <v>154</v>
       </c>
@@ -8747,7 +8752,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="136"/>
+      <c r="B16" s="134"/>
       <c r="C16" t="s">
         <v>164</v>
       </c>
@@ -8801,7 +8806,7 @@
       <c r="A19" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="136" t="s">
+      <c r="B19" s="134" t="s">
         <v>73</v>
       </c>
       <c r="C19" t="s">
@@ -8824,7 +8829,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="136"/>
+      <c r="B20" s="134"/>
       <c r="C20" t="s">
         <v>154</v>
       </c>
@@ -8845,7 +8850,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="136"/>
+      <c r="B21" s="134"/>
       <c r="C21" t="s">
         <v>164</v>
       </c>
@@ -8866,7 +8871,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="136" t="s">
+      <c r="B22" s="134" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -8889,7 +8894,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="136"/>
+      <c r="B23" s="134"/>
       <c r="C23" t="s">
         <v>154</v>
       </c>
@@ -8910,7 +8915,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="136"/>
+      <c r="B24" s="134"/>
       <c r="C24" t="s">
         <v>164</v>
       </c>
@@ -8931,7 +8936,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="136" t="s">
+      <c r="B25" s="134" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -8954,7 +8959,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="136"/>
+      <c r="B26" s="134"/>
       <c r="C26" t="s">
         <v>154</v>
       </c>
@@ -8975,7 +8980,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="136"/>
+      <c r="B27" s="134"/>
       <c r="C27" t="s">
         <v>164</v>
       </c>
@@ -8996,7 +9001,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="136" t="s">
+      <c r="B28" s="134" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -9019,7 +9024,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="136"/>
+      <c r="B29" s="134"/>
       <c r="C29" t="s">
         <v>154</v>
       </c>
@@ -9040,7 +9045,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="136"/>
+      <c r="B30" s="134"/>
       <c r="C30" t="s">
         <v>164</v>
       </c>
@@ -9061,7 +9066,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="136" t="s">
+      <c r="B31" s="134" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -9084,7 +9089,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="136"/>
+      <c r="B32" s="134"/>
       <c r="C32" t="s">
         <v>154</v>
       </c>
@@ -9105,7 +9110,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="136"/>
+      <c r="B33" s="134"/>
       <c r="C33" t="s">
         <v>164</v>
       </c>
@@ -9152,7 +9157,7 @@
       <c r="A36" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B36" s="136" t="s">
+      <c r="B36" s="134" t="s">
         <v>73</v>
       </c>
       <c r="C36" t="s">
@@ -9175,7 +9180,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="136"/>
+      <c r="B37" s="134"/>
       <c r="C37" t="s">
         <v>154</v>
       </c>
@@ -9196,7 +9201,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="136"/>
+      <c r="B38" s="134"/>
       <c r="C38" t="s">
         <v>164</v>
       </c>
@@ -9218,7 +9223,7 @@
       <c r="I38" s="50"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="136" t="s">
+      <c r="B39" s="134" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
@@ -9241,7 +9246,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="136"/>
+      <c r="B40" s="134"/>
       <c r="C40" t="s">
         <v>154</v>
       </c>
@@ -9262,7 +9267,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="136"/>
+      <c r="B41" s="134"/>
       <c r="C41" t="s">
         <v>164</v>
       </c>
@@ -9283,7 +9288,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="136" t="s">
+      <c r="B42" s="134" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
@@ -9306,7 +9311,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="136"/>
+      <c r="B43" s="134"/>
       <c r="C43" t="s">
         <v>154</v>
       </c>
@@ -9327,7 +9332,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="136"/>
+      <c r="B44" s="134"/>
       <c r="C44" t="s">
         <v>164</v>
       </c>
@@ -9348,7 +9353,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="136" t="s">
+      <c r="B45" s="134" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -9371,7 +9376,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="136"/>
+      <c r="B46" s="134"/>
       <c r="C46" t="s">
         <v>154</v>
       </c>
@@ -9392,7 +9397,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="136"/>
+      <c r="B47" s="134"/>
       <c r="C47" t="s">
         <v>164</v>
       </c>
@@ -9413,7 +9418,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="136" t="s">
+      <c r="B48" s="134" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -9436,7 +9441,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="136"/>
+      <c r="B49" s="134"/>
       <c r="C49" t="s">
         <v>154</v>
       </c>
@@ -9457,7 +9462,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="136"/>
+      <c r="B50" s="134"/>
       <c r="C50" t="s">
         <v>164</v>
       </c>
@@ -9484,19 +9489,19 @@
       <c r="C51" t="s">
         <v>164</v>
       </c>
-      <c r="D51" s="70">
-        <v>1</v>
-      </c>
-      <c r="E51" s="70">
-        <v>1</v>
-      </c>
-      <c r="F51" s="70">
+      <c r="D51" s="68">
+        <v>1</v>
+      </c>
+      <c r="E51" s="68">
+        <v>1</v>
+      </c>
+      <c r="F51" s="68">
         <v>0.95</v>
       </c>
-      <c r="G51" s="70">
+      <c r="G51" s="68">
         <v>0.95</v>
       </c>
-      <c r="H51" s="70">
+      <c r="H51" s="68">
         <v>1</v>
       </c>
     </row>
@@ -9556,180 +9561,180 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="121" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="119" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="76"/>
+      <c r="E3" s="74"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="121" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="119" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="76"/>
+      <c r="E4" s="74"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="74"/>
-      <c r="B5" s="75" t="s">
+      <c r="A5" s="72"/>
+      <c r="B5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="122" t="s">
+      <c r="C5" s="73"/>
+      <c r="D5" s="120" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="76"/>
+      <c r="E5" s="74"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="74"/>
-      <c r="B6" s="75" t="s">
+      <c r="A6" s="72"/>
+      <c r="B6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="122" t="s">
+      <c r="C6" s="73"/>
+      <c r="D6" s="120" t="s">
         <v>165</v>
       </c>
-      <c r="E6" s="76"/>
+      <c r="E6" s="74"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="77"/>
-      <c r="B7" s="78" t="s">
+      <c r="A7" s="75"/>
+      <c r="B7" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="78"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="73"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="71"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
-      <c r="B10" s="75" t="s">
+      <c r="A10" s="72"/>
+      <c r="B10" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="76"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="74"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="74"/>
-      <c r="B11" s="75" t="s">
+      <c r="A11" s="72"/>
+      <c r="B11" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="76"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="74"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="74"/>
-      <c r="B12" s="75" t="s">
+      <c r="A12" s="72"/>
+      <c r="B12" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="76"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="74"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="74"/>
-      <c r="B13" s="75" t="s">
+      <c r="A13" s="72"/>
+      <c r="B13" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="76"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="77"/>
-      <c r="B14" s="78" t="s">
+      <c r="A14" s="75"/>
+      <c r="B14" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="80"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="78"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="71"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="74"/>
-      <c r="B17" s="75" t="s">
+      <c r="A17" s="72"/>
+      <c r="B17" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="76"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="74"/>
-      <c r="B18" s="75" t="s">
+      <c r="A18" s="72"/>
+      <c r="B18" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="76"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="74"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="74"/>
-      <c r="B19" s="75" t="s">
+      <c r="A19" s="72"/>
+      <c r="B19" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="76"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="74"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="74"/>
-      <c r="B20" s="75" t="s">
+      <c r="A20" s="72"/>
+      <c r="B20" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="76"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="74"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="77"/>
-      <c r="B21" s="78" t="s">
+      <c r="A21" s="75"/>
+      <c r="B21" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="78"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13993,7 +13998,7 @@
       <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="104"/>
+      <c r="H2" s="102"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
@@ -14054,7 +14059,7 @@
       <c r="G5" s="12">
         <v>0.59</v>
       </c>
-      <c r="H5" s="104"/>
+      <c r="H5" s="102"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
@@ -14078,7 +14083,7 @@
       <c r="G6" s="12">
         <v>1</v>
       </c>
-      <c r="H6" s="104"/>
+      <c r="H6" s="102"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
@@ -14128,16 +14133,16 @@
       <c r="A1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="104" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="104" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="E1" s="104" t="s">
         <v>236</v>
       </c>
       <c r="F1" s="1"/>
@@ -14146,34 +14151,34 @@
       <c r="A2" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="107">
+      <c r="C2" s="105">
         <f>'Distribution births'!C2</f>
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="D2" s="107">
+      <c r="D2" s="105">
         <f>'Distribution births'!C3</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E2" s="107">
+      <c r="E2" s="105">
         <f>'Distribution births'!C4</f>
         <v>0</v>
       </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="107">
+      <c r="C3" s="105">
         <v>0.8</v>
       </c>
-      <c r="D3" s="107">
+      <c r="D3" s="105">
         <v>0.8</v>
       </c>
-      <c r="E3" s="107">
+      <c r="E3" s="105">
         <v>0.8</v>
       </c>
       <c r="F3" s="9"/>
@@ -14667,22 +14672,22 @@
       <c r="B11" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="108">
-        <v>0</v>
-      </c>
-      <c r="D11" s="142">
+      <c r="C11" s="106">
+        <v>0</v>
+      </c>
+      <c r="D11" s="140">
         <f>'[1]Baseline year demographics'!$C8</f>
         <v>0.36</v>
       </c>
-      <c r="E11" s="142">
+      <c r="E11" s="140">
         <f>'[1]Baseline year demographics'!$C8</f>
         <v>0.36</v>
       </c>
-      <c r="F11" s="142">
+      <c r="F11" s="140">
         <f>'[1]Baseline year demographics'!$C8</f>
         <v>0.36</v>
       </c>
-      <c r="G11" s="142">
+      <c r="G11" s="140">
         <f>'[1]Baseline year demographics'!$C8</f>
         <v>0.36</v>
       </c>
@@ -14715,19 +14720,19 @@
       <c r="B12" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="108">
-        <v>0</v>
-      </c>
-      <c r="D12" s="108">
-        <v>1</v>
-      </c>
-      <c r="E12" s="108">
-        <v>1</v>
-      </c>
-      <c r="F12" s="108">
-        <v>1</v>
-      </c>
-      <c r="G12" s="108">
+      <c r="C12" s="106">
+        <v>0</v>
+      </c>
+      <c r="D12" s="106">
+        <v>1</v>
+      </c>
+      <c r="E12" s="106">
+        <v>1</v>
+      </c>
+      <c r="F12" s="106">
+        <v>1</v>
+      </c>
+      <c r="G12" s="106">
         <v>1</v>
       </c>
       <c r="H12" s="3">
@@ -14759,19 +14764,19 @@
       <c r="B13" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="108">
-        <v>0</v>
-      </c>
-      <c r="D13" s="108">
-        <v>1</v>
-      </c>
-      <c r="E13" s="108">
-        <v>1</v>
-      </c>
-      <c r="F13" s="108">
-        <v>1</v>
-      </c>
-      <c r="G13" s="108">
+      <c r="C13" s="106">
+        <v>0</v>
+      </c>
+      <c r="D13" s="106">
+        <v>1</v>
+      </c>
+      <c r="E13" s="106">
+        <v>1</v>
+      </c>
+      <c r="F13" s="106">
+        <v>1</v>
+      </c>
+      <c r="G13" s="106">
         <v>1</v>
       </c>
       <c r="H13" s="3">
@@ -15786,16 +15791,16 @@
       <c r="K36" s="43">
         <v>0</v>
       </c>
-      <c r="L36" s="111">
-        <v>1</v>
-      </c>
-      <c r="M36" s="111">
-        <v>1</v>
-      </c>
-      <c r="N36" s="111">
-        <v>1</v>
-      </c>
-      <c r="O36" s="111">
+      <c r="L36" s="109">
+        <v>1</v>
+      </c>
+      <c r="M36" s="109">
+        <v>1</v>
+      </c>
+      <c r="N36" s="109">
+        <v>1</v>
+      </c>
+      <c r="O36" s="109">
         <v>1</v>
       </c>
     </row>
@@ -15851,11 +15856,11 @@
       <c r="B38" s="12"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="103"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="101"/>
+      <c r="H38" s="101"/>
+      <c r="I38" s="101"/>
     </row>
     <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
@@ -16361,53 +16366,53 @@
       <c r="B50" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C50" s="108">
-        <v>0</v>
-      </c>
-      <c r="D50" s="108">
-        <v>0</v>
-      </c>
-      <c r="E50" s="109">
+      <c r="C50" s="106">
+        <v>0</v>
+      </c>
+      <c r="D50" s="106">
+        <v>0</v>
+      </c>
+      <c r="E50" s="107">
         <f>'[1]Baseline year demographics'!$C28</f>
         <v>0.12</v>
       </c>
-      <c r="F50" s="109">
+      <c r="F50" s="107">
         <f>'[1]Baseline year demographics'!$C28</f>
         <v>0.12</v>
       </c>
-      <c r="G50" s="109">
+      <c r="G50" s="107">
         <f>'[1]Baseline year demographics'!$C28</f>
         <v>0.12</v>
       </c>
-      <c r="H50" s="109">
+      <c r="H50" s="107">
         <f>'[1]Baseline year demographics'!$C28</f>
         <v>0.12</v>
       </c>
-      <c r="I50" s="109">
+      <c r="I50" s="107">
         <f>'[1]Baseline year demographics'!$C28</f>
         <v>0.12</v>
       </c>
-      <c r="J50" s="109">
+      <c r="J50" s="107">
         <f>'[1]Baseline year demographics'!$C28</f>
         <v>0.12</v>
       </c>
-      <c r="K50" s="109">
+      <c r="K50" s="107">
         <f>'[1]Baseline year demographics'!$C28</f>
         <v>0.12</v>
       </c>
-      <c r="L50" s="109">
+      <c r="L50" s="107">
         <f>'[1]Baseline year demographics'!$C28</f>
         <v>0.12</v>
       </c>
-      <c r="M50" s="109">
+      <c r="M50" s="107">
         <f>'[1]Baseline year demographics'!$C28</f>
         <v>0.12</v>
       </c>
-      <c r="N50" s="109">
+      <c r="N50" s="107">
         <f>'[1]Baseline year demographics'!$C28</f>
         <v>0.12</v>
       </c>
-      <c r="O50" s="109">
+      <c r="O50" s="107">
         <f>'[1]Baseline year demographics'!$C28</f>
         <v>0.12</v>
       </c>
@@ -16416,53 +16421,53 @@
       <c r="B51" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C51" s="108">
-        <v>0</v>
-      </c>
-      <c r="D51" s="108">
-        <v>0</v>
-      </c>
-      <c r="E51" s="108">
+      <c r="C51" s="106">
+        <v>0</v>
+      </c>
+      <c r="D51" s="106">
+        <v>0</v>
+      </c>
+      <c r="E51" s="106">
         <f>'[1]Baseline year demographics'!$C29</f>
         <v>0.05</v>
       </c>
-      <c r="F51" s="108">
+      <c r="F51" s="106">
         <f>'[1]Baseline year demographics'!$C29</f>
         <v>0.05</v>
       </c>
-      <c r="G51" s="108">
+      <c r="G51" s="106">
         <f>'[1]Baseline year demographics'!$C29</f>
         <v>0.05</v>
       </c>
-      <c r="H51" s="108">
+      <c r="H51" s="106">
         <f>'[1]Baseline year demographics'!$C29</f>
         <v>0.05</v>
       </c>
-      <c r="I51" s="108">
+      <c r="I51" s="106">
         <f>'[1]Baseline year demographics'!$C29</f>
         <v>0.05</v>
       </c>
-      <c r="J51" s="108">
+      <c r="J51" s="106">
         <f>'[1]Baseline year demographics'!$C29</f>
         <v>0.05</v>
       </c>
-      <c r="K51" s="108">
+      <c r="K51" s="106">
         <f>'[1]Baseline year demographics'!$C29</f>
         <v>0.05</v>
       </c>
-      <c r="L51" s="108">
+      <c r="L51" s="106">
         <f>'[1]Baseline year demographics'!$C29</f>
         <v>0.05</v>
       </c>
-      <c r="M51" s="108">
+      <c r="M51" s="106">
         <f>'[1]Baseline year demographics'!$C29</f>
         <v>0.05</v>
       </c>
-      <c r="N51" s="108">
+      <c r="N51" s="106">
         <f>'[1]Baseline year demographics'!$C29</f>
         <v>0.05</v>
       </c>
-      <c r="O51" s="108">
+      <c r="O51" s="106">
         <f>'[1]Baseline year demographics'!$C29</f>
         <v>0.05</v>
       </c>
@@ -16471,53 +16476,53 @@
       <c r="B52" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C52" s="108">
-        <v>0</v>
-      </c>
-      <c r="D52" s="108">
-        <v>0</v>
-      </c>
-      <c r="E52" s="108">
+      <c r="C52" s="106">
+        <v>0</v>
+      </c>
+      <c r="D52" s="106">
+        <v>0</v>
+      </c>
+      <c r="E52" s="106">
         <f>'[1]Baseline year demographics'!$C27</f>
         <v>0.8</v>
       </c>
-      <c r="F52" s="108">
+      <c r="F52" s="106">
         <f>'[1]Baseline year demographics'!$C27</f>
         <v>0.8</v>
       </c>
-      <c r="G52" s="108">
+      <c r="G52" s="106">
         <f>'[1]Baseline year demographics'!$C27</f>
         <v>0.8</v>
       </c>
-      <c r="H52" s="108">
+      <c r="H52" s="106">
         <f>'[1]Baseline year demographics'!$C27</f>
         <v>0.8</v>
       </c>
-      <c r="I52" s="108">
+      <c r="I52" s="106">
         <f>'[1]Baseline year demographics'!$C27</f>
         <v>0.8</v>
       </c>
-      <c r="J52" s="108">
+      <c r="J52" s="106">
         <f>'[1]Baseline year demographics'!$C27</f>
         <v>0.8</v>
       </c>
-      <c r="K52" s="108">
+      <c r="K52" s="106">
         <f>'[1]Baseline year demographics'!$C27</f>
         <v>0.8</v>
       </c>
-      <c r="L52" s="108">
+      <c r="L52" s="106">
         <f>'[1]Baseline year demographics'!$C27</f>
         <v>0.8</v>
       </c>
-      <c r="M52" s="108">
+      <c r="M52" s="106">
         <f>'[1]Baseline year demographics'!$C27</f>
         <v>0.8</v>
       </c>
-      <c r="N52" s="108">
+      <c r="N52" s="106">
         <f>'[1]Baseline year demographics'!$C27</f>
         <v>0.8</v>
       </c>
-      <c r="O52" s="108">
+      <c r="O52" s="106">
         <f>'[1]Baseline year demographics'!$C27</f>
         <v>0.8</v>
       </c>
@@ -17044,10 +17049,10 @@
       <c r="B11" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="110">
-        <v>0</v>
-      </c>
-      <c r="D11" s="110">
+      <c r="C11" s="108">
+        <v>0</v>
+      </c>
+      <c r="D11" s="108">
         <v>1</v>
       </c>
       <c r="E11" s="43">
@@ -17056,7 +17061,7 @@
       <c r="F11" s="43">
         <v>1</v>
       </c>
-      <c r="G11" s="110">
+      <c r="G11" s="108">
         <v>1</v>
       </c>
       <c r="H11" s="43">
@@ -17088,19 +17093,19 @@
       <c r="B12" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="110">
-        <v>0</v>
-      </c>
-      <c r="D12" s="110">
-        <v>1</v>
-      </c>
-      <c r="E12" s="110">
-        <v>1</v>
-      </c>
-      <c r="F12" s="110">
-        <v>1</v>
-      </c>
-      <c r="G12" s="110">
+      <c r="C12" s="108">
+        <v>0</v>
+      </c>
+      <c r="D12" s="108">
+        <v>1</v>
+      </c>
+      <c r="E12" s="108">
+        <v>1</v>
+      </c>
+      <c r="F12" s="108">
+        <v>1</v>
+      </c>
+      <c r="G12" s="108">
         <v>1</v>
       </c>
       <c r="H12" s="43">
@@ -17132,19 +17137,19 @@
       <c r="B13" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="110">
-        <v>0</v>
-      </c>
-      <c r="D13" s="110">
-        <v>1</v>
-      </c>
-      <c r="E13" s="110">
-        <v>1</v>
-      </c>
-      <c r="F13" s="110">
-        <v>1</v>
-      </c>
-      <c r="G13" s="110">
+      <c r="C13" s="108">
+        <v>0</v>
+      </c>
+      <c r="D13" s="108">
+        <v>1</v>
+      </c>
+      <c r="E13" s="108">
+        <v>1</v>
+      </c>
+      <c r="F13" s="108">
+        <v>1</v>
+      </c>
+      <c r="G13" s="108">
         <v>1</v>
       </c>
       <c r="H13" s="43">
@@ -17173,19 +17178,19 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C14" s="138"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="138"/>
-      <c r="M14" s="138"/>
-      <c r="N14" s="138"/>
-      <c r="O14" s="138"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
@@ -17474,28 +17479,28 @@
       <c r="G21" s="43">
         <v>1</v>
       </c>
-      <c r="H21" s="139">
-        <v>0</v>
-      </c>
-      <c r="I21" s="139">
-        <v>0</v>
-      </c>
-      <c r="J21" s="139">
-        <v>0</v>
-      </c>
-      <c r="K21" s="139">
-        <v>0</v>
-      </c>
-      <c r="L21" s="139">
-        <v>0</v>
-      </c>
-      <c r="M21" s="139">
-        <v>0</v>
-      </c>
-      <c r="N21" s="139">
-        <v>0</v>
-      </c>
-      <c r="O21" s="139">
+      <c r="H21" s="137">
+        <v>0</v>
+      </c>
+      <c r="I21" s="137">
+        <v>0</v>
+      </c>
+      <c r="J21" s="137">
+        <v>0</v>
+      </c>
+      <c r="K21" s="137">
+        <v>0</v>
+      </c>
+      <c r="L21" s="137">
+        <v>0</v>
+      </c>
+      <c r="M21" s="137">
+        <v>0</v>
+      </c>
+      <c r="N21" s="137">
+        <v>0</v>
+      </c>
+      <c r="O21" s="137">
         <v>0</v>
       </c>
     </row>
@@ -17518,28 +17523,28 @@
       <c r="G22" s="43">
         <v>1</v>
       </c>
-      <c r="H22" s="139">
-        <v>0</v>
-      </c>
-      <c r="I22" s="139">
-        <v>0</v>
-      </c>
-      <c r="J22" s="139">
-        <v>0</v>
-      </c>
-      <c r="K22" s="139">
-        <v>0</v>
-      </c>
-      <c r="L22" s="139">
-        <v>0</v>
-      </c>
-      <c r="M22" s="139">
-        <v>0</v>
-      </c>
-      <c r="N22" s="139">
-        <v>0</v>
-      </c>
-      <c r="O22" s="139">
+      <c r="H22" s="137">
+        <v>0</v>
+      </c>
+      <c r="I22" s="137">
+        <v>0</v>
+      </c>
+      <c r="J22" s="137">
+        <v>0</v>
+      </c>
+      <c r="K22" s="137">
+        <v>0</v>
+      </c>
+      <c r="L22" s="137">
+        <v>0</v>
+      </c>
+      <c r="M22" s="137">
+        <v>0</v>
+      </c>
+      <c r="N22" s="137">
+        <v>0</v>
+      </c>
+      <c r="O22" s="137">
         <v>0</v>
       </c>
     </row>
@@ -17562,45 +17567,45 @@
       <c r="G23" s="43">
         <v>1</v>
       </c>
-      <c r="H23" s="139">
-        <v>0</v>
-      </c>
-      <c r="I23" s="139">
-        <v>0</v>
-      </c>
-      <c r="J23" s="139">
-        <v>0</v>
-      </c>
-      <c r="K23" s="139">
-        <v>0</v>
-      </c>
-      <c r="L23" s="139">
-        <v>0</v>
-      </c>
-      <c r="M23" s="139">
-        <v>0</v>
-      </c>
-      <c r="N23" s="139">
-        <v>0</v>
-      </c>
-      <c r="O23" s="139">
+      <c r="H23" s="137">
+        <v>0</v>
+      </c>
+      <c r="I23" s="137">
+        <v>0</v>
+      </c>
+      <c r="J23" s="137">
+        <v>0</v>
+      </c>
+      <c r="K23" s="137">
+        <v>0</v>
+      </c>
+      <c r="L23" s="137">
+        <v>0</v>
+      </c>
+      <c r="M23" s="137">
+        <v>0</v>
+      </c>
+      <c r="N23" s="137">
+        <v>0</v>
+      </c>
+      <c r="O23" s="137">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="138"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="138"/>
-      <c r="M24" s="138"/>
-      <c r="N24" s="138"/>
-      <c r="O24" s="138"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="136"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="136"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
@@ -18253,16 +18258,16 @@
       <c r="K39" s="43">
         <v>0</v>
       </c>
-      <c r="L39" s="139">
-        <v>1</v>
-      </c>
-      <c r="M39" s="139">
-        <v>1</v>
-      </c>
-      <c r="N39" s="139">
-        <v>1</v>
-      </c>
-      <c r="O39" s="139">
+      <c r="L39" s="137">
+        <v>1</v>
+      </c>
+      <c r="M39" s="137">
+        <v>1</v>
+      </c>
+      <c r="N39" s="137">
+        <v>1</v>
+      </c>
+      <c r="O39" s="137">
         <v>1</v>
       </c>
     </row>
@@ -18314,17 +18319,17 @@
       <c r="B41" s="12"/>
       <c r="C41" s="43"/>
       <c r="D41" s="43"/>
-      <c r="E41" s="140"/>
-      <c r="F41" s="140"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="140"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="138"/>
-      <c r="K41" s="138"/>
-      <c r="L41" s="138"/>
-      <c r="M41" s="138"/>
-      <c r="N41" s="138"/>
-      <c r="O41" s="138"/>
+      <c r="E41" s="138"/>
+      <c r="F41" s="138"/>
+      <c r="G41" s="138"/>
+      <c r="H41" s="138"/>
+      <c r="I41" s="138"/>
+      <c r="J41" s="136"/>
+      <c r="K41" s="136"/>
+      <c r="L41" s="136"/>
+      <c r="M41" s="136"/>
+      <c r="N41" s="136"/>
+      <c r="O41" s="136"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
@@ -18774,43 +18779,43 @@
       <c r="B52" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="139">
-        <v>1</v>
-      </c>
-      <c r="D52" s="139">
-        <v>1</v>
-      </c>
-      <c r="E52" s="139">
-        <v>1</v>
-      </c>
-      <c r="F52" s="139">
-        <v>1</v>
-      </c>
-      <c r="G52" s="139">
-        <v>1</v>
-      </c>
-      <c r="H52" s="139">
-        <v>1</v>
-      </c>
-      <c r="I52" s="139">
-        <v>1</v>
-      </c>
-      <c r="J52" s="139">
-        <v>1</v>
-      </c>
-      <c r="K52" s="139">
-        <v>1</v>
-      </c>
-      <c r="L52" s="139">
-        <v>1</v>
-      </c>
-      <c r="M52" s="139">
-        <v>1</v>
-      </c>
-      <c r="N52" s="139">
-        <v>1</v>
-      </c>
-      <c r="O52" s="139">
+      <c r="C52" s="137">
+        <v>1</v>
+      </c>
+      <c r="D52" s="137">
+        <v>1</v>
+      </c>
+      <c r="E52" s="137">
+        <v>1</v>
+      </c>
+      <c r="F52" s="137">
+        <v>1</v>
+      </c>
+      <c r="G52" s="137">
+        <v>1</v>
+      </c>
+      <c r="H52" s="137">
+        <v>1</v>
+      </c>
+      <c r="I52" s="137">
+        <v>1</v>
+      </c>
+      <c r="J52" s="137">
+        <v>1</v>
+      </c>
+      <c r="K52" s="137">
+        <v>1</v>
+      </c>
+      <c r="L52" s="137">
+        <v>1</v>
+      </c>
+      <c r="M52" s="137">
+        <v>1</v>
+      </c>
+      <c r="N52" s="137">
+        <v>1</v>
+      </c>
+      <c r="O52" s="137">
         <v>1</v>
       </c>
     </row>
@@ -18818,43 +18823,43 @@
       <c r="B53" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C53" s="110">
-        <v>1</v>
-      </c>
-      <c r="D53" s="110">
-        <v>0</v>
-      </c>
-      <c r="E53" s="141">
-        <v>1</v>
-      </c>
-      <c r="F53" s="141">
-        <v>1</v>
-      </c>
-      <c r="G53" s="141">
-        <v>1</v>
-      </c>
-      <c r="H53" s="141">
-        <v>1</v>
-      </c>
-      <c r="I53" s="141">
-        <v>1</v>
-      </c>
-      <c r="J53" s="141">
-        <v>1</v>
-      </c>
-      <c r="K53" s="141">
-        <v>1</v>
-      </c>
-      <c r="L53" s="141">
-        <v>1</v>
-      </c>
-      <c r="M53" s="141">
-        <v>1</v>
-      </c>
-      <c r="N53" s="141">
-        <v>1</v>
-      </c>
-      <c r="O53" s="141">
+      <c r="C53" s="108">
+        <v>1</v>
+      </c>
+      <c r="D53" s="108">
+        <v>0</v>
+      </c>
+      <c r="E53" s="139">
+        <v>1</v>
+      </c>
+      <c r="F53" s="139">
+        <v>1</v>
+      </c>
+      <c r="G53" s="139">
+        <v>1</v>
+      </c>
+      <c r="H53" s="139">
+        <v>1</v>
+      </c>
+      <c r="I53" s="139">
+        <v>1</v>
+      </c>
+      <c r="J53" s="139">
+        <v>1</v>
+      </c>
+      <c r="K53" s="139">
+        <v>1</v>
+      </c>
+      <c r="L53" s="139">
+        <v>1</v>
+      </c>
+      <c r="M53" s="139">
+        <v>1</v>
+      </c>
+      <c r="N53" s="139">
+        <v>1</v>
+      </c>
+      <c r="O53" s="139">
         <v>1</v>
       </c>
     </row>
@@ -18862,43 +18867,43 @@
       <c r="B54" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C54" s="110">
-        <v>1</v>
-      </c>
-      <c r="D54" s="110">
-        <v>0</v>
-      </c>
-      <c r="E54" s="110">
-        <v>1</v>
-      </c>
-      <c r="F54" s="110">
-        <v>1</v>
-      </c>
-      <c r="G54" s="110">
-        <v>1</v>
-      </c>
-      <c r="H54" s="110">
-        <v>1</v>
-      </c>
-      <c r="I54" s="110">
-        <v>1</v>
-      </c>
-      <c r="J54" s="110">
-        <v>1</v>
-      </c>
-      <c r="K54" s="110">
-        <v>1</v>
-      </c>
-      <c r="L54" s="110">
-        <v>1</v>
-      </c>
-      <c r="M54" s="110">
-        <v>1</v>
-      </c>
-      <c r="N54" s="110">
-        <v>1</v>
-      </c>
-      <c r="O54" s="110">
+      <c r="C54" s="108">
+        <v>1</v>
+      </c>
+      <c r="D54" s="108">
+        <v>0</v>
+      </c>
+      <c r="E54" s="108">
+        <v>1</v>
+      </c>
+      <c r="F54" s="108">
+        <v>1</v>
+      </c>
+      <c r="G54" s="108">
+        <v>1</v>
+      </c>
+      <c r="H54" s="108">
+        <v>1</v>
+      </c>
+      <c r="I54" s="108">
+        <v>1</v>
+      </c>
+      <c r="J54" s="108">
+        <v>1</v>
+      </c>
+      <c r="K54" s="108">
+        <v>1</v>
+      </c>
+      <c r="L54" s="108">
+        <v>1</v>
+      </c>
+      <c r="M54" s="108">
+        <v>1</v>
+      </c>
+      <c r="N54" s="108">
+        <v>1</v>
+      </c>
+      <c r="O54" s="108">
         <v>1</v>
       </c>
     </row>
@@ -18906,43 +18911,43 @@
       <c r="B55" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C55" s="110">
-        <v>1</v>
-      </c>
-      <c r="D55" s="110">
-        <v>0</v>
-      </c>
-      <c r="E55" s="110">
-        <v>1</v>
-      </c>
-      <c r="F55" s="110">
-        <v>1</v>
-      </c>
-      <c r="G55" s="110">
-        <v>1</v>
-      </c>
-      <c r="H55" s="110">
-        <v>1</v>
-      </c>
-      <c r="I55" s="110">
-        <v>1</v>
-      </c>
-      <c r="J55" s="110">
-        <v>1</v>
-      </c>
-      <c r="K55" s="110">
-        <v>1</v>
-      </c>
-      <c r="L55" s="110">
-        <v>1</v>
-      </c>
-      <c r="M55" s="110">
-        <v>1</v>
-      </c>
-      <c r="N55" s="110">
-        <v>1</v>
-      </c>
-      <c r="O55" s="110">
+      <c r="C55" s="108">
+        <v>1</v>
+      </c>
+      <c r="D55" s="108">
+        <v>0</v>
+      </c>
+      <c r="E55" s="108">
+        <v>1</v>
+      </c>
+      <c r="F55" s="108">
+        <v>1</v>
+      </c>
+      <c r="G55" s="108">
+        <v>1</v>
+      </c>
+      <c r="H55" s="108">
+        <v>1</v>
+      </c>
+      <c r="I55" s="108">
+        <v>1</v>
+      </c>
+      <c r="J55" s="108">
+        <v>1</v>
+      </c>
+      <c r="K55" s="108">
+        <v>1</v>
+      </c>
+      <c r="L55" s="108">
+        <v>1</v>
+      </c>
+      <c r="M55" s="108">
+        <v>1</v>
+      </c>
+      <c r="N55" s="108">
+        <v>1</v>
+      </c>
+      <c r="O55" s="108">
         <v>1</v>
       </c>
     </row>
@@ -19820,7 +19825,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="137" t="s">
+      <c r="A52" s="135" t="s">
         <v>161</v>
       </c>
       <c r="B52" t="s">
@@ -19831,7 +19836,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="137" t="s">
+      <c r="A53" s="135" t="s">
         <v>162</v>
       </c>
       <c r="B53" t="s">
@@ -19842,7 +19847,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="137" t="s">
+      <c r="A54" s="135" t="s">
         <v>163</v>
       </c>
       <c r="B54" t="s">
@@ -20147,10 +20152,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20162,748 +20167,785 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="121" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="121" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="123" t="s">
+      <c r="C1" s="121" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="123" t="s">
+      <c r="D1" s="121" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="125">
-        <v>0</v>
-      </c>
-      <c r="C2" s="125">
+      <c r="B2" s="123">
+        <v>0</v>
+      </c>
+      <c r="C2" s="123">
         <v>0.95</v>
       </c>
-      <c r="D2" s="125">
+      <c r="D2" s="123">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="124" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="127">
-        <v>0</v>
-      </c>
-      <c r="C3" s="128">
+      <c r="B3" s="125">
+        <v>0</v>
+      </c>
+      <c r="C3" s="126">
         <v>0.85</v>
       </c>
-      <c r="D3" s="128">
+      <c r="D3" s="126">
         <v>0.8</v>
       </c>
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="127" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="127">
-        <v>0</v>
-      </c>
-      <c r="C4" s="128">
+      <c r="B4" s="125">
+        <v>0</v>
+      </c>
+      <c r="C4" s="126">
         <v>0.85</v>
       </c>
-      <c r="D4" s="128">
+      <c r="D4" s="126">
         <v>1</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="127" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="128">
-        <v>0</v>
-      </c>
-      <c r="C5" s="128">
+      <c r="B5" s="126">
+        <v>0</v>
+      </c>
+      <c r="C5" s="126">
         <v>0.85</v>
       </c>
-      <c r="D5" s="128">
+      <c r="D5" s="126">
         <f>180</f>
         <v>180</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="127" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="127">
+      <c r="B6" s="125">
         <v>0.5</v>
       </c>
-      <c r="C6" s="128">
+      <c r="C6" s="126">
         <v>0.85</v>
       </c>
-      <c r="D6" s="128">
+      <c r="D6" s="126">
         <f>SUM('Programs family planning'!E2:E10)</f>
         <v>0.82100000000000006</v>
       </c>
       <c r="E6" s="58"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="127" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="128">
-        <v>0</v>
-      </c>
-      <c r="C7" s="128">
+      <c r="B7" s="126">
+        <v>0</v>
+      </c>
+      <c r="C7" s="126">
         <v>0.05</v>
       </c>
-      <c r="D7" s="128">
+      <c r="D7" s="126">
         <v>0.14000000000000001</v>
       </c>
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="127" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="128">
-        <v>0</v>
-      </c>
-      <c r="C8" s="128">
+      <c r="B8" s="126">
+        <v>0</v>
+      </c>
+      <c r="C8" s="126">
         <v>0.8</v>
       </c>
-      <c r="D8" s="128">
+      <c r="D8" s="126">
         <v>0.75</v>
       </c>
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="127" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="128">
-        <v>0</v>
-      </c>
-      <c r="C9" s="128">
+      <c r="B9" s="126">
+        <v>0</v>
+      </c>
+      <c r="C9" s="126">
         <v>0.12</v>
       </c>
-      <c r="D9" s="128">
+      <c r="D9" s="126">
         <v>0.19</v>
       </c>
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="127" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="128">
-        <v>0</v>
-      </c>
-      <c r="C10" s="128">
+      <c r="B10" s="126">
+        <v>0</v>
+      </c>
+      <c r="C10" s="126">
         <v>0.85</v>
       </c>
-      <c r="D10" s="128">
+      <c r="D10" s="126">
         <v>0.73</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="127" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="128">
-        <v>0</v>
-      </c>
-      <c r="C11" s="128">
+      <c r="B11" s="126">
+        <v>0</v>
+      </c>
+      <c r="C11" s="126">
         <v>0.85</v>
       </c>
-      <c r="D11" s="128">
+      <c r="D11" s="126">
         <v>0.73</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="127" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="128">
-        <v>0</v>
-      </c>
-      <c r="C12" s="128">
+      <c r="B12" s="126">
+        <v>0</v>
+      </c>
+      <c r="C12" s="126">
         <v>0.85</v>
       </c>
-      <c r="D12" s="128">
+      <c r="D12" s="126">
         <v>1.78</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="129" t="s">
+      <c r="A13" s="127" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="128">
-        <v>0</v>
-      </c>
-      <c r="C13" s="128">
+      <c r="B13" s="126">
+        <v>0</v>
+      </c>
+      <c r="C13" s="126">
         <v>0.85</v>
       </c>
-      <c r="D13" s="128">
+      <c r="D13" s="126">
         <v>1.78</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="128">
-        <v>0</v>
-      </c>
-      <c r="C14" s="128">
+      <c r="B14" s="126">
+        <v>0</v>
+      </c>
+      <c r="C14" s="126">
         <v>0.85</v>
       </c>
-      <c r="D14" s="128">
+      <c r="D14" s="126">
         <v>0.24</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="127" t="s">
         <v>134</v>
       </c>
-      <c r="B15" s="128">
-        <v>0</v>
-      </c>
-      <c r="C15" s="128">
+      <c r="B15" s="126">
+        <v>0</v>
+      </c>
+      <c r="C15" s="126">
         <v>0.85</v>
       </c>
-      <c r="D15" s="128">
+      <c r="D15" s="126">
         <v>0.24</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="129" t="s">
+      <c r="A16" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="128">
-        <v>0</v>
-      </c>
-      <c r="C16" s="128">
+      <c r="B16" s="126">
+        <v>0</v>
+      </c>
+      <c r="C16" s="126">
         <v>0.85</v>
       </c>
-      <c r="D16" s="128">
+      <c r="D16" s="126">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="127" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="128">
-        <v>0</v>
-      </c>
-      <c r="C17" s="128">
+      <c r="B17" s="126">
+        <v>0</v>
+      </c>
+      <c r="C17" s="126">
         <v>0.85</v>
       </c>
-      <c r="D17" s="128">
+      <c r="D17" s="126">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="129" t="s">
+      <c r="A18" s="127" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="128">
-        <v>0</v>
-      </c>
-      <c r="C18" s="128">
+      <c r="B18" s="126">
+        <v>0</v>
+      </c>
+      <c r="C18" s="126">
         <v>0.85</v>
       </c>
-      <c r="D18" s="128">
+      <c r="D18" s="126">
         <v>0.73</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="129" t="s">
+      <c r="A19" s="127" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="128">
-        <v>0</v>
-      </c>
-      <c r="C19" s="128">
+      <c r="B19" s="126">
+        <v>0</v>
+      </c>
+      <c r="C19" s="126">
         <v>0.85</v>
       </c>
-      <c r="D19" s="128">
+      <c r="D19" s="126">
         <v>0.73</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="129" t="s">
+      <c r="A20" s="127" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="128">
-        <v>0</v>
-      </c>
-      <c r="C20" s="128">
+      <c r="B20" s="126">
+        <v>0</v>
+      </c>
+      <c r="C20" s="126">
         <v>0.85</v>
       </c>
-      <c r="D20" s="128">
+      <c r="D20" s="126">
         <v>1.78</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="129" t="s">
+      <c r="A21" s="127" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="128">
-        <v>0</v>
-      </c>
-      <c r="C21" s="128">
+      <c r="B21" s="126">
+        <v>0</v>
+      </c>
+      <c r="C21" s="126">
         <v>0.85</v>
       </c>
-      <c r="D21" s="128">
+      <c r="D21" s="126">
         <v>1.78</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="129" t="s">
+      <c r="A22" s="127" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="128">
-        <v>0</v>
-      </c>
-      <c r="C22" s="128">
+      <c r="B22" s="126">
+        <v>0</v>
+      </c>
+      <c r="C22" s="126">
         <v>0.85</v>
       </c>
-      <c r="D22" s="128">
+      <c r="D22" s="126">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="129" t="s">
+      <c r="A23" s="127" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="128">
-        <v>0</v>
-      </c>
-      <c r="C23" s="128">
+      <c r="B23" s="126">
+        <v>0</v>
+      </c>
+      <c r="C23" s="126">
         <v>0.85</v>
       </c>
-      <c r="D23" s="128">
+      <c r="D23" s="126">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="124" t="s">
+      <c r="A24" s="122" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="125">
+      <c r="B24" s="123">
         <v>0.34599999999999997</v>
       </c>
-      <c r="C24" s="125">
+      <c r="C24" s="123">
         <v>0.95</v>
       </c>
-      <c r="D24" s="125">
+      <c r="D24" s="123">
         <v>2.06</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="129" t="s">
+      <c r="A25" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="128">
-        <v>0</v>
-      </c>
-      <c r="C25" s="128">
+      <c r="B25" s="126">
+        <v>0</v>
+      </c>
+      <c r="C25" s="126">
         <v>0.85</v>
       </c>
-      <c r="D25" s="128">
+      <c r="D25" s="126">
         <v>1.78</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="129" t="s">
+      <c r="A26" s="127" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="128">
-        <v>0</v>
-      </c>
-      <c r="C26" s="128">
+      <c r="B26" s="126">
+        <v>0</v>
+      </c>
+      <c r="C26" s="126">
         <v>0.85</v>
       </c>
-      <c r="D26" s="128">
+      <c r="D26" s="126">
         <v>1.78</v>
       </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="130" t="s">
+      <c r="A27" s="128" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="125">
+      <c r="B27" s="123">
         <v>0.80800000000000005</v>
       </c>
-      <c r="C27" s="125">
+      <c r="C27" s="123">
         <v>0.95</v>
       </c>
-      <c r="D27" s="125">
+      <c r="D27" s="123">
         <v>0.05</v>
       </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="130" t="s">
+      <c r="A28" s="128" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="131">
+      <c r="B28" s="129">
         <v>0.36</v>
       </c>
-      <c r="C28" s="125">
+      <c r="C28" s="123">
         <v>0.8</v>
       </c>
-      <c r="D28" s="125">
+      <c r="D28" s="123">
         <v>0.25</v>
       </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="129" t="s">
+      <c r="A29" s="127" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="128">
-        <v>0</v>
-      </c>
-      <c r="C29" s="128">
-        <v>0</v>
-      </c>
-      <c r="D29" s="128">
+      <c r="B29" s="126">
+        <v>0</v>
+      </c>
+      <c r="C29" s="126">
+        <v>0</v>
+      </c>
+      <c r="D29" s="126">
         <v>0.74</v>
       </c>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="129" t="s">
+      <c r="A30" s="127" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="128">
-        <v>0</v>
-      </c>
-      <c r="C30" s="128">
-        <v>0</v>
-      </c>
-      <c r="D30" s="128">
+      <c r="B30" s="126">
+        <v>0</v>
+      </c>
+      <c r="C30" s="126">
+        <v>0</v>
+      </c>
+      <c r="D30" s="126">
         <v>0.18</v>
       </c>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="130" t="s">
+      <c r="A31" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="125">
+      <c r="B31" s="123">
         <v>0.50800000000000001</v>
       </c>
-      <c r="C31" s="125">
+      <c r="C31" s="123">
         <v>0.95</v>
       </c>
-      <c r="D31" s="131">
+      <c r="D31" s="129">
         <v>2.61</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="129" t="s">
+      <c r="A32" s="127" t="s">
         <v>266</v>
       </c>
-      <c r="B32" s="127">
-        <v>0</v>
-      </c>
-      <c r="C32" s="128">
+      <c r="B32" s="125">
+        <v>0</v>
+      </c>
+      <c r="C32" s="126">
         <v>0.85</v>
       </c>
-      <c r="D32" s="128">
+      <c r="D32" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="129" t="s">
+      <c r="A33" s="127" t="s">
         <v>265</v>
       </c>
-      <c r="B33" s="127">
-        <v>0</v>
-      </c>
-      <c r="C33" s="128">
+      <c r="B33" s="125">
+        <v>0</v>
+      </c>
+      <c r="C33" s="126">
         <v>0.85</v>
       </c>
-      <c r="D33" s="128">
+      <c r="D33" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="129" t="s">
+      <c r="A34" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="B34" s="128">
-        <v>0</v>
-      </c>
-      <c r="C34" s="128">
+      <c r="B34" s="126">
+        <v>0</v>
+      </c>
+      <c r="C34" s="126">
         <v>0.85</v>
       </c>
-      <c r="D34" s="128">
+      <c r="D34" s="126">
         <v>2.99</v>
       </c>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="132" t="s">
+      <c r="A35" s="130" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="125">
+      <c r="B35" s="123">
         <v>0.3538</v>
       </c>
-      <c r="C35" s="125">
+      <c r="C35" s="123">
         <v>0.95</v>
       </c>
-      <c r="D35" s="125">
+      <c r="D35" s="123">
         <v>3.78</v>
       </c>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="129" t="s">
+      <c r="A36" s="127" t="s">
         <v>262</v>
       </c>
-      <c r="B36" s="127">
-        <v>0</v>
-      </c>
-      <c r="C36" s="128">
+      <c r="B36" s="125">
+        <v>0</v>
+      </c>
+      <c r="C36" s="126">
         <v>0.85</v>
       </c>
-      <c r="D36" s="128">
+      <c r="D36" s="126">
         <v>1</v>
       </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="130" t="s">
+      <c r="A37" s="128" t="s">
         <v>127</v>
       </c>
-      <c r="B37" s="125">
-        <v>0</v>
-      </c>
-      <c r="C37" s="125">
+      <c r="B37" s="123">
+        <v>0</v>
+      </c>
+      <c r="C37" s="123">
         <v>0.95</v>
       </c>
-      <c r="D37" s="125">
+      <c r="D37" s="123">
         <v>48</v>
       </c>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="129" t="s">
+      <c r="A38" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="128">
-        <v>0</v>
-      </c>
-      <c r="C38" s="128">
+      <c r="B38" s="126">
+        <v>0</v>
+      </c>
+      <c r="C38" s="126">
         <v>0.85</v>
       </c>
-      <c r="D38" s="128">
+      <c r="D38" s="126">
         <v>50</v>
       </c>
       <c r="E38" s="29"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="129" t="s">
+      <c r="A39" s="127" t="s">
         <v>136</v>
       </c>
-      <c r="B39" s="128">
-        <v>0</v>
-      </c>
-      <c r="C39" s="128">
+      <c r="B39" s="126">
+        <v>0</v>
+      </c>
+      <c r="C39" s="126">
         <v>0.85</v>
       </c>
-      <c r="D39" s="128">
+      <c r="D39" s="126">
         <v>51</v>
       </c>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="129" t="s">
+      <c r="A40" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="128">
-        <v>0</v>
-      </c>
-      <c r="C40" s="128">
+      <c r="B40" s="126">
+        <v>0</v>
+      </c>
+      <c r="C40" s="126">
         <v>0.85</v>
       </c>
-      <c r="D40" s="128">
+      <c r="D40" s="126">
         <v>1</v>
       </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="133" t="s">
+      <c r="A41" s="131" t="s">
         <v>137</v>
       </c>
-      <c r="B41" s="125">
+      <c r="B41" s="123">
         <v>0.1</v>
       </c>
-      <c r="C41" s="125">
+      <c r="C41" s="123">
         <v>0.95</v>
       </c>
-      <c r="D41" s="125">
+      <c r="D41" s="123">
         <v>4.6500000000000004</v>
       </c>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="130" t="s">
+      <c r="A42" s="128" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="125">
-        <v>0</v>
-      </c>
-      <c r="C42" s="125">
+      <c r="B42" s="123">
+        <v>0</v>
+      </c>
+      <c r="C42" s="123">
         <v>0.95</v>
       </c>
-      <c r="D42" s="131">
+      <c r="D42" s="129">
         <f>40*AVERAGE('Incidence of conditions'!B5:F5)</f>
         <v>4.7507200000000013E-2</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="130" t="s">
+      <c r="A43" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="125">
-        <v>0</v>
-      </c>
-      <c r="C43" s="125">
+      <c r="B43" s="123">
+        <v>0</v>
+      </c>
+      <c r="C43" s="123">
         <v>0.95</v>
       </c>
-      <c r="D43" s="131">
+      <c r="D43" s="129">
         <f>90*AVERAGE('Incidence of conditions'!B6:F6)</f>
         <v>5.3024400000000013E-2</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="130" t="s">
+      <c r="A44" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="125">
+      <c r="B44" s="123">
         <v>0.89970000000000006</v>
       </c>
-      <c r="C44" s="125">
+      <c r="C44" s="123">
         <v>0.95</v>
       </c>
-      <c r="D44" s="125">
+      <c r="D44" s="123">
         <v>0.41</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="124" t="s">
+      <c r="A45" s="122" t="s">
         <v>261</v>
       </c>
-      <c r="B45" s="134">
+      <c r="B45" s="132">
         <v>0.80700000000000005</v>
       </c>
-      <c r="C45" s="125">
+      <c r="C45" s="123">
         <v>0.95</v>
       </c>
-      <c r="D45" s="125">
+      <c r="D45" s="123">
         <v>0.9</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="124" t="s">
+      <c r="A46" s="122" t="s">
         <v>260</v>
       </c>
-      <c r="B46" s="134">
+      <c r="B46" s="132">
         <v>0.73199999999999998</v>
       </c>
-      <c r="C46" s="125">
+      <c r="C46" s="123">
         <v>0.95</v>
       </c>
-      <c r="D46" s="125">
+      <c r="D46" s="123">
         <v>0.9</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="124" t="s">
+      <c r="A47" s="122" t="s">
         <v>259</v>
       </c>
-      <c r="B47" s="134">
+      <c r="B47" s="132">
         <v>0.316</v>
       </c>
-      <c r="C47" s="125">
+      <c r="C47" s="123">
         <v>0.95</v>
       </c>
-      <c r="D47" s="125">
+      <c r="D47" s="123">
         <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="124" t="s">
+      <c r="A48" s="122" t="s">
         <v>257</v>
       </c>
-      <c r="B48" s="134">
+      <c r="B48" s="132">
         <v>0.59699999999999998</v>
       </c>
-      <c r="C48" s="125">
+      <c r="C48" s="123">
         <v>0.95</v>
       </c>
-      <c r="D48" s="125">
+      <c r="D48" s="123">
         <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="124" t="s">
+      <c r="A49" s="122" t="s">
         <v>258</v>
       </c>
-      <c r="B49" s="134">
+      <c r="B49" s="132">
         <v>0.19900000000000001</v>
       </c>
-      <c r="C49" s="125">
+      <c r="C49" s="123">
         <v>0.95</v>
       </c>
-      <c r="D49" s="125">
+      <c r="D49" s="123">
         <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="124" t="s">
+      <c r="A50" s="122" t="s">
         <v>263</v>
       </c>
-      <c r="B50" s="134">
+      <c r="B50" s="132">
         <v>0.13400000000000001</v>
       </c>
-      <c r="C50" s="125">
+      <c r="C50" s="123">
         <v>0.95</v>
       </c>
-      <c r="D50" s="131">
+      <c r="D50" s="129">
         <v>5.53</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="129" t="s">
+      <c r="A51" s="127" t="s">
         <v>140</v>
       </c>
-      <c r="B51" s="128">
-        <v>0</v>
-      </c>
-      <c r="C51" s="128">
+      <c r="B51" s="126">
+        <v>0</v>
+      </c>
+      <c r="C51" s="126">
         <v>0.85</v>
       </c>
-      <c r="D51" s="128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="67"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="69"/>
+      <c r="D51" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="122" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="144">
+        <v>0</v>
+      </c>
+      <c r="C52" s="29">
+        <v>0.95</v>
+      </c>
+      <c r="D52" s="143" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="122" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="141">
+        <v>0</v>
+      </c>
+      <c r="C53" s="142">
+        <v>0.95</v>
+      </c>
+      <c r="D53" s="143" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" s="141">
+        <v>0</v>
+      </c>
+      <c r="C54" s="142">
+        <v>0.95</v>
+      </c>
+      <c r="D54" s="143" t="s">
+        <v>270</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:D52">
@@ -20917,10 +20959,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -20946,7 +20988,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="120" t="s">
         <v>268</v>
       </c>
     </row>
@@ -21189,7 +21231,7 @@
       <c r="A45" t="s">
         <v>261</v>
       </c>
-      <c r="B45" s="135" t="s">
+      <c r="B45" s="133" t="s">
         <v>165</v>
       </c>
     </row>
@@ -21197,7 +21239,7 @@
       <c r="A46" t="s">
         <v>260</v>
       </c>
-      <c r="B46" s="135" t="s">
+      <c r="B46" s="133" t="s">
         <v>165</v>
       </c>
     </row>
@@ -21205,7 +21247,7 @@
       <c r="A47" t="s">
         <v>259</v>
       </c>
-      <c r="B47" s="135" t="s">
+      <c r="B47" s="133" t="s">
         <v>165</v>
       </c>
     </row>
@@ -21213,7 +21255,7 @@
       <c r="A48" t="s">
         <v>257</v>
       </c>
-      <c r="B48" s="135" t="s">
+      <c r="B48" s="133" t="s">
         <v>165</v>
       </c>
     </row>
@@ -21221,7 +21263,7 @@
       <c r="A49" t="s">
         <v>258</v>
       </c>
-      <c r="B49" s="135" t="s">
+      <c r="B49" s="133" t="s">
         <v>165</v>
       </c>
     </row>
@@ -21239,7 +21281,22 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="11"/>
+      <c r="A52" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="11" t="s">
+        <v>163</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21295,19 +21352,19 @@
       <c r="A2" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="113">
+      <c r="B2" s="111">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="C2" s="114">
-        <v>0</v>
-      </c>
-      <c r="D2" s="114">
-        <v>0</v>
-      </c>
-      <c r="E2" s="114">
-        <v>0</v>
-      </c>
-      <c r="F2" s="114">
+      <c r="C2" s="112">
+        <v>0</v>
+      </c>
+      <c r="D2" s="112">
+        <v>0</v>
+      </c>
+      <c r="E2" s="112">
+        <v>0</v>
+      </c>
+      <c r="F2" s="112">
         <v>0</v>
       </c>
       <c r="G2" s="30">
@@ -21327,19 +21384,19 @@
       <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="113">
+      <c r="B3" s="111">
         <v>0.1966</v>
       </c>
-      <c r="C3" s="114">
-        <v>0</v>
-      </c>
-      <c r="D3" s="114">
-        <v>0</v>
-      </c>
-      <c r="E3" s="114">
-        <v>0</v>
-      </c>
-      <c r="F3" s="114">
+      <c r="C3" s="112">
+        <v>0</v>
+      </c>
+      <c r="D3" s="112">
+        <v>0</v>
+      </c>
+      <c r="E3" s="112">
+        <v>0</v>
+      </c>
+      <c r="F3" s="112">
         <v>0</v>
       </c>
       <c r="G3" s="30">
@@ -21359,19 +21416,19 @@
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="113">
+      <c r="B4" s="111">
         <v>6.2100000000000002E-2</v>
       </c>
-      <c r="C4" s="114">
-        <v>0</v>
-      </c>
-      <c r="D4" s="114">
-        <v>0</v>
-      </c>
-      <c r="E4" s="114">
-        <v>0</v>
-      </c>
-      <c r="F4" s="114">
+      <c r="C4" s="112">
+        <v>0</v>
+      </c>
+      <c r="D4" s="112">
+        <v>0</v>
+      </c>
+      <c r="E4" s="112">
+        <v>0</v>
+      </c>
+      <c r="F4" s="112">
         <v>0</v>
       </c>
       <c r="G4" s="30">
@@ -21391,19 +21448,19 @@
       <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="113">
+      <c r="B5" s="111">
         <v>0.29289999999999999</v>
       </c>
-      <c r="C5" s="114">
-        <v>0</v>
-      </c>
-      <c r="D5" s="114">
-        <v>0</v>
-      </c>
-      <c r="E5" s="114">
-        <v>0</v>
-      </c>
-      <c r="F5" s="114">
+      <c r="C5" s="112">
+        <v>0</v>
+      </c>
+      <c r="D5" s="112">
+        <v>0</v>
+      </c>
+      <c r="E5" s="112">
+        <v>0</v>
+      </c>
+      <c r="F5" s="112">
         <v>0</v>
       </c>
       <c r="G5" s="30">
@@ -21423,19 +21480,19 @@
       <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="113">
+      <c r="B6" s="111">
         <v>0.24709999999999999</v>
       </c>
-      <c r="C6" s="114">
-        <v>0</v>
-      </c>
-      <c r="D6" s="114">
-        <v>0</v>
-      </c>
-      <c r="E6" s="114">
-        <v>0</v>
-      </c>
-      <c r="F6" s="114">
+      <c r="C6" s="112">
+        <v>0</v>
+      </c>
+      <c r="D6" s="112">
+        <v>0</v>
+      </c>
+      <c r="E6" s="112">
+        <v>0</v>
+      </c>
+      <c r="F6" s="112">
         <v>0</v>
       </c>
       <c r="G6" s="30">
@@ -21455,19 +21512,19 @@
       <c r="A7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="113">
+      <c r="B7" s="111">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="C7" s="114">
-        <v>0</v>
-      </c>
-      <c r="D7" s="114">
-        <v>0</v>
-      </c>
-      <c r="E7" s="114">
-        <v>0</v>
-      </c>
-      <c r="F7" s="114">
+      <c r="C7" s="112">
+        <v>0</v>
+      </c>
+      <c r="D7" s="112">
+        <v>0</v>
+      </c>
+      <c r="E7" s="112">
+        <v>0</v>
+      </c>
+      <c r="F7" s="112">
         <v>0</v>
       </c>
       <c r="G7" s="30">
@@ -21487,19 +21544,19 @@
       <c r="A8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="113">
+      <c r="B8" s="111">
         <v>0.13200000000000001</v>
       </c>
-      <c r="C8" s="114">
-        <v>0</v>
-      </c>
-      <c r="D8" s="114">
-        <v>0</v>
-      </c>
-      <c r="E8" s="114">
-        <v>0</v>
-      </c>
-      <c r="F8" s="114">
+      <c r="C8" s="112">
+        <v>0</v>
+      </c>
+      <c r="D8" s="112">
+        <v>0</v>
+      </c>
+      <c r="E8" s="112">
+        <v>0</v>
+      </c>
+      <c r="F8" s="112">
         <v>0</v>
       </c>
       <c r="G8" s="30">
@@ -21519,19 +21576,19 @@
       <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="113">
+      <c r="B9" s="111">
         <v>6.1800000000000001E-2</v>
       </c>
-      <c r="C9" s="114">
-        <v>0</v>
-      </c>
-      <c r="D9" s="114">
-        <v>0</v>
-      </c>
-      <c r="E9" s="114">
-        <v>0</v>
-      </c>
-      <c r="F9" s="114">
+      <c r="C9" s="112">
+        <v>0</v>
+      </c>
+      <c r="D9" s="112">
+        <v>0</v>
+      </c>
+      <c r="E9" s="112">
+        <v>0</v>
+      </c>
+      <c r="F9" s="112">
         <v>0</v>
       </c>
       <c r="G9" s="30">
@@ -21551,19 +21608,19 @@
       <c r="A10" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B10" s="114">
-        <v>0</v>
-      </c>
-      <c r="C10" s="113">
+      <c r="B10" s="112">
+        <v>0</v>
+      </c>
+      <c r="C10" s="111">
         <v>0.1368</v>
       </c>
-      <c r="D10" s="113">
+      <c r="D10" s="111">
         <v>0.1368</v>
       </c>
-      <c r="E10" s="113">
+      <c r="E10" s="111">
         <v>0.1368</v>
       </c>
-      <c r="F10" s="113">
+      <c r="F10" s="111">
         <v>0.1368</v>
       </c>
       <c r="G10" s="30">
@@ -21583,19 +21640,19 @@
       <c r="A11" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B11" s="114">
-        <v>0</v>
-      </c>
-      <c r="C11" s="113">
-        <v>0</v>
-      </c>
-      <c r="D11" s="113">
-        <v>0</v>
-      </c>
-      <c r="E11" s="113">
-        <v>0</v>
-      </c>
-      <c r="F11" s="113">
+      <c r="B11" s="112">
+        <v>0</v>
+      </c>
+      <c r="C11" s="111">
+        <v>0</v>
+      </c>
+      <c r="D11" s="111">
+        <v>0</v>
+      </c>
+      <c r="E11" s="111">
+        <v>0</v>
+      </c>
+      <c r="F11" s="111">
         <v>0</v>
       </c>
       <c r="G11" s="30">
@@ -21615,19 +21672,19 @@
       <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="114">
-        <v>0</v>
-      </c>
-      <c r="C12" s="113">
+      <c r="B12" s="112">
+        <v>0</v>
+      </c>
+      <c r="C12" s="111">
         <v>0.20660000000000001</v>
       </c>
-      <c r="D12" s="113">
+      <c r="D12" s="111">
         <v>0.20660000000000001</v>
       </c>
-      <c r="E12" s="113">
+      <c r="E12" s="111">
         <v>0.20660000000000001</v>
       </c>
-      <c r="F12" s="113">
+      <c r="F12" s="111">
         <v>0.20660000000000001</v>
       </c>
       <c r="G12" s="30">
@@ -21647,19 +21704,19 @@
       <c r="A13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="114">
-        <v>0</v>
-      </c>
-      <c r="C13" s="113">
+      <c r="B13" s="112">
+        <v>0</v>
+      </c>
+      <c r="C13" s="111">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="D13" s="113">
+      <c r="D13" s="111">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="E13" s="113">
+      <c r="E13" s="111">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="F13" s="113">
+      <c r="F13" s="111">
         <v>2.1100000000000001E-2</v>
       </c>
       <c r="G13" s="30">
@@ -21679,19 +21736,19 @@
       <c r="A14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="114">
-        <v>0</v>
-      </c>
-      <c r="C14" s="113">
+      <c r="B14" s="112">
+        <v>0</v>
+      </c>
+      <c r="C14" s="111">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D14" s="113">
+      <c r="D14" s="111">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="E14" s="113">
+      <c r="E14" s="111">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="F14" s="113">
+      <c r="F14" s="111">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G14" s="30">
@@ -21711,19 +21768,19 @@
       <c r="A15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="114">
-        <v>0</v>
-      </c>
-      <c r="C15" s="113">
+      <c r="B15" s="112">
+        <v>0</v>
+      </c>
+      <c r="C15" s="111">
         <v>8.6199999999999999E-2</v>
       </c>
-      <c r="D15" s="113">
+      <c r="D15" s="111">
         <v>8.6199999999999999E-2</v>
       </c>
-      <c r="E15" s="113">
+      <c r="E15" s="111">
         <v>8.6199999999999999E-2</v>
       </c>
-      <c r="F15" s="113">
+      <c r="F15" s="111">
         <v>8.6199999999999999E-2</v>
       </c>
       <c r="G15" s="30">
@@ -21743,19 +21800,19 @@
       <c r="A16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="114">
-        <v>0</v>
-      </c>
-      <c r="C16" s="113">
+      <c r="B16" s="112">
+        <v>0</v>
+      </c>
+      <c r="C16" s="111">
         <v>2.86E-2</v>
       </c>
-      <c r="D16" s="113">
+      <c r="D16" s="111">
         <v>2.86E-2</v>
       </c>
-      <c r="E16" s="113">
+      <c r="E16" s="111">
         <v>2.86E-2</v>
       </c>
-      <c r="F16" s="113">
+      <c r="F16" s="111">
         <v>2.86E-2</v>
       </c>
       <c r="G16" s="30">
@@ -21775,19 +21832,19 @@
       <c r="A17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="114">
-        <v>0</v>
-      </c>
-      <c r="C17" s="113">
+      <c r="B17" s="112">
+        <v>0</v>
+      </c>
+      <c r="C17" s="111">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="D17" s="113">
+      <c r="D17" s="111">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="E17" s="113">
+      <c r="E17" s="111">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="F17" s="113">
+      <c r="F17" s="111">
         <v>1.5299999999999999E-2</v>
       </c>
       <c r="G17" s="30">
@@ -21807,19 +21864,19 @@
       <c r="A18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="114">
-        <v>0</v>
-      </c>
-      <c r="C18" s="113">
+      <c r="B18" s="112">
+        <v>0</v>
+      </c>
+      <c r="C18" s="111">
         <v>0.13589999999999999</v>
       </c>
-      <c r="D18" s="113">
+      <c r="D18" s="111">
         <v>0.13589999999999999</v>
       </c>
-      <c r="E18" s="113">
+      <c r="E18" s="111">
         <v>0.13589999999999999</v>
       </c>
-      <c r="F18" s="113">
+      <c r="F18" s="111">
         <v>0.13589999999999999</v>
       </c>
       <c r="G18" s="30">
@@ -21839,19 +21896,19 @@
       <c r="A19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="114">
-        <v>0</v>
-      </c>
-      <c r="C19" s="113">
+      <c r="B19" s="112">
+        <v>0</v>
+      </c>
+      <c r="C19" s="111">
         <v>0.36199999999999999</v>
       </c>
-      <c r="D19" s="113">
+      <c r="D19" s="111">
         <v>0.36199999999999999</v>
       </c>
-      <c r="E19" s="113">
+      <c r="E19" s="111">
         <v>0.36199999999999999</v>
       </c>
-      <c r="F19" s="113">
+      <c r="F19" s="111">
         <v>0.36199999999999999</v>
       </c>
       <c r="G19" s="30">
@@ -21886,16 +21943,16 @@
       <c r="F20" s="30">
         <v>0</v>
       </c>
-      <c r="G20" s="113">
+      <c r="G20" s="111">
         <v>0.10082724000000001</v>
       </c>
-      <c r="H20" s="113">
+      <c r="H20" s="111">
         <v>0.10082724000000001</v>
       </c>
-      <c r="I20" s="113">
+      <c r="I20" s="111">
         <v>0.10082724000000001</v>
       </c>
-      <c r="J20" s="113">
+      <c r="J20" s="111">
         <v>0.10082724000000001</v>
       </c>
     </row>
@@ -21918,16 +21975,16 @@
       <c r="F21" s="30">
         <v>0</v>
       </c>
-      <c r="G21" s="113">
+      <c r="G21" s="111">
         <v>3.1206000000000002E-4</v>
       </c>
-      <c r="H21" s="113">
+      <c r="H21" s="111">
         <v>3.1206000000000002E-4</v>
       </c>
-      <c r="I21" s="113">
+      <c r="I21" s="111">
         <v>3.1206000000000002E-4</v>
       </c>
-      <c r="J21" s="113">
+      <c r="J21" s="111">
         <v>3.1206000000000002E-4</v>
       </c>
     </row>
@@ -21950,16 +22007,16 @@
       <c r="F22" s="30">
         <v>0</v>
       </c>
-      <c r="G22" s="113">
+      <c r="G22" s="111">
         <v>0.15891214000000001</v>
       </c>
-      <c r="H22" s="113">
+      <c r="H22" s="111">
         <v>0.15891214000000001</v>
       </c>
-      <c r="I22" s="113">
+      <c r="I22" s="111">
         <v>0.15891214000000001</v>
       </c>
-      <c r="J22" s="113">
+      <c r="J22" s="111">
         <v>0.15891214000000001</v>
       </c>
     </row>
@@ -21982,16 +22039,16 @@
       <c r="F23" s="30">
         <v>0</v>
       </c>
-      <c r="G23" s="113">
+      <c r="G23" s="111">
         <v>0.12598688999999999</v>
       </c>
-      <c r="H23" s="113">
+      <c r="H23" s="111">
         <v>0.12598688999999999</v>
       </c>
-      <c r="I23" s="113">
+      <c r="I23" s="111">
         <v>0.12598688999999999</v>
       </c>
-      <c r="J23" s="113">
+      <c r="J23" s="111">
         <v>0.12598688999999999</v>
       </c>
     </row>
@@ -22014,16 +22071,16 @@
       <c r="F24" s="30">
         <v>0</v>
       </c>
-      <c r="G24" s="113">
+      <c r="G24" s="111">
         <v>0.12434007</v>
       </c>
-      <c r="H24" s="113">
+      <c r="H24" s="111">
         <v>0.12434007</v>
       </c>
-      <c r="I24" s="113">
+      <c r="I24" s="111">
         <v>0.12434007</v>
       </c>
-      <c r="J24" s="113">
+      <c r="J24" s="111">
         <v>0.12434007</v>
       </c>
     </row>
@@ -22046,16 +22103,16 @@
       <c r="F25" s="30">
         <v>0</v>
       </c>
-      <c r="G25" s="113">
+      <c r="G25" s="111">
         <v>3.9028409999999999E-2</v>
       </c>
-      <c r="H25" s="113">
+      <c r="H25" s="111">
         <v>3.9028409999999999E-2</v>
       </c>
-      <c r="I25" s="113">
+      <c r="I25" s="111">
         <v>3.9028409999999999E-2</v>
       </c>
-      <c r="J25" s="113">
+      <c r="J25" s="111">
         <v>3.9028409999999999E-2</v>
       </c>
     </row>
@@ -22078,16 +22135,16 @@
       <c r="F26" s="30">
         <v>0</v>
       </c>
-      <c r="G26" s="113">
+      <c r="G26" s="111">
         <v>8.5254999999999999E-4</v>
       </c>
-      <c r="H26" s="113">
+      <c r="H26" s="111">
         <v>8.5254999999999999E-4</v>
       </c>
-      <c r="I26" s="113">
+      <c r="I26" s="111">
         <v>8.5254999999999999E-4</v>
       </c>
-      <c r="J26" s="113">
+      <c r="J26" s="111">
         <v>8.5254999999999999E-4</v>
       </c>
     </row>
@@ -22110,16 +22167,16 @@
       <c r="F27" s="30">
         <v>0</v>
       </c>
-      <c r="G27" s="113">
+      <c r="G27" s="111">
         <v>6.8467810000000004E-2</v>
       </c>
-      <c r="H27" s="113">
+      <c r="H27" s="111">
         <v>6.8467810000000004E-2</v>
       </c>
-      <c r="I27" s="113">
+      <c r="I27" s="111">
         <v>6.8467810000000004E-2</v>
       </c>
-      <c r="J27" s="113">
+      <c r="J27" s="111">
         <v>6.8467810000000004E-2</v>
       </c>
     </row>
@@ -22142,16 +22199,16 @@
       <c r="F28" s="30">
         <v>0</v>
       </c>
-      <c r="G28" s="113">
+      <c r="G28" s="111">
         <v>0.38127283000000001</v>
       </c>
-      <c r="H28" s="113">
+      <c r="H28" s="111">
         <v>0.38127283000000001</v>
       </c>
-      <c r="I28" s="113">
+      <c r="I28" s="111">
         <v>0.38127283000000001</v>
       </c>
-      <c r="J28" s="113">
+      <c r="J28" s="111">
         <v>0.38127283000000001</v>
       </c>
     </row>
@@ -22387,55 +22444,55 @@
       <c r="B2" t="s">
         <v>206</v>
       </c>
-      <c r="C2" s="84">
+      <c r="C2" s="82">
         <f t="shared" ref="C2:O2" si="0">1-C3</f>
         <v>0.95</v>
       </c>
-      <c r="D2" s="84">
+      <c r="D2" s="82">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="E2" s="84">
+      <c r="E2" s="82">
         <f t="shared" si="0"/>
         <v>0.67198000000000002</v>
       </c>
-      <c r="F2" s="84">
+      <c r="F2" s="82">
         <f t="shared" si="0"/>
         <v>0.69361000000000006</v>
       </c>
-      <c r="G2" s="84">
+      <c r="G2" s="82">
         <f t="shared" si="0"/>
         <v>0.79686000000000001</v>
       </c>
-      <c r="H2" s="84">
+      <c r="H2" s="82">
         <f t="shared" si="0"/>
         <v>0.80134000000000005</v>
       </c>
-      <c r="I2" s="84">
+      <c r="I2" s="82">
         <f t="shared" si="0"/>
         <v>0.81225999999999998</v>
       </c>
-      <c r="J2" s="84">
+      <c r="J2" s="82">
         <f t="shared" si="0"/>
         <v>0.81813999999999998</v>
       </c>
-      <c r="K2" s="84">
+      <c r="K2" s="82">
         <f t="shared" si="0"/>
         <v>0.81435999999999997</v>
       </c>
-      <c r="L2" s="84">
+      <c r="L2" s="82">
         <f t="shared" si="0"/>
         <v>0.80134000000000005</v>
       </c>
-      <c r="M2" s="84">
+      <c r="M2" s="82">
         <f t="shared" si="0"/>
         <v>0.81225999999999998</v>
       </c>
-      <c r="N2" s="84">
+      <c r="N2" s="82">
         <f t="shared" si="0"/>
         <v>0.81813999999999998</v>
       </c>
-      <c r="O2" s="84">
+      <c r="O2" s="82">
         <f t="shared" si="0"/>
         <v>0.81435999999999997</v>
       </c>
@@ -22444,55 +22501,55 @@
       <c r="B3" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="84">
+      <c r="C3" s="82">
         <f>C6</f>
         <v>0.05</v>
       </c>
-      <c r="D3" s="84">
+      <c r="D3" s="82">
         <f t="shared" ref="D3:N3" si="1">D6</f>
         <v>0.05</v>
       </c>
-      <c r="E3" s="84">
+      <c r="E3" s="82">
         <f t="shared" si="1"/>
         <v>0.32801999999999998</v>
       </c>
-      <c r="F3" s="84">
+      <c r="F3" s="82">
         <f t="shared" si="1"/>
         <v>0.30639</v>
       </c>
-      <c r="G3" s="84">
+      <c r="G3" s="82">
         <f t="shared" si="1"/>
         <v>0.20314000000000002</v>
       </c>
-      <c r="H3" s="84">
+      <c r="H3" s="82">
         <f t="shared" si="1"/>
         <v>0.19865999999999998</v>
       </c>
-      <c r="I3" s="84">
+      <c r="I3" s="82">
         <f t="shared" si="1"/>
         <v>0.18773999999999999</v>
       </c>
-      <c r="J3" s="84">
+      <c r="J3" s="82">
         <f t="shared" si="1"/>
         <v>0.18185999999999999</v>
       </c>
-      <c r="K3" s="84">
+      <c r="K3" s="82">
         <f t="shared" si="1"/>
         <v>0.18564</v>
       </c>
-      <c r="L3" s="84">
+      <c r="L3" s="82">
         <f t="shared" si="1"/>
         <v>0.19865999999999998</v>
       </c>
-      <c r="M3" s="84">
+      <c r="M3" s="82">
         <f t="shared" si="1"/>
         <v>0.18773999999999999</v>
       </c>
-      <c r="N3" s="84">
+      <c r="N3" s="82">
         <f t="shared" si="1"/>
         <v>0.18185999999999999</v>
       </c>
-      <c r="O3" s="84">
+      <c r="O3" s="82">
         <f>O6</f>
         <v>0.18564</v>
       </c>
@@ -22521,48 +22578,48 @@
       <c r="B5" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="115">
+      <c r="C5" s="113">
         <v>0.1</v>
       </c>
-      <c r="D5" s="115">
+      <c r="D5" s="113">
         <v>0.1</v>
       </c>
-      <c r="E5" s="116">
+      <c r="E5" s="114">
         <v>0.78100000000000003</v>
       </c>
-      <c r="F5" s="116">
+      <c r="F5" s="114">
         <f>(79+66.9)/2/100</f>
         <v>0.72950000000000004</v>
       </c>
-      <c r="G5" s="117">
+      <c r="G5" s="115">
         <f>(57.1+45.2+42.8)/3/100</f>
         <v>0.48366666666666674</v>
       </c>
-      <c r="H5" s="83">
+      <c r="H5" s="81">
         <f>L5</f>
         <v>0.47299999999999998</v>
       </c>
-      <c r="I5" s="83">
+      <c r="I5" s="81">
         <f t="shared" ref="I5:J5" si="2">M5</f>
         <v>0.44700000000000001</v>
       </c>
-      <c r="J5" s="83">
+      <c r="J5" s="81">
         <f t="shared" si="2"/>
         <v>0.433</v>
       </c>
-      <c r="K5" s="83">
+      <c r="K5" s="81">
         <v>0.442</v>
       </c>
-      <c r="L5" s="83">
+      <c r="L5" s="81">
         <v>0.47299999999999998</v>
       </c>
-      <c r="M5" s="83">
+      <c r="M5" s="81">
         <v>0.44700000000000001</v>
       </c>
-      <c r="N5" s="83">
+      <c r="N5" s="81">
         <v>0.433</v>
       </c>
-      <c r="O5" s="83">
+      <c r="O5" s="81">
         <v>0.442</v>
       </c>
     </row>
@@ -22573,53 +22630,53 @@
       <c r="B6" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="115">
+      <c r="C6" s="113">
         <v>0.05</v>
       </c>
-      <c r="D6" s="115">
+      <c r="D6" s="113">
         <v>0.05</v>
       </c>
-      <c r="E6" s="118">
+      <c r="E6" s="116">
         <f>0.42*E5</f>
         <v>0.32801999999999998</v>
       </c>
-      <c r="F6" s="118">
+      <c r="F6" s="116">
         <f t="shared" ref="F6:O6" si="3">0.42*F5</f>
         <v>0.30639</v>
       </c>
-      <c r="G6" s="118">
+      <c r="G6" s="116">
         <f t="shared" si="3"/>
         <v>0.20314000000000002</v>
       </c>
-      <c r="H6" s="118">
+      <c r="H6" s="116">
         <f t="shared" si="3"/>
         <v>0.19865999999999998</v>
       </c>
-      <c r="I6" s="118">
+      <c r="I6" s="116">
         <f t="shared" si="3"/>
         <v>0.18773999999999999</v>
       </c>
-      <c r="J6" s="118">
+      <c r="J6" s="116">
         <f t="shared" si="3"/>
         <v>0.18185999999999999</v>
       </c>
-      <c r="K6" s="118">
+      <c r="K6" s="116">
         <f t="shared" si="3"/>
         <v>0.18564</v>
       </c>
-      <c r="L6" s="118">
+      <c r="L6" s="116">
         <f t="shared" si="3"/>
         <v>0.19865999999999998</v>
       </c>
-      <c r="M6" s="118">
+      <c r="M6" s="116">
         <f t="shared" si="3"/>
         <v>0.18773999999999999</v>
       </c>
-      <c r="N6" s="118">
+      <c r="N6" s="116">
         <f t="shared" si="3"/>
         <v>0.18185999999999999</v>
       </c>
-      <c r="O6" s="118">
+      <c r="O6" s="116">
         <f t="shared" si="3"/>
         <v>0.18564</v>
       </c>
@@ -22631,43 +22688,43 @@
       <c r="B7" t="s">
         <v>207</v>
       </c>
-      <c r="C7" s="119">
+      <c r="C7" s="117">
         <v>2.7699999999999999E-2</v>
       </c>
-      <c r="D7" s="119">
+      <c r="D7" s="117">
         <v>2.7699999999999999E-2</v>
       </c>
-      <c r="E7" s="119">
+      <c r="E7" s="117">
         <v>2.7699999999999999E-2</v>
       </c>
-      <c r="F7" s="119">
+      <c r="F7" s="117">
         <v>2.7699999999999999E-2</v>
       </c>
-      <c r="G7" s="119">
+      <c r="G7" s="117">
         <v>2.7699999999999999E-2</v>
       </c>
-      <c r="H7" s="119">
+      <c r="H7" s="117">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="I7" s="119">
+      <c r="I7" s="117">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="J7" s="119">
+      <c r="J7" s="117">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="K7" s="119">
+      <c r="K7" s="117">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="L7" s="119">
+      <c r="L7" s="117">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="M7" s="119">
+      <c r="M7" s="117">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="N7" s="119">
+      <c r="N7" s="117">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="O7" s="119">
+      <c r="O7" s="117">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
@@ -22718,19 +22775,19 @@
       <c r="B2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="113">
+      <c r="C2" s="111">
         <v>0.54471569980476653</v>
       </c>
-      <c r="D2" s="113">
+      <c r="D2" s="111">
         <v>0.54471569980476653</v>
       </c>
-      <c r="E2" s="113">
+      <c r="E2" s="111">
         <v>0.44475236686630382</v>
       </c>
-      <c r="F2" s="113">
+      <c r="F2" s="111">
         <v>0.24326698333409566</v>
       </c>
-      <c r="G2" s="113">
+      <c r="G2" s="111">
         <v>0.23259986385548592</v>
       </c>
     </row>
@@ -22739,19 +22796,19 @@
       <c r="B3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="113">
+      <c r="C3" s="111">
         <v>0.32228430019523352</v>
       </c>
-      <c r="D3" s="113">
+      <c r="D3" s="111">
         <v>0.32228430019523352</v>
       </c>
-      <c r="E3" s="113">
+      <c r="E3" s="111">
         <v>0.36064763313369619</v>
       </c>
-      <c r="F3" s="113">
+      <c r="F3" s="111">
         <v>0.37623301666590436</v>
       </c>
-      <c r="G3" s="113">
+      <c r="G3" s="111">
         <v>0.37370013614451408</v>
       </c>
     </row>
@@ -22760,19 +22817,19 @@
       <c r="B4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="113">
+      <c r="C4" s="111">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="D4" s="113">
+      <c r="D4" s="111">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="E4" s="113">
+      <c r="E4" s="111">
         <v>0.13700000000000001</v>
       </c>
-      <c r="F4" s="113">
+      <c r="F4" s="111">
         <v>0.2475</v>
       </c>
-      <c r="G4" s="113">
+      <c r="G4" s="111">
         <v>0.25940000000000002</v>
       </c>
     </row>
@@ -22781,35 +22838,35 @@
       <c r="B5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="113">
+      <c r="C5" s="111">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="D5" s="113">
+      <c r="D5" s="111">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="E5" s="113">
+      <c r="E5" s="111">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="F5" s="113">
+      <c r="F5" s="111">
         <v>0.13300000000000001</v>
       </c>
-      <c r="G5" s="113">
+      <c r="G5" s="111">
         <v>0.1343</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
@@ -22818,19 +22875,19 @@
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="113">
+      <c r="C8" s="111">
         <v>0.45300000000000007</v>
       </c>
-      <c r="D8" s="113">
+      <c r="D8" s="111">
         <v>0.45300000000000007</v>
       </c>
-      <c r="E8" s="113">
+      <c r="E8" s="111">
         <v>0.46425</v>
       </c>
-      <c r="F8" s="113">
+      <c r="F8" s="111">
         <v>0.47375</v>
       </c>
-      <c r="G8" s="113">
+      <c r="G8" s="111">
         <v>0.48515000000000003</v>
       </c>
     </row>
@@ -22838,19 +22895,19 @@
       <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="113">
+      <c r="C9" s="111">
         <v>0.45300000000000007</v>
       </c>
-      <c r="D9" s="113">
+      <c r="D9" s="111">
         <v>0.45300000000000007</v>
       </c>
-      <c r="E9" s="113">
+      <c r="E9" s="111">
         <v>0.46425</v>
       </c>
-      <c r="F9" s="113">
+      <c r="F9" s="111">
         <v>0.47375</v>
       </c>
-      <c r="G9" s="113">
+      <c r="G9" s="111">
         <v>0.48515000000000003</v>
       </c>
     </row>
@@ -22858,19 +22915,19 @@
       <c r="B10" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="113">
+      <c r="C10" s="111">
         <v>5.4000000000000006E-2</v>
       </c>
-      <c r="D10" s="113">
+      <c r="D10" s="111">
         <v>5.4000000000000006E-2</v>
       </c>
-      <c r="E10" s="113">
+      <c r="E10" s="111">
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="F10" s="113">
+      <c r="F10" s="111">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="G10" s="113">
+      <c r="G10" s="111">
         <v>2.2399999999999996E-2</v>
       </c>
     </row>
@@ -22878,35 +22935,35 @@
       <c r="B11" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="113">
+      <c r="C11" s="111">
         <v>0.04</v>
       </c>
-      <c r="D11" s="113">
+      <c r="D11" s="111">
         <v>0.04</v>
       </c>
-      <c r="E11" s="113">
+      <c r="E11" s="111">
         <v>1.6E-2</v>
       </c>
-      <c r="F11" s="113">
+      <c r="F11" s="111">
         <v>0.01</v>
       </c>
-      <c r="G11" s="113">
+      <c r="G11" s="111">
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
@@ -22915,19 +22972,19 @@
       <c r="B14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="113">
+      <c r="C14" s="111">
         <v>0.84</v>
       </c>
-      <c r="D14" s="113">
+      <c r="D14" s="111">
         <v>0.50960000000000005</v>
       </c>
-      <c r="E14" s="113">
+      <c r="E14" s="111">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F14" s="113">
-        <v>0</v>
-      </c>
-      <c r="G14" s="113">
+      <c r="F14" s="111">
+        <v>0</v>
+      </c>
+      <c r="G14" s="111">
         <v>0</v>
       </c>
     </row>
@@ -22935,19 +22992,19 @@
       <c r="B15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="113">
+      <c r="C15" s="111">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="D15" s="113">
+      <c r="D15" s="111">
         <v>0.19079999999999997</v>
       </c>
-      <c r="E15" s="113">
+      <c r="E15" s="111">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="F15" s="113">
+      <c r="F15" s="111">
         <v>1E-3</v>
       </c>
-      <c r="G15" s="113">
+      <c r="G15" s="111">
         <v>0</v>
       </c>
     </row>
@@ -22955,19 +23012,19 @@
       <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="113">
+      <c r="C16" s="111">
         <v>5.800000000000001E-2</v>
       </c>
-      <c r="D16" s="113">
+      <c r="D16" s="111">
         <v>0.27839999999999998</v>
       </c>
-      <c r="E16" s="113">
+      <c r="E16" s="111">
         <v>0.9355</v>
       </c>
-      <c r="F16" s="113">
+      <c r="F16" s="111">
         <v>0.72099999999999997</v>
       </c>
-      <c r="G16" s="113">
+      <c r="G16" s="111">
         <v>0</v>
       </c>
     </row>
@@ -22975,19 +23032,19 @@
       <c r="B17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="113">
+      <c r="C17" s="111">
         <v>0.01</v>
       </c>
-      <c r="D17" s="113">
+      <c r="D17" s="111">
         <v>2.12E-2</v>
       </c>
-      <c r="E17" s="113">
+      <c r="E17" s="111">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F17" s="113">
+      <c r="F17" s="111">
         <v>0.27800000000000002</v>
       </c>
-      <c r="G17" s="113">
+      <c r="G17" s="111">
         <v>1</v>
       </c>
     </row>
@@ -23031,115 +23088,115 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" x14ac:dyDescent="0.15">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="87" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="92" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="120">
+      <c r="C2" s="118">
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="52" x14ac:dyDescent="0.15">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="88" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="120">
+      <c r="C3" s="118">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="52" x14ac:dyDescent="0.15">
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="88" t="s">
         <v>236</v>
       </c>
-      <c r="C4" s="120">
+      <c r="C4" s="118">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" x14ac:dyDescent="0.15">
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="89" t="s">
         <v>237</v>
       </c>
-      <c r="C5" s="120">
+      <c r="C5" s="118">
         <v>0.152</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="52" x14ac:dyDescent="0.15">
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="89" t="s">
         <v>238</v>
       </c>
-      <c r="C6" s="120">
+      <c r="C6" s="118">
         <v>0.34200000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="52" x14ac:dyDescent="0.15">
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="89" t="s">
         <v>239</v>
       </c>
-      <c r="C7" s="120">
+      <c r="C7" s="118">
         <v>0.29899999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.15">
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="90" t="s">
         <v>240</v>
       </c>
-      <c r="C8" s="120">
+      <c r="C8" s="118">
         <v>1E-3</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="52" x14ac:dyDescent="0.15">
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="90" t="s">
         <v>241</v>
       </c>
-      <c r="C9" s="120">
+      <c r="C9" s="118">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="52" x14ac:dyDescent="0.15">
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="90" t="s">
         <v>242</v>
       </c>
-      <c r="C10" s="120">
+      <c r="C10" s="118">
         <v>0.14099999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C11" s="120"/>
+      <c r="C11" s="118"/>
     </row>
     <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.15">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="87" t="s">
         <v>243</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="91" t="s">
         <v>244</v>
       </c>
-      <c r="C12" s="120">
+      <c r="C12" s="118">
         <v>0.20799999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="26" x14ac:dyDescent="0.15">
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="91" t="s">
         <v>245</v>
       </c>
-      <c r="C13" s="120">
+      <c r="C13" s="118">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.15">
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="91" t="s">
         <v>246</v>
       </c>
-      <c r="C14" s="120">
+      <c r="C14" s="118">
         <v>0.11899999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.15">
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="91" t="s">
         <v>247</v>
       </c>
-      <c r="C15" s="120">
+      <c r="C15" s="118">
         <v>0.63700000000000001</v>
       </c>
     </row>
@@ -23211,17 +23268,17 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
@@ -23452,264 +23509,264 @@
       <c r="A23" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="B23" s="95" t="s">
+      <c r="B23" s="93" t="s">
         <v>234</v>
       </c>
-      <c r="C23" s="96">
-        <v>1</v>
-      </c>
-      <c r="D23" s="96">
+      <c r="C23" s="94">
+        <v>1</v>
+      </c>
+      <c r="D23" s="94">
         <v>1.52</v>
       </c>
-      <c r="E23" s="96">
+      <c r="E23" s="94">
         <v>1.75</v>
       </c>
-      <c r="F23" s="96">
+      <c r="F23" s="94">
         <v>3.14</v>
       </c>
-      <c r="G23" s="97"/>
+      <c r="G23" s="95"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="95" t="s">
+      <c r="B24" s="93" t="s">
         <v>235</v>
       </c>
-      <c r="C24" s="96">
-        <v>1</v>
-      </c>
-      <c r="D24" s="96">
+      <c r="C24" s="94">
+        <v>1</v>
+      </c>
+      <c r="D24" s="94">
         <v>1.2</v>
       </c>
-      <c r="E24" s="96">
+      <c r="E24" s="94">
         <v>1.4</v>
       </c>
-      <c r="F24" s="96">
+      <c r="F24" s="94">
         <v>1.6</v>
       </c>
-      <c r="G24" s="97"/>
+      <c r="G24" s="95"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="95" t="s">
+      <c r="B25" s="93" t="s">
         <v>236</v>
       </c>
-      <c r="C25" s="96">
-        <v>1</v>
-      </c>
-      <c r="D25" s="96">
+      <c r="C25" s="94">
+        <v>1</v>
+      </c>
+      <c r="D25" s="94">
         <v>1.2</v>
       </c>
-      <c r="E25" s="96">
+      <c r="E25" s="94">
         <v>1.4</v>
       </c>
-      <c r="F25" s="96">
+      <c r="F25" s="94">
         <v>1.6</v>
       </c>
-      <c r="G25" s="97"/>
+      <c r="G25" s="95"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="98" t="s">
+      <c r="B26" s="96" t="s">
         <v>237</v>
       </c>
-      <c r="C26" s="96">
-        <v>1</v>
-      </c>
-      <c r="D26" s="96">
+      <c r="C26" s="94">
+        <v>1</v>
+      </c>
+      <c r="D26" s="94">
         <v>1.52</v>
       </c>
-      <c r="E26" s="96">
+      <c r="E26" s="94">
         <v>1.75</v>
       </c>
-      <c r="F26" s="96">
+      <c r="F26" s="94">
         <v>1.73</v>
       </c>
-      <c r="G26" s="97"/>
+      <c r="G26" s="95"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="98" t="s">
+      <c r="B27" s="96" t="s">
         <v>238</v>
       </c>
-      <c r="C27" s="96">
-        <v>1</v>
-      </c>
-      <c r="D27" s="96">
-        <v>1</v>
-      </c>
-      <c r="E27" s="96">
-        <v>1</v>
-      </c>
-      <c r="F27" s="96">
-        <v>1</v>
-      </c>
-      <c r="G27" s="97"/>
+      <c r="C27" s="94">
+        <v>1</v>
+      </c>
+      <c r="D27" s="94">
+        <v>1</v>
+      </c>
+      <c r="E27" s="94">
+        <v>1</v>
+      </c>
+      <c r="F27" s="94">
+        <v>1</v>
+      </c>
+      <c r="G27" s="95"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="98" t="s">
+      <c r="B28" s="96" t="s">
         <v>239</v>
       </c>
-      <c r="C28" s="96">
-        <v>1</v>
-      </c>
-      <c r="D28" s="96">
-        <v>1</v>
-      </c>
-      <c r="E28" s="96">
-        <v>1</v>
-      </c>
-      <c r="F28" s="96">
-        <v>1</v>
-      </c>
-      <c r="G28" s="97"/>
+      <c r="C28" s="94">
+        <v>1</v>
+      </c>
+      <c r="D28" s="94">
+        <v>1</v>
+      </c>
+      <c r="E28" s="94">
+        <v>1</v>
+      </c>
+      <c r="F28" s="94">
+        <v>1</v>
+      </c>
+      <c r="G28" s="95"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="99" t="s">
+      <c r="B29" s="97" t="s">
         <v>240</v>
       </c>
-      <c r="C29" s="96">
-        <v>1</v>
-      </c>
-      <c r="D29" s="96">
+      <c r="C29" s="94">
+        <v>1</v>
+      </c>
+      <c r="D29" s="94">
         <v>1.52</v>
       </c>
-      <c r="E29" s="96">
+      <c r="E29" s="94">
         <v>1.75</v>
       </c>
-      <c r="F29" s="96">
+      <c r="F29" s="94">
         <v>1.52</v>
       </c>
-      <c r="G29" s="97"/>
+      <c r="G29" s="95"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="99" t="s">
+      <c r="B30" s="97" t="s">
         <v>241</v>
       </c>
-      <c r="C30" s="96">
-        <v>1</v>
-      </c>
-      <c r="D30" s="96">
-        <v>1</v>
-      </c>
-      <c r="E30" s="96">
+      <c r="C30" s="94">
+        <v>1</v>
+      </c>
+      <c r="D30" s="94">
+        <v>1</v>
+      </c>
+      <c r="E30" s="94">
         <v>1.33</v>
       </c>
-      <c r="F30" s="96">
-        <v>1</v>
-      </c>
-      <c r="G30" s="97"/>
+      <c r="F30" s="94">
+        <v>1</v>
+      </c>
+      <c r="G30" s="95"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="99" t="s">
+      <c r="B31" s="97" t="s">
         <v>242</v>
       </c>
-      <c r="C31" s="96">
-        <v>1</v>
-      </c>
-      <c r="D31" s="96">
-        <v>1</v>
-      </c>
-      <c r="E31" s="96">
+      <c r="C31" s="94">
+        <v>1</v>
+      </c>
+      <c r="D31" s="94">
+        <v>1</v>
+      </c>
+      <c r="E31" s="94">
         <v>1.33</v>
       </c>
-      <c r="F31" s="96">
-        <v>1</v>
-      </c>
-      <c r="G31" s="97"/>
+      <c r="F31" s="94">
+        <v>1</v>
+      </c>
+      <c r="G31" s="95"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="101"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="97"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="95"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="10"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="97"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="95"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B35" s="101" t="s">
+      <c r="B35" s="99" t="s">
         <v>244</v>
       </c>
-      <c r="C35" s="96">
-        <v>1</v>
-      </c>
-      <c r="D35" s="102">
-        <v>1</v>
-      </c>
-      <c r="E35" s="102">
-        <v>1</v>
-      </c>
-      <c r="F35" s="102">
-        <v>1</v>
-      </c>
-      <c r="G35" s="97"/>
+      <c r="C35" s="94">
+        <v>1</v>
+      </c>
+      <c r="D35" s="100">
+        <v>1</v>
+      </c>
+      <c r="E35" s="100">
+        <v>1</v>
+      </c>
+      <c r="F35" s="100">
+        <v>1</v>
+      </c>
+      <c r="G35" s="95"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="101" t="s">
+      <c r="B36" s="99" t="s">
         <v>245</v>
       </c>
-      <c r="C36" s="96">
-        <v>1</v>
-      </c>
-      <c r="D36" s="102">
+      <c r="C36" s="94">
+        <v>1</v>
+      </c>
+      <c r="D36" s="100">
         <v>1.41</v>
       </c>
-      <c r="E36" s="102">
+      <c r="E36" s="100">
         <v>1.49</v>
       </c>
-      <c r="F36" s="102">
+      <c r="F36" s="100">
         <v>3.03</v>
       </c>
-      <c r="G36" s="97"/>
+      <c r="G36" s="95"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="101" t="s">
+      <c r="B37" s="99" t="s">
         <v>246</v>
       </c>
-      <c r="C37" s="96">
-        <v>1</v>
-      </c>
-      <c r="D37" s="102">
+      <c r="C37" s="94">
+        <v>1</v>
+      </c>
+      <c r="D37" s="100">
         <v>1.18</v>
       </c>
-      <c r="E37" s="102">
+      <c r="E37" s="100">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F37" s="102">
+      <c r="F37" s="100">
         <v>1.77</v>
       </c>
-      <c r="G37" s="97"/>
+      <c r="G37" s="95"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="101" t="s">
+      <c r="B38" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="C38" s="96">
-        <v>1</v>
-      </c>
-      <c r="D38" s="102">
-        <v>1</v>
-      </c>
-      <c r="E38" s="102">
-        <v>1</v>
-      </c>
-      <c r="F38" s="102">
-        <v>1</v>
-      </c>
-      <c r="G38" s="97"/>
+      <c r="C38" s="94">
+        <v>1</v>
+      </c>
+      <c r="D38" s="100">
+        <v>1</v>
+      </c>
+      <c r="E38" s="100">
+        <v>1</v>
+      </c>
+      <c r="F38" s="100">
+        <v>1</v>
+      </c>
+      <c r="G38" s="95"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19220" windowHeight="14620" tabRatio="888" firstSheet="23" activeTab="27"/>
+    <workbookView xWindow="-36100" yWindow="-19860" windowWidth="34820" windowHeight="21140" tabRatio="888" firstSheet="17" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <sheet name="Programs cost and coverage" sheetId="20" r:id="rId27"/>
     <sheet name="Programs to include" sheetId="44" r:id="rId28"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId29"/>
-  </externalReferences>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -3358,7 +3355,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="271">
   <si>
     <t>year</t>
   </si>
@@ -5430,9 +5427,6 @@
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -5451,6 +5445,9 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="675">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -7105,109 +7102,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Baseline year demographics"/>
-      <sheetName val="Demographic projections"/>
-      <sheetName val="Causes of death"/>
-      <sheetName val="Incidence of conditions"/>
-      <sheetName val="Prevalence of anaemia"/>
-      <sheetName val="Distributions"/>
-      <sheetName val="Distribution births"/>
-      <sheetName val="Birth outcomes &amp; risks"/>
-      <sheetName val="Relative risks"/>
-      <sheetName val="Odds ratios"/>
-      <sheetName val="IYCF package odds ratios"/>
-      <sheetName val="IYCF packages"/>
-      <sheetName val="IYCF cost &amp; coverage"/>
-      <sheetName val="Appropriate breastfeeding"/>
-      <sheetName val="Programs birth outcomes"/>
-      <sheetName val="Programs anemia"/>
-      <sheetName val="Programs wasting"/>
-      <sheetName val="Programs for children"/>
-      <sheetName val="Programs family planning"/>
-      <sheetName val="Programs for PW"/>
-      <sheetName val="Programs birth age"/>
-      <sheetName val="Programs target population"/>
-      <sheetName val="Programs impacted population"/>
-      <sheetName val="Program dependencies"/>
-      <sheetName val="Program risk areas"/>
-      <sheetName val="Population risk areas"/>
-      <sheetName val="Programs cost and coverage"/>
-      <sheetName val="Programs to include"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="7">
-          <cell r="C7">
-            <v>0.35199999999999998</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>0.36</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>0.12</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>0.05</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8446,7 +8340,7 @@
       <c r="A2" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="144" t="s">
         <v>73</v>
       </c>
       <c r="C2" t="s">
@@ -8469,7 +8363,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="134"/>
+      <c r="B3" s="144"/>
       <c r="C3" t="s">
         <v>154</v>
       </c>
@@ -8491,7 +8385,7 @@
       <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="134"/>
+      <c r="B4" s="144"/>
       <c r="C4" t="s">
         <v>164</v>
       </c>
@@ -8513,7 +8407,7 @@
       <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="144" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -8536,7 +8430,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="134"/>
+      <c r="B6" s="144"/>
       <c r="C6" t="s">
         <v>154</v>
       </c>
@@ -8557,7 +8451,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="134"/>
+      <c r="B7" s="144"/>
       <c r="C7" t="s">
         <v>164</v>
       </c>
@@ -8578,7 +8472,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="144" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -8601,7 +8495,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="134"/>
+      <c r="B9" s="144"/>
       <c r="C9" t="s">
         <v>154</v>
       </c>
@@ -8622,7 +8516,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="134"/>
+      <c r="B10" s="144"/>
       <c r="C10" t="s">
         <v>164</v>
       </c>
@@ -8643,7 +8537,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="144" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -8666,7 +8560,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="134"/>
+      <c r="B12" s="144"/>
       <c r="C12" t="s">
         <v>154</v>
       </c>
@@ -8687,7 +8581,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="134"/>
+      <c r="B13" s="144"/>
       <c r="C13" t="s">
         <v>164</v>
       </c>
@@ -8708,7 +8602,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="144" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -8731,7 +8625,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="134"/>
+      <c r="B15" s="144"/>
       <c r="C15" t="s">
         <v>154</v>
       </c>
@@ -8752,7 +8646,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="134"/>
+      <c r="B16" s="144"/>
       <c r="C16" t="s">
         <v>164</v>
       </c>
@@ -8806,7 +8700,7 @@
       <c r="A19" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="134" t="s">
+      <c r="B19" s="144" t="s">
         <v>73</v>
       </c>
       <c r="C19" t="s">
@@ -8829,7 +8723,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="134"/>
+      <c r="B20" s="144"/>
       <c r="C20" t="s">
         <v>154</v>
       </c>
@@ -8850,7 +8744,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="134"/>
+      <c r="B21" s="144"/>
       <c r="C21" t="s">
         <v>164</v>
       </c>
@@ -8871,7 +8765,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="134" t="s">
+      <c r="B22" s="144" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -8894,7 +8788,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="134"/>
+      <c r="B23" s="144"/>
       <c r="C23" t="s">
         <v>154</v>
       </c>
@@ -8915,7 +8809,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="134"/>
+      <c r="B24" s="144"/>
       <c r="C24" t="s">
         <v>164</v>
       </c>
@@ -8936,7 +8830,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="134" t="s">
+      <c r="B25" s="144" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -8959,7 +8853,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="134"/>
+      <c r="B26" s="144"/>
       <c r="C26" t="s">
         <v>154</v>
       </c>
@@ -8980,7 +8874,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="134"/>
+      <c r="B27" s="144"/>
       <c r="C27" t="s">
         <v>164</v>
       </c>
@@ -9001,7 +8895,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="134" t="s">
+      <c r="B28" s="144" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -9024,7 +8918,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="134"/>
+      <c r="B29" s="144"/>
       <c r="C29" t="s">
         <v>154</v>
       </c>
@@ -9045,7 +8939,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="134"/>
+      <c r="B30" s="144"/>
       <c r="C30" t="s">
         <v>164</v>
       </c>
@@ -9066,7 +8960,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="134" t="s">
+      <c r="B31" s="144" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -9089,7 +8983,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="134"/>
+      <c r="B32" s="144"/>
       <c r="C32" t="s">
         <v>154</v>
       </c>
@@ -9110,7 +9004,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="134"/>
+      <c r="B33" s="144"/>
       <c r="C33" t="s">
         <v>164</v>
       </c>
@@ -9157,7 +9051,7 @@
       <c r="A36" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B36" s="134" t="s">
+      <c r="B36" s="144" t="s">
         <v>73</v>
       </c>
       <c r="C36" t="s">
@@ -9180,7 +9074,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="134"/>
+      <c r="B37" s="144"/>
       <c r="C37" t="s">
         <v>154</v>
       </c>
@@ -9201,7 +9095,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="134"/>
+      <c r="B38" s="144"/>
       <c r="C38" t="s">
         <v>164</v>
       </c>
@@ -9223,7 +9117,7 @@
       <c r="I38" s="50"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="134" t="s">
+      <c r="B39" s="144" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
@@ -9246,7 +9140,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="134"/>
+      <c r="B40" s="144"/>
       <c r="C40" t="s">
         <v>154</v>
       </c>
@@ -9267,7 +9161,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="134"/>
+      <c r="B41" s="144"/>
       <c r="C41" t="s">
         <v>164</v>
       </c>
@@ -9288,7 +9182,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="134" t="s">
+      <c r="B42" s="144" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
@@ -9311,7 +9205,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="134"/>
+      <c r="B43" s="144"/>
       <c r="C43" t="s">
         <v>154</v>
       </c>
@@ -9332,7 +9226,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="134"/>
+      <c r="B44" s="144"/>
       <c r="C44" t="s">
         <v>164</v>
       </c>
@@ -9353,7 +9247,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="134" t="s">
+      <c r="B45" s="144" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -9376,7 +9270,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="134"/>
+      <c r="B46" s="144"/>
       <c r="C46" t="s">
         <v>154</v>
       </c>
@@ -9397,7 +9291,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="134"/>
+      <c r="B47" s="144"/>
       <c r="C47" t="s">
         <v>164</v>
       </c>
@@ -9418,7 +9312,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="134" t="s">
+      <c r="B48" s="144" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -9441,7 +9335,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="134"/>
+      <c r="B49" s="144"/>
       <c r="C49" t="s">
         <v>154</v>
       </c>
@@ -9462,7 +9356,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="134"/>
+      <c r="B50" s="144"/>
       <c r="C50" t="s">
         <v>164</v>
       </c>
@@ -9507,11 +9401,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -9522,6 +9411,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -10328,7 +10222,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -14193,8 +14087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="135" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14447,12 +14341,12 @@
         <v>0</v>
       </c>
       <c r="E6" s="26">
-        <f>'[1]Baseline year demographics'!C8</f>
-        <v>0.36</v>
+        <f>'Baseline year demographics'!C8</f>
+        <v>0.28199999999999997</v>
       </c>
       <c r="F6" s="26">
-        <f>'[1]Baseline year demographics'!C8</f>
-        <v>0.36</v>
+        <f>'Baseline year demographics'!C8</f>
+        <v>0.28199999999999997</v>
       </c>
       <c r="G6" s="26">
         <v>0</v>
@@ -14493,12 +14387,12 @@
         <v>0</v>
       </c>
       <c r="E7" s="26">
-        <f>'[1]Baseline year demographics'!C8*(1-'[1]Baseline year demographics'!C9)</f>
-        <v>0.32400000000000001</v>
+        <f>'Baseline year demographics'!C8*(1-'Baseline year demographics'!C9)</f>
+        <v>0</v>
       </c>
       <c r="F7" s="26">
-        <f>'[1]Baseline year demographics'!C8*(1-'[1]Baseline year demographics'!C9)</f>
-        <v>0.32400000000000001</v>
+        <f>'Baseline year demographics'!C8*(1-'Baseline year demographics'!C9)</f>
+        <v>0</v>
       </c>
       <c r="G7" s="26">
         <v>0</v>
@@ -14539,12 +14433,12 @@
         <v>0</v>
       </c>
       <c r="E8" s="26">
-        <f>'[1]Baseline year demographics'!C8*'[1]Baseline year demographics'!C9</f>
-        <v>3.5999999999999997E-2</v>
+        <f>'Baseline year demographics'!C8*'Baseline year demographics'!C9</f>
+        <v>0.28199999999999997</v>
       </c>
       <c r="F8" s="26">
-        <f>'[1]Baseline year demographics'!C8*'[1]Baseline year demographics'!C9</f>
-        <v>3.5999999999999997E-2</v>
+        <f>'Baseline year demographics'!C8*'Baseline year demographics'!C9</f>
+        <v>0.28199999999999997</v>
       </c>
       <c r="G8" s="26">
         <v>0</v>
@@ -14585,16 +14479,16 @@
         <v>0</v>
       </c>
       <c r="E9" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C9)</f>
-        <v>0.9</v>
+        <f>(1-'Baseline year demographics'!$C9)</f>
+        <v>0</v>
       </c>
       <c r="F9" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C9)</f>
-        <v>0.9</v>
+        <f>(1-'Baseline year demographics'!$C9)</f>
+        <v>0</v>
       </c>
       <c r="G9" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C9)</f>
-        <v>0.9</v>
+        <f>(1-'Baseline year demographics'!$C9)</f>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -14632,16 +14526,16 @@
         <v>0</v>
       </c>
       <c r="E10" s="26">
-        <f>'[1]Baseline year demographics'!$C9</f>
-        <v>0.1</v>
+        <f>'Baseline year demographics'!$C9</f>
+        <v>1</v>
       </c>
       <c r="F10" s="26">
-        <f>'[1]Baseline year demographics'!$C9</f>
-        <v>0.1</v>
+        <f>'Baseline year demographics'!$C9</f>
+        <v>1</v>
       </c>
       <c r="G10" s="26">
-        <f>'[1]Baseline year demographics'!$C9</f>
-        <v>0.1</v>
+        <f>'Baseline year demographics'!$C9</f>
+        <v>1</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -14675,21 +14569,21 @@
       <c r="C11" s="106">
         <v>0</v>
       </c>
-      <c r="D11" s="140">
-        <f>'[1]Baseline year demographics'!$C8</f>
-        <v>0.36</v>
-      </c>
-      <c r="E11" s="140">
-        <f>'[1]Baseline year demographics'!$C8</f>
-        <v>0.36</v>
-      </c>
-      <c r="F11" s="140">
-        <f>'[1]Baseline year demographics'!$C8</f>
-        <v>0.36</v>
-      </c>
-      <c r="G11" s="140">
-        <f>'[1]Baseline year demographics'!$C8</f>
-        <v>0.36</v>
+      <c r="D11" s="139">
+        <f>'Baseline year demographics'!$C8</f>
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="E11" s="139">
+        <f>'Baseline year demographics'!$C8</f>
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="F11" s="139">
+        <f>'Baseline year demographics'!$C8</f>
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="G11" s="139">
+        <f>'Baseline year demographics'!$C8</f>
+        <v>0.28199999999999997</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -14827,20 +14721,20 @@
         <v>0</v>
       </c>
       <c r="H15" s="26">
-        <f>'[1]Baseline year demographics'!$C$8</f>
-        <v>0.36</v>
+        <f>'Baseline year demographics'!$C$8</f>
+        <v>0.28199999999999997</v>
       </c>
       <c r="I15" s="26">
-        <f>'[1]Baseline year demographics'!$C$8</f>
-        <v>0.36</v>
+        <f>'Baseline year demographics'!$C$8</f>
+        <v>0.28199999999999997</v>
       </c>
       <c r="J15" s="26">
-        <f>'[1]Baseline year demographics'!$C$8</f>
-        <v>0.36</v>
+        <f>'Baseline year demographics'!$C$8</f>
+        <v>0.28199999999999997</v>
       </c>
       <c r="K15" s="26">
-        <f>'[1]Baseline year demographics'!$C$8</f>
-        <v>0.36</v>
+        <f>'Baseline year demographics'!$C$8</f>
+        <v>0.28199999999999997</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -14876,20 +14770,20 @@
         <v>0</v>
       </c>
       <c r="H16" s="3">
-        <f>1-'[1]Baseline year demographics'!$C9</f>
-        <v>0.9</v>
+        <f>1-'Baseline year demographics'!$C9</f>
+        <v>0</v>
       </c>
       <c r="I16" s="3">
-        <f>1-'[1]Baseline year demographics'!$C9</f>
-        <v>0.9</v>
+        <f>1-'Baseline year demographics'!$C9</f>
+        <v>0</v>
       </c>
       <c r="J16" s="3">
-        <f>1-'[1]Baseline year demographics'!$C9</f>
-        <v>0.9</v>
+        <f>1-'Baseline year demographics'!$C9</f>
+        <v>0</v>
       </c>
       <c r="K16" s="3">
-        <f>1-'[1]Baseline year demographics'!$C9</f>
-        <v>0.9</v>
+        <f>1-'Baseline year demographics'!$C9</f>
+        <v>0</v>
       </c>
       <c r="L16" s="3">
         <v>0</v>
@@ -14924,20 +14818,20 @@
         <v>0</v>
       </c>
       <c r="H17" s="26">
-        <f>'[1]Baseline year demographics'!$C9</f>
-        <v>0.1</v>
+        <f>'Baseline year demographics'!$C9</f>
+        <v>1</v>
       </c>
       <c r="I17" s="26">
-        <f>'[1]Baseline year demographics'!$C9</f>
-        <v>0.1</v>
+        <f>'Baseline year demographics'!$C9</f>
+        <v>1</v>
       </c>
       <c r="J17" s="26">
-        <f>'[1]Baseline year demographics'!$C9</f>
-        <v>0.1</v>
+        <f>'Baseline year demographics'!$C9</f>
+        <v>1</v>
       </c>
       <c r="K17" s="26">
-        <f>'[1]Baseline year demographics'!$C9</f>
-        <v>0.1</v>
+        <f>'Baseline year demographics'!$C9</f>
+        <v>1</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -14972,20 +14866,20 @@
         <v>0</v>
       </c>
       <c r="H18" s="31">
-        <f xml:space="preserve"> 1-'[1]Baseline year demographics'!$C9</f>
-        <v>0.9</v>
+        <f xml:space="preserve"> 1-'Baseline year demographics'!$C9</f>
+        <v>0</v>
       </c>
       <c r="I18" s="31">
-        <f xml:space="preserve"> 1-'[1]Baseline year demographics'!$C9</f>
-        <v>0.9</v>
+        <f xml:space="preserve"> 1-'Baseline year demographics'!$C9</f>
+        <v>0</v>
       </c>
       <c r="J18" s="31">
-        <f xml:space="preserve"> 1-'[1]Baseline year demographics'!$C9</f>
-        <v>0.9</v>
+        <f xml:space="preserve"> 1-'Baseline year demographics'!$C9</f>
+        <v>0</v>
       </c>
       <c r="K18" s="31">
-        <f xml:space="preserve"> 1-'[1]Baseline year demographics'!$C9</f>
-        <v>0.9</v>
+        <f xml:space="preserve"> 1-'Baseline year demographics'!$C9</f>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -15020,20 +14914,20 @@
         <v>0</v>
       </c>
       <c r="H19" s="31">
-        <f>'[1]Baseline year demographics'!$C9</f>
-        <v>0.1</v>
+        <f>'Baseline year demographics'!$C9</f>
+        <v>1</v>
       </c>
       <c r="I19" s="31">
-        <f>'[1]Baseline year demographics'!$C9</f>
-        <v>0.1</v>
+        <f>'Baseline year demographics'!$C9</f>
+        <v>1</v>
       </c>
       <c r="J19" s="31">
-        <f>'[1]Baseline year demographics'!$C9</f>
-        <v>0.1</v>
+        <f>'Baseline year demographics'!$C9</f>
+        <v>1</v>
       </c>
       <c r="K19" s="31">
-        <f>'[1]Baseline year demographics'!$C9</f>
-        <v>0.1</v>
+        <f>'Baseline year demographics'!$C9</f>
+        <v>1</v>
       </c>
       <c r="L19" s="3">
         <v>0</v>
@@ -15068,20 +14962,20 @@
         <v>0</v>
       </c>
       <c r="H20" s="31">
-        <f>'[1]Baseline year demographics'!$C9</f>
-        <v>0.1</v>
+        <f>'Baseline year demographics'!$C9</f>
+        <v>1</v>
       </c>
       <c r="I20" s="31">
-        <f>'[1]Baseline year demographics'!$C9</f>
-        <v>0.1</v>
+        <f>'Baseline year demographics'!$C9</f>
+        <v>1</v>
       </c>
       <c r="J20" s="31">
-        <f>'[1]Baseline year demographics'!$C9</f>
-        <v>0.1</v>
+        <f>'Baseline year demographics'!$C9</f>
+        <v>1</v>
       </c>
       <c r="K20" s="31">
-        <f>'[1]Baseline year demographics'!$C9</f>
-        <v>0.1</v>
+        <f>'Baseline year demographics'!$C9</f>
+        <v>1</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -15131,8 +15025,8 @@
         <v>0</v>
       </c>
       <c r="L22" s="26">
-        <f>'[1]Baseline year demographics'!$C$8*(1-'[1]Baseline year demographics'!$C$9)*1*'[1]Baseline year demographics'!$C$7</f>
-        <v>0.114048</v>
+        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*1*'Baseline year demographics'!$C$7</f>
+        <v>0</v>
       </c>
       <c r="M22" s="26">
         <v>0</v>
@@ -15176,20 +15070,20 @@
         <v>0</v>
       </c>
       <c r="L23" s="26">
-        <f>'[1]Baseline year demographics'!$C$8*(1-'[1]Baseline year demographics'!$C$9)*(0.7)*'[1]Baseline year demographics'!$C$7</f>
-        <v>7.9833599999999991E-2</v>
+        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.7)*'Baseline year demographics'!$C$7</f>
+        <v>0</v>
       </c>
       <c r="M23" s="26">
-        <f>'[1]Baseline year demographics'!$C$8*(1-'[1]Baseline year demographics'!$C$9)*(0.7)</f>
-        <v>0.2268</v>
+        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.7)</f>
+        <v>0</v>
       </c>
       <c r="N23" s="26">
-        <f>'[1]Baseline year demographics'!$C$8*(1-'[1]Baseline year demographics'!$C$9)*(0.7)</f>
-        <v>0.2268</v>
+        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.7)</f>
+        <v>0</v>
       </c>
       <c r="O23" s="26">
-        <f>'[1]Baseline year demographics'!$C$8*(1-'[1]Baseline year demographics'!$C$9)*(0.7)</f>
-        <v>0.2268</v>
+        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.7)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15224,20 +15118,20 @@
         <v>0</v>
       </c>
       <c r="L24" s="26">
-        <f>'[1]Baseline year demographics'!$C$8*(1-'[1]Baseline year demographics'!$C$9)*(0.3)*'[1]Baseline year demographics'!$C$7</f>
-        <v>3.4214399999999999E-2</v>
+        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.3)*'Baseline year demographics'!$C$7</f>
+        <v>0</v>
       </c>
       <c r="M24" s="26">
-        <f>'[1]Baseline year demographics'!$C$8*(1-'[1]Baseline year demographics'!$C$9)*(0.3)</f>
-        <v>9.7199999999999995E-2</v>
+        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
+        <v>0</v>
       </c>
       <c r="N24" s="26">
-        <f>'[1]Baseline year demographics'!$C$8*(1-'[1]Baseline year demographics'!$C$9)*(0.3)</f>
-        <v>9.7199999999999995E-2</v>
+        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
+        <v>0</v>
       </c>
       <c r="O24" s="26">
-        <f>'[1]Baseline year demographics'!$C$8*(1-'[1]Baseline year demographics'!$C$9)*(0.3)</f>
-        <v>9.7199999999999995E-2</v>
+        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15272,8 +15166,8 @@
         <v>0</v>
       </c>
       <c r="L25" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C$8)*(1-'[1]Baseline year demographics'!$C$9)*1*'[1]Baseline year demographics'!$C$7</f>
-        <v>0.20275200000000002</v>
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*1*'Baseline year demographics'!$C$7</f>
+        <v>0</v>
       </c>
       <c r="M25" s="26">
         <v>0</v>
@@ -15317,20 +15211,20 @@
         <v>0</v>
       </c>
       <c r="L26" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C$8)*(1-'[1]Baseline year demographics'!$C$9)*(0.49)*'[1]Baseline year demographics'!$C$7</f>
-        <v>9.9348480000000017E-2</v>
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.49)*'Baseline year demographics'!$C$7</f>
+        <v>0</v>
       </c>
       <c r="M26" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C$8)*(1-'[1]Baseline year demographics'!$C$9)*(0.49)</f>
-        <v>0.28224000000000005</v>
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.49)</f>
+        <v>0</v>
       </c>
       <c r="N26" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C$8)*(1-'[1]Baseline year demographics'!$C$9)*(0.49)</f>
-        <v>0.28224000000000005</v>
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.49)</f>
+        <v>0</v>
       </c>
       <c r="O26" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C$8)*(1-'[1]Baseline year demographics'!$C$9)*(0.49)</f>
-        <v>0.28224000000000005</v>
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.49)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15365,20 +15259,20 @@
         <v>0</v>
       </c>
       <c r="L27" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C$8)*(1-'[1]Baseline year demographics'!$C$9)*(0.21)*'[1]Baseline year demographics'!$C$7</f>
-        <v>4.2577919999999998E-2</v>
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.21)*'Baseline year demographics'!$C$7</f>
+        <v>0</v>
       </c>
       <c r="M27" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C$8)*(1-'[1]Baseline year demographics'!$C$9)*(0.21)</f>
-        <v>0.12096000000000001</v>
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.21)</f>
+        <v>0</v>
       </c>
       <c r="N27" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C$8)*(1-'[1]Baseline year demographics'!$C$9)*(0.21)</f>
-        <v>0.12096000000000001</v>
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.21)</f>
+        <v>0</v>
       </c>
       <c r="O27" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C$8)*(1-'[1]Baseline year demographics'!$C$9)*(0.21)</f>
-        <v>0.12096000000000001</v>
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.21)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15413,20 +15307,20 @@
         <v>0</v>
       </c>
       <c r="L28" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C$8)*(1-'[1]Baseline year demographics'!$C$9)*(0.3)*'[1]Baseline year demographics'!$C$7</f>
-        <v>6.0825600000000001E-2</v>
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.3)*'Baseline year demographics'!$C$7</f>
+        <v>0</v>
       </c>
       <c r="M28" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C$8)*(1-'[1]Baseline year demographics'!$C$9)*(0.3)</f>
-        <v>0.17280000000000001</v>
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
+        <v>0</v>
       </c>
       <c r="N28" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C$8)*(1-'[1]Baseline year demographics'!$C$9)*(0.3)</f>
-        <v>0.17280000000000001</v>
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
+        <v>0</v>
       </c>
       <c r="O28" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C$8)*(1-'[1]Baseline year demographics'!$C$9)*(0.3)</f>
-        <v>0.17280000000000001</v>
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15462,8 +15356,8 @@
         <v>0</v>
       </c>
       <c r="L29" s="26">
-        <f>'[1]Baseline year demographics'!$C$8*('[1]Baseline year demographics'!$C$9)*1*'[1]Baseline year demographics'!$C$7</f>
-        <v>1.2671999999999998E-2</v>
+        <f>'Baseline year demographics'!$C$8*('Baseline year demographics'!$C$9)*1*'Baseline year demographics'!$C$7</f>
+        <v>6.4860000000000001E-2</v>
       </c>
       <c r="M29" s="26">
         <v>0</v>
@@ -15507,20 +15401,20 @@
         <v>0</v>
       </c>
       <c r="L30" s="26">
-        <f>'[1]Baseline year demographics'!$C$8*('[1]Baseline year demographics'!$C$9)*(0.7)*'[1]Baseline year demographics'!$C$7</f>
-        <v>8.8703999999999988E-3</v>
+        <f>'Baseline year demographics'!$C$8*('Baseline year demographics'!$C$9)*(0.7)*'Baseline year demographics'!$C$7</f>
+        <v>4.5401999999999991E-2</v>
       </c>
       <c r="M30" s="26">
-        <f>'[1]Baseline year demographics'!$C$8*('[1]Baseline year demographics'!$C$9)*(0.7)</f>
-        <v>2.5199999999999997E-2</v>
+        <f>'Baseline year demographics'!$C$8*('Baseline year demographics'!$C$9)*(0.7)</f>
+        <v>0.19739999999999996</v>
       </c>
       <c r="N30" s="26">
-        <f>'[1]Baseline year demographics'!$C$8*('[1]Baseline year demographics'!$C$9)*(0.7)</f>
-        <v>2.5199999999999997E-2</v>
+        <f>'Baseline year demographics'!$C$8*('Baseline year demographics'!$C$9)*(0.7)</f>
+        <v>0.19739999999999996</v>
       </c>
       <c r="O30" s="26">
-        <f>'[1]Baseline year demographics'!$C$8*('[1]Baseline year demographics'!$C$9)*(0.7)</f>
-        <v>2.5199999999999997E-2</v>
+        <f>'Baseline year demographics'!$C$8*('Baseline year demographics'!$C$9)*(0.7)</f>
+        <v>0.19739999999999996</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15555,20 +15449,20 @@
         <v>0</v>
       </c>
       <c r="L31" s="26">
-        <f>'[1]Baseline year demographics'!$C$8*('[1]Baseline year demographics'!$C$9)*(0.3)*'[1]Baseline year demographics'!$C$7</f>
-        <v>3.8015999999999992E-3</v>
+        <f>'Baseline year demographics'!$C$8*('Baseline year demographics'!$C$9)*(0.3)*'Baseline year demographics'!$C$7</f>
+        <v>1.9458E-2</v>
       </c>
       <c r="M31" s="26">
-        <f>'[1]Baseline year demographics'!$C$8*(1-'[1]Baseline year demographics'!$C$9)*(0.3)</f>
-        <v>9.7199999999999995E-2</v>
+        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
+        <v>0</v>
       </c>
       <c r="N31" s="26">
-        <f>'[1]Baseline year demographics'!$C$8*(1-'[1]Baseline year demographics'!$C$9)*(0.3)</f>
-        <v>9.7199999999999995E-2</v>
+        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
+        <v>0</v>
       </c>
       <c r="O31" s="26">
-        <f>'[1]Baseline year demographics'!$C$8*(1-'[1]Baseline year demographics'!$C$9)*(0.3)</f>
-        <v>9.7199999999999995E-2</v>
+        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15603,8 +15497,8 @@
         <v>0</v>
       </c>
       <c r="L32" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C$8)*('[1]Baseline year demographics'!$C$9)*1*'[1]Baseline year demographics'!$C$7</f>
-        <v>2.2527999999999999E-2</v>
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*1*'Baseline year demographics'!$C$7</f>
+        <v>0.16514000000000001</v>
       </c>
       <c r="M32" s="26">
         <v>0</v>
@@ -15648,20 +15542,20 @@
         <v>0</v>
       </c>
       <c r="L33" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C$8)*('[1]Baseline year demographics'!$C$9)*(0.49)*'[1]Baseline year demographics'!$C$7</f>
-        <v>1.1038719999999998E-2</v>
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.49)*'Baseline year demographics'!$C$7</f>
+        <v>8.0918599999999993E-2</v>
       </c>
       <c r="M33" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C$8)*('[1]Baseline year demographics'!$C$9)*(0.49)</f>
-        <v>3.1359999999999999E-2</v>
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.49)</f>
+        <v>0.35181999999999997</v>
       </c>
       <c r="N33" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C$8)*('[1]Baseline year demographics'!$C$9)*(0.49)</f>
-        <v>3.1359999999999999E-2</v>
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.49)</f>
+        <v>0.35181999999999997</v>
       </c>
       <c r="O33" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C$8)*('[1]Baseline year demographics'!$C$9)*(0.49)</f>
-        <v>3.1359999999999999E-2</v>
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.49)</f>
+        <v>0.35181999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15696,20 +15590,20 @@
         <v>0</v>
       </c>
       <c r="L34" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C$8)*('[1]Baseline year demographics'!$C$9)*(0.21)*'[1]Baseline year demographics'!$C$7</f>
-        <v>4.7308799999999998E-3</v>
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.21)*'Baseline year demographics'!$C$7</f>
+        <v>3.4679399999999999E-2</v>
       </c>
       <c r="M34" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C$8)*('[1]Baseline year demographics'!$C$9)*(0.21)</f>
-        <v>1.3440000000000001E-2</v>
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.21)</f>
+        <v>0.15078</v>
       </c>
       <c r="N34" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C$8)*('[1]Baseline year demographics'!$C$9)*(0.21)</f>
-        <v>1.3440000000000001E-2</v>
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.21)</f>
+        <v>0.15078</v>
       </c>
       <c r="O34" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C$8)*('[1]Baseline year demographics'!$C$9)*(0.21)</f>
-        <v>1.3440000000000001E-2</v>
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.21)</f>
+        <v>0.15078</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15744,20 +15638,20 @@
         <v>0</v>
       </c>
       <c r="L35" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C$8)*('[1]Baseline year demographics'!$C$9)*(0.3)*'[1]Baseline year demographics'!$C$7</f>
-        <v>6.7583999999999986E-3</v>
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.3)*'Baseline year demographics'!$C$7</f>
+        <v>4.9541999999999996E-2</v>
       </c>
       <c r="M35" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C$8)*('[1]Baseline year demographics'!$C$9)*(0.3)</f>
-        <v>1.9199999999999998E-2</v>
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.3)</f>
+        <v>0.21539999999999998</v>
       </c>
       <c r="N35" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C$8)*('[1]Baseline year demographics'!$C$9)*(0.3)</f>
-        <v>1.9199999999999998E-2</v>
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.3)</f>
+        <v>0.21539999999999998</v>
       </c>
       <c r="O35" s="26">
-        <f>(1-'[1]Baseline year demographics'!$C$8)*('[1]Baseline year demographics'!$C$9)*(0.3)</f>
-        <v>1.9199999999999998E-2</v>
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.3)</f>
+        <v>0.21539999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15836,20 +15730,20 @@
         <v>0</v>
       </c>
       <c r="L37" s="26">
-        <f>'[1]Baseline year demographics'!$C$29/SUM('[1]Baseline year demographics'!$C$29:$C$32)</f>
-        <v>0.5</v>
+        <f>'Baseline year demographics'!$C$29/SUM('Baseline year demographics'!$C$29:$C$32)</f>
+        <v>0.8</v>
       </c>
       <c r="M37" s="26">
-        <f>'[1]Baseline year demographics'!$C$29/SUM('[1]Baseline year demographics'!$C$29:$C$32)</f>
-        <v>0.5</v>
+        <f>'Baseline year demographics'!$C$29/SUM('Baseline year demographics'!$C$29:$C$32)</f>
+        <v>0.8</v>
       </c>
       <c r="N37" s="26">
-        <f>'[1]Baseline year demographics'!$C$29/SUM('[1]Baseline year demographics'!$C$29:$C$32)</f>
-        <v>0.5</v>
+        <f>'Baseline year demographics'!$C$29/SUM('Baseline year demographics'!$C$29:$C$32)</f>
+        <v>0.8</v>
       </c>
       <c r="O37" s="26">
-        <f>'[1]Baseline year demographics'!$C$29/SUM('[1]Baseline year demographics'!$C$29:$C$32)</f>
-        <v>0.5</v>
+        <f>'Baseline year demographics'!$C$29/SUM('Baseline year demographics'!$C$29:$C$32)</f>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16314,52 +16208,52 @@
         <v>0.1</v>
       </c>
       <c r="D49" s="31">
-        <f>'[1]Baseline year demographics'!$C9</f>
-        <v>0.1</v>
+        <f>'Baseline year demographics'!$C9</f>
+        <v>1</v>
       </c>
       <c r="E49" s="31">
-        <f>'[1]Baseline year demographics'!$C9</f>
-        <v>0.1</v>
+        <f>'Baseline year demographics'!$C9</f>
+        <v>1</v>
       </c>
       <c r="F49" s="31">
-        <f>'[1]Baseline year demographics'!$C9</f>
-        <v>0.1</v>
+        <f>'Baseline year demographics'!$C9</f>
+        <v>1</v>
       </c>
       <c r="G49" s="31">
-        <f>'[1]Baseline year demographics'!$C9</f>
-        <v>0.1</v>
+        <f>'Baseline year demographics'!$C9</f>
+        <v>1</v>
       </c>
       <c r="H49" s="31">
-        <f>'[1]Baseline year demographics'!$C9</f>
-        <v>0.1</v>
+        <f>'Baseline year demographics'!$C9</f>
+        <v>1</v>
       </c>
       <c r="I49" s="31">
-        <f>'[1]Baseline year demographics'!$C9</f>
-        <v>0.1</v>
+        <f>'Baseline year demographics'!$C9</f>
+        <v>1</v>
       </c>
       <c r="J49" s="31">
-        <f>'[1]Baseline year demographics'!$C9</f>
-        <v>0.1</v>
+        <f>'Baseline year demographics'!$C9</f>
+        <v>1</v>
       </c>
       <c r="K49" s="31">
-        <f>'[1]Baseline year demographics'!$C9</f>
-        <v>0.1</v>
+        <f>'Baseline year demographics'!$C9</f>
+        <v>1</v>
       </c>
       <c r="L49" s="31">
-        <f>'[1]Baseline year demographics'!$C9</f>
-        <v>0.1</v>
+        <f>'Baseline year demographics'!$C9</f>
+        <v>1</v>
       </c>
       <c r="M49" s="31">
-        <f>'[1]Baseline year demographics'!$C9</f>
-        <v>0.1</v>
+        <f>'Baseline year demographics'!$C9</f>
+        <v>1</v>
       </c>
       <c r="N49" s="31">
-        <f>'[1]Baseline year demographics'!$C9</f>
-        <v>0.1</v>
+        <f>'Baseline year demographics'!$C9</f>
+        <v>1</v>
       </c>
       <c r="O49" s="31">
-        <f>'[1]Baseline year demographics'!$C9</f>
-        <v>0.1</v>
+        <f>'Baseline year demographics'!$C9</f>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:15" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16373,48 +16267,48 @@
         <v>0</v>
       </c>
       <c r="E50" s="107">
-        <f>'[1]Baseline year demographics'!$C28</f>
-        <v>0.12</v>
+        <f>'Baseline year demographics'!$C28</f>
+        <v>0</v>
       </c>
       <c r="F50" s="107">
-        <f>'[1]Baseline year demographics'!$C28</f>
-        <v>0.12</v>
+        <f>'Baseline year demographics'!$C28</f>
+        <v>0</v>
       </c>
       <c r="G50" s="107">
-        <f>'[1]Baseline year demographics'!$C28</f>
-        <v>0.12</v>
+        <f>'Baseline year demographics'!$C28</f>
+        <v>0</v>
       </c>
       <c r="H50" s="107">
-        <f>'[1]Baseline year demographics'!$C28</f>
-        <v>0.12</v>
+        <f>'Baseline year demographics'!$C28</f>
+        <v>0</v>
       </c>
       <c r="I50" s="107">
-        <f>'[1]Baseline year demographics'!$C28</f>
-        <v>0.12</v>
+        <f>'Baseline year demographics'!$C28</f>
+        <v>0</v>
       </c>
       <c r="J50" s="107">
-        <f>'[1]Baseline year demographics'!$C28</f>
-        <v>0.12</v>
+        <f>'Baseline year demographics'!$C28</f>
+        <v>0</v>
       </c>
       <c r="K50" s="107">
-        <f>'[1]Baseline year demographics'!$C28</f>
-        <v>0.12</v>
+        <f>'Baseline year demographics'!$C28</f>
+        <v>0</v>
       </c>
       <c r="L50" s="107">
-        <f>'[1]Baseline year demographics'!$C28</f>
-        <v>0.12</v>
+        <f>'Baseline year demographics'!$C28</f>
+        <v>0</v>
       </c>
       <c r="M50" s="107">
-        <f>'[1]Baseline year demographics'!$C28</f>
-        <v>0.12</v>
+        <f>'Baseline year demographics'!$C28</f>
+        <v>0</v>
       </c>
       <c r="N50" s="107">
-        <f>'[1]Baseline year demographics'!$C28</f>
-        <v>0.12</v>
+        <f>'Baseline year demographics'!$C28</f>
+        <v>0</v>
       </c>
       <c r="O50" s="107">
-        <f>'[1]Baseline year demographics'!$C28</f>
-        <v>0.12</v>
+        <f>'Baseline year demographics'!$C28</f>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:15" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16428,48 +16322,48 @@
         <v>0</v>
       </c>
       <c r="E51" s="106">
-        <f>'[1]Baseline year demographics'!$C29</f>
-        <v>0.05</v>
+        <f>'Baseline year demographics'!$C29</f>
+        <v>0.8</v>
       </c>
       <c r="F51" s="106">
-        <f>'[1]Baseline year demographics'!$C29</f>
-        <v>0.05</v>
+        <f>'Baseline year demographics'!$C29</f>
+        <v>0.8</v>
       </c>
       <c r="G51" s="106">
-        <f>'[1]Baseline year demographics'!$C29</f>
-        <v>0.05</v>
+        <f>'Baseline year demographics'!$C29</f>
+        <v>0.8</v>
       </c>
       <c r="H51" s="106">
-        <f>'[1]Baseline year demographics'!$C29</f>
-        <v>0.05</v>
+        <f>'Baseline year demographics'!$C29</f>
+        <v>0.8</v>
       </c>
       <c r="I51" s="106">
-        <f>'[1]Baseline year demographics'!$C29</f>
-        <v>0.05</v>
+        <f>'Baseline year demographics'!$C29</f>
+        <v>0.8</v>
       </c>
       <c r="J51" s="106">
-        <f>'[1]Baseline year demographics'!$C29</f>
-        <v>0.05</v>
+        <f>'Baseline year demographics'!$C29</f>
+        <v>0.8</v>
       </c>
       <c r="K51" s="106">
-        <f>'[1]Baseline year demographics'!$C29</f>
-        <v>0.05</v>
+        <f>'Baseline year demographics'!$C29</f>
+        <v>0.8</v>
       </c>
       <c r="L51" s="106">
-        <f>'[1]Baseline year demographics'!$C29</f>
-        <v>0.05</v>
+        <f>'Baseline year demographics'!$C29</f>
+        <v>0.8</v>
       </c>
       <c r="M51" s="106">
-        <f>'[1]Baseline year demographics'!$C29</f>
-        <v>0.05</v>
+        <f>'Baseline year demographics'!$C29</f>
+        <v>0.8</v>
       </c>
       <c r="N51" s="106">
-        <f>'[1]Baseline year demographics'!$C29</f>
-        <v>0.05</v>
+        <f>'Baseline year demographics'!$C29</f>
+        <v>0.8</v>
       </c>
       <c r="O51" s="106">
-        <f>'[1]Baseline year demographics'!$C29</f>
-        <v>0.05</v>
+        <f>'Baseline year demographics'!$C29</f>
+        <v>0.8</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16483,48 +16377,48 @@
         <v>0</v>
       </c>
       <c r="E52" s="106">
-        <f>'[1]Baseline year demographics'!$C27</f>
-        <v>0.8</v>
+        <f>'Baseline year demographics'!$C27</f>
+        <v>0</v>
       </c>
       <c r="F52" s="106">
-        <f>'[1]Baseline year demographics'!$C27</f>
-        <v>0.8</v>
+        <f>'Baseline year demographics'!$C27</f>
+        <v>0</v>
       </c>
       <c r="G52" s="106">
-        <f>'[1]Baseline year demographics'!$C27</f>
-        <v>0.8</v>
+        <f>'Baseline year demographics'!$C27</f>
+        <v>0</v>
       </c>
       <c r="H52" s="106">
-        <f>'[1]Baseline year demographics'!$C27</f>
-        <v>0.8</v>
+        <f>'Baseline year demographics'!$C27</f>
+        <v>0</v>
       </c>
       <c r="I52" s="106">
-        <f>'[1]Baseline year demographics'!$C27</f>
-        <v>0.8</v>
+        <f>'Baseline year demographics'!$C27</f>
+        <v>0</v>
       </c>
       <c r="J52" s="106">
-        <f>'[1]Baseline year demographics'!$C27</f>
-        <v>0.8</v>
+        <f>'Baseline year demographics'!$C27</f>
+        <v>0</v>
       </c>
       <c r="K52" s="106">
-        <f>'[1]Baseline year demographics'!$C27</f>
-        <v>0.8</v>
+        <f>'Baseline year demographics'!$C27</f>
+        <v>0</v>
       </c>
       <c r="L52" s="106">
-        <f>'[1]Baseline year demographics'!$C27</f>
-        <v>0.8</v>
+        <f>'Baseline year demographics'!$C27</f>
+        <v>0</v>
       </c>
       <c r="M52" s="106">
-        <f>'[1]Baseline year demographics'!$C27</f>
-        <v>0.8</v>
+        <f>'Baseline year demographics'!$C27</f>
+        <v>0</v>
       </c>
       <c r="N52" s="106">
-        <f>'[1]Baseline year demographics'!$C27</f>
-        <v>0.8</v>
+        <f>'Baseline year demographics'!$C27</f>
+        <v>0</v>
       </c>
       <c r="O52" s="106">
-        <f>'[1]Baseline year demographics'!$C27</f>
-        <v>0.8</v>
+        <f>'Baseline year demographics'!$C27</f>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16582,8 +16476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -17178,19 +17072,19 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="135"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="135"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
@@ -17479,28 +17373,28 @@
       <c r="G21" s="43">
         <v>1</v>
       </c>
-      <c r="H21" s="137">
-        <v>0</v>
-      </c>
-      <c r="I21" s="137">
-        <v>0</v>
-      </c>
-      <c r="J21" s="137">
-        <v>0</v>
-      </c>
-      <c r="K21" s="137">
-        <v>0</v>
-      </c>
-      <c r="L21" s="137">
-        <v>0</v>
-      </c>
-      <c r="M21" s="137">
-        <v>0</v>
-      </c>
-      <c r="N21" s="137">
-        <v>0</v>
-      </c>
-      <c r="O21" s="137">
+      <c r="H21" s="136">
+        <v>0</v>
+      </c>
+      <c r="I21" s="136">
+        <v>0</v>
+      </c>
+      <c r="J21" s="136">
+        <v>0</v>
+      </c>
+      <c r="K21" s="136">
+        <v>0</v>
+      </c>
+      <c r="L21" s="136">
+        <v>0</v>
+      </c>
+      <c r="M21" s="136">
+        <v>0</v>
+      </c>
+      <c r="N21" s="136">
+        <v>0</v>
+      </c>
+      <c r="O21" s="136">
         <v>0</v>
       </c>
     </row>
@@ -17523,28 +17417,28 @@
       <c r="G22" s="43">
         <v>1</v>
       </c>
-      <c r="H22" s="137">
-        <v>0</v>
-      </c>
-      <c r="I22" s="137">
-        <v>0</v>
-      </c>
-      <c r="J22" s="137">
-        <v>0</v>
-      </c>
-      <c r="K22" s="137">
-        <v>0</v>
-      </c>
-      <c r="L22" s="137">
-        <v>0</v>
-      </c>
-      <c r="M22" s="137">
-        <v>0</v>
-      </c>
-      <c r="N22" s="137">
-        <v>0</v>
-      </c>
-      <c r="O22" s="137">
+      <c r="H22" s="136">
+        <v>0</v>
+      </c>
+      <c r="I22" s="136">
+        <v>0</v>
+      </c>
+      <c r="J22" s="136">
+        <v>0</v>
+      </c>
+      <c r="K22" s="136">
+        <v>0</v>
+      </c>
+      <c r="L22" s="136">
+        <v>0</v>
+      </c>
+      <c r="M22" s="136">
+        <v>0</v>
+      </c>
+      <c r="N22" s="136">
+        <v>0</v>
+      </c>
+      <c r="O22" s="136">
         <v>0</v>
       </c>
     </row>
@@ -17567,45 +17461,45 @@
       <c r="G23" s="43">
         <v>1</v>
       </c>
-      <c r="H23" s="137">
-        <v>0</v>
-      </c>
-      <c r="I23" s="137">
-        <v>0</v>
-      </c>
-      <c r="J23" s="137">
-        <v>0</v>
-      </c>
-      <c r="K23" s="137">
-        <v>0</v>
-      </c>
-      <c r="L23" s="137">
-        <v>0</v>
-      </c>
-      <c r="M23" s="137">
-        <v>0</v>
-      </c>
-      <c r="N23" s="137">
-        <v>0</v>
-      </c>
-      <c r="O23" s="137">
+      <c r="H23" s="136">
+        <v>0</v>
+      </c>
+      <c r="I23" s="136">
+        <v>0</v>
+      </c>
+      <c r="J23" s="136">
+        <v>0</v>
+      </c>
+      <c r="K23" s="136">
+        <v>0</v>
+      </c>
+      <c r="L23" s="136">
+        <v>0</v>
+      </c>
+      <c r="M23" s="136">
+        <v>0</v>
+      </c>
+      <c r="N23" s="136">
+        <v>0</v>
+      </c>
+      <c r="O23" s="136">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C24" s="136"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="136"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="136"/>
-      <c r="M24" s="136"/>
-      <c r="N24" s="136"/>
-      <c r="O24" s="136"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="135"/>
+      <c r="O24" s="135"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
@@ -18258,16 +18152,16 @@
       <c r="K39" s="43">
         <v>0</v>
       </c>
-      <c r="L39" s="137">
-        <v>1</v>
-      </c>
-      <c r="M39" s="137">
-        <v>1</v>
-      </c>
-      <c r="N39" s="137">
-        <v>1</v>
-      </c>
-      <c r="O39" s="137">
+      <c r="L39" s="136">
+        <v>1</v>
+      </c>
+      <c r="M39" s="136">
+        <v>1</v>
+      </c>
+      <c r="N39" s="136">
+        <v>1</v>
+      </c>
+      <c r="O39" s="136">
         <v>1</v>
       </c>
     </row>
@@ -18319,17 +18213,17 @@
       <c r="B41" s="12"/>
       <c r="C41" s="43"/>
       <c r="D41" s="43"/>
-      <c r="E41" s="138"/>
-      <c r="F41" s="138"/>
-      <c r="G41" s="138"/>
-      <c r="H41" s="138"/>
-      <c r="I41" s="138"/>
-      <c r="J41" s="136"/>
-      <c r="K41" s="136"/>
-      <c r="L41" s="136"/>
-      <c r="M41" s="136"/>
-      <c r="N41" s="136"/>
-      <c r="O41" s="136"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="137"/>
+      <c r="J41" s="135"/>
+      <c r="K41" s="135"/>
+      <c r="L41" s="135"/>
+      <c r="M41" s="135"/>
+      <c r="N41" s="135"/>
+      <c r="O41" s="135"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
@@ -18779,43 +18673,43 @@
       <c r="B52" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="137">
-        <v>1</v>
-      </c>
-      <c r="D52" s="137">
-        <v>1</v>
-      </c>
-      <c r="E52" s="137">
-        <v>1</v>
-      </c>
-      <c r="F52" s="137">
-        <v>1</v>
-      </c>
-      <c r="G52" s="137">
-        <v>1</v>
-      </c>
-      <c r="H52" s="137">
-        <v>1</v>
-      </c>
-      <c r="I52" s="137">
-        <v>1</v>
-      </c>
-      <c r="J52" s="137">
-        <v>1</v>
-      </c>
-      <c r="K52" s="137">
-        <v>1</v>
-      </c>
-      <c r="L52" s="137">
-        <v>1</v>
-      </c>
-      <c r="M52" s="137">
-        <v>1</v>
-      </c>
-      <c r="N52" s="137">
-        <v>1</v>
-      </c>
-      <c r="O52" s="137">
+      <c r="C52" s="136">
+        <v>1</v>
+      </c>
+      <c r="D52" s="136">
+        <v>1</v>
+      </c>
+      <c r="E52" s="136">
+        <v>1</v>
+      </c>
+      <c r="F52" s="136">
+        <v>1</v>
+      </c>
+      <c r="G52" s="136">
+        <v>1</v>
+      </c>
+      <c r="H52" s="136">
+        <v>1</v>
+      </c>
+      <c r="I52" s="136">
+        <v>1</v>
+      </c>
+      <c r="J52" s="136">
+        <v>1</v>
+      </c>
+      <c r="K52" s="136">
+        <v>1</v>
+      </c>
+      <c r="L52" s="136">
+        <v>1</v>
+      </c>
+      <c r="M52" s="136">
+        <v>1</v>
+      </c>
+      <c r="N52" s="136">
+        <v>1</v>
+      </c>
+      <c r="O52" s="136">
         <v>1</v>
       </c>
     </row>
@@ -18829,37 +18723,37 @@
       <c r="D53" s="108">
         <v>0</v>
       </c>
-      <c r="E53" s="139">
-        <v>1</v>
-      </c>
-      <c r="F53" s="139">
-        <v>1</v>
-      </c>
-      <c r="G53" s="139">
-        <v>1</v>
-      </c>
-      <c r="H53" s="139">
-        <v>1</v>
-      </c>
-      <c r="I53" s="139">
-        <v>1</v>
-      </c>
-      <c r="J53" s="139">
-        <v>1</v>
-      </c>
-      <c r="K53" s="139">
-        <v>1</v>
-      </c>
-      <c r="L53" s="139">
-        <v>1</v>
-      </c>
-      <c r="M53" s="139">
-        <v>1</v>
-      </c>
-      <c r="N53" s="139">
-        <v>1</v>
-      </c>
-      <c r="O53" s="139">
+      <c r="E53" s="138">
+        <v>1</v>
+      </c>
+      <c r="F53" s="138">
+        <v>1</v>
+      </c>
+      <c r="G53" s="138">
+        <v>1</v>
+      </c>
+      <c r="H53" s="138">
+        <v>1</v>
+      </c>
+      <c r="I53" s="138">
+        <v>1</v>
+      </c>
+      <c r="J53" s="138">
+        <v>1</v>
+      </c>
+      <c r="K53" s="138">
+        <v>1</v>
+      </c>
+      <c r="L53" s="138">
+        <v>1</v>
+      </c>
+      <c r="M53" s="138">
+        <v>1</v>
+      </c>
+      <c r="N53" s="138">
+        <v>1</v>
+      </c>
+      <c r="O53" s="138">
         <v>1</v>
       </c>
     </row>
@@ -19005,7 +18899,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -19311,7 +19205,7 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -19825,7 +19719,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="135" t="s">
+      <c r="A52" s="134" t="s">
         <v>161</v>
       </c>
       <c r="B52" t="s">
@@ -19836,7 +19730,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="135" t="s">
+      <c r="A53" s="134" t="s">
         <v>162</v>
       </c>
       <c r="B53" t="s">
@@ -19847,7 +19741,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="135" t="s">
+      <c r="A54" s="134" t="s">
         <v>163</v>
       </c>
       <c r="B54" t="s">
@@ -20154,8 +20048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20775,7 +20669,7 @@
       </c>
       <c r="D42" s="129">
         <f>40*AVERAGE('Incidence of conditions'!B5:F5)</f>
-        <v>4.7507200000000013E-2</v>
+        <v>4.7507200000000003</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20790,7 +20684,7 @@
       </c>
       <c r="D43" s="129">
         <f>90*AVERAGE('Incidence of conditions'!B6:F6)</f>
-        <v>5.3024400000000013E-2</v>
+        <v>5.3024400000000007</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20909,13 +20803,13 @@
       <c r="A52" s="122" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="144">
+      <c r="B52" s="143">
         <v>0</v>
       </c>
       <c r="C52" s="29">
         <v>0.95</v>
       </c>
-      <c r="D52" s="143" t="s">
+      <c r="D52" s="142" t="s">
         <v>270</v>
       </c>
     </row>
@@ -20923,13 +20817,13 @@
       <c r="A53" s="122" t="s">
         <v>162</v>
       </c>
-      <c r="B53" s="141">
-        <v>0</v>
-      </c>
-      <c r="C53" s="142">
+      <c r="B53" s="140">
+        <v>0</v>
+      </c>
+      <c r="C53" s="141">
         <v>0.95</v>
       </c>
-      <c r="D53" s="143" t="s">
+      <c r="D53" s="142" t="s">
         <v>270</v>
       </c>
     </row>
@@ -20937,13 +20831,13 @@
       <c r="A54" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="B54" s="141">
-        <v>0</v>
-      </c>
-      <c r="C54" s="142">
+      <c r="B54" s="140">
+        <v>0</v>
+      </c>
+      <c r="C54" s="141">
         <v>0.95</v>
       </c>
-      <c r="D54" s="143" t="s">
+      <c r="D54" s="142" t="s">
         <v>270</v>
       </c>
     </row>
@@ -20961,8 +20855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -21162,9 +21056,6 @@
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>138</v>
-      </c>
-      <c r="B35" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -22228,7 +22119,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -22318,24 +22209,24 @@
         <v>147</v>
       </c>
       <c r="B5" s="44">
-        <f>Distributions!C10/100 * 2.6</f>
-        <v>1.4040000000000003E-3</v>
+        <f>Distributions!C10 * 2.6</f>
+        <v>0.14040000000000002</v>
       </c>
       <c r="C5" s="44">
-        <f>Distributions!D10/100 * 2.6</f>
-        <v>1.4040000000000003E-3</v>
+        <f>Distributions!D10 * 2.6</f>
+        <v>0.14040000000000002</v>
       </c>
       <c r="D5" s="44">
-        <f>Distributions!E10/100 * 2.6</f>
-        <v>1.4430000000000003E-3</v>
+        <f>Distributions!E10 * 2.6</f>
+        <v>0.14430000000000001</v>
       </c>
       <c r="E5" s="44">
-        <f>Distributions!F10/100 * 2.6</f>
-        <v>1.1050000000000001E-3</v>
+        <f>Distributions!F10 * 2.6</f>
+        <v>0.11050000000000001</v>
       </c>
       <c r="F5" s="44">
-        <f>Distributions!G10/100 * 2.6</f>
-        <v>5.8239999999999995E-4</v>
+        <f>Distributions!G10 * 2.6</f>
+        <v>5.8239999999999993E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22343,24 +22234,24 @@
         <v>148</v>
       </c>
       <c r="B6" s="44">
-        <f>Distributions!C11/100 * 2.6</f>
-        <v>1.0400000000000001E-3</v>
+        <f>Distributions!C11 * 2.6</f>
+        <v>0.10400000000000001</v>
       </c>
       <c r="C6" s="44">
-        <f>Distributions!D11/100 * 2.6</f>
-        <v>1.0400000000000001E-3</v>
+        <f>Distributions!D11 * 2.6</f>
+        <v>0.10400000000000001</v>
       </c>
       <c r="D6" s="44">
-        <f>Distributions!E11/100 * 2.6</f>
-        <v>4.1600000000000003E-4</v>
+        <f>Distributions!E11 * 2.6</f>
+        <v>4.1600000000000005E-2</v>
       </c>
       <c r="E6" s="44">
-        <f>Distributions!F11/100 * 2.6</f>
-        <v>2.6000000000000003E-4</v>
+        <f>Distributions!F11 * 2.6</f>
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="F6" s="44">
-        <f>Distributions!G11/100 * 2.6</f>
-        <v>1.8980000000000001E-4</v>
+        <f>Distributions!G11 * 2.6</f>
+        <v>1.898E-2</v>
       </c>
     </row>
   </sheetData>

--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-36100" yWindow="-19860" windowWidth="34820" windowHeight="21140" tabRatio="888" firstSheet="17" activeTab="21"/>
+    <workbookView xWindow="-36600" yWindow="-21140" windowWidth="34820" windowHeight="21140" tabRatio="888" firstSheet="19" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,8 @@
     <sheet name="Program risk areas" sheetId="36" r:id="rId25"/>
     <sheet name="Population risk areas" sheetId="43" r:id="rId26"/>
     <sheet name="Programs cost and coverage" sheetId="20" r:id="rId27"/>
-    <sheet name="Programs to include" sheetId="44" r:id="rId28"/>
+    <sheet name="Reference programs" sheetId="49" r:id="rId28"/>
+    <sheet name="Programs to include" sheetId="44" r:id="rId29"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -2632,6 +2633,40 @@
 </comments>
 </file>
 
+<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Sam</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Programs whose coverage cannot fall below baseline %</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -3355,7 +3390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="271">
   <si>
     <t>year</t>
   </si>
@@ -4537,7 +4572,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="675">
+  <cellStyleXfs count="689">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4549,6 +4584,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5449,7 +5498,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="675">
+  <cellStyles count="689">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -5787,6 +5836,13 @@
     <cellStyle name="Followed Hyperlink" xfId="670" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="672" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="688" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6123,6 +6179,13 @@
     <cellStyle name="Hyperlink" xfId="669" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="671" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="687" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
@@ -14087,8 +14150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="135" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView zoomScale="135" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16205,7 +16268,8 @@
         <v>78</v>
       </c>
       <c r="C49" s="31">
-        <v>0.1</v>
+        <f>'Baseline year demographics'!$C9</f>
+        <v>1</v>
       </c>
       <c r="D49" s="31">
         <f>'Baseline year demographics'!$C9</f>
@@ -18898,8 +18962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -19204,8 +19268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -20048,8 +20112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20852,11 +20916,77 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -7490,7 +7490,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14151,7 +14151,7 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView zoomScale="135" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20113,7 +20113,7 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2018Jan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0602EF9-0E9B-B849-B7FE-60C8B992F13F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79145FC-2AEA-2842-B45A-B08AEE1B1B80}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21840" windowHeight="15540" tabRatio="888" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6180" yWindow="-21140" windowWidth="19200" windowHeight="21140" tabRatio="888" firstSheet="25" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -2231,30 +2231,6 @@
           </rPr>
           <t xml:space="preserve">
 Per person per year</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-orton Copenhagen Consensus 2008</t>
         </r>
       </text>
     </comment>
@@ -5597,10 +5573,10 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="689">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -12681,7 +12657,7 @@
       <c r="A2" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="145" t="s">
         <v>73</v>
       </c>
       <c r="C2" t="s">
@@ -12704,7 +12680,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="144"/>
+      <c r="B3" s="145"/>
       <c r="C3" t="s">
         <v>154</v>
       </c>
@@ -12726,7 +12702,7 @@
       <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="144"/>
+      <c r="B4" s="145"/>
       <c r="C4" t="s">
         <v>164</v>
       </c>
@@ -12748,7 +12724,7 @@
       <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="144" t="s">
+      <c r="B5" s="145" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -12771,7 +12747,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="144"/>
+      <c r="B6" s="145"/>
       <c r="C6" t="s">
         <v>154</v>
       </c>
@@ -12792,7 +12768,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="144"/>
+      <c r="B7" s="145"/>
       <c r="C7" t="s">
         <v>164</v>
       </c>
@@ -12813,7 +12789,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="144" t="s">
+      <c r="B8" s="145" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -12836,7 +12812,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="144"/>
+      <c r="B9" s="145"/>
       <c r="C9" t="s">
         <v>154</v>
       </c>
@@ -12857,7 +12833,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="144"/>
+      <c r="B10" s="145"/>
       <c r="C10" t="s">
         <v>164</v>
       </c>
@@ -12878,7 +12854,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="144" t="s">
+      <c r="B11" s="145" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -12901,7 +12877,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="144"/>
+      <c r="B12" s="145"/>
       <c r="C12" t="s">
         <v>154</v>
       </c>
@@ -12922,7 +12898,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="144"/>
+      <c r="B13" s="145"/>
       <c r="C13" t="s">
         <v>164</v>
       </c>
@@ -12943,7 +12919,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="144" t="s">
+      <c r="B14" s="145" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -12966,7 +12942,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="144"/>
+      <c r="B15" s="145"/>
       <c r="C15" t="s">
         <v>154</v>
       </c>
@@ -12987,7 +12963,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="144"/>
+      <c r="B16" s="145"/>
       <c r="C16" t="s">
         <v>164</v>
       </c>
@@ -13041,7 +13017,7 @@
       <c r="A19" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="144" t="s">
+      <c r="B19" s="145" t="s">
         <v>73</v>
       </c>
       <c r="C19" t="s">
@@ -13064,7 +13040,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="144"/>
+      <c r="B20" s="145"/>
       <c r="C20" t="s">
         <v>154</v>
       </c>
@@ -13085,7 +13061,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="144"/>
+      <c r="B21" s="145"/>
       <c r="C21" t="s">
         <v>164</v>
       </c>
@@ -13106,7 +13082,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="144" t="s">
+      <c r="B22" s="145" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -13129,7 +13105,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="144"/>
+      <c r="B23" s="145"/>
       <c r="C23" t="s">
         <v>154</v>
       </c>
@@ -13150,7 +13126,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="144"/>
+      <c r="B24" s="145"/>
       <c r="C24" t="s">
         <v>164</v>
       </c>
@@ -13171,7 +13147,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="144" t="s">
+      <c r="B25" s="145" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -13194,7 +13170,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="144"/>
+      <c r="B26" s="145"/>
       <c r="C26" t="s">
         <v>154</v>
       </c>
@@ -13215,7 +13191,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="144"/>
+      <c r="B27" s="145"/>
       <c r="C27" t="s">
         <v>164</v>
       </c>
@@ -13236,7 +13212,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="144" t="s">
+      <c r="B28" s="145" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -13259,7 +13235,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="144"/>
+      <c r="B29" s="145"/>
       <c r="C29" t="s">
         <v>154</v>
       </c>
@@ -13280,7 +13256,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="144"/>
+      <c r="B30" s="145"/>
       <c r="C30" t="s">
         <v>164</v>
       </c>
@@ -13301,7 +13277,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="144" t="s">
+      <c r="B31" s="145" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -13324,7 +13300,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="144"/>
+      <c r="B32" s="145"/>
       <c r="C32" t="s">
         <v>154</v>
       </c>
@@ -13345,7 +13321,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="144"/>
+      <c r="B33" s="145"/>
       <c r="C33" t="s">
         <v>164</v>
       </c>
@@ -13392,7 +13368,7 @@
       <c r="A36" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B36" s="144" t="s">
+      <c r="B36" s="145" t="s">
         <v>73</v>
       </c>
       <c r="C36" t="s">
@@ -13415,7 +13391,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="144"/>
+      <c r="B37" s="145"/>
       <c r="C37" t="s">
         <v>154</v>
       </c>
@@ -13436,7 +13412,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="144"/>
+      <c r="B38" s="145"/>
       <c r="C38" t="s">
         <v>164</v>
       </c>
@@ -13458,7 +13434,7 @@
       <c r="I38" s="50"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="144" t="s">
+      <c r="B39" s="145" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
@@ -13481,7 +13457,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="144"/>
+      <c r="B40" s="145"/>
       <c r="C40" t="s">
         <v>154</v>
       </c>
@@ -13502,7 +13478,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="144"/>
+      <c r="B41" s="145"/>
       <c r="C41" t="s">
         <v>164</v>
       </c>
@@ -13523,7 +13499,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="144" t="s">
+      <c r="B42" s="145" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
@@ -13546,7 +13522,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="144"/>
+      <c r="B43" s="145"/>
       <c r="C43" t="s">
         <v>154</v>
       </c>
@@ -13567,7 +13543,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="144"/>
+      <c r="B44" s="145"/>
       <c r="C44" t="s">
         <v>164</v>
       </c>
@@ -13588,7 +13564,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="144" t="s">
+      <c r="B45" s="145" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -13611,7 +13587,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="144"/>
+      <c r="B46" s="145"/>
       <c r="C46" t="s">
         <v>154</v>
       </c>
@@ -13632,7 +13608,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="144"/>
+      <c r="B47" s="145"/>
       <c r="C47" t="s">
         <v>164</v>
       </c>
@@ -13653,7 +13629,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="144" t="s">
+      <c r="B48" s="145" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -13676,7 +13652,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="144"/>
+      <c r="B49" s="145"/>
       <c r="C49" t="s">
         <v>154</v>
       </c>
@@ -13697,7 +13673,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="144"/>
+      <c r="B50" s="145"/>
       <c r="C50" t="s">
         <v>164</v>
       </c>
@@ -13742,11 +13718,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -13757,6 +13728,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -18428,8 +18404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView zoomScale="135" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A30" zoomScale="135" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20819,7 +20795,7 @@
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -23547,7 +23523,7 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A51"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -24103,7 +24079,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -24181,7 +24157,7 @@
       <c r="H2" t="s">
         <v>165</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="11" t="s">
         <v>165</v>
       </c>
     </row>
@@ -24210,7 +24186,7 @@
       <c r="H3" t="s">
         <v>165</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="11" t="s">
         <v>165</v>
       </c>
     </row>
@@ -24239,7 +24215,7 @@
       <c r="H4" t="s">
         <v>165</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="11" t="s">
         <v>165</v>
       </c>
     </row>
@@ -24268,7 +24244,7 @@
       <c r="H5" t="s">
         <v>165</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="11" t="s">
         <v>165</v>
       </c>
     </row>
@@ -24297,7 +24273,7 @@
       <c r="H6" t="s">
         <v>165</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="11" t="s">
         <v>165</v>
       </c>
     </row>
@@ -24311,7 +24287,7 @@
       <c r="I7" t="s">
         <v>165</v>
       </c>
-      <c r="J7" s="44"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
@@ -24323,7 +24299,7 @@
       <c r="I8" t="s">
         <v>165</v>
       </c>
-      <c r="J8" s="44"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
@@ -24335,7 +24311,7 @@
       <c r="I9" t="s">
         <v>165</v>
       </c>
-      <c r="J9" s="44"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
@@ -24347,7 +24323,7 @@
       <c r="I10" t="s">
         <v>165</v>
       </c>
-      <c r="J10" s="44"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
@@ -24390,8 +24366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -24402,7 +24378,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="121" t="s">
         <v>203</v>
       </c>
@@ -24416,7 +24392,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="122" t="s">
         <v>55</v>
       </c>
@@ -24430,7 +24406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="124" t="s">
         <v>268</v>
       </c>
@@ -24443,9 +24419,8 @@
       <c r="D3" s="126">
         <v>0.8</v>
       </c>
-      <c r="E3" s="66"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="127" t="s">
         <v>264</v>
       </c>
@@ -24456,11 +24431,10 @@
         <v>0.85</v>
       </c>
       <c r="D4" s="126">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="127" t="s">
         <v>143</v>
       </c>
@@ -24474,9 +24448,8 @@
         <f>180</f>
         <v>180</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="127" t="s">
         <v>185</v>
       </c>
@@ -24490,24 +24463,22 @@
         <f>SUM('Programs family planning'!E2:E10)</f>
         <v>0.82100000000000006</v>
       </c>
-      <c r="E6" s="58"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="127" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="128" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="126">
-        <v>0</v>
-      </c>
-      <c r="C7" s="126">
-        <v>0.05</v>
-      </c>
-      <c r="D7" s="126">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="129">
+        <v>0.36</v>
+      </c>
+      <c r="C7" s="123">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="123">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="127" t="s">
         <v>146</v>
       </c>
@@ -24520,9 +24491,8 @@
       <c r="D8" s="126">
         <v>0.75</v>
       </c>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="127" t="s">
         <v>144</v>
       </c>
@@ -24535,9 +24505,8 @@
       <c r="D9" s="126">
         <v>0.19</v>
       </c>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="127" t="s">
         <v>124</v>
       </c>
@@ -24551,7 +24520,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="127" t="s">
         <v>132</v>
       </c>
@@ -24565,7 +24534,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="127" t="s">
         <v>125</v>
       </c>
@@ -24579,7 +24548,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="127" t="s">
         <v>133</v>
       </c>
@@ -24593,7 +24562,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="127" t="s">
         <v>126</v>
       </c>
@@ -24607,7 +24576,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="127" t="s">
         <v>134</v>
       </c>
@@ -24621,7 +24590,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="127" t="s">
         <v>123</v>
       </c>
@@ -24760,7 +24729,6 @@
       <c r="D25" s="126">
         <v>1.78</v>
       </c>
-      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="127" t="s">
@@ -24775,7 +24743,6 @@
       <c r="D26" s="126">
         <v>1.78</v>
       </c>
-      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="128" t="s">
@@ -24790,20 +24757,19 @@
       <c r="D27" s="123">
         <v>0.05</v>
       </c>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="128" t="s">
-        <v>145</v>
-      </c>
-      <c r="B28" s="129">
-        <v>0.36</v>
-      </c>
-      <c r="C28" s="123">
-        <v>0.8</v>
-      </c>
-      <c r="D28" s="123">
-        <v>0.25</v>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="14">
+        <v>0</v>
+      </c>
+      <c r="C28" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="D28" s="18">
+        <v>0.13</v>
       </c>
       <c r="E28" s="4"/>
     </row>
@@ -24820,7 +24786,6 @@
       <c r="D29" s="126">
         <v>0.74</v>
       </c>
-      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="127" t="s">
@@ -24835,7 +24800,6 @@
       <c r="D30" s="126">
         <v>0.18</v>
       </c>
-      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="128" t="s">
@@ -24862,10 +24826,10 @@
         <v>0.85</v>
       </c>
       <c r="D32" s="126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="127" t="s">
         <v>265</v>
       </c>
@@ -24876,10 +24840,10 @@
         <v>0.85</v>
       </c>
       <c r="D33" s="126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="127" t="s">
         <v>135</v>
       </c>
@@ -24892,9 +24856,8 @@
       <c r="D34" s="126">
         <v>2.99</v>
       </c>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="130" t="s">
         <v>138</v>
       </c>
@@ -24907,9 +24870,8 @@
       <c r="D35" s="123">
         <v>3.78</v>
       </c>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="127" t="s">
         <v>262</v>
       </c>
@@ -24920,11 +24882,10 @@
         <v>0.85</v>
       </c>
       <c r="D36" s="126">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23.84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="128" t="s">
         <v>127</v>
       </c>
@@ -24937,9 +24898,8 @@
       <c r="D37" s="123">
         <v>48</v>
       </c>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="127" t="s">
         <v>75</v>
       </c>
@@ -24952,9 +24912,8 @@
       <c r="D38" s="126">
         <v>50</v>
       </c>
-      <c r="E38" s="29"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="127" t="s">
         <v>136</v>
       </c>
@@ -24967,9 +24926,8 @@
       <c r="D39" s="126">
         <v>51</v>
       </c>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="127" t="s">
         <v>74</v>
       </c>
@@ -24980,11 +24938,10 @@
         <v>0.85</v>
       </c>
       <c r="D40" s="126">
-        <v>1</v>
-      </c>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="131" t="s">
         <v>137</v>
       </c>
@@ -24997,9 +24954,8 @@
       <c r="D41" s="123">
         <v>4.6500000000000004</v>
       </c>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="128" t="s">
         <v>151</v>
       </c>
@@ -25011,10 +24967,10 @@
       </c>
       <c r="D42" s="129">
         <f>40*AVERAGE('Incidence of conditions'!B5:F5)</f>
-        <v>8.5617966494862934</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4.7195394035926403</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="128" t="s">
         <v>152</v>
       </c>
@@ -25026,10 +24982,10 @@
       </c>
       <c r="D43" s="129">
         <f>90*AVERAGE('Incidence of conditions'!B6:F6)</f>
-        <v>6.0386800552209401</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5.2956558655829511</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="128" t="s">
         <v>47</v>
       </c>
@@ -25043,7 +24999,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="122" t="s">
         <v>261</v>
       </c>
@@ -25057,7 +25013,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="122" t="s">
         <v>260</v>
       </c>
@@ -25071,7 +25027,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="122" t="s">
         <v>259</v>
       </c>
@@ -25085,7 +25041,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="122" t="s">
         <v>257</v>
       </c>
@@ -25138,7 +25094,7 @@
         <v>0.85</v>
       </c>
       <c r="D51" s="126">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -26183,8 +26139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -26527,7 +26483,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -26618,23 +26574,23 @@
       </c>
       <c r="B5" s="44">
         <f>Distributions!C10 * 2.6</f>
-        <v>0.1118</v>
+        <v>0.1404</v>
       </c>
       <c r="C5" s="44">
         <f>Distributions!D10 * 2.6</f>
-        <v>0.1118</v>
+        <v>0.1404</v>
       </c>
       <c r="D5" s="44">
         <f>Distributions!E10 * 2.6</f>
-        <v>0.22211580020387359</v>
+        <v>0.14045866666666668</v>
       </c>
       <c r="E5" s="44">
         <f>Distributions!F10 * 2.6</f>
-        <v>0.31336536312849161</v>
+        <v>0.11062404115996258</v>
       </c>
       <c r="F5" s="44">
         <f>Distributions!G10 * 2.6</f>
-        <v>0.31114341785342142</v>
+        <v>5.8059717622450747E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -26643,23 +26599,23 @@
       </c>
       <c r="B6" s="44">
         <f>Distributions!C11 * 2.6</f>
-        <v>5.4600000000000003E-2</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="C6" s="44">
         <f>Distributions!D11 * 2.6</f>
-        <v>5.4600000000000003E-2</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="D6" s="44">
         <f>Distributions!E11 * 2.6</f>
-        <v>7.5545769622833839E-2</v>
+        <v>4.0885333333333343E-2</v>
       </c>
       <c r="E6" s="44">
         <f>Distributions!F11 * 2.6</f>
-        <v>7.9670391061452503E-2</v>
+        <v>2.6248082319925165E-2</v>
       </c>
       <c r="F6" s="44">
         <f>Distributions!G11 * 2.6</f>
-        <v>7.1066064605765894E-2</v>
+        <v>1.9069687990238803E-2</v>
       </c>
     </row>
   </sheetData>
@@ -27036,14 +26992,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -27078,19 +27035,24 @@
         <v>14</v>
       </c>
       <c r="C2" s="111">
+        <f>1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE)</f>
         <v>0.54471569980476653</v>
       </c>
       <c r="D2" s="111">
+        <f t="shared" ref="D2:G2" si="0">1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE)</f>
         <v>0.54471569980476653</v>
       </c>
       <c r="E2" s="111">
-        <v>0.44475236686630382</v>
+        <f t="shared" si="0"/>
+        <v>0.44982829694488635</v>
       </c>
       <c r="F2" s="111">
-        <v>0.24326698333409566</v>
+        <f t="shared" si="0"/>
+        <v>0.24457139941017503</v>
       </c>
       <c r="G2" s="111">
-        <v>0.23259986385548592</v>
+        <f t="shared" si="0"/>
+        <v>0.23269074767298425</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -27099,19 +27061,24 @@
         <v>23</v>
       </c>
       <c r="C3" s="111">
-        <v>0.32228430019523352</v>
+        <f>_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5)</f>
+        <v>0.32228430019523346</v>
       </c>
       <c r="D3" s="111">
-        <v>0.32228430019523352</v>
+        <f t="shared" ref="D3:G3" si="1">_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5)</f>
+        <v>0.32228430019523346</v>
       </c>
       <c r="E3" s="111">
-        <v>0.36064763313369619</v>
+        <f t="shared" si="1"/>
+        <v>0.35908666207150708</v>
       </c>
       <c r="F3" s="111">
-        <v>0.37623301666590436</v>
+        <f t="shared" si="1"/>
+        <v>0.37651189492768178</v>
       </c>
       <c r="G3" s="111">
-        <v>0.37370013614451408</v>
+        <f t="shared" si="1"/>
+        <v>0.37372365733745416</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -27184,43 +27151,53 @@
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="111">
-        <v>0.45300000000000007</v>
+        <f>1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE)</f>
+        <v>0.6241955901533508</v>
       </c>
       <c r="D8" s="111">
-        <v>0.45300000000000007</v>
+        <f t="shared" ref="D8:G8" si="2">1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE)</f>
+        <v>0.6241955901533508</v>
       </c>
       <c r="E8" s="111">
-        <v>0.46425</v>
+        <f t="shared" si="2"/>
+        <v>0.68355843805440353</v>
       </c>
       <c r="F8" s="111">
-        <v>0.47375</v>
+        <f t="shared" si="2"/>
+        <v>0.73228840888273117</v>
       </c>
       <c r="G8" s="111">
-        <v>0.48515000000000003</v>
+        <f t="shared" si="2"/>
+        <v>0.81212055177975573</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="111">
-        <v>0.45300000000000007</v>
+        <f>_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11)</f>
+        <v>0.28180440984664923</v>
       </c>
       <c r="D9" s="111">
-        <v>0.45300000000000007</v>
+        <f t="shared" ref="D9:G9" si="3">_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D$10:D$11), 0, 1) + 1, 0, 1, TRUE) - SUM(D$10:D$11)</f>
+        <v>0.28180440984664923</v>
       </c>
       <c r="E9" s="111">
-        <v>0.46425</v>
+        <f t="shared" si="3"/>
+        <v>0.2466938696379041</v>
       </c>
       <c r="F9" s="111">
-        <v>0.47375</v>
+        <f t="shared" si="3"/>
+        <v>0.21506846670192739</v>
       </c>
       <c r="G9" s="111">
-        <v>0.48515000000000003</v>
+        <f t="shared" si="3"/>
+        <v>0.15821429221536368</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -27229,23 +27206,23 @@
       </c>
       <c r="C10" s="111">
         <f>'Distributions data'!D9-C11</f>
-        <v>4.2999999999999997E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="D10" s="111">
         <f>'Distributions data'!D9-D11</f>
-        <v>4.2999999999999997E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="E10" s="111">
         <f>('Distributions data'!E9*'Distributions data'!E8+'Distributions data'!F9*'Distributions data'!F8)/SUM('Distributions data'!E8:F8) -E11</f>
-        <v>8.5429153924566764E-2</v>
+        <v>5.4022564102564105E-2</v>
       </c>
       <c r="F10" s="111">
         <f>('Distributions data'!G9*'Distributions data'!G8+'Distributions data'!H9*'Distributions data'!H8)/SUM('Distributions data'!G8:H8) - F11</f>
-        <v>0.12052513966480446</v>
+        <v>4.2547708138447146E-2</v>
       </c>
       <c r="G10" s="111">
         <f>('Distributions data'!I9*'Distributions data'!I8+'Distributions data'!J9*'Distributions data'!J8+'Distributions data'!K9*'Distributions data'!K8)/SUM('Distributions data'!I8:K8)-G11</f>
-        <v>0.11967054532823899</v>
+        <v>2.2330660624019519E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -27254,23 +27231,23 @@
       </c>
       <c r="C11" s="111">
         <f>'Distributions data'!D10</f>
-        <v>2.1000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D11" s="111">
         <f>'Distributions data'!D10</f>
-        <v>2.1000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E11" s="111">
         <f>('Distributions data'!E10*'Distributions data'!E8+'Distributions data'!F10*'Distributions data'!F8)/SUM('Distributions data'!E8:F8)</f>
-        <v>2.9056065239551475E-2</v>
+        <v>1.5725128205128207E-2</v>
       </c>
       <c r="F11" s="111">
         <f>('Distributions data'!G10*'Distributions data'!G8+'Distributions data'!H10*'Distributions data'!H8)/SUM('Distributions data'!G8:H8)</f>
-        <v>3.0642458100558656E-2</v>
+        <v>1.0095416276894293E-2</v>
       </c>
       <c r="G11" s="111">
         <f>('Distributions data'!I10*'Distributions data'!I8+'Distributions data'!J10*'Distributions data'!J8+'Distributions data'!K10*'Distributions data'!K8)/SUM('Distributions data'!I8:K8)</f>
-        <v>2.7333101771448418E-2</v>
+        <v>7.3344953808610778E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -27391,6 +27368,12 @@
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="4"/>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D29">
+        <f>_xlfn.NORM.INV(0.5, 0, 1)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -27405,7 +27388,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27423,7 +27406,7 @@
       <c r="D1" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="E1" s="145" t="s">
+      <c r="E1" s="144" t="s">
         <v>271</v>
       </c>
       <c r="F1" s="10" t="s">
@@ -27564,28 +27547,28 @@
         <v>279</v>
       </c>
       <c r="D8" s="11">
-        <v>998</v>
+        <v>961</v>
       </c>
       <c r="E8" s="11">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F8" s="11">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G8" s="11">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="H8" s="11">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="I8" s="11">
+        <v>1907</v>
+      </c>
+      <c r="J8" s="11">
         <v>1917</v>
       </c>
-      <c r="J8" s="11">
-        <v>1918</v>
-      </c>
       <c r="K8" s="11">
-        <v>1923</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
@@ -27596,28 +27579,28 @@
         <v>280</v>
       </c>
       <c r="D9" s="11">
-        <v>6.4000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="E9" s="11">
-        <v>8.6999999999999994E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="F9" s="11">
-        <v>0.14599999999999999</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="G9" s="11">
-        <v>0.14099999999999999</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="H9" s="11">
-        <v>0.16200000000000001</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="I9" s="11">
-        <v>0.14599999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="J9" s="11">
-        <v>0.14399999999999999</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="K9" s="11">
-        <v>0.151</v>
+        <v>3.1E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -27629,28 +27612,28 @@
         <v>280</v>
       </c>
       <c r="D10" s="11">
-        <v>2.1000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E10" s="11">
-        <v>2.3E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F10" s="11">
-        <v>3.5999999999999997E-2</v>
+        <v>0.02</v>
       </c>
       <c r="G10" s="11">
-        <v>3.5000000000000003E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H10" s="11">
-        <v>2.5999999999999999E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="I10" s="11">
-        <v>3.2000000000000001E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="J10" s="11">
-        <v>2.1999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="K10" s="11">
-        <v>2.8000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
@@ -27969,7 +27952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>

--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -8,41 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2018Jan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79145FC-2AEA-2842-B45A-B08AEE1B1B80}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B504461-0065-1C4A-8324-B5897E867E69}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6180" yWindow="-21140" windowWidth="19200" windowHeight="21140" tabRatio="888" firstSheet="25" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6180" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
     <sheet name="Demographic projections" sheetId="2" r:id="rId2"/>
-    <sheet name="Causes of death" sheetId="4" r:id="rId3"/>
-    <sheet name="Incidence of conditions" sheetId="7" r:id="rId4"/>
-    <sheet name="Prevalence of anaemia" sheetId="29" r:id="rId5"/>
-    <sheet name="Distributions" sheetId="5" r:id="rId6"/>
-    <sheet name="Distributions data" sheetId="50" r:id="rId7"/>
-    <sheet name="Distribution births" sheetId="42" r:id="rId8"/>
-    <sheet name="Birth outcomes &amp; risks" sheetId="6" r:id="rId9"/>
-    <sheet name="Relative risks" sheetId="26" r:id="rId10"/>
-    <sheet name="Odds ratios" sheetId="27" r:id="rId11"/>
-    <sheet name="IYCF package odds ratios" sheetId="32" r:id="rId12"/>
-    <sheet name="IYCF packages" sheetId="33" r:id="rId13"/>
-    <sheet name="IYCF cost &amp; coverage" sheetId="35" r:id="rId14"/>
-    <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId15"/>
-    <sheet name="Programs birth outcomes" sheetId="22" r:id="rId16"/>
-    <sheet name="Programs anemia" sheetId="30" r:id="rId17"/>
-    <sheet name="Programs wasting" sheetId="31" r:id="rId18"/>
-    <sheet name="Programs for children" sheetId="28" r:id="rId19"/>
-    <sheet name="Programs family planning" sheetId="34" r:id="rId20"/>
-    <sheet name="Programs for PW" sheetId="45" r:id="rId21"/>
-    <sheet name="Programs birth age" sheetId="46" r:id="rId22"/>
-    <sheet name="Programs target population" sheetId="21" r:id="rId23"/>
-    <sheet name="Programs impacted population" sheetId="47" r:id="rId24"/>
-    <sheet name="Program dependencies" sheetId="40" r:id="rId25"/>
-    <sheet name="Program risk areas" sheetId="36" r:id="rId26"/>
-    <sheet name="Population risk areas" sheetId="43" r:id="rId27"/>
-    <sheet name="Programs cost and coverage" sheetId="20" r:id="rId28"/>
-    <sheet name="Reference programs" sheetId="49" r:id="rId29"/>
-    <sheet name="Programs to include" sheetId="44" r:id="rId30"/>
+    <sheet name="Annual prevalence" sheetId="52" r:id="rId3"/>
+    <sheet name="Causes of death" sheetId="4" r:id="rId4"/>
+    <sheet name="Incidence of conditions" sheetId="7" r:id="rId5"/>
+    <sheet name="Prevalence of anaemia" sheetId="29" r:id="rId6"/>
+    <sheet name="Distributions" sheetId="5" r:id="rId7"/>
+    <sheet name="Distributions data" sheetId="50" r:id="rId8"/>
+    <sheet name="Distribution births" sheetId="42" r:id="rId9"/>
+    <sheet name="Birth outcomes &amp; risks" sheetId="6" r:id="rId10"/>
+    <sheet name="Relative risks" sheetId="26" r:id="rId11"/>
+    <sheet name="Odds ratios" sheetId="27" r:id="rId12"/>
+    <sheet name="IYCF package odds ratios" sheetId="32" r:id="rId13"/>
+    <sheet name="IYCF packages" sheetId="33" r:id="rId14"/>
+    <sheet name="IYCF cost &amp; coverage" sheetId="35" r:id="rId15"/>
+    <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId16"/>
+    <sheet name="Programs birth outcomes" sheetId="22" r:id="rId17"/>
+    <sheet name="Programs anemia" sheetId="30" r:id="rId18"/>
+    <sheet name="Programs wasting" sheetId="31" r:id="rId19"/>
+    <sheet name="Programs for children" sheetId="28" r:id="rId20"/>
+    <sheet name="Programs family planning" sheetId="34" r:id="rId21"/>
+    <sheet name="Programs for PW" sheetId="45" r:id="rId22"/>
+    <sheet name="Programs birth age" sheetId="46" r:id="rId23"/>
+    <sheet name="Programs target population" sheetId="21" r:id="rId24"/>
+    <sheet name="Programs impacted population" sheetId="47" r:id="rId25"/>
+    <sheet name="Program dependencies" sheetId="40" r:id="rId26"/>
+    <sheet name="Program risk areas" sheetId="36" r:id="rId27"/>
+    <sheet name="Population risk areas" sheetId="43" r:id="rId28"/>
+    <sheet name="Programs cost and coverage" sheetId="20" r:id="rId29"/>
+    <sheet name="Programs annual spending" sheetId="51" r:id="rId30"/>
+    <sheet name="Reference programs" sheetId="49" r:id="rId31"/>
+    <sheet name="Programs to include" sheetId="44" r:id="rId32"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -2845,6 +2847,54 @@
     <author>Sam</author>
   </authors>
   <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{0625652B-E176-F643-9C47-01BFAEC715D5}">
+      <text>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="12"/>
+            <color rgb="FF7F7F7F"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>This is the calibration year and uses baseline coverage.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sam</author>
+  </authors>
+  <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1B00-000001000000}">
       <text>
         <r>
@@ -3411,7 +3461,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="290">
   <si>
     <t>year</t>
   </si>
@@ -4270,6 +4320,18 @@
   <si>
     <t>6-9 months</t>
   </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Spending</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
 </sst>
 </file>
 
@@ -4282,7 +4344,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4465,6 +4527,22 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -7687,7 +7765,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7839,7 +7917,8 @@
         <v>188</v>
       </c>
       <c r="C18" s="18">
-        <v>401</v>
+        <f>401/100</f>
+        <v>4.01</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8122,6 +8201,574 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="19">
+        <f>1-D2-E2-F2</f>
+        <v>0.49547179999999996</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0.3649</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.1085</v>
+      </c>
+      <c r="F2" s="14">
+        <v>3.1128200000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="11">
+        <v>1.53</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1.32</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="49">
+        <v>1</v>
+      </c>
+      <c r="D7" s="49">
+        <v>2.58</v>
+      </c>
+      <c r="E7" s="49">
+        <v>1.65</v>
+      </c>
+      <c r="F7" s="49">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="49">
+        <v>1</v>
+      </c>
+      <c r="D8" s="49">
+        <v>2.58</v>
+      </c>
+      <c r="E8" s="49">
+        <v>1.65</v>
+      </c>
+      <c r="F8" s="49">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3.39</v>
+      </c>
+      <c r="F13" s="5">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3.39</v>
+      </c>
+      <c r="F14" s="5">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3.39</v>
+      </c>
+      <c r="F15" s="5">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>999.99</v>
+      </c>
+      <c r="F16" s="5">
+        <v>999.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" s="93" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="94">
+        <v>1</v>
+      </c>
+      <c r="D23" s="94">
+        <v>1.52</v>
+      </c>
+      <c r="E23" s="94">
+        <v>1.75</v>
+      </c>
+      <c r="F23" s="94">
+        <v>3.14</v>
+      </c>
+      <c r="G23" s="95"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="93" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" s="94">
+        <v>1</v>
+      </c>
+      <c r="D24" s="94">
+        <v>1.2</v>
+      </c>
+      <c r="E24" s="94">
+        <v>1.4</v>
+      </c>
+      <c r="F24" s="94">
+        <v>1.6</v>
+      </c>
+      <c r="G24" s="95"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="93" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="94">
+        <v>1</v>
+      </c>
+      <c r="D25" s="94">
+        <v>1.2</v>
+      </c>
+      <c r="E25" s="94">
+        <v>1.4</v>
+      </c>
+      <c r="F25" s="94">
+        <v>1.6</v>
+      </c>
+      <c r="G25" s="95"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C26" s="94">
+        <v>1</v>
+      </c>
+      <c r="D26" s="94">
+        <v>1.52</v>
+      </c>
+      <c r="E26" s="94">
+        <v>1.75</v>
+      </c>
+      <c r="F26" s="94">
+        <v>1.73</v>
+      </c>
+      <c r="G26" s="95"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="94">
+        <v>1</v>
+      </c>
+      <c r="D27" s="94">
+        <v>1</v>
+      </c>
+      <c r="E27" s="94">
+        <v>1</v>
+      </c>
+      <c r="F27" s="94">
+        <v>1</v>
+      </c>
+      <c r="G27" s="95"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="96" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" s="94">
+        <v>1</v>
+      </c>
+      <c r="D28" s="94">
+        <v>1</v>
+      </c>
+      <c r="E28" s="94">
+        <v>1</v>
+      </c>
+      <c r="F28" s="94">
+        <v>1</v>
+      </c>
+      <c r="G28" s="95"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="97" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29" s="94">
+        <v>1</v>
+      </c>
+      <c r="D29" s="94">
+        <v>1.52</v>
+      </c>
+      <c r="E29" s="94">
+        <v>1.75</v>
+      </c>
+      <c r="F29" s="94">
+        <v>1.52</v>
+      </c>
+      <c r="G29" s="95"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="97" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" s="94">
+        <v>1</v>
+      </c>
+      <c r="D30" s="94">
+        <v>1</v>
+      </c>
+      <c r="E30" s="94">
+        <v>1.33</v>
+      </c>
+      <c r="F30" s="94">
+        <v>1</v>
+      </c>
+      <c r="G30" s="95"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="97" t="s">
+        <v>242</v>
+      </c>
+      <c r="C31" s="94">
+        <v>1</v>
+      </c>
+      <c r="D31" s="94">
+        <v>1</v>
+      </c>
+      <c r="E31" s="94">
+        <v>1.33</v>
+      </c>
+      <c r="F31" s="94">
+        <v>1</v>
+      </c>
+      <c r="G31" s="95"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="99"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="95"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="10"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="95"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B35" s="99" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" s="94">
+        <v>1</v>
+      </c>
+      <c r="D35" s="100">
+        <v>1</v>
+      </c>
+      <c r="E35" s="100">
+        <v>1</v>
+      </c>
+      <c r="F35" s="100">
+        <v>1</v>
+      </c>
+      <c r="G35" s="95"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="99" t="s">
+        <v>245</v>
+      </c>
+      <c r="C36" s="94">
+        <v>1</v>
+      </c>
+      <c r="D36" s="100">
+        <v>1.41</v>
+      </c>
+      <c r="E36" s="100">
+        <v>1.49</v>
+      </c>
+      <c r="F36" s="100">
+        <v>3.03</v>
+      </c>
+      <c r="G36" s="95"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="99" t="s">
+        <v>246</v>
+      </c>
+      <c r="C37" s="94">
+        <v>1</v>
+      </c>
+      <c r="D37" s="100">
+        <v>1.18</v>
+      </c>
+      <c r="E37" s="100">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F37" s="100">
+        <v>1.77</v>
+      </c>
+      <c r="G37" s="95"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="99" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38" s="94">
+        <v>1</v>
+      </c>
+      <c r="D38" s="100">
+        <v>1</v>
+      </c>
+      <c r="E38" s="100">
+        <v>1</v>
+      </c>
+      <c r="F38" s="100">
+        <v>1</v>
+      </c>
+      <c r="G38" s="95"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -12178,7 +12825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -12612,7 +13259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
@@ -13739,7 +14386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -13954,7 +14601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -14146,7 +14793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -14223,7 +14870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -14531,7 +15178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -15990,7 +16637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -16081,7 +16728,656 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="20">
+        <v>2110000</v>
+      </c>
+      <c r="C2" s="21">
+        <v>9862402</v>
+      </c>
+      <c r="D2" s="21">
+        <v>3032037</v>
+      </c>
+      <c r="E2" s="21">
+        <v>4756743</v>
+      </c>
+      <c r="F2" s="21">
+        <v>3406589</v>
+      </c>
+      <c r="G2" s="21">
+        <v>2174712</v>
+      </c>
+      <c r="H2" s="22">
+        <f>D2+E2+F2+G2</f>
+        <v>13370081</v>
+      </c>
+      <c r="I2" s="23">
+        <f>(B2 + 'Baseline year demographics'!$C$20*B2/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
+        <v>2481006.778661951</v>
+      </c>
+      <c r="J2" s="24">
+        <f t="shared" ref="J2:J15" si="0">D2/H2</f>
+        <v>0.22677775848927167</v>
+      </c>
+      <c r="K2" s="22">
+        <f>H2-I2</f>
+        <v>10889074.221338049</v>
+      </c>
+      <c r="L2" s="40">
+        <v>57310019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="20">
+        <v>2150000</v>
+      </c>
+      <c r="C3" s="21">
+        <v>10050371</v>
+      </c>
+      <c r="D3" s="21">
+        <v>3164674</v>
+      </c>
+      <c r="E3" s="21">
+        <v>4882700</v>
+      </c>
+      <c r="F3" s="21">
+        <v>3520083</v>
+      </c>
+      <c r="G3" s="21">
+        <v>2275309</v>
+      </c>
+      <c r="H3" s="22">
+        <f t="shared" ref="H3:H15" si="1">D3+E3+F3+G3</f>
+        <v>13842766</v>
+      </c>
+      <c r="I3" s="23">
+        <f>(B3 + 'Baseline year demographics'!$C$20*B3/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
+        <v>2528040.0825228412</v>
+      </c>
+      <c r="J3" s="24">
+        <f t="shared" si="0"/>
+        <v>0.22861572607671038</v>
+      </c>
+      <c r="K3" s="22">
+        <f t="shared" ref="K3:K15" si="2">H3-I3</f>
+        <v>11314725.917477159</v>
+      </c>
+      <c r="L3" s="40">
+        <v>59091392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="20">
+        <v>2200000</v>
+      </c>
+      <c r="C4" s="21">
+        <v>10237786</v>
+      </c>
+      <c r="D4" s="21">
+        <v>3296354</v>
+      </c>
+      <c r="E4" s="21">
+        <v>5018666</v>
+      </c>
+      <c r="F4" s="21">
+        <v>3634703</v>
+      </c>
+      <c r="G4" s="21">
+        <v>2379017</v>
+      </c>
+      <c r="H4" s="22">
+        <f t="shared" si="1"/>
+        <v>14328740</v>
+      </c>
+      <c r="I4" s="23">
+        <f>(B4 + 'Baseline year demographics'!$C$20*B4/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
+        <v>2586831.7123489534</v>
+      </c>
+      <c r="J4" s="24">
+        <f t="shared" si="0"/>
+        <v>0.23005190965849057</v>
+      </c>
+      <c r="K4" s="22">
+        <f t="shared" si="2"/>
+        <v>11741908.287651047</v>
+      </c>
+      <c r="L4" s="40">
+        <v>60913557</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="20">
+        <v>2240000</v>
+      </c>
+      <c r="C5" s="21">
+        <v>10438537</v>
+      </c>
+      <c r="D5" s="21">
+        <v>3418969</v>
+      </c>
+      <c r="E5" s="21">
+        <v>5168014</v>
+      </c>
+      <c r="F5" s="21">
+        <v>3750324</v>
+      </c>
+      <c r="G5" s="21">
+        <v>2484409</v>
+      </c>
+      <c r="H5" s="22">
+        <f t="shared" si="1"/>
+        <v>14821716</v>
+      </c>
+      <c r="I5" s="23">
+        <f>(B5 + 'Baseline year demographics'!$C$20*B5/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
+        <v>2633865.0162098436</v>
+      </c>
+      <c r="J5" s="24">
+        <f t="shared" si="0"/>
+        <v>0.23067295311824892</v>
+      </c>
+      <c r="K5" s="22">
+        <f t="shared" si="2"/>
+        <v>12187850.983790156</v>
+      </c>
+      <c r="L5" s="40">
+        <v>62774619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="20">
+        <v>2280000</v>
+      </c>
+      <c r="C6" s="21">
+        <v>10636534</v>
+      </c>
+      <c r="D6" s="21">
+        <v>3532758</v>
+      </c>
+      <c r="E6" s="21">
+        <v>5332455</v>
+      </c>
+      <c r="F6" s="21">
+        <v>3869436</v>
+      </c>
+      <c r="G6" s="21">
+        <v>2592003</v>
+      </c>
+      <c r="H6" s="22">
+        <f t="shared" si="1"/>
+        <v>15326652</v>
+      </c>
+      <c r="I6" s="23">
+        <f>(B6 + 'Baseline year demographics'!$C$20*B6/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
+        <v>2680898.3200707338</v>
+      </c>
+      <c r="J6" s="24">
+        <f t="shared" si="0"/>
+        <v>0.23049769773594389</v>
+      </c>
+      <c r="K6" s="22">
+        <f t="shared" si="2"/>
+        <v>12645753.679929266</v>
+      </c>
+      <c r="L6" s="40">
+        <v>64673854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="20">
+        <v>2330000</v>
+      </c>
+      <c r="C7" s="21">
+        <v>10854967</v>
+      </c>
+      <c r="D7" s="21">
+        <v>3637390</v>
+      </c>
+      <c r="E7" s="21">
+        <v>5508952</v>
+      </c>
+      <c r="F7" s="21">
+        <v>3990560</v>
+      </c>
+      <c r="G7" s="21">
+        <v>2701259</v>
+      </c>
+      <c r="H7" s="22">
+        <f t="shared" si="1"/>
+        <v>15838161</v>
+      </c>
+      <c r="I7" s="23">
+        <f>(B7 + 'Baseline year demographics'!$C$20*B7/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
+        <v>2739689.9498968464</v>
+      </c>
+      <c r="J7" s="24">
+        <f t="shared" si="0"/>
+        <v>0.22965987023367171</v>
+      </c>
+      <c r="K7" s="22">
+        <f t="shared" si="2"/>
+        <v>13098471.050103154</v>
+      </c>
+      <c r="L7" s="40">
+        <v>66612147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="20">
+        <v>2380000</v>
+      </c>
+      <c r="C8" s="21">
+        <v>11089897</v>
+      </c>
+      <c r="D8" s="21">
+        <v>3737403</v>
+      </c>
+      <c r="E8" s="21">
+        <v>5696990</v>
+      </c>
+      <c r="F8" s="21">
+        <v>4112898</v>
+      </c>
+      <c r="G8" s="21">
+        <v>2811667</v>
+      </c>
+      <c r="H8" s="22">
+        <f t="shared" si="1"/>
+        <v>16358958</v>
+      </c>
+      <c r="I8" s="23">
+        <f>(B8 + 'Baseline year demographics'!$C$20*B8/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
+        <v>2798481.5797229591</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" si="0"/>
+        <v>0.22846216733364069</v>
+      </c>
+      <c r="K8" s="22">
+        <f t="shared" si="2"/>
+        <v>13560476.42027704</v>
+      </c>
+      <c r="L8" s="40">
+        <v>68591196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B9" s="20">
+        <v>2420000</v>
+      </c>
+      <c r="C9" s="21">
+        <v>11331595</v>
+      </c>
+      <c r="D9" s="21">
+        <v>3840674</v>
+      </c>
+      <c r="E9" s="21">
+        <v>5895615</v>
+      </c>
+      <c r="F9" s="21">
+        <v>4235117</v>
+      </c>
+      <c r="G9" s="21">
+        <v>2922818</v>
+      </c>
+      <c r="H9" s="22">
+        <f t="shared" si="1"/>
+        <v>16894224</v>
+      </c>
+      <c r="I9" s="23">
+        <f>(B9 + 'Baseline year demographics'!$C$20*B9/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
+        <v>2845514.8835838488</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="0"/>
+        <v>0.22733651453893355</v>
+      </c>
+      <c r="K9" s="22">
+        <f t="shared" si="2"/>
+        <v>14048709.116416151</v>
+      </c>
+      <c r="L9" s="40">
+        <v>70613532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B10" s="20">
+        <v>2480000</v>
+      </c>
+      <c r="C10" s="21">
+        <v>11574198</v>
+      </c>
+      <c r="D10" s="21">
+        <v>3951644</v>
+      </c>
+      <c r="E10" s="21">
+        <v>6103745</v>
+      </c>
+      <c r="F10" s="21">
+        <v>4356516</v>
+      </c>
+      <c r="G10" s="21">
+        <v>3034340</v>
+      </c>
+      <c r="H10" s="22">
+        <f t="shared" si="1"/>
+        <v>17446245</v>
+      </c>
+      <c r="I10" s="23">
+        <f>(B10 + 'Baseline year demographics'!$C$20*B10/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
+        <v>2916064.8393751844</v>
+      </c>
+      <c r="J10" s="24">
+        <f t="shared" si="0"/>
+        <v>0.22650398409514483</v>
+      </c>
+      <c r="K10" s="22">
+        <f t="shared" si="2"/>
+        <v>14530180.160624815</v>
+      </c>
+      <c r="L10" s="40">
+        <v>72681070</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B11" s="20">
+        <v>2530000</v>
+      </c>
+      <c r="C11" s="21">
+        <v>11838769</v>
+      </c>
+      <c r="D11" s="21">
+        <v>4065313</v>
+      </c>
+      <c r="E11" s="21">
+        <v>6319831</v>
+      </c>
+      <c r="F11" s="21">
+        <v>4477188</v>
+      </c>
+      <c r="G11" s="21">
+        <v>3144612</v>
+      </c>
+      <c r="H11" s="22">
+        <f t="shared" si="1"/>
+        <v>18006944</v>
+      </c>
+      <c r="I11" s="23">
+        <f>(B11 + 'Baseline year demographics'!$C$20*B11/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
+        <v>2974856.4692012966</v>
+      </c>
+      <c r="J11" s="24">
+        <f t="shared" si="0"/>
+        <v>0.22576362763165145</v>
+      </c>
+      <c r="K11" s="22">
+        <f t="shared" si="2"/>
+        <v>15032087.530798703</v>
+      </c>
+      <c r="L11" s="40">
+        <v>74794078</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>2027</v>
+      </c>
+      <c r="B12" s="20">
+        <v>2580000</v>
+      </c>
+      <c r="C12" s="21">
+        <v>12092177</v>
+      </c>
+      <c r="D12" s="21">
+        <v>4185562</v>
+      </c>
+      <c r="E12" s="21">
+        <v>6545116</v>
+      </c>
+      <c r="F12" s="21">
+        <v>4597739</v>
+      </c>
+      <c r="G12" s="21">
+        <v>3255252</v>
+      </c>
+      <c r="H12" s="22">
+        <f t="shared" si="1"/>
+        <v>18583669</v>
+      </c>
+      <c r="I12" s="23">
+        <f>(B12 + 'Baseline year demographics'!$C$20*B12/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
+        <v>3033648.0990274092</v>
+      </c>
+      <c r="J12" s="24">
+        <f t="shared" si="0"/>
+        <v>0.22522796763114969</v>
+      </c>
+      <c r="K12" s="22">
+        <f t="shared" si="2"/>
+        <v>15550020.90097259</v>
+      </c>
+      <c r="L12" s="40">
+        <v>76952218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>2028</v>
+      </c>
+      <c r="B13" s="20">
+        <v>2630000</v>
+      </c>
+      <c r="C13" s="21">
+        <v>12338218</v>
+      </c>
+      <c r="D13" s="21">
+        <v>4309237</v>
+      </c>
+      <c r="E13" s="21">
+        <v>6776307</v>
+      </c>
+      <c r="F13" s="21">
+        <v>4722286</v>
+      </c>
+      <c r="G13" s="21">
+        <v>3366750</v>
+      </c>
+      <c r="H13" s="22">
+        <f t="shared" si="1"/>
+        <v>19174580</v>
+      </c>
+      <c r="I13" s="23">
+        <f>(B13 + 'Baseline year demographics'!$C$20*B13/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
+        <v>3092439.7288535219</v>
+      </c>
+      <c r="J13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.22473696946686708</v>
+      </c>
+      <c r="K13" s="22">
+        <f t="shared" si="2"/>
+        <v>16082140.271146478</v>
+      </c>
+      <c r="L13" s="40">
+        <v>79155997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>2029</v>
+      </c>
+      <c r="B14" s="20">
+        <v>2690000</v>
+      </c>
+      <c r="C14" s="21">
+        <v>12584924</v>
+      </c>
+      <c r="D14" s="21">
+        <v>4430738</v>
+      </c>
+      <c r="E14" s="21">
+        <v>7008703</v>
+      </c>
+      <c r="F14" s="21">
+        <v>4856898</v>
+      </c>
+      <c r="G14" s="21">
+        <v>3479917</v>
+      </c>
+      <c r="H14" s="22">
+        <f t="shared" si="1"/>
+        <v>19776256</v>
+      </c>
+      <c r="I14" s="23">
+        <f>(B14 + 'Baseline year demographics'!$C$20*B14/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
+        <v>3162989.684644857</v>
+      </c>
+      <c r="J14" s="24">
+        <f t="shared" si="0"/>
+        <v>0.22404331740042199</v>
+      </c>
+      <c r="K14" s="22">
+        <f t="shared" si="2"/>
+        <v>16613266.315355143</v>
+      </c>
+      <c r="L14" s="40">
+        <v>81405880</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>2030</v>
+      </c>
+      <c r="B15" s="20">
+        <v>2740000</v>
+      </c>
+      <c r="C15" s="21">
+        <v>12839335</v>
+      </c>
+      <c r="D15" s="21">
+        <v>4546624</v>
+      </c>
+      <c r="E15" s="21">
+        <v>7239465</v>
+      </c>
+      <c r="F15" s="21">
+        <v>5005361</v>
+      </c>
+      <c r="G15" s="21">
+        <v>3595278</v>
+      </c>
+      <c r="H15" s="22">
+        <f t="shared" si="1"/>
+        <v>20386728</v>
+      </c>
+      <c r="I15" s="23">
+        <f>(B15 + 'Baseline year demographics'!$C$20*B15/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
+        <v>3221781.3144709696</v>
+      </c>
+      <c r="J15" s="24">
+        <f t="shared" si="0"/>
+        <v>0.22301881891002814</v>
+      </c>
+      <c r="K15" s="22">
+        <f t="shared" si="2"/>
+        <v>17164946.685529031</v>
+      </c>
+      <c r="L15" s="40">
+        <v>83702053</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -17288,656 +18584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" customWidth="1"/>
-    <col min="11" max="11" width="17.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>2017</v>
-      </c>
-      <c r="B2" s="20">
-        <v>2110000</v>
-      </c>
-      <c r="C2" s="21">
-        <v>9862402</v>
-      </c>
-      <c r="D2" s="21">
-        <v>3032037</v>
-      </c>
-      <c r="E2" s="21">
-        <v>4756743</v>
-      </c>
-      <c r="F2" s="21">
-        <v>3406589</v>
-      </c>
-      <c r="G2" s="21">
-        <v>2174712</v>
-      </c>
-      <c r="H2" s="22">
-        <f>D2+E2+F2+G2</f>
-        <v>13370081</v>
-      </c>
-      <c r="I2" s="23">
-        <f>(B2 + 'Baseline year demographics'!$C$20*B2/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
-        <v>2481006.778661951</v>
-      </c>
-      <c r="J2" s="24">
-        <f t="shared" ref="J2:J15" si="0">D2/H2</f>
-        <v>0.22677775848927167</v>
-      </c>
-      <c r="K2" s="22">
-        <f>H2-I2</f>
-        <v>10889074.221338049</v>
-      </c>
-      <c r="L2" s="40">
-        <v>57310019</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B3" s="20">
-        <v>2150000</v>
-      </c>
-      <c r="C3" s="21">
-        <v>10050371</v>
-      </c>
-      <c r="D3" s="21">
-        <v>3164674</v>
-      </c>
-      <c r="E3" s="21">
-        <v>4882700</v>
-      </c>
-      <c r="F3" s="21">
-        <v>3520083</v>
-      </c>
-      <c r="G3" s="21">
-        <v>2275309</v>
-      </c>
-      <c r="H3" s="22">
-        <f t="shared" ref="H3:H15" si="1">D3+E3+F3+G3</f>
-        <v>13842766</v>
-      </c>
-      <c r="I3" s="23">
-        <f>(B3 + 'Baseline year demographics'!$C$20*B3/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
-        <v>2528040.0825228412</v>
-      </c>
-      <c r="J3" s="24">
-        <f t="shared" si="0"/>
-        <v>0.22861572607671038</v>
-      </c>
-      <c r="K3" s="22">
-        <f t="shared" ref="K3:K15" si="2">H3-I3</f>
-        <v>11314725.917477159</v>
-      </c>
-      <c r="L3" s="40">
-        <v>59091392</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B4" s="20">
-        <v>2200000</v>
-      </c>
-      <c r="C4" s="21">
-        <v>10237786</v>
-      </c>
-      <c r="D4" s="21">
-        <v>3296354</v>
-      </c>
-      <c r="E4" s="21">
-        <v>5018666</v>
-      </c>
-      <c r="F4" s="21">
-        <v>3634703</v>
-      </c>
-      <c r="G4" s="21">
-        <v>2379017</v>
-      </c>
-      <c r="H4" s="22">
-        <f t="shared" si="1"/>
-        <v>14328740</v>
-      </c>
-      <c r="I4" s="23">
-        <f>(B4 + 'Baseline year demographics'!$C$20*B4/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
-        <v>2586831.7123489534</v>
-      </c>
-      <c r="J4" s="24">
-        <f t="shared" si="0"/>
-        <v>0.23005190965849057</v>
-      </c>
-      <c r="K4" s="22">
-        <f t="shared" si="2"/>
-        <v>11741908.287651047</v>
-      </c>
-      <c r="L4" s="40">
-        <v>60913557</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B5" s="20">
-        <v>2240000</v>
-      </c>
-      <c r="C5" s="21">
-        <v>10438537</v>
-      </c>
-      <c r="D5" s="21">
-        <v>3418969</v>
-      </c>
-      <c r="E5" s="21">
-        <v>5168014</v>
-      </c>
-      <c r="F5" s="21">
-        <v>3750324</v>
-      </c>
-      <c r="G5" s="21">
-        <v>2484409</v>
-      </c>
-      <c r="H5" s="22">
-        <f t="shared" si="1"/>
-        <v>14821716</v>
-      </c>
-      <c r="I5" s="23">
-        <f>(B5 + 'Baseline year demographics'!$C$20*B5/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
-        <v>2633865.0162098436</v>
-      </c>
-      <c r="J5" s="24">
-        <f t="shared" si="0"/>
-        <v>0.23067295311824892</v>
-      </c>
-      <c r="K5" s="22">
-        <f t="shared" si="2"/>
-        <v>12187850.983790156</v>
-      </c>
-      <c r="L5" s="40">
-        <v>62774619</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B6" s="20">
-        <v>2280000</v>
-      </c>
-      <c r="C6" s="21">
-        <v>10636534</v>
-      </c>
-      <c r="D6" s="21">
-        <v>3532758</v>
-      </c>
-      <c r="E6" s="21">
-        <v>5332455</v>
-      </c>
-      <c r="F6" s="21">
-        <v>3869436</v>
-      </c>
-      <c r="G6" s="21">
-        <v>2592003</v>
-      </c>
-      <c r="H6" s="22">
-        <f t="shared" si="1"/>
-        <v>15326652</v>
-      </c>
-      <c r="I6" s="23">
-        <f>(B6 + 'Baseline year demographics'!$C$20*B6/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
-        <v>2680898.3200707338</v>
-      </c>
-      <c r="J6" s="24">
-        <f t="shared" si="0"/>
-        <v>0.23049769773594389</v>
-      </c>
-      <c r="K6" s="22">
-        <f t="shared" si="2"/>
-        <v>12645753.679929266</v>
-      </c>
-      <c r="L6" s="40">
-        <v>64673854</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B7" s="20">
-        <v>2330000</v>
-      </c>
-      <c r="C7" s="21">
-        <v>10854967</v>
-      </c>
-      <c r="D7" s="21">
-        <v>3637390</v>
-      </c>
-      <c r="E7" s="21">
-        <v>5508952</v>
-      </c>
-      <c r="F7" s="21">
-        <v>3990560</v>
-      </c>
-      <c r="G7" s="21">
-        <v>2701259</v>
-      </c>
-      <c r="H7" s="22">
-        <f t="shared" si="1"/>
-        <v>15838161</v>
-      </c>
-      <c r="I7" s="23">
-        <f>(B7 + 'Baseline year demographics'!$C$20*B7/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
-        <v>2739689.9498968464</v>
-      </c>
-      <c r="J7" s="24">
-        <f t="shared" si="0"/>
-        <v>0.22965987023367171</v>
-      </c>
-      <c r="K7" s="22">
-        <f t="shared" si="2"/>
-        <v>13098471.050103154</v>
-      </c>
-      <c r="L7" s="40">
-        <v>66612147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B8" s="20">
-        <v>2380000</v>
-      </c>
-      <c r="C8" s="21">
-        <v>11089897</v>
-      </c>
-      <c r="D8" s="21">
-        <v>3737403</v>
-      </c>
-      <c r="E8" s="21">
-        <v>5696990</v>
-      </c>
-      <c r="F8" s="21">
-        <v>4112898</v>
-      </c>
-      <c r="G8" s="21">
-        <v>2811667</v>
-      </c>
-      <c r="H8" s="22">
-        <f t="shared" si="1"/>
-        <v>16358958</v>
-      </c>
-      <c r="I8" s="23">
-        <f>(B8 + 'Baseline year demographics'!$C$20*B8/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
-        <v>2798481.5797229591</v>
-      </c>
-      <c r="J8" s="24">
-        <f t="shared" si="0"/>
-        <v>0.22846216733364069</v>
-      </c>
-      <c r="K8" s="22">
-        <f t="shared" si="2"/>
-        <v>13560476.42027704</v>
-      </c>
-      <c r="L8" s="40">
-        <v>68591196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>2024</v>
-      </c>
-      <c r="B9" s="20">
-        <v>2420000</v>
-      </c>
-      <c r="C9" s="21">
-        <v>11331595</v>
-      </c>
-      <c r="D9" s="21">
-        <v>3840674</v>
-      </c>
-      <c r="E9" s="21">
-        <v>5895615</v>
-      </c>
-      <c r="F9" s="21">
-        <v>4235117</v>
-      </c>
-      <c r="G9" s="21">
-        <v>2922818</v>
-      </c>
-      <c r="H9" s="22">
-        <f t="shared" si="1"/>
-        <v>16894224</v>
-      </c>
-      <c r="I9" s="23">
-        <f>(B9 + 'Baseline year demographics'!$C$20*B9/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
-        <v>2845514.8835838488</v>
-      </c>
-      <c r="J9" s="24">
-        <f t="shared" si="0"/>
-        <v>0.22733651453893355</v>
-      </c>
-      <c r="K9" s="22">
-        <f t="shared" si="2"/>
-        <v>14048709.116416151</v>
-      </c>
-      <c r="L9" s="40">
-        <v>70613532</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>2025</v>
-      </c>
-      <c r="B10" s="20">
-        <v>2480000</v>
-      </c>
-      <c r="C10" s="21">
-        <v>11574198</v>
-      </c>
-      <c r="D10" s="21">
-        <v>3951644</v>
-      </c>
-      <c r="E10" s="21">
-        <v>6103745</v>
-      </c>
-      <c r="F10" s="21">
-        <v>4356516</v>
-      </c>
-      <c r="G10" s="21">
-        <v>3034340</v>
-      </c>
-      <c r="H10" s="22">
-        <f t="shared" si="1"/>
-        <v>17446245</v>
-      </c>
-      <c r="I10" s="23">
-        <f>(B10 + 'Baseline year demographics'!$C$20*B10/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
-        <v>2916064.8393751844</v>
-      </c>
-      <c r="J10" s="24">
-        <f t="shared" si="0"/>
-        <v>0.22650398409514483</v>
-      </c>
-      <c r="K10" s="22">
-        <f t="shared" si="2"/>
-        <v>14530180.160624815</v>
-      </c>
-      <c r="L10" s="40">
-        <v>72681070</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2026</v>
-      </c>
-      <c r="B11" s="20">
-        <v>2530000</v>
-      </c>
-      <c r="C11" s="21">
-        <v>11838769</v>
-      </c>
-      <c r="D11" s="21">
-        <v>4065313</v>
-      </c>
-      <c r="E11" s="21">
-        <v>6319831</v>
-      </c>
-      <c r="F11" s="21">
-        <v>4477188</v>
-      </c>
-      <c r="G11" s="21">
-        <v>3144612</v>
-      </c>
-      <c r="H11" s="22">
-        <f t="shared" si="1"/>
-        <v>18006944</v>
-      </c>
-      <c r="I11" s="23">
-        <f>(B11 + 'Baseline year demographics'!$C$20*B11/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
-        <v>2974856.4692012966</v>
-      </c>
-      <c r="J11" s="24">
-        <f t="shared" si="0"/>
-        <v>0.22576362763165145</v>
-      </c>
-      <c r="K11" s="22">
-        <f t="shared" si="2"/>
-        <v>15032087.530798703</v>
-      </c>
-      <c r="L11" s="40">
-        <v>74794078</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>2027</v>
-      </c>
-      <c r="B12" s="20">
-        <v>2580000</v>
-      </c>
-      <c r="C12" s="21">
-        <v>12092177</v>
-      </c>
-      <c r="D12" s="21">
-        <v>4185562</v>
-      </c>
-      <c r="E12" s="21">
-        <v>6545116</v>
-      </c>
-      <c r="F12" s="21">
-        <v>4597739</v>
-      </c>
-      <c r="G12" s="21">
-        <v>3255252</v>
-      </c>
-      <c r="H12" s="22">
-        <f t="shared" si="1"/>
-        <v>18583669</v>
-      </c>
-      <c r="I12" s="23">
-        <f>(B12 + 'Baseline year demographics'!$C$20*B12/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
-        <v>3033648.0990274092</v>
-      </c>
-      <c r="J12" s="24">
-        <f t="shared" si="0"/>
-        <v>0.22522796763114969</v>
-      </c>
-      <c r="K12" s="22">
-        <f t="shared" si="2"/>
-        <v>15550020.90097259</v>
-      </c>
-      <c r="L12" s="40">
-        <v>76952218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>2028</v>
-      </c>
-      <c r="B13" s="20">
-        <v>2630000</v>
-      </c>
-      <c r="C13" s="21">
-        <v>12338218</v>
-      </c>
-      <c r="D13" s="21">
-        <v>4309237</v>
-      </c>
-      <c r="E13" s="21">
-        <v>6776307</v>
-      </c>
-      <c r="F13" s="21">
-        <v>4722286</v>
-      </c>
-      <c r="G13" s="21">
-        <v>3366750</v>
-      </c>
-      <c r="H13" s="22">
-        <f t="shared" si="1"/>
-        <v>19174580</v>
-      </c>
-      <c r="I13" s="23">
-        <f>(B13 + 'Baseline year demographics'!$C$20*B13/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
-        <v>3092439.7288535219</v>
-      </c>
-      <c r="J13" s="24">
-        <f t="shared" si="0"/>
-        <v>0.22473696946686708</v>
-      </c>
-      <c r="K13" s="22">
-        <f t="shared" si="2"/>
-        <v>16082140.271146478</v>
-      </c>
-      <c r="L13" s="40">
-        <v>79155997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>2029</v>
-      </c>
-      <c r="B14" s="20">
-        <v>2690000</v>
-      </c>
-      <c r="C14" s="21">
-        <v>12584924</v>
-      </c>
-      <c r="D14" s="21">
-        <v>4430738</v>
-      </c>
-      <c r="E14" s="21">
-        <v>7008703</v>
-      </c>
-      <c r="F14" s="21">
-        <v>4856898</v>
-      </c>
-      <c r="G14" s="21">
-        <v>3479917</v>
-      </c>
-      <c r="H14" s="22">
-        <f t="shared" si="1"/>
-        <v>19776256</v>
-      </c>
-      <c r="I14" s="23">
-        <f>(B14 + 'Baseline year demographics'!$C$20*B14/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
-        <v>3162989.684644857</v>
-      </c>
-      <c r="J14" s="24">
-        <f t="shared" si="0"/>
-        <v>0.22404331740042199</v>
-      </c>
-      <c r="K14" s="22">
-        <f t="shared" si="2"/>
-        <v>16613266.315355143</v>
-      </c>
-      <c r="L14" s="40">
-        <v>81405880</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>2030</v>
-      </c>
-      <c r="B15" s="20">
-        <v>2740000</v>
-      </c>
-      <c r="C15" s="21">
-        <v>12839335</v>
-      </c>
-      <c r="D15" s="21">
-        <v>4546624</v>
-      </c>
-      <c r="E15" s="21">
-        <v>7239465</v>
-      </c>
-      <c r="F15" s="21">
-        <v>5005361</v>
-      </c>
-      <c r="G15" s="21">
-        <v>3595278</v>
-      </c>
-      <c r="H15" s="22">
-        <f t="shared" si="1"/>
-        <v>20386728</v>
-      </c>
-      <c r="I15" s="23">
-        <f>(B15 + 'Baseline year demographics'!$C$20*B15/(1000-'Baseline year demographics'!$C$21))/(1-'Baseline year demographics'!$C$19)</f>
-        <v>3221781.3144709696</v>
-      </c>
-      <c r="J15" s="24">
-        <f t="shared" si="0"/>
-        <v>0.22301881891002814</v>
-      </c>
-      <c r="K15" s="22">
-        <f t="shared" si="2"/>
-        <v>17164946.685529031</v>
-      </c>
-      <c r="L15" s="40">
-        <v>83702053</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -18144,7 +18791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -18320,7 +18967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -18400,7 +19047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:O53"/>
   <sheetViews>
@@ -20790,7 +21437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:O56"/>
   <sheetViews>
@@ -23212,7 +23859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
@@ -23518,7 +24165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:K54"/>
   <sheetViews>
@@ -24074,7 +24721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -24362,12 +25009,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -24454,7 +25101,7 @@
         <v>185</v>
       </c>
       <c r="B6" s="125">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6" s="126">
         <v>0.85</v>
@@ -25149,7 +25796,1606 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732C9C65-1200-044E-9799-D4D48ED0657E}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D1" s="10">
+        <v>2011</v>
+      </c>
+      <c r="E1" s="10">
+        <v>2012</v>
+      </c>
+      <c r="F1" s="10">
+        <v>2013</v>
+      </c>
+      <c r="G1" s="10">
+        <v>2014</v>
+      </c>
+      <c r="H1" s="10">
+        <v>2015</v>
+      </c>
+      <c r="I1" s="10">
+        <v>2016</v>
+      </c>
+      <c r="J1" s="10">
+        <v>2017</v>
+      </c>
+      <c r="K1" s="10">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="82">
+        <f>SUM(Distributions!$C$4:$C$5)</f>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D2" s="82">
+        <f>SUM(Distributions!$C$4:$C$5)</f>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="E2" s="82">
+        <f>SUM(Distributions!$C$4:$C$5)</f>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="F2" s="82">
+        <f>SUM(Distributions!$C$4:$C$5)</f>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G2" s="82">
+        <f>SUM(Distributions!$C$4:$C$5)</f>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="H2" s="82">
+        <f>SUM(Distributions!$C$4:$C$5)</f>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="I2" s="82">
+        <f>SUM(Distributions!$C$4:$C$5)</f>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="J2" s="82">
+        <f>SUM(Distributions!$C$4:$C$5)</f>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="K2" s="82">
+        <f>SUM(Distributions!$C$4:$C$5)</f>
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="82">
+        <f>SUM(Distributions!D$4:D$5)</f>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D3" s="82">
+        <f>SUM(Distributions!D$4:D$5)</f>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="E3" s="82">
+        <f>SUM(Distributions!D$4:D$5)</f>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="F3" s="82">
+        <f>SUM(Distributions!D$4:D$5)</f>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G3" s="82">
+        <f>SUM(Distributions!D$4:D$5)</f>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="H3" s="82">
+        <f>SUM(Distributions!D$4:D$5)</f>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="I3" s="82">
+        <f>SUM(Distributions!D$4:D$5)</f>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="J3" s="82">
+        <f>SUM(Distributions!D$4:D$5)</f>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="K3" s="82">
+        <f>SUM(Distributions!D$4:D$5)</f>
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="82">
+        <f>SUM(Distributions!E$4:E$5)</f>
+        <v>0.19108504098360654</v>
+      </c>
+      <c r="D4" s="82">
+        <f>SUM(Distributions!E$4:E$5)</f>
+        <v>0.19108504098360654</v>
+      </c>
+      <c r="E4" s="82">
+        <f>SUM(Distributions!E$4:E$5)</f>
+        <v>0.19108504098360654</v>
+      </c>
+      <c r="F4" s="82">
+        <f>SUM(Distributions!E$4:E$5)</f>
+        <v>0.19108504098360654</v>
+      </c>
+      <c r="G4" s="82">
+        <f>SUM(Distributions!E$4:E$5)</f>
+        <v>0.19108504098360654</v>
+      </c>
+      <c r="H4" s="82">
+        <f>SUM(Distributions!E$4:E$5)</f>
+        <v>0.19108504098360654</v>
+      </c>
+      <c r="I4" s="82">
+        <f>SUM(Distributions!E$4:E$5)</f>
+        <v>0.19108504098360654</v>
+      </c>
+      <c r="J4" s="82">
+        <f>SUM(Distributions!E$4:E$5)</f>
+        <v>0.19108504098360654</v>
+      </c>
+      <c r="K4" s="82">
+        <f>SUM(Distributions!E$4:E$5)</f>
+        <v>0.19108504098360654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="82">
+        <f>SUM(Distributions!F$4:F$5)</f>
+        <v>0.37891670566214319</v>
+      </c>
+      <c r="D5" s="82">
+        <f>SUM(Distributions!F$4:F$5)</f>
+        <v>0.37891670566214319</v>
+      </c>
+      <c r="E5" s="82">
+        <f>SUM(Distributions!F$4:F$5)</f>
+        <v>0.37891670566214319</v>
+      </c>
+      <c r="F5" s="82">
+        <f>SUM(Distributions!F$4:F$5)</f>
+        <v>0.37891670566214319</v>
+      </c>
+      <c r="G5" s="82">
+        <f>SUM(Distributions!F$4:F$5)</f>
+        <v>0.37891670566214319</v>
+      </c>
+      <c r="H5" s="82">
+        <f>SUM(Distributions!F$4:F$5)</f>
+        <v>0.37891670566214319</v>
+      </c>
+      <c r="I5" s="82">
+        <f>SUM(Distributions!F$4:F$5)</f>
+        <v>0.37891670566214319</v>
+      </c>
+      <c r="J5" s="82">
+        <f>SUM(Distributions!F$4:F$5)</f>
+        <v>0.37891670566214319</v>
+      </c>
+      <c r="K5" s="82">
+        <f>SUM(Distributions!F$4:F$5)</f>
+        <v>0.37891670566214319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="82">
+        <f>SUM(Distributions!G$4:G$5)</f>
+        <v>0.39358559498956158</v>
+      </c>
+      <c r="D6" s="82">
+        <f>SUM(Distributions!G$4:G$5)</f>
+        <v>0.39358559498956158</v>
+      </c>
+      <c r="E6" s="82">
+        <f>SUM(Distributions!G$4:G$5)</f>
+        <v>0.39358559498956158</v>
+      </c>
+      <c r="F6" s="82">
+        <f>SUM(Distributions!G$4:G$5)</f>
+        <v>0.39358559498956158</v>
+      </c>
+      <c r="G6" s="82">
+        <f>SUM(Distributions!G$4:G$5)</f>
+        <v>0.39358559498956158</v>
+      </c>
+      <c r="H6" s="82">
+        <f>SUM(Distributions!G$4:G$5)</f>
+        <v>0.39358559498956158</v>
+      </c>
+      <c r="I6" s="82">
+        <f>SUM(Distributions!G$4:G$5)</f>
+        <v>0.39358559498956158</v>
+      </c>
+      <c r="J6" s="82">
+        <f>SUM(Distributions!G$4:G$5)</f>
+        <v>0.39358559498956158</v>
+      </c>
+      <c r="K6" s="82">
+        <f>SUM(Distributions!G$4:G$5)</f>
+        <v>0.39358559498956158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="82">
+        <f>SUM(Distributions!C10:C11)</f>
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="82">
+        <f>SUM(Distributions!D10:D11)</f>
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="82">
+        <f>SUM(Distributions!E10:E11)</f>
+        <v>6.9747692307692316E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="82">
+        <f>SUM(Distributions!F10:F11)</f>
+        <v>5.2643124415341441E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="82">
+        <f>SUM(Distributions!G10:G11)</f>
+        <v>2.9665156004880597E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="82">
+        <f>'Prevalence of anaemia'!C3</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="82">
+        <f>'Prevalence of anaemia'!D3</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="82">
+        <f>'Prevalence of anaemia'!E3</f>
+        <v>0.32801999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="82">
+        <f>'Prevalence of anaemia'!F3</f>
+        <v>0.30639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="82">
+        <f>'Prevalence of anaemia'!G3</f>
+        <v>0.20314000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B19" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19" s="82">
+        <f>'Prevalence of anaemia'!H3</f>
+        <v>0.19865999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B20" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="82">
+        <f>'Prevalence of anaemia'!I3</f>
+        <v>0.18773999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B21" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K21" s="82">
+        <f>'Prevalence of anaemia'!J3</f>
+        <v>0.18185999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B22" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K22" s="82">
+        <f>'Prevalence of anaemia'!K3</f>
+        <v>0.18564</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B23" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="82">
+        <f>'Prevalence of anaemia'!L3</f>
+        <v>0.19865999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B24" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K24" s="82">
+        <f>'Prevalence of anaemia'!M3</f>
+        <v>0.18773999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B25" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" s="82">
+        <f>'Prevalence of anaemia'!N3</f>
+        <v>0.18185999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B26" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" s="82">
+        <f>'Prevalence of anaemia'!O3</f>
+        <v>0.18564</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B29" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B30" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B31" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B32" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F5240D-F5E2-7843-8F74-E64484849FE7}">
+  <dimension ref="A1:P107"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="86">
+        <f>'Baseline year demographics'!$C2+1</f>
+        <v>2018</v>
+      </c>
+      <c r="D1" s="86">
+        <f>C1+1</f>
+        <v>2019</v>
+      </c>
+      <c r="E1" s="86">
+        <f t="shared" ref="E1:P1" si="0">D1+1</f>
+        <v>2020</v>
+      </c>
+      <c r="F1" s="86">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="G1" s="86">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="H1" s="86">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="I1" s="86">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="J1" s="86">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="K1" s="86">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="L1" s="86">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="M1" s="86">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="N1" s="86">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="O1" s="86">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="P1" s="86">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" t="str">
+        <f>'Programs to include'!A2</f>
+        <v>Balanced energy-protein supplementation</v>
+      </c>
+      <c r="B2" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="34"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" t="str">
+        <f>A2</f>
+        <v>Balanced energy-protein supplementation</v>
+      </c>
+      <c r="B3" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="34"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" t="str">
+        <f>'Programs to include'!A3</f>
+        <v>Birth age program</v>
+      </c>
+      <c r="B4" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="34"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" t="str">
+        <f>A4</f>
+        <v>Birth age program</v>
+      </c>
+      <c r="B5" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="34"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" t="str">
+        <f>'Programs to include'!A4</f>
+        <v>Calcium supplementation</v>
+      </c>
+      <c r="B6" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="34"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" t="str">
+        <f>A6</f>
+        <v>Calcium supplementation</v>
+      </c>
+      <c r="B7" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="34"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" t="str">
+        <f>'Programs to include'!A5</f>
+        <v>Cash transfers</v>
+      </c>
+      <c r="B8" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" s="34"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" t="str">
+        <f>A8</f>
+        <v>Cash transfers</v>
+      </c>
+      <c r="B9" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" s="34"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" t="str">
+        <f>'Programs to include'!A6</f>
+        <v>Family Planning</v>
+      </c>
+      <c r="B10" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="34"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" t="str">
+        <f>A10</f>
+        <v>Family Planning</v>
+      </c>
+      <c r="B11" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" s="34"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" t="str">
+        <f>'Programs to include'!A7</f>
+        <v>IFA fortification of maize</v>
+      </c>
+      <c r="B12" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" s="34"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" t="str">
+        <f>A12</f>
+        <v>IFA fortification of maize</v>
+      </c>
+      <c r="B13" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" s="34"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" t="str">
+        <f>'Programs to include'!A8</f>
+        <v>IFA fortification of rice</v>
+      </c>
+      <c r="B14" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" s="34"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" t="str">
+        <f>A14</f>
+        <v>IFA fortification of rice</v>
+      </c>
+      <c r="B15" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" s="34"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" t="str">
+        <f>'Programs to include'!A9</f>
+        <v>IFA fortification of wheat flour</v>
+      </c>
+      <c r="B16" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C16" s="34"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="str">
+        <f>A16</f>
+        <v>IFA fortification of wheat flour</v>
+      </c>
+      <c r="B17" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C17" s="34"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="str">
+        <f>'Programs to include'!A10</f>
+        <v>IFAS not poor: community</v>
+      </c>
+      <c r="B18" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C18" s="34"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="str">
+        <f>A18</f>
+        <v>IFAS not poor: community</v>
+      </c>
+      <c r="B19" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C19" s="34"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="str">
+        <f>'Programs to include'!A11</f>
+        <v>IFAS not poor: community (malaria area)</v>
+      </c>
+      <c r="B20" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C20" s="34"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="str">
+        <f>A20</f>
+        <v>IFAS not poor: community (malaria area)</v>
+      </c>
+      <c r="B21" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21" s="34"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="str">
+        <f>'Programs to include'!A12</f>
+        <v>IFAS not poor: hospital</v>
+      </c>
+      <c r="B22" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22" s="34"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="str">
+        <f>A22</f>
+        <v>IFAS not poor: hospital</v>
+      </c>
+      <c r="B23" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" s="34"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="str">
+        <f>'Programs to include'!A13</f>
+        <v>IFAS not poor: hospital (malaria area)</v>
+      </c>
+      <c r="B24" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24" s="34"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="str">
+        <f>A24</f>
+        <v>IFAS not poor: hospital (malaria area)</v>
+      </c>
+      <c r="B25" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C25" s="34"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="str">
+        <f>'Programs to include'!A14</f>
+        <v>IFAS not poor: retailer</v>
+      </c>
+      <c r="B26" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C26" s="34"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="str">
+        <f>A26</f>
+        <v>IFAS not poor: retailer</v>
+      </c>
+      <c r="B27" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C27" s="34"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="str">
+        <f>'Programs to include'!A15</f>
+        <v>IFAS not poor: retailer (malaria area)</v>
+      </c>
+      <c r="B28" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C28" s="34"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="str">
+        <f>A28</f>
+        <v>IFAS not poor: retailer (malaria area)</v>
+      </c>
+      <c r="B29" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C29" s="34"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="str">
+        <f>'Programs to include'!A16</f>
+        <v>IFAS not poor: school</v>
+      </c>
+      <c r="B30" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C30" s="34"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="str">
+        <f>A30</f>
+        <v>IFAS not poor: school</v>
+      </c>
+      <c r="B31" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C31" s="34"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="str">
+        <f>'Programs to include'!A17</f>
+        <v>IFAS not poor: school (malaria area)</v>
+      </c>
+      <c r="B32" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C32" s="34"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="str">
+        <f>A32</f>
+        <v>IFAS not poor: school (malaria area)</v>
+      </c>
+      <c r="B33" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C33" s="34"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="str">
+        <f>'Programs to include'!A18</f>
+        <v>IFAS poor: community</v>
+      </c>
+      <c r="B34" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C34" s="34"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="str">
+        <f>A34</f>
+        <v>IFAS poor: community</v>
+      </c>
+      <c r="B35" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C35" s="34"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="str">
+        <f>'Programs to include'!A19</f>
+        <v>IFAS poor: community (malaria area)</v>
+      </c>
+      <c r="B36" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C36" s="34"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="str">
+        <f>A36</f>
+        <v>IFAS poor: community (malaria area)</v>
+      </c>
+      <c r="B37" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C37" s="34"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="str">
+        <f>'Programs to include'!A20</f>
+        <v>IFAS poor: hospital</v>
+      </c>
+      <c r="B38" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C38" s="34"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="str">
+        <f>A38</f>
+        <v>IFAS poor: hospital</v>
+      </c>
+      <c r="B39" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C39" s="34"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="str">
+        <f>'Programs to include'!A21</f>
+        <v>IFAS poor: hospital (malaria area)</v>
+      </c>
+      <c r="B40" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C40" s="34"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="str">
+        <f>A40</f>
+        <v>IFAS poor: hospital (malaria area)</v>
+      </c>
+      <c r="B41" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C41" s="34"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="str">
+        <f>'Programs to include'!A22</f>
+        <v>IFAS poor: school</v>
+      </c>
+      <c r="B42" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C42" s="34"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="str">
+        <f>A42</f>
+        <v>IFAS poor: school</v>
+      </c>
+      <c r="B43" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C43" s="34"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="str">
+        <f>'Programs to include'!A23</f>
+        <v>IFAS poor: school (malaria area)</v>
+      </c>
+      <c r="B44" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C44" s="34"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="str">
+        <f>A44</f>
+        <v>IFAS poor: school (malaria area)</v>
+      </c>
+      <c r="B45" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C45" s="34"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="str">
+        <f>'Programs to include'!A24</f>
+        <v>IPTp</v>
+      </c>
+      <c r="B46" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C46" s="34"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="str">
+        <f>A46</f>
+        <v>IPTp</v>
+      </c>
+      <c r="B47" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C47" s="34"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="str">
+        <f>'Programs to include'!A25</f>
+        <v>Iron and folic acid supplementation for pregnant women</v>
+      </c>
+      <c r="B48" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C48" s="34"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" t="str">
+        <f>A48</f>
+        <v>Iron and folic acid supplementation for pregnant women</v>
+      </c>
+      <c r="B49" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C49" s="34"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" t="str">
+        <f>'Programs to include'!A26</f>
+        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
+      </c>
+      <c r="B50" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C50" s="34"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" t="str">
+        <f>A50</f>
+        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
+      </c>
+      <c r="B51" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C51" s="34"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" t="str">
+        <f>'Programs to include'!A27</f>
+        <v>Iron and iodine fortification of salt</v>
+      </c>
+      <c r="B52" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C52" s="34"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" t="str">
+        <f>A52</f>
+        <v>Iron and iodine fortification of salt</v>
+      </c>
+      <c r="B53" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C53" s="34"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" t="str">
+        <f>'Programs to include'!A28</f>
+        <v>Iron fortification of maize</v>
+      </c>
+      <c r="B54" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C54" s="34"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" t="str">
+        <f>A54</f>
+        <v>Iron fortification of maize</v>
+      </c>
+      <c r="B55" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C55" s="34"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" t="str">
+        <f>'Programs to include'!A29</f>
+        <v>Iron fortification of rice</v>
+      </c>
+      <c r="B56" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C56" s="34"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" t="str">
+        <f>A56</f>
+        <v>Iron fortification of rice</v>
+      </c>
+      <c r="B57" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C57" s="34"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" t="str">
+        <f>'Programs to include'!A30</f>
+        <v>Iron fortification of wheat flour</v>
+      </c>
+      <c r="B58" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C58" s="34"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" t="str">
+        <f>A58</f>
+        <v>Iron fortification of wheat flour</v>
+      </c>
+      <c r="B59" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C59" s="34"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" t="str">
+        <f>'Programs to include'!A31</f>
+        <v>Long-lasting insecticide-treated bednets</v>
+      </c>
+      <c r="B60" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C60" s="34"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" t="str">
+        <f>A60</f>
+        <v>Long-lasting insecticide-treated bednets</v>
+      </c>
+      <c r="B61" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C61" s="34"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" t="str">
+        <f>'Programs to include'!A32</f>
+        <v>Mg for eclampsia</v>
+      </c>
+      <c r="B62" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C62" s="34"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" t="str">
+        <f>A62</f>
+        <v>Mg for eclampsia</v>
+      </c>
+      <c r="B63" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C63" s="34"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" t="str">
+        <f>'Programs to include'!A33</f>
+        <v>Mg for pre-eclampsia</v>
+      </c>
+      <c r="B64" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C64" s="34"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" t="str">
+        <f>A64</f>
+        <v>Mg for pre-eclampsia</v>
+      </c>
+      <c r="B65" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C65" s="34"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" t="str">
+        <f>'Programs to include'!A34</f>
+        <v>Multiple micronutrient supplementation</v>
+      </c>
+      <c r="B66" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C66" s="34"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" t="str">
+        <f>A66</f>
+        <v>Multiple micronutrient supplementation</v>
+      </c>
+      <c r="B67" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C67" s="34"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" t="str">
+        <f>'Programs to include'!A35</f>
+        <v>Multiple micronutrient supplementation (malaria area)</v>
+      </c>
+      <c r="B68" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C68" s="34"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" t="str">
+        <f>A68</f>
+        <v>Multiple micronutrient supplementation (malaria area)</v>
+      </c>
+      <c r="B69" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C69" s="34"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" t="str">
+        <f>'Programs to include'!A36</f>
+        <v>Oral rehydration salts</v>
+      </c>
+      <c r="B70" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C70" s="34"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" t="str">
+        <f>A70</f>
+        <v>Oral rehydration salts</v>
+      </c>
+      <c r="B71" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C71" s="34"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" t="str">
+        <f>'Programs to include'!A37</f>
+        <v>Public provision of complementary foods</v>
+      </c>
+      <c r="B72" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C72" s="34"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" t="str">
+        <f>A72</f>
+        <v>Public provision of complementary foods</v>
+      </c>
+      <c r="B73" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C73" s="34"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" t="str">
+        <f>'Programs to include'!A38</f>
+        <v>Public provision of complementary foods with iron</v>
+      </c>
+      <c r="B74" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C74" s="34"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" t="str">
+        <f>A74</f>
+        <v>Public provision of complementary foods with iron</v>
+      </c>
+      <c r="B75" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C75" s="34"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" t="str">
+        <f>'Programs to include'!A39</f>
+        <v>Public provision of complementary foods with iron (malaria area)</v>
+      </c>
+      <c r="B76" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C76" s="34"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" t="str">
+        <f>A76</f>
+        <v>Public provision of complementary foods with iron (malaria area)</v>
+      </c>
+      <c r="B77" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C77" s="34"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" t="str">
+        <f>'Programs to include'!A40</f>
+        <v>Sprinkles</v>
+      </c>
+      <c r="B78" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C78" s="34"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" t="str">
+        <f>A78</f>
+        <v>Sprinkles</v>
+      </c>
+      <c r="B79" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C79" s="34"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" t="str">
+        <f>'Programs to include'!A41</f>
+        <v>Sprinkles (malaria area)</v>
+      </c>
+      <c r="B80" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C80" s="34"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" t="str">
+        <f>A80</f>
+        <v>Sprinkles (malaria area)</v>
+      </c>
+      <c r="B81" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C81" s="34"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" t="str">
+        <f>'Programs to include'!A42</f>
+        <v>Treatment of MAM</v>
+      </c>
+      <c r="B82" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C82" s="34"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" t="str">
+        <f>A82</f>
+        <v>Treatment of MAM</v>
+      </c>
+      <c r="B83" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C83" s="34"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" t="str">
+        <f>'Programs to include'!A43</f>
+        <v>Treatment of SAM</v>
+      </c>
+      <c r="B84" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C84" s="34"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85" t="str">
+        <f>A84</f>
+        <v>Treatment of SAM</v>
+      </c>
+      <c r="B85" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C85" s="34"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86" t="str">
+        <f>'Programs to include'!A44</f>
+        <v>Vitamin A supplementation</v>
+      </c>
+      <c r="B86" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C86" s="34"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87" t="str">
+        <f>A86</f>
+        <v>Vitamin A supplementation</v>
+      </c>
+      <c r="B87" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C87" s="34"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88" t="str">
+        <f>'Programs to include'!A45</f>
+        <v>WASH: Handwashing</v>
+      </c>
+      <c r="B88" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C88" s="34"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89" t="str">
+        <f>A88</f>
+        <v>WASH: Handwashing</v>
+      </c>
+      <c r="B89" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C89" s="34"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90" t="str">
+        <f>'Programs to include'!A46</f>
+        <v>WASH: Hygenic disposal</v>
+      </c>
+      <c r="B90" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C90" s="34"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91" t="str">
+        <f>A90</f>
+        <v>WASH: Hygenic disposal</v>
+      </c>
+      <c r="B91" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C91" s="34"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92" t="str">
+        <f>'Programs to include'!A47</f>
+        <v>WASH: Improved sanitation</v>
+      </c>
+      <c r="B92" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C92" s="34"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93" t="str">
+        <f>A92</f>
+        <v>WASH: Improved sanitation</v>
+      </c>
+      <c r="B93" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C93" s="34"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94" t="str">
+        <f>'Programs to include'!A48</f>
+        <v>WASH: Improved water source</v>
+      </c>
+      <c r="B94" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C94" s="34"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95" t="str">
+        <f>A94</f>
+        <v>WASH: Improved water source</v>
+      </c>
+      <c r="B95" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C95" s="34"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96" t="str">
+        <f>'Programs to include'!A49</f>
+        <v>WASH: Piped water</v>
+      </c>
+      <c r="B96" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C96" s="34"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97" t="str">
+        <f>A96</f>
+        <v>WASH: Piped water</v>
+      </c>
+      <c r="B97" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C97" s="34"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98" t="str">
+        <f>'Programs to include'!A50</f>
+        <v>Zinc for treatment + ORS</v>
+      </c>
+      <c r="B98" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C98" s="34"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99" t="str">
+        <f>A98</f>
+        <v>Zinc for treatment + ORS</v>
+      </c>
+      <c r="B99" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C99" s="34"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100" t="str">
+        <f>'Programs to include'!A51</f>
+        <v>Zinc supplementation</v>
+      </c>
+      <c r="B100" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C100" s="34"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101" t="str">
+        <f>A100</f>
+        <v>Zinc supplementation</v>
+      </c>
+      <c r="B101" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C101" s="34"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102" t="str">
+        <f>'Programs to include'!A52</f>
+        <v>IYCF 1</v>
+      </c>
+      <c r="B102" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C102" s="34"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103" t="str">
+        <f>A102</f>
+        <v>IYCF 1</v>
+      </c>
+      <c r="B103" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C103" s="34"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104" t="str">
+        <f>'Programs to include'!A53</f>
+        <v>IYCF 2</v>
+      </c>
+      <c r="B104" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C104" s="34"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105" t="str">
+        <f>A104</f>
+        <v>IYCF 2</v>
+      </c>
+      <c r="B105" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C105" s="34"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106" t="str">
+        <f>'Programs to include'!A54</f>
+        <v>IYCF 3</v>
+      </c>
+      <c r="B106" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C106" s="34"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107" t="str">
+        <f>A106</f>
+        <v>IYCF 3</v>
+      </c>
+      <c r="B107" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C107" s="34"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -25215,927 +27461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J28"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" s="111">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="C2" s="112">
-        <v>0</v>
-      </c>
-      <c r="D2" s="112">
-        <v>0</v>
-      </c>
-      <c r="E2" s="112">
-        <v>0</v>
-      </c>
-      <c r="F2" s="112">
-        <v>0</v>
-      </c>
-      <c r="G2" s="30">
-        <v>0</v>
-      </c>
-      <c r="H2" s="30">
-        <v>0</v>
-      </c>
-      <c r="I2" s="30">
-        <v>0</v>
-      </c>
-      <c r="J2" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="111">
-        <v>0.1966</v>
-      </c>
-      <c r="C3" s="112">
-        <v>0</v>
-      </c>
-      <c r="D3" s="112">
-        <v>0</v>
-      </c>
-      <c r="E3" s="112">
-        <v>0</v>
-      </c>
-      <c r="F3" s="112">
-        <v>0</v>
-      </c>
-      <c r="G3" s="30">
-        <v>0</v>
-      </c>
-      <c r="H3" s="30">
-        <v>0</v>
-      </c>
-      <c r="I3" s="30">
-        <v>0</v>
-      </c>
-      <c r="J3" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="111">
-        <v>6.2100000000000002E-2</v>
-      </c>
-      <c r="C4" s="112">
-        <v>0</v>
-      </c>
-      <c r="D4" s="112">
-        <v>0</v>
-      </c>
-      <c r="E4" s="112">
-        <v>0</v>
-      </c>
-      <c r="F4" s="112">
-        <v>0</v>
-      </c>
-      <c r="G4" s="30">
-        <v>0</v>
-      </c>
-      <c r="H4" s="30">
-        <v>0</v>
-      </c>
-      <c r="I4" s="30">
-        <v>0</v>
-      </c>
-      <c r="J4" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="111">
-        <v>0.29289999999999999</v>
-      </c>
-      <c r="C5" s="112">
-        <v>0</v>
-      </c>
-      <c r="D5" s="112">
-        <v>0</v>
-      </c>
-      <c r="E5" s="112">
-        <v>0</v>
-      </c>
-      <c r="F5" s="112">
-        <v>0</v>
-      </c>
-      <c r="G5" s="30">
-        <v>0</v>
-      </c>
-      <c r="H5" s="30">
-        <v>0</v>
-      </c>
-      <c r="I5" s="30">
-        <v>0</v>
-      </c>
-      <c r="J5" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="111">
-        <v>0.24709999999999999</v>
-      </c>
-      <c r="C6" s="112">
-        <v>0</v>
-      </c>
-      <c r="D6" s="112">
-        <v>0</v>
-      </c>
-      <c r="E6" s="112">
-        <v>0</v>
-      </c>
-      <c r="F6" s="112">
-        <v>0</v>
-      </c>
-      <c r="G6" s="30">
-        <v>0</v>
-      </c>
-      <c r="H6" s="30">
-        <v>0</v>
-      </c>
-      <c r="I6" s="30">
-        <v>0</v>
-      </c>
-      <c r="J6" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="111">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="C7" s="112">
-        <v>0</v>
-      </c>
-      <c r="D7" s="112">
-        <v>0</v>
-      </c>
-      <c r="E7" s="112">
-        <v>0</v>
-      </c>
-      <c r="F7" s="112">
-        <v>0</v>
-      </c>
-      <c r="G7" s="30">
-        <v>0</v>
-      </c>
-      <c r="H7" s="30">
-        <v>0</v>
-      </c>
-      <c r="I7" s="30">
-        <v>0</v>
-      </c>
-      <c r="J7" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="111">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="C8" s="112">
-        <v>0</v>
-      </c>
-      <c r="D8" s="112">
-        <v>0</v>
-      </c>
-      <c r="E8" s="112">
-        <v>0</v>
-      </c>
-      <c r="F8" s="112">
-        <v>0</v>
-      </c>
-      <c r="G8" s="30">
-        <v>0</v>
-      </c>
-      <c r="H8" s="30">
-        <v>0</v>
-      </c>
-      <c r="I8" s="30">
-        <v>0</v>
-      </c>
-      <c r="J8" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="111">
-        <v>6.1800000000000001E-2</v>
-      </c>
-      <c r="C9" s="112">
-        <v>0</v>
-      </c>
-      <c r="D9" s="112">
-        <v>0</v>
-      </c>
-      <c r="E9" s="112">
-        <v>0</v>
-      </c>
-      <c r="F9" s="112">
-        <v>0</v>
-      </c>
-      <c r="G9" s="30">
-        <v>0</v>
-      </c>
-      <c r="H9" s="30">
-        <v>0</v>
-      </c>
-      <c r="I9" s="30">
-        <v>0</v>
-      </c>
-      <c r="J9" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="B10" s="112">
-        <v>0</v>
-      </c>
-      <c r="C10" s="111">
-        <v>0.1368</v>
-      </c>
-      <c r="D10" s="111">
-        <v>0.1368</v>
-      </c>
-      <c r="E10" s="111">
-        <v>0.1368</v>
-      </c>
-      <c r="F10" s="111">
-        <v>0.1368</v>
-      </c>
-      <c r="G10" s="30">
-        <v>0</v>
-      </c>
-      <c r="H10" s="30">
-        <v>0</v>
-      </c>
-      <c r="I10" s="30">
-        <v>0</v>
-      </c>
-      <c r="J10" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B11" s="112">
-        <v>0</v>
-      </c>
-      <c r="C11" s="111">
-        <v>0</v>
-      </c>
-      <c r="D11" s="111">
-        <v>0</v>
-      </c>
-      <c r="E11" s="111">
-        <v>0</v>
-      </c>
-      <c r="F11" s="111">
-        <v>0</v>
-      </c>
-      <c r="G11" s="30">
-        <v>0</v>
-      </c>
-      <c r="H11" s="30">
-        <v>0</v>
-      </c>
-      <c r="I11" s="30">
-        <v>0</v>
-      </c>
-      <c r="J11" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="112">
-        <v>0</v>
-      </c>
-      <c r="C12" s="111">
-        <v>0.20660000000000001</v>
-      </c>
-      <c r="D12" s="111">
-        <v>0.20660000000000001</v>
-      </c>
-      <c r="E12" s="111">
-        <v>0.20660000000000001</v>
-      </c>
-      <c r="F12" s="111">
-        <v>0.20660000000000001</v>
-      </c>
-      <c r="G12" s="30">
-        <v>0</v>
-      </c>
-      <c r="H12" s="30">
-        <v>0</v>
-      </c>
-      <c r="I12" s="30">
-        <v>0</v>
-      </c>
-      <c r="J12" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="112">
-        <v>0</v>
-      </c>
-      <c r="C13" s="111">
-        <v>2.1100000000000001E-2</v>
-      </c>
-      <c r="D13" s="111">
-        <v>2.1100000000000001E-2</v>
-      </c>
-      <c r="E13" s="111">
-        <v>2.1100000000000001E-2</v>
-      </c>
-      <c r="F13" s="111">
-        <v>2.1100000000000001E-2</v>
-      </c>
-      <c r="G13" s="30">
-        <v>0</v>
-      </c>
-      <c r="H13" s="30">
-        <v>0</v>
-      </c>
-      <c r="I13" s="30">
-        <v>0</v>
-      </c>
-      <c r="J13" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="112">
-        <v>0</v>
-      </c>
-      <c r="C14" s="111">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="D14" s="111">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="E14" s="111">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="F14" s="111">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="G14" s="30">
-        <v>0</v>
-      </c>
-      <c r="H14" s="30">
-        <v>0</v>
-      </c>
-      <c r="I14" s="30">
-        <v>0</v>
-      </c>
-      <c r="J14" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="112">
-        <v>0</v>
-      </c>
-      <c r="C15" s="111">
-        <v>8.6199999999999999E-2</v>
-      </c>
-      <c r="D15" s="111">
-        <v>8.6199999999999999E-2</v>
-      </c>
-      <c r="E15" s="111">
-        <v>8.6199999999999999E-2</v>
-      </c>
-      <c r="F15" s="111">
-        <v>8.6199999999999999E-2</v>
-      </c>
-      <c r="G15" s="30">
-        <v>0</v>
-      </c>
-      <c r="H15" s="30">
-        <v>0</v>
-      </c>
-      <c r="I15" s="30">
-        <v>0</v>
-      </c>
-      <c r="J15" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="112">
-        <v>0</v>
-      </c>
-      <c r="C16" s="111">
-        <v>2.86E-2</v>
-      </c>
-      <c r="D16" s="111">
-        <v>2.86E-2</v>
-      </c>
-      <c r="E16" s="111">
-        <v>2.86E-2</v>
-      </c>
-      <c r="F16" s="111">
-        <v>2.86E-2</v>
-      </c>
-      <c r="G16" s="30">
-        <v>0</v>
-      </c>
-      <c r="H16" s="30">
-        <v>0</v>
-      </c>
-      <c r="I16" s="30">
-        <v>0</v>
-      </c>
-      <c r="J16" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="112">
-        <v>0</v>
-      </c>
-      <c r="C17" s="111">
-        <v>1.5299999999999999E-2</v>
-      </c>
-      <c r="D17" s="111">
-        <v>1.5299999999999999E-2</v>
-      </c>
-      <c r="E17" s="111">
-        <v>1.5299999999999999E-2</v>
-      </c>
-      <c r="F17" s="111">
-        <v>1.5299999999999999E-2</v>
-      </c>
-      <c r="G17" s="30">
-        <v>0</v>
-      </c>
-      <c r="H17" s="30">
-        <v>0</v>
-      </c>
-      <c r="I17" s="30">
-        <v>0</v>
-      </c>
-      <c r="J17" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="112">
-        <v>0</v>
-      </c>
-      <c r="C18" s="111">
-        <v>0.13589999999999999</v>
-      </c>
-      <c r="D18" s="111">
-        <v>0.13589999999999999</v>
-      </c>
-      <c r="E18" s="111">
-        <v>0.13589999999999999</v>
-      </c>
-      <c r="F18" s="111">
-        <v>0.13589999999999999</v>
-      </c>
-      <c r="G18" s="30">
-        <v>0</v>
-      </c>
-      <c r="H18" s="30">
-        <v>0</v>
-      </c>
-      <c r="I18" s="30">
-        <v>0</v>
-      </c>
-      <c r="J18" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="112">
-        <v>0</v>
-      </c>
-      <c r="C19" s="111">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="D19" s="111">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="E19" s="111">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="F19" s="111">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="G19" s="30">
-        <v>0</v>
-      </c>
-      <c r="H19" s="30">
-        <v>0</v>
-      </c>
-      <c r="I19" s="30">
-        <v>0</v>
-      </c>
-      <c r="J19" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="30">
-        <v>0</v>
-      </c>
-      <c r="C20" s="30">
-        <v>0</v>
-      </c>
-      <c r="D20" s="30">
-        <v>0</v>
-      </c>
-      <c r="E20" s="30">
-        <v>0</v>
-      </c>
-      <c r="F20" s="30">
-        <v>0</v>
-      </c>
-      <c r="G20" s="111">
-        <v>0.10082724000000001</v>
-      </c>
-      <c r="H20" s="111">
-        <v>0.10082724000000001</v>
-      </c>
-      <c r="I20" s="111">
-        <v>0.10082724000000001</v>
-      </c>
-      <c r="J20" s="111">
-        <v>0.10082724000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="30">
-        <v>0</v>
-      </c>
-      <c r="C21" s="30">
-        <v>0</v>
-      </c>
-      <c r="D21" s="30">
-        <v>0</v>
-      </c>
-      <c r="E21" s="30">
-        <v>0</v>
-      </c>
-      <c r="F21" s="30">
-        <v>0</v>
-      </c>
-      <c r="G21" s="111">
-        <v>3.1206000000000002E-4</v>
-      </c>
-      <c r="H21" s="111">
-        <v>3.1206000000000002E-4</v>
-      </c>
-      <c r="I21" s="111">
-        <v>3.1206000000000002E-4</v>
-      </c>
-      <c r="J21" s="111">
-        <v>3.1206000000000002E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="30">
-        <v>0</v>
-      </c>
-      <c r="C22" s="30">
-        <v>0</v>
-      </c>
-      <c r="D22" s="30">
-        <v>0</v>
-      </c>
-      <c r="E22" s="30">
-        <v>0</v>
-      </c>
-      <c r="F22" s="30">
-        <v>0</v>
-      </c>
-      <c r="G22" s="111">
-        <v>0.15891214000000001</v>
-      </c>
-      <c r="H22" s="111">
-        <v>0.15891214000000001</v>
-      </c>
-      <c r="I22" s="111">
-        <v>0.15891214000000001</v>
-      </c>
-      <c r="J22" s="111">
-        <v>0.15891214000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="30">
-        <v>0</v>
-      </c>
-      <c r="C23" s="30">
-        <v>0</v>
-      </c>
-      <c r="D23" s="30">
-        <v>0</v>
-      </c>
-      <c r="E23" s="30">
-        <v>0</v>
-      </c>
-      <c r="F23" s="30">
-        <v>0</v>
-      </c>
-      <c r="G23" s="111">
-        <v>0.12598688999999999</v>
-      </c>
-      <c r="H23" s="111">
-        <v>0.12598688999999999</v>
-      </c>
-      <c r="I23" s="111">
-        <v>0.12598688999999999</v>
-      </c>
-      <c r="J23" s="111">
-        <v>0.12598688999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="30">
-        <v>0</v>
-      </c>
-      <c r="C24" s="30">
-        <v>0</v>
-      </c>
-      <c r="D24" s="30">
-        <v>0</v>
-      </c>
-      <c r="E24" s="30">
-        <v>0</v>
-      </c>
-      <c r="F24" s="30">
-        <v>0</v>
-      </c>
-      <c r="G24" s="111">
-        <v>0.12434007</v>
-      </c>
-      <c r="H24" s="111">
-        <v>0.12434007</v>
-      </c>
-      <c r="I24" s="111">
-        <v>0.12434007</v>
-      </c>
-      <c r="J24" s="111">
-        <v>0.12434007</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="30">
-        <v>0</v>
-      </c>
-      <c r="C25" s="30">
-        <v>0</v>
-      </c>
-      <c r="D25" s="30">
-        <v>0</v>
-      </c>
-      <c r="E25" s="30">
-        <v>0</v>
-      </c>
-      <c r="F25" s="30">
-        <v>0</v>
-      </c>
-      <c r="G25" s="111">
-        <v>3.9028409999999999E-2</v>
-      </c>
-      <c r="H25" s="111">
-        <v>3.9028409999999999E-2</v>
-      </c>
-      <c r="I25" s="111">
-        <v>3.9028409999999999E-2</v>
-      </c>
-      <c r="J25" s="111">
-        <v>3.9028409999999999E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="30">
-        <v>0</v>
-      </c>
-      <c r="C26" s="30">
-        <v>0</v>
-      </c>
-      <c r="D26" s="30">
-        <v>0</v>
-      </c>
-      <c r="E26" s="30">
-        <v>0</v>
-      </c>
-      <c r="F26" s="30">
-        <v>0</v>
-      </c>
-      <c r="G26" s="111">
-        <v>8.5254999999999999E-4</v>
-      </c>
-      <c r="H26" s="111">
-        <v>8.5254999999999999E-4</v>
-      </c>
-      <c r="I26" s="111">
-        <v>8.5254999999999999E-4</v>
-      </c>
-      <c r="J26" s="111">
-        <v>8.5254999999999999E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="30">
-        <v>0</v>
-      </c>
-      <c r="C27" s="30">
-        <v>0</v>
-      </c>
-      <c r="D27" s="30">
-        <v>0</v>
-      </c>
-      <c r="E27" s="30">
-        <v>0</v>
-      </c>
-      <c r="F27" s="30">
-        <v>0</v>
-      </c>
-      <c r="G27" s="111">
-        <v>6.8467810000000004E-2</v>
-      </c>
-      <c r="H27" s="111">
-        <v>6.8467810000000004E-2</v>
-      </c>
-      <c r="I27" s="111">
-        <v>6.8467810000000004E-2</v>
-      </c>
-      <c r="J27" s="111">
-        <v>6.8467810000000004E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="30">
-        <v>0</v>
-      </c>
-      <c r="C28" s="30">
-        <v>0</v>
-      </c>
-      <c r="D28" s="30">
-        <v>0</v>
-      </c>
-      <c r="E28" s="30">
-        <v>0</v>
-      </c>
-      <c r="F28" s="30">
-        <v>0</v>
-      </c>
-      <c r="G28" s="111">
-        <v>0.38127283000000001</v>
-      </c>
-      <c r="H28" s="111">
-        <v>0.38127283000000001</v>
-      </c>
-      <c r="I28" s="111">
-        <v>0.38127283000000001</v>
-      </c>
-      <c r="J28" s="111">
-        <v>0.38127283000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="8" max="1048575" man="1"/>
-  </colBreaks>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
@@ -26479,6 +27805,926 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="111">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="C2" s="112">
+        <v>0</v>
+      </c>
+      <c r="D2" s="112">
+        <v>0</v>
+      </c>
+      <c r="E2" s="112">
+        <v>0</v>
+      </c>
+      <c r="F2" s="112">
+        <v>0</v>
+      </c>
+      <c r="G2" s="30">
+        <v>0</v>
+      </c>
+      <c r="H2" s="30">
+        <v>0</v>
+      </c>
+      <c r="I2" s="30">
+        <v>0</v>
+      </c>
+      <c r="J2" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="111">
+        <v>0.1966</v>
+      </c>
+      <c r="C3" s="112">
+        <v>0</v>
+      </c>
+      <c r="D3" s="112">
+        <v>0</v>
+      </c>
+      <c r="E3" s="112">
+        <v>0</v>
+      </c>
+      <c r="F3" s="112">
+        <v>0</v>
+      </c>
+      <c r="G3" s="30">
+        <v>0</v>
+      </c>
+      <c r="H3" s="30">
+        <v>0</v>
+      </c>
+      <c r="I3" s="30">
+        <v>0</v>
+      </c>
+      <c r="J3" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="111">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="C4" s="112">
+        <v>0</v>
+      </c>
+      <c r="D4" s="112">
+        <v>0</v>
+      </c>
+      <c r="E4" s="112">
+        <v>0</v>
+      </c>
+      <c r="F4" s="112">
+        <v>0</v>
+      </c>
+      <c r="G4" s="30">
+        <v>0</v>
+      </c>
+      <c r="H4" s="30">
+        <v>0</v>
+      </c>
+      <c r="I4" s="30">
+        <v>0</v>
+      </c>
+      <c r="J4" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="111">
+        <v>0.29289999999999999</v>
+      </c>
+      <c r="C5" s="112">
+        <v>0</v>
+      </c>
+      <c r="D5" s="112">
+        <v>0</v>
+      </c>
+      <c r="E5" s="112">
+        <v>0</v>
+      </c>
+      <c r="F5" s="112">
+        <v>0</v>
+      </c>
+      <c r="G5" s="30">
+        <v>0</v>
+      </c>
+      <c r="H5" s="30">
+        <v>0</v>
+      </c>
+      <c r="I5" s="30">
+        <v>0</v>
+      </c>
+      <c r="J5" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="111">
+        <v>0.24709999999999999</v>
+      </c>
+      <c r="C6" s="112">
+        <v>0</v>
+      </c>
+      <c r="D6" s="112">
+        <v>0</v>
+      </c>
+      <c r="E6" s="112">
+        <v>0</v>
+      </c>
+      <c r="F6" s="112">
+        <v>0</v>
+      </c>
+      <c r="G6" s="30">
+        <v>0</v>
+      </c>
+      <c r="H6" s="30">
+        <v>0</v>
+      </c>
+      <c r="I6" s="30">
+        <v>0</v>
+      </c>
+      <c r="J6" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="111">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="C7" s="112">
+        <v>0</v>
+      </c>
+      <c r="D7" s="112">
+        <v>0</v>
+      </c>
+      <c r="E7" s="112">
+        <v>0</v>
+      </c>
+      <c r="F7" s="112">
+        <v>0</v>
+      </c>
+      <c r="G7" s="30">
+        <v>0</v>
+      </c>
+      <c r="H7" s="30">
+        <v>0</v>
+      </c>
+      <c r="I7" s="30">
+        <v>0</v>
+      </c>
+      <c r="J7" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="111">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="C8" s="112">
+        <v>0</v>
+      </c>
+      <c r="D8" s="112">
+        <v>0</v>
+      </c>
+      <c r="E8" s="112">
+        <v>0</v>
+      </c>
+      <c r="F8" s="112">
+        <v>0</v>
+      </c>
+      <c r="G8" s="30">
+        <v>0</v>
+      </c>
+      <c r="H8" s="30">
+        <v>0</v>
+      </c>
+      <c r="I8" s="30">
+        <v>0</v>
+      </c>
+      <c r="J8" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="111">
+        <v>6.1800000000000001E-2</v>
+      </c>
+      <c r="C9" s="112">
+        <v>0</v>
+      </c>
+      <c r="D9" s="112">
+        <v>0</v>
+      </c>
+      <c r="E9" s="112">
+        <v>0</v>
+      </c>
+      <c r="F9" s="112">
+        <v>0</v>
+      </c>
+      <c r="G9" s="30">
+        <v>0</v>
+      </c>
+      <c r="H9" s="30">
+        <v>0</v>
+      </c>
+      <c r="I9" s="30">
+        <v>0</v>
+      </c>
+      <c r="J9" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="112">
+        <v>0</v>
+      </c>
+      <c r="C10" s="111">
+        <v>0.1368</v>
+      </c>
+      <c r="D10" s="111">
+        <v>0.1368</v>
+      </c>
+      <c r="E10" s="111">
+        <v>0.1368</v>
+      </c>
+      <c r="F10" s="111">
+        <v>0.1368</v>
+      </c>
+      <c r="G10" s="30">
+        <v>0</v>
+      </c>
+      <c r="H10" s="30">
+        <v>0</v>
+      </c>
+      <c r="I10" s="30">
+        <v>0</v>
+      </c>
+      <c r="J10" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" s="112">
+        <v>0</v>
+      </c>
+      <c r="C11" s="111">
+        <v>0</v>
+      </c>
+      <c r="D11" s="111">
+        <v>0</v>
+      </c>
+      <c r="E11" s="111">
+        <v>0</v>
+      </c>
+      <c r="F11" s="111">
+        <v>0</v>
+      </c>
+      <c r="G11" s="30">
+        <v>0</v>
+      </c>
+      <c r="H11" s="30">
+        <v>0</v>
+      </c>
+      <c r="I11" s="30">
+        <v>0</v>
+      </c>
+      <c r="J11" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="112">
+        <v>0</v>
+      </c>
+      <c r="C12" s="111">
+        <v>0.20660000000000001</v>
+      </c>
+      <c r="D12" s="111">
+        <v>0.20660000000000001</v>
+      </c>
+      <c r="E12" s="111">
+        <v>0.20660000000000001</v>
+      </c>
+      <c r="F12" s="111">
+        <v>0.20660000000000001</v>
+      </c>
+      <c r="G12" s="30">
+        <v>0</v>
+      </c>
+      <c r="H12" s="30">
+        <v>0</v>
+      </c>
+      <c r="I12" s="30">
+        <v>0</v>
+      </c>
+      <c r="J12" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="112">
+        <v>0</v>
+      </c>
+      <c r="C13" s="111">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="D13" s="111">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="E13" s="111">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="F13" s="111">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="G13" s="30">
+        <v>0</v>
+      </c>
+      <c r="H13" s="30">
+        <v>0</v>
+      </c>
+      <c r="I13" s="30">
+        <v>0</v>
+      </c>
+      <c r="J13" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="112">
+        <v>0</v>
+      </c>
+      <c r="C14" s="111">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="D14" s="111">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="E14" s="111">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F14" s="111">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G14" s="30">
+        <v>0</v>
+      </c>
+      <c r="H14" s="30">
+        <v>0</v>
+      </c>
+      <c r="I14" s="30">
+        <v>0</v>
+      </c>
+      <c r="J14" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="112">
+        <v>0</v>
+      </c>
+      <c r="C15" s="111">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="D15" s="111">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="E15" s="111">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="F15" s="111">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="G15" s="30">
+        <v>0</v>
+      </c>
+      <c r="H15" s="30">
+        <v>0</v>
+      </c>
+      <c r="I15" s="30">
+        <v>0</v>
+      </c>
+      <c r="J15" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="112">
+        <v>0</v>
+      </c>
+      <c r="C16" s="111">
+        <v>2.86E-2</v>
+      </c>
+      <c r="D16" s="111">
+        <v>2.86E-2</v>
+      </c>
+      <c r="E16" s="111">
+        <v>2.86E-2</v>
+      </c>
+      <c r="F16" s="111">
+        <v>2.86E-2</v>
+      </c>
+      <c r="G16" s="30">
+        <v>0</v>
+      </c>
+      <c r="H16" s="30">
+        <v>0</v>
+      </c>
+      <c r="I16" s="30">
+        <v>0</v>
+      </c>
+      <c r="J16" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="112">
+        <v>0</v>
+      </c>
+      <c r="C17" s="111">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="D17" s="111">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="E17" s="111">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="F17" s="111">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="G17" s="30">
+        <v>0</v>
+      </c>
+      <c r="H17" s="30">
+        <v>0</v>
+      </c>
+      <c r="I17" s="30">
+        <v>0</v>
+      </c>
+      <c r="J17" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="112">
+        <v>0</v>
+      </c>
+      <c r="C18" s="111">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="D18" s="111">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="E18" s="111">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="F18" s="111">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="G18" s="30">
+        <v>0</v>
+      </c>
+      <c r="H18" s="30">
+        <v>0</v>
+      </c>
+      <c r="I18" s="30">
+        <v>0</v>
+      </c>
+      <c r="J18" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="112">
+        <v>0</v>
+      </c>
+      <c r="C19" s="111">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="D19" s="111">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="E19" s="111">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="F19" s="111">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="G19" s="30">
+        <v>0</v>
+      </c>
+      <c r="H19" s="30">
+        <v>0</v>
+      </c>
+      <c r="I19" s="30">
+        <v>0</v>
+      </c>
+      <c r="J19" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="30">
+        <v>0</v>
+      </c>
+      <c r="C20" s="30">
+        <v>0</v>
+      </c>
+      <c r="D20" s="30">
+        <v>0</v>
+      </c>
+      <c r="E20" s="30">
+        <v>0</v>
+      </c>
+      <c r="F20" s="30">
+        <v>0</v>
+      </c>
+      <c r="G20" s="111">
+        <v>0.10082724000000001</v>
+      </c>
+      <c r="H20" s="111">
+        <v>0.10082724000000001</v>
+      </c>
+      <c r="I20" s="111">
+        <v>0.10082724000000001</v>
+      </c>
+      <c r="J20" s="111">
+        <v>0.10082724000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="30">
+        <v>0</v>
+      </c>
+      <c r="C21" s="30">
+        <v>0</v>
+      </c>
+      <c r="D21" s="30">
+        <v>0</v>
+      </c>
+      <c r="E21" s="30">
+        <v>0</v>
+      </c>
+      <c r="F21" s="30">
+        <v>0</v>
+      </c>
+      <c r="G21" s="111">
+        <v>3.1206000000000002E-4</v>
+      </c>
+      <c r="H21" s="111">
+        <v>3.1206000000000002E-4</v>
+      </c>
+      <c r="I21" s="111">
+        <v>3.1206000000000002E-4</v>
+      </c>
+      <c r="J21" s="111">
+        <v>3.1206000000000002E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="30">
+        <v>0</v>
+      </c>
+      <c r="C22" s="30">
+        <v>0</v>
+      </c>
+      <c r="D22" s="30">
+        <v>0</v>
+      </c>
+      <c r="E22" s="30">
+        <v>0</v>
+      </c>
+      <c r="F22" s="30">
+        <v>0</v>
+      </c>
+      <c r="G22" s="111">
+        <v>0.15891214000000001</v>
+      </c>
+      <c r="H22" s="111">
+        <v>0.15891214000000001</v>
+      </c>
+      <c r="I22" s="111">
+        <v>0.15891214000000001</v>
+      </c>
+      <c r="J22" s="111">
+        <v>0.15891214000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="30">
+        <v>0</v>
+      </c>
+      <c r="C23" s="30">
+        <v>0</v>
+      </c>
+      <c r="D23" s="30">
+        <v>0</v>
+      </c>
+      <c r="E23" s="30">
+        <v>0</v>
+      </c>
+      <c r="F23" s="30">
+        <v>0</v>
+      </c>
+      <c r="G23" s="111">
+        <v>0.12598688999999999</v>
+      </c>
+      <c r="H23" s="111">
+        <v>0.12598688999999999</v>
+      </c>
+      <c r="I23" s="111">
+        <v>0.12598688999999999</v>
+      </c>
+      <c r="J23" s="111">
+        <v>0.12598688999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="30">
+        <v>0</v>
+      </c>
+      <c r="C24" s="30">
+        <v>0</v>
+      </c>
+      <c r="D24" s="30">
+        <v>0</v>
+      </c>
+      <c r="E24" s="30">
+        <v>0</v>
+      </c>
+      <c r="F24" s="30">
+        <v>0</v>
+      </c>
+      <c r="G24" s="111">
+        <v>0.12434007</v>
+      </c>
+      <c r="H24" s="111">
+        <v>0.12434007</v>
+      </c>
+      <c r="I24" s="111">
+        <v>0.12434007</v>
+      </c>
+      <c r="J24" s="111">
+        <v>0.12434007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="30">
+        <v>0</v>
+      </c>
+      <c r="C25" s="30">
+        <v>0</v>
+      </c>
+      <c r="D25" s="30">
+        <v>0</v>
+      </c>
+      <c r="E25" s="30">
+        <v>0</v>
+      </c>
+      <c r="F25" s="30">
+        <v>0</v>
+      </c>
+      <c r="G25" s="111">
+        <v>3.9028409999999999E-2</v>
+      </c>
+      <c r="H25" s="111">
+        <v>3.9028409999999999E-2</v>
+      </c>
+      <c r="I25" s="111">
+        <v>3.9028409999999999E-2</v>
+      </c>
+      <c r="J25" s="111">
+        <v>3.9028409999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="30">
+        <v>0</v>
+      </c>
+      <c r="C26" s="30">
+        <v>0</v>
+      </c>
+      <c r="D26" s="30">
+        <v>0</v>
+      </c>
+      <c r="E26" s="30">
+        <v>0</v>
+      </c>
+      <c r="F26" s="30">
+        <v>0</v>
+      </c>
+      <c r="G26" s="111">
+        <v>8.5254999999999999E-4</v>
+      </c>
+      <c r="H26" s="111">
+        <v>8.5254999999999999E-4</v>
+      </c>
+      <c r="I26" s="111">
+        <v>8.5254999999999999E-4</v>
+      </c>
+      <c r="J26" s="111">
+        <v>8.5254999999999999E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="30">
+        <v>0</v>
+      </c>
+      <c r="C27" s="30">
+        <v>0</v>
+      </c>
+      <c r="D27" s="30">
+        <v>0</v>
+      </c>
+      <c r="E27" s="30">
+        <v>0</v>
+      </c>
+      <c r="F27" s="30">
+        <v>0</v>
+      </c>
+      <c r="G27" s="111">
+        <v>6.8467810000000004E-2</v>
+      </c>
+      <c r="H27" s="111">
+        <v>6.8467810000000004E-2</v>
+      </c>
+      <c r="I27" s="111">
+        <v>6.8467810000000004E-2</v>
+      </c>
+      <c r="J27" s="111">
+        <v>6.8467810000000004E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="30">
+        <v>0</v>
+      </c>
+      <c r="C28" s="30">
+        <v>0</v>
+      </c>
+      <c r="D28" s="30">
+        <v>0</v>
+      </c>
+      <c r="E28" s="30">
+        <v>0</v>
+      </c>
+      <c r="F28" s="30">
+        <v>0</v>
+      </c>
+      <c r="G28" s="111">
+        <v>0.38127283000000001</v>
+      </c>
+      <c r="H28" s="111">
+        <v>0.38127283000000001</v>
+      </c>
+      <c r="I28" s="111">
+        <v>0.38127283000000001</v>
+      </c>
+      <c r="J28" s="111">
+        <v>0.38127283000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="8" max="1048575" man="1"/>
+  </colBreaks>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -26625,7 +28871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
@@ -26990,12 +29236,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -27369,12 +29615,6 @@
     <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="4"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D29">
-        <f>_xlfn.NORM.INV(0.5, 0, 1)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -27383,7 +29623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDF9271-A6AF-7E41-A1A9-AAF3090BE398}">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -27802,7 +30042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -27946,572 +30186,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="19">
-        <f>1-D2-E2-F2</f>
-        <v>0.49547179999999996</v>
-      </c>
-      <c r="D2" s="14">
-        <v>0.3649</v>
-      </c>
-      <c r="E2" s="14">
-        <v>0.1085</v>
-      </c>
-      <c r="F2" s="14">
-        <v>3.1128200000000002E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="11">
-        <v>1.53</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1.32</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6">
-        <v>6.4</v>
-      </c>
-      <c r="F6" s="6">
-        <v>46.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="49">
-        <v>1</v>
-      </c>
-      <c r="D7" s="49">
-        <v>2.58</v>
-      </c>
-      <c r="E7" s="49">
-        <v>1.65</v>
-      </c>
-      <c r="F7" s="49">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="49">
-        <v>1</v>
-      </c>
-      <c r="D8" s="49">
-        <v>2.58</v>
-      </c>
-      <c r="E8" s="49">
-        <v>1.65</v>
-      </c>
-      <c r="F8" s="49">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="10"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="E13" s="5">
-        <v>3.39</v>
-      </c>
-      <c r="F13" s="5">
-        <v>11.89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="E14" s="5">
-        <v>3.39</v>
-      </c>
-      <c r="F14" s="5">
-        <v>11.89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="E15" s="5">
-        <v>3.39</v>
-      </c>
-      <c r="F15" s="5">
-        <v>11.89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
-        <v>999.99</v>
-      </c>
-      <c r="F16" s="5">
-        <v>999.99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="10"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="B23" s="93" t="s">
-        <v>234</v>
-      </c>
-      <c r="C23" s="94">
-        <v>1</v>
-      </c>
-      <c r="D23" s="94">
-        <v>1.52</v>
-      </c>
-      <c r="E23" s="94">
-        <v>1.75</v>
-      </c>
-      <c r="F23" s="94">
-        <v>3.14</v>
-      </c>
-      <c r="G23" s="95"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="93" t="s">
-        <v>235</v>
-      </c>
-      <c r="C24" s="94">
-        <v>1</v>
-      </c>
-      <c r="D24" s="94">
-        <v>1.2</v>
-      </c>
-      <c r="E24" s="94">
-        <v>1.4</v>
-      </c>
-      <c r="F24" s="94">
-        <v>1.6</v>
-      </c>
-      <c r="G24" s="95"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="93" t="s">
-        <v>236</v>
-      </c>
-      <c r="C25" s="94">
-        <v>1</v>
-      </c>
-      <c r="D25" s="94">
-        <v>1.2</v>
-      </c>
-      <c r="E25" s="94">
-        <v>1.4</v>
-      </c>
-      <c r="F25" s="94">
-        <v>1.6</v>
-      </c>
-      <c r="G25" s="95"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="96" t="s">
-        <v>237</v>
-      </c>
-      <c r="C26" s="94">
-        <v>1</v>
-      </c>
-      <c r="D26" s="94">
-        <v>1.52</v>
-      </c>
-      <c r="E26" s="94">
-        <v>1.75</v>
-      </c>
-      <c r="F26" s="94">
-        <v>1.73</v>
-      </c>
-      <c r="G26" s="95"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="96" t="s">
-        <v>238</v>
-      </c>
-      <c r="C27" s="94">
-        <v>1</v>
-      </c>
-      <c r="D27" s="94">
-        <v>1</v>
-      </c>
-      <c r="E27" s="94">
-        <v>1</v>
-      </c>
-      <c r="F27" s="94">
-        <v>1</v>
-      </c>
-      <c r="G27" s="95"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="96" t="s">
-        <v>239</v>
-      </c>
-      <c r="C28" s="94">
-        <v>1</v>
-      </c>
-      <c r="D28" s="94">
-        <v>1</v>
-      </c>
-      <c r="E28" s="94">
-        <v>1</v>
-      </c>
-      <c r="F28" s="94">
-        <v>1</v>
-      </c>
-      <c r="G28" s="95"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="94">
-        <v>1</v>
-      </c>
-      <c r="D29" s="94">
-        <v>1.52</v>
-      </c>
-      <c r="E29" s="94">
-        <v>1.75</v>
-      </c>
-      <c r="F29" s="94">
-        <v>1.52</v>
-      </c>
-      <c r="G29" s="95"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="97" t="s">
-        <v>241</v>
-      </c>
-      <c r="C30" s="94">
-        <v>1</v>
-      </c>
-      <c r="D30" s="94">
-        <v>1</v>
-      </c>
-      <c r="E30" s="94">
-        <v>1.33</v>
-      </c>
-      <c r="F30" s="94">
-        <v>1</v>
-      </c>
-      <c r="G30" s="95"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="97" t="s">
-        <v>242</v>
-      </c>
-      <c r="C31" s="94">
-        <v>1</v>
-      </c>
-      <c r="D31" s="94">
-        <v>1</v>
-      </c>
-      <c r="E31" s="94">
-        <v>1.33</v>
-      </c>
-      <c r="F31" s="94">
-        <v>1</v>
-      </c>
-      <c r="G31" s="95"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="99"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="95"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="10"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="95"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="B35" s="99" t="s">
-        <v>244</v>
-      </c>
-      <c r="C35" s="94">
-        <v>1</v>
-      </c>
-      <c r="D35" s="100">
-        <v>1</v>
-      </c>
-      <c r="E35" s="100">
-        <v>1</v>
-      </c>
-      <c r="F35" s="100">
-        <v>1</v>
-      </c>
-      <c r="G35" s="95"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="99" t="s">
-        <v>245</v>
-      </c>
-      <c r="C36" s="94">
-        <v>1</v>
-      </c>
-      <c r="D36" s="100">
-        <v>1.41</v>
-      </c>
-      <c r="E36" s="100">
-        <v>1.49</v>
-      </c>
-      <c r="F36" s="100">
-        <v>3.03</v>
-      </c>
-      <c r="G36" s="95"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="99" t="s">
-        <v>246</v>
-      </c>
-      <c r="C37" s="94">
-        <v>1</v>
-      </c>
-      <c r="D37" s="100">
-        <v>1.18</v>
-      </c>
-      <c r="E37" s="100">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F37" s="100">
-        <v>1.77</v>
-      </c>
-      <c r="G37" s="95"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="99" t="s">
-        <v>247</v>
-      </c>
-      <c r="C38" s="94">
-        <v>1</v>
-      </c>
-      <c r="D38" s="100">
-        <v>1</v>
-      </c>
-      <c r="E38" s="100">
-        <v>1</v>
-      </c>
-      <c r="F38" s="100">
-        <v>1</v>
-      </c>
-      <c r="G38" s="95"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2018Jan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B504461-0065-1C4A-8324-B5897E867E69}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0840120B-D4A2-DE48-997B-BC3CA80CD04F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6180" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6180" yWindow="-21140" windowWidth="19200" windowHeight="21140" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -7764,8 +7764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7793,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="86">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16732,8 +16732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -26274,59 +26274,59 @@
       </c>
       <c r="C1" s="86">
         <f>'Baseline year demographics'!$C2+1</f>
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D1" s="86">
         <f>C1+1</f>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E1" s="86">
         <f t="shared" ref="E1:P1" si="0">D1+1</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F1" s="86">
         <f t="shared" si="0"/>
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G1" s="86">
         <f t="shared" si="0"/>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="H1" s="86">
         <f t="shared" si="0"/>
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I1" s="86">
         <f t="shared" si="0"/>
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="J1" s="86">
         <f t="shared" si="0"/>
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="K1" s="86">
         <f t="shared" si="0"/>
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="L1" s="86">
         <f t="shared" si="0"/>
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="M1" s="86">
         <f t="shared" si="0"/>
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="N1" s="86">
         <f t="shared" si="0"/>
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="O1" s="86">
         <f t="shared" si="0"/>
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="P1" s="86">
         <f t="shared" si="0"/>
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">

--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2018Jan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0840120B-D4A2-DE48-997B-BC3CA80CD04F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B19FA1C-E330-B740-BBF9-84D981B87C98}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6180" yWindow="-21140" windowWidth="19200" windowHeight="21140" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6180" yWindow="-21140" windowWidth="19200" windowHeight="21140" tabRatio="888" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -3461,7 +3461,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="290">
   <si>
     <t>year</t>
   </si>
@@ -7764,7 +7764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -12832,8 +12832,8 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13044,10 +13044,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G12" s="4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -14365,6 +14365,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -14375,11 +14380,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -27466,7 +27466,7 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27495,21 +27495,33 @@
       <c r="A3" s="120" t="s">
         <v>268</v>
       </c>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>264</v>
       </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>143</v>
       </c>
+      <c r="B5" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>185</v>
       </c>
+      <c r="B6" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
@@ -27523,81 +27535,129 @@
       <c r="A8" s="12" t="s">
         <v>146</v>
       </c>
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>144</v>
       </c>
+      <c r="B9" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>124</v>
       </c>
+      <c r="B10" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>132</v>
       </c>
+      <c r="B11" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>125</v>
       </c>
+      <c r="B12" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>133</v>
       </c>
+      <c r="B13" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>126</v>
       </c>
+      <c r="B14" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>134</v>
       </c>
+      <c r="B15" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>123</v>
       </c>
+      <c r="B16" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>131</v>
       </c>
+      <c r="B17" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>121</v>
       </c>
+      <c r="B18" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>129</v>
       </c>
+      <c r="B19" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>122</v>
       </c>
+      <c r="B20" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>130</v>
       </c>
+      <c r="B21" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>120</v>
       </c>
+      <c r="B22" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>128</v>
       </c>
+      <c r="B23" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
@@ -27611,11 +27671,17 @@
       <c r="A25" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="B25" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>139</v>
       </c>
+      <c r="B26" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
@@ -27652,26 +27718,41 @@
       <c r="A32" s="4" t="s">
         <v>266</v>
       </c>
+      <c r="B32" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>265</v>
       </c>
+      <c r="B33" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>135</v>
       </c>
+      <c r="B34" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>138</v>
       </c>
+      <c r="B35" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>262</v>
       </c>
+      <c r="B36" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
@@ -27685,16 +27766,25 @@
       <c r="A38" s="4" t="s">
         <v>75</v>
       </c>
+      <c r="B38" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>136</v>
       </c>
+      <c r="B39" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="B40" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="29" t="s">
@@ -27732,7 +27822,7 @@
       <c r="A45" t="s">
         <v>261</v>
       </c>
-      <c r="B45" s="133" t="s">
+      <c r="B45" t="s">
         <v>165</v>
       </c>
     </row>
@@ -27740,7 +27830,7 @@
       <c r="A46" t="s">
         <v>260</v>
       </c>
-      <c r="B46" s="133" t="s">
+      <c r="B46" t="s">
         <v>165</v>
       </c>
     </row>
@@ -27748,7 +27838,7 @@
       <c r="A47" t="s">
         <v>259</v>
       </c>
-      <c r="B47" s="133" t="s">
+      <c r="B47" t="s">
         <v>165</v>
       </c>
     </row>
@@ -27756,7 +27846,7 @@
       <c r="A48" t="s">
         <v>257</v>
       </c>
-      <c r="B48" s="133" t="s">
+      <c r="B48" t="s">
         <v>165</v>
       </c>
     </row>
@@ -27764,7 +27854,7 @@
       <c r="A49" t="s">
         <v>258</v>
       </c>
-      <c r="B49" s="133" t="s">
+      <c r="B49" t="s">
         <v>165</v>
       </c>
     </row>
@@ -27779,6 +27869,9 @@
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>140</v>
+      </c>
+      <c r="B51" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">

--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2018Jan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B19FA1C-E330-B740-BBF9-84D981B87C98}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CEF5C3-7117-1D48-9B6F-37BC7F561BC5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6180" yWindow="-21140" windowWidth="19200" windowHeight="21140" tabRatio="888" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6180" yWindow="-21140" windowWidth="19200" windowHeight="21140" tabRatio="888" firstSheet="27" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13020" yWindow="-21140" windowWidth="19200" windowHeight="21140" firstSheet="26" activeTab="31" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -3461,7 +3462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="290">
   <si>
     <t>year</t>
   </si>
@@ -7767,6 +7768,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8207,6 +8209,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8778,6 +8781,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D96" sqref="D96"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -12832,9 +12836,10 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -13266,6 +13271,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -14365,11 +14371,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -14380,6 +14381,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -14393,6 +14399,7 @@
     <sheetView zoomScale="133" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -14608,6 +14615,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8:D12"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -14803,6 +14811,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -14880,6 +14889,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -15188,6 +15198,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -16647,6 +16658,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -16735,6 +16747,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -17387,6 +17400,7 @@
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -18594,6 +18608,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -18801,6 +18816,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -18977,6 +18993,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -19054,6 +19071,7 @@
     <sheetView topLeftCell="A30" zoomScale="135" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -21444,6 +21462,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -23866,6 +23885,7 @@
     <sheetView zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -24172,6 +24192,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -24728,6 +24749,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -25013,9 +25035,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -25803,6 +25826,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -26262,6 +26286,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -27402,6 +27427,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="P43" sqref="P43"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -27466,7 +27492,10 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27495,39 +27524,27 @@
       <c r="A3" s="120" t="s">
         <v>268</v>
       </c>
-      <c r="B3" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B4" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B5" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>185</v>
       </c>
-      <c r="B6" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="133" t="s">
         <v>165</v>
       </c>
     </row>
@@ -27535,135 +27552,87 @@
       <c r="A8" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B8" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B9" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>124</v>
       </c>
-      <c r="B10" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>132</v>
       </c>
-      <c r="B11" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>125</v>
       </c>
-      <c r="B12" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>133</v>
       </c>
-      <c r="B13" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>126</v>
       </c>
-      <c r="B14" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>134</v>
       </c>
-      <c r="B15" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>123</v>
       </c>
-      <c r="B16" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>131</v>
       </c>
-      <c r="B17" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>121</v>
       </c>
-      <c r="B18" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>129</v>
       </c>
-      <c r="B19" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>122</v>
       </c>
-      <c r="B20" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>130</v>
       </c>
-      <c r="B21" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>120</v>
       </c>
-      <c r="B22" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>128</v>
       </c>
-      <c r="B23" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>119</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="133" t="s">
         <v>165</v>
       </c>
     </row>
@@ -27671,23 +27640,17 @@
       <c r="A25" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B25" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B26" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="133" t="s">
         <v>165</v>
       </c>
     </row>
@@ -27718,25 +27681,16 @@
       <c r="A32" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B32" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B33" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>135</v>
       </c>
-      <c r="B34" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
@@ -27750,9 +27704,6 @@
       <c r="A36" t="s">
         <v>262</v>
       </c>
-      <c r="B36" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
@@ -27766,25 +27717,16 @@
       <c r="A38" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B38" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B39" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B40" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="29" t="s">
@@ -27869,9 +27811,6 @@
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B51" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
@@ -27904,6 +27843,7 @@
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -28824,6 +28764,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -28971,6 +28912,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -29336,6 +29278,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -29723,6 +29666,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -30142,6 +30086,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C15"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>

--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2018Jan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CEF5C3-7117-1D48-9B6F-37BC7F561BC5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA07A42-C2C9-A240-9928-FAE9E0FEACAD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6180" yWindow="-21140" windowWidth="19200" windowHeight="21140" tabRatio="888" firstSheet="27" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="13020" yWindow="-21140" windowWidth="19200" windowHeight="21140" firstSheet="26" activeTab="31" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
+    <workbookView xWindow="1740" yWindow="-21140" windowWidth="30480" windowHeight="21140" firstSheet="25" activeTab="31" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -3462,7 +3461,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="290">
   <si>
     <t>year</t>
   </si>
@@ -7766,9 +7765,8 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8206,10 +8204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8778,10 +8773,7 @@
   </sheetPr>
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -12836,10 +12828,7 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -13268,10 +13257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -14371,6 +14357,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -14381,11 +14372,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -14396,10 +14382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="133" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -14612,10 +14595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D12"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -14808,10 +14788,7 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -14886,10 +14863,7 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -15195,10 +15169,7 @@
   </sheetPr>
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -16655,10 +16626,7 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -16744,10 +16712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -17397,10 +17362,7 @@
   </sheetPr>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -18605,10 +18567,7 @@
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -18813,10 +18772,7 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -18990,10 +18946,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -19068,10 +19021,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="135" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -21459,10 +21411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -23882,10 +23831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -24189,10 +24135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -24746,10 +24689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -25035,10 +24975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -25823,10 +25760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732C9C65-1200-044E-9799-D4D48ED0657E}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -26283,10 +26217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F5240D-F5E2-7843-8F74-E64484849FE7}">
   <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -27424,10 +27355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -27491,11 +27419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27516,7 +27441,7 @@
       <c r="A2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="133" t="s">
         <v>165</v>
       </c>
     </row>
@@ -27524,21 +27449,31 @@
       <c r="A3" s="120" t="s">
         <v>268</v>
       </c>
+      <c r="B3" s="133"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>264</v>
       </c>
+      <c r="B4" s="133" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>143</v>
       </c>
+      <c r="B5" s="133" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>185</v>
       </c>
+      <c r="B6" s="133" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
@@ -27552,81 +27487,111 @@
       <c r="A8" s="12" t="s">
         <v>146</v>
       </c>
+      <c r="B8" s="133"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>144</v>
       </c>
+      <c r="B9" s="133"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>124</v>
       </c>
+      <c r="B10" s="133"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>132</v>
       </c>
+      <c r="B11" s="133" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>125</v>
       </c>
+      <c r="B12" s="133"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>133</v>
       </c>
+      <c r="B13" s="133" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>126</v>
       </c>
+      <c r="B14" s="133"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>134</v>
       </c>
+      <c r="B15" s="133" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>123</v>
       </c>
+      <c r="B16" s="133"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>131</v>
       </c>
+      <c r="B17" s="133" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>121</v>
       </c>
+      <c r="B18" s="133"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>129</v>
       </c>
+      <c r="B19" s="133" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>122</v>
       </c>
+      <c r="B20" s="133"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>130</v>
       </c>
+      <c r="B21" s="133" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>120</v>
       </c>
+      <c r="B22" s="133"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>128</v>
       </c>
+      <c r="B23" s="133" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
@@ -27640,11 +27605,15 @@
       <c r="A25" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="B25" s="133"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>139</v>
       </c>
+      <c r="B26" s="133" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
@@ -27681,11 +27650,17 @@
       <c r="A32" s="4" t="s">
         <v>266</v>
       </c>
+      <c r="B32" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>265</v>
       </c>
+      <c r="B33" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
@@ -27704,6 +27679,9 @@
       <c r="A36" t="s">
         <v>262</v>
       </c>
+      <c r="B36" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
@@ -27722,6 +27700,9 @@
       <c r="A39" s="4" t="s">
         <v>136</v>
       </c>
+      <c r="B39" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
@@ -27811,6 +27792,9 @@
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>140</v>
+      </c>
+      <c r="B51" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
@@ -27840,10 +27824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -28761,10 +28742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -28909,10 +28887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -29275,10 +29250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -29663,10 +29635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDF9271-A6AF-7E41-A1A9-AAF3090BE398}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -30083,10 +30052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C15"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>

--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2018Jan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA07A42-C2C9-A240-9928-FAE9E0FEACAD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC034B1-3289-A246-88CF-C401AA3E6B9E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="-21140" windowWidth="30480" windowHeight="21140" firstSheet="25" activeTab="31" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
+    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="19200" windowHeight="21140" firstSheet="22" activeTab="31" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -3461,7 +3461,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="290">
   <si>
     <t>year</t>
   </si>
@@ -14357,11 +14357,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -14372,6 +14367,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -14863,7 +14863,9 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -15169,7 +15171,9 @@
   </sheetPr>
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -19022,7 +19026,7 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21411,7 +21415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -23831,7 +23837,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -23964,7 +23972,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -24135,7 +24143,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -27420,7 +27430,7 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27455,25 +27465,19 @@
       <c r="A4" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="133" t="s">
-        <v>165</v>
-      </c>
+      <c r="B4" s="133"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="133" t="s">
-        <v>165</v>
-      </c>
+      <c r="B5" s="133"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="133" t="s">
-        <v>165</v>
-      </c>
+      <c r="B6" s="133"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
@@ -27505,9 +27509,7 @@
       <c r="A11" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="133" t="s">
-        <v>165</v>
-      </c>
+      <c r="B11" s="133"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
@@ -27519,9 +27521,7 @@
       <c r="A13" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="133" t="s">
-        <v>165</v>
-      </c>
+      <c r="B13" s="133"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
@@ -27533,9 +27533,7 @@
       <c r="A15" t="s">
         <v>134</v>
       </c>
-      <c r="B15" s="133" t="s">
-        <v>165</v>
-      </c>
+      <c r="B15" s="133"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
@@ -27547,9 +27545,7 @@
       <c r="A17" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="133" t="s">
-        <v>165</v>
-      </c>
+      <c r="B17" s="133"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
@@ -27561,9 +27557,7 @@
       <c r="A19" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="133" t="s">
-        <v>165</v>
-      </c>
+      <c r="B19" s="133"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
@@ -27575,9 +27569,7 @@
       <c r="A21" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="133" t="s">
-        <v>165</v>
-      </c>
+      <c r="B21" s="133"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
@@ -27589,9 +27581,7 @@
       <c r="A23" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="133" t="s">
-        <v>165</v>
-      </c>
+      <c r="B23" s="133"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
@@ -27611,9 +27601,7 @@
       <c r="A26" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="133" t="s">
-        <v>165</v>
-      </c>
+      <c r="B26" s="133"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
@@ -27650,17 +27638,11 @@
       <c r="A32" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B32" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B33" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
@@ -27671,17 +27653,11 @@
       <c r="A35" t="s">
         <v>138</v>
       </c>
-      <c r="B35" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>262</v>
       </c>
-      <c r="B36" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
@@ -27700,9 +27676,6 @@
       <c r="A39" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B39" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
@@ -27792,9 +27765,6 @@
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B51" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">

--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2018Jan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC034B1-3289-A246-88CF-C401AA3E6B9E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5DBB90-02AF-BC4B-9A92-7FFCDAEA0975}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="19200" windowHeight="21140" firstSheet="22" activeTab="31" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
+    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="19200" windowHeight="21140" firstSheet="28" activeTab="31" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -3461,7 +3461,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="290">
   <si>
     <t>year</t>
   </si>
@@ -14357,6 +14357,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -14367,11 +14372,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -27430,7 +27430,7 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27465,19 +27465,25 @@
       <c r="A4" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="133"/>
+      <c r="B4" s="133" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="133"/>
+      <c r="B5" s="133" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="133"/>
+      <c r="B6" s="133" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
@@ -27509,7 +27515,9 @@
       <c r="A11" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="133"/>
+      <c r="B11" s="133" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
@@ -27521,7 +27529,9 @@
       <c r="A13" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="133"/>
+      <c r="B13" s="133" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
@@ -27533,7 +27543,9 @@
       <c r="A15" t="s">
         <v>134</v>
       </c>
-      <c r="B15" s="133"/>
+      <c r="B15" s="133" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
@@ -27545,7 +27557,9 @@
       <c r="A17" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="133"/>
+      <c r="B17" s="133" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
@@ -27557,7 +27571,9 @@
       <c r="A19" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="133"/>
+      <c r="B19" s="133" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
@@ -27569,7 +27585,9 @@
       <c r="A21" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="133"/>
+      <c r="B21" s="133" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
@@ -27581,7 +27599,9 @@
       <c r="A23" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="133"/>
+      <c r="B23" s="133" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
@@ -27601,7 +27621,9 @@
       <c r="A26" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="133"/>
+      <c r="B26" s="133" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
@@ -27638,11 +27660,17 @@
       <c r="A32" s="4" t="s">
         <v>266</v>
       </c>
+      <c r="B32" s="133" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>265</v>
       </c>
+      <c r="B33" s="133" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
@@ -27653,11 +27681,17 @@
       <c r="A35" t="s">
         <v>138</v>
       </c>
+      <c r="B35" s="133" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>262</v>
       </c>
+      <c r="B36" s="133" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
@@ -27676,6 +27710,9 @@
       <c r="A39" s="4" t="s">
         <v>136</v>
       </c>
+      <c r="B39" s="133" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
@@ -27765,6 +27802,9 @@
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>140</v>
+      </c>
+      <c r="B51" s="133" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">

--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2018Jan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5DBB90-02AF-BC4B-9A92-7FFCDAEA0975}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76FECA5-E8FB-834C-8353-98652BDFCF68}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="19200" windowHeight="21140" firstSheet="28" activeTab="31" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
+    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="31540" windowHeight="21140" firstSheet="16" activeTab="23" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -7765,7 +7765,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19025,8 +19025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20624,16 +20624,20 @@
         <v>0</v>
       </c>
       <c r="L36" s="109">
-        <v>1</v>
+        <f>'Programs cost and coverage'!$B6+'Baseline year demographics'!$C12</f>
+        <v>0.221</v>
       </c>
       <c r="M36" s="109">
-        <v>1</v>
+        <f>'Programs cost and coverage'!$B6+'Baseline year demographics'!$C12</f>
+        <v>0.221</v>
       </c>
       <c r="N36" s="109">
-        <v>1</v>
+        <f>'Programs cost and coverage'!$B6+'Baseline year demographics'!$C12</f>
+        <v>0.221</v>
       </c>
       <c r="O36" s="109">
-        <v>1</v>
+        <f>'Programs cost and coverage'!$B6+'Baseline year demographics'!$C12</f>
+        <v>0.221</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -23837,8 +23841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -24985,7 +24989,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -26227,7 +26233,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F5240D-F5E2-7843-8F74-E64484849FE7}">
   <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -27365,7 +27373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -27429,8 +27439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2018Jan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76FECA5-E8FB-834C-8353-98652BDFCF68}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F43959B-FFF7-D241-938D-B6F205CDD051}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="31540" windowHeight="21140" firstSheet="16" activeTab="23" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
+    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="16" activeTab="25" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -3461,7 +3461,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="290">
   <si>
     <t>year</t>
   </si>
@@ -14357,11 +14357,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -14372,6 +14367,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -19025,7 +19025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
@@ -23841,8 +23841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -23902,9 +23902,7 @@
       <c r="A9" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -23915,9 +23913,7 @@
       <c r="A11" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
@@ -23928,9 +23924,7 @@
       <c r="A13" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
@@ -23941,9 +23935,7 @@
       <c r="A15" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
@@ -23954,9 +23946,7 @@
       <c r="A17" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
@@ -23967,9 +23957,7 @@
       <c r="A19" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
@@ -23980,9 +23968,7 @@
       <c r="A21" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
@@ -24004,9 +23990,6 @@
       <c r="B24" t="s">
         <v>138</v>
       </c>
-      <c r="C24" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
@@ -24051,9 +24034,6 @@
       <c r="A31" t="s">
         <v>138</v>
       </c>
-      <c r="C31" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
@@ -24072,9 +24052,7 @@
       <c r="A34" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
@@ -24091,9 +24069,7 @@
       <c r="B36" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">

--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2018Jan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F43959B-FFF7-D241-938D-B6F205CDD051}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F102327-81CE-D44D-A56C-E112B68B557A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="16" activeTab="25" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
+    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="7" activeTab="10" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -8773,7 +8773,9 @@
   </sheetPr>
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -11163,16 +11165,16 @@
         <v>1</v>
       </c>
       <c r="I57" s="4">
-        <v>3.51</v>
+        <v>10.675000000000001</v>
       </c>
       <c r="J57" s="4">
-        <v>3.51</v>
+        <v>10.675000000000001</v>
       </c>
       <c r="K57" s="4">
-        <v>3.51</v>
+        <v>10.675000000000001</v>
       </c>
       <c r="L57" s="4">
-        <v>3.51</v>
+        <v>10.675000000000001</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -11254,16 +11256,16 @@
         <v>1</v>
       </c>
       <c r="I59" s="4">
-        <v>3.51</v>
+        <v>10.675000000000001</v>
       </c>
       <c r="J59" s="4">
-        <v>3.51</v>
+        <v>10.675000000000001</v>
       </c>
       <c r="K59" s="4">
-        <v>3.51</v>
+        <v>10.675000000000001</v>
       </c>
       <c r="L59" s="4">
-        <v>3.51</v>
+        <v>10.675000000000001</v>
       </c>
       <c r="M59">
         <v>1</v>
@@ -11345,16 +11347,16 @@
         <v>1</v>
       </c>
       <c r="I61" s="4">
-        <v>3.51</v>
+        <v>10.675000000000001</v>
       </c>
       <c r="J61" s="4">
-        <v>3.51</v>
+        <v>10.675000000000001</v>
       </c>
       <c r="K61" s="4">
-        <v>3.51</v>
+        <v>10.675000000000001</v>
       </c>
       <c r="L61" s="4">
-        <v>3.51</v>
+        <v>10.675000000000001</v>
       </c>
       <c r="M61">
         <v>1</v>
@@ -11428,7 +11430,7 @@
         <v>38</v>
       </c>
       <c r="D65" s="12">
-        <v>2.2799999999999998</v>
+        <v>1.35</v>
       </c>
       <c r="E65" s="4">
         <v>1</v>
@@ -11472,7 +11474,7 @@
         <v>39</v>
       </c>
       <c r="D66" s="12">
-        <v>4.62</v>
+        <v>1.35</v>
       </c>
       <c r="E66" s="4">
         <v>1</v>
@@ -11516,7 +11518,7 @@
         <v>40</v>
       </c>
       <c r="D67" s="12">
-        <v>10.53</v>
+        <v>5.4</v>
       </c>
       <c r="E67" s="4">
         <v>1</v>
@@ -11606,8 +11608,8 @@
       <c r="C69" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D69" s="4">
-        <v>1.66</v>
+      <c r="D69" s="12">
+        <v>1.35</v>
       </c>
       <c r="E69" s="4">
         <v>1</v>
@@ -11650,8 +11652,8 @@
       <c r="C70" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D70" s="4">
-        <v>2.5</v>
+      <c r="D70" s="12">
+        <v>1.35</v>
       </c>
       <c r="E70" s="4">
         <v>1</v>
@@ -11694,8 +11696,8 @@
       <c r="C71" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D71" s="4">
-        <v>14.97</v>
+      <c r="D71" s="12">
+        <v>5.4</v>
       </c>
       <c r="E71" s="4">
         <v>1</v>
@@ -11785,8 +11787,8 @@
       <c r="C73" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="4">
-        <v>1.66</v>
+      <c r="D73" s="12">
+        <v>1.35</v>
       </c>
       <c r="E73" s="4">
         <v>1</v>
@@ -11829,8 +11831,8 @@
       <c r="C74" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D74" s="4">
-        <v>2.5</v>
+      <c r="D74" s="12">
+        <v>1.35</v>
       </c>
       <c r="E74" s="4">
         <v>1</v>
@@ -11873,8 +11875,8 @@
       <c r="C75" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D75" s="4">
-        <v>14.97</v>
+      <c r="D75" s="12">
+        <v>5.4</v>
       </c>
       <c r="E75" s="4">
         <v>1</v>
@@ -12235,13 +12237,13 @@
         <v>1</v>
       </c>
       <c r="E83" s="12">
-        <v>10.53</v>
+        <v>10.52</v>
       </c>
       <c r="F83" s="11">
-        <v>2.1</v>
+        <v>1.47</v>
       </c>
       <c r="G83" s="11">
-        <v>2.1</v>
+        <v>2.57</v>
       </c>
       <c r="H83" s="11">
         <v>1</v>
@@ -12505,7 +12507,7 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -12549,7 +12551,7 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>2.84</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -12593,13 +12595,13 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>14.4</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>3.69</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>3.69</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -23841,7 +23843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>

--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2018Jan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F102327-81CE-D44D-A56C-E112B68B557A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CCF695-47AC-7E43-8715-EB9172F164C2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="7" activeTab="10" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
+    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="14" activeTab="19" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -486,13 +486,46 @@
         </r>
       </text>
     </comment>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{894C6F33-B8E6-8B45-8B5E-FDFEB9A77B85}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick had these in the params documentation</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -501,12 +534,21 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-This assumes we deliver PPCF with education to the poor</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>This assumes we deliver PPCF with education to the poor</t>
         </r>
       </text>
     </comment>
@@ -606,14 +648,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000009000000}">
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{9BF08685-00AE-914A-9178-3CDB9EDE5066}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t>Sam:</t>
@@ -621,12 +663,21 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Fictional</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed same as stunting</t>
         </r>
       </text>
     </comment>
@@ -1560,6 +1611,39 @@
           </rPr>
           <t xml:space="preserve">
 Probably can delete</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{9793A938-F8E3-8A4F-986E-078A459B470E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick had RR in params doc, I fixed AF and solved for Eff</t>
         </r>
       </text>
     </comment>
@@ -4344,7 +4428,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4543,6 +4627,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -8204,7 +8301,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8773,7 +8872,7 @@
   </sheetPr>
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
@@ -12830,12 +12929,14 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="36.6640625" customWidth="1"/>
-    <col min="2" max="2" width="64.5" customWidth="1"/>
+    <col min="2" max="2" width="76.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
@@ -12897,19 +12998,19 @@
         <v>213</v>
       </c>
       <c r="C4">
-        <v>1.04</v>
+        <v>1.024</v>
       </c>
       <c r="D4">
-        <v>1.04</v>
+        <v>1.024</v>
       </c>
       <c r="E4">
-        <v>1.04</v>
+        <v>1.024</v>
       </c>
       <c r="F4">
-        <v>1.04</v>
+        <v>1.024</v>
       </c>
       <c r="G4">
-        <v>1.04</v>
+        <v>1.024</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -13057,12 +13158,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="4">
-        <f>1/(1 + (E7-1)*(1-'Baseline year demographics'!$C$8))</f>
-        <v>0.76409370845240454</v>
+        <v>0.77</v>
       </c>
       <c r="F13" s="4">
-        <f>1/(1 + (F7-1)*(1-'Baseline year demographics'!$C$8))</f>
-        <v>0.76409370845240454</v>
+        <v>0.77</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
@@ -13079,12 +13178,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="4">
-        <f>1 / (E$10/E$9)</f>
-        <v>0.66945606694560678</v>
+        <v>0.89</v>
       </c>
       <c r="F14" s="4">
-        <f>1 / (F$10/F$9)</f>
-        <v>0.66945606694560678</v>
+        <v>0.89</v>
       </c>
       <c r="G14" s="4">
         <v>1</v>
@@ -13101,12 +13198,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" ref="E15:F16" si="0">1 / (E$10/E$9)</f>
-        <v>0.66945606694560678</v>
+        <v>0.89</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.66945606694560678</v>
+        <v>0.89</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
@@ -13123,12 +13218,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.66945606694560678</v>
+        <v>0.89</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.66945606694560678</v>
+        <v>0.89</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
@@ -13186,20 +13279,20 @@
       <c r="B21" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C21" s="44">
-        <v>1.04</v>
-      </c>
-      <c r="D21" s="44">
-        <v>1.04</v>
-      </c>
-      <c r="E21" s="44">
-        <v>1.04</v>
-      </c>
-      <c r="F21" s="44">
-        <v>1.04</v>
-      </c>
-      <c r="G21" s="44">
-        <v>1.04</v>
+      <c r="C21">
+        <v>1.024</v>
+      </c>
+      <c r="D21">
+        <v>1.024</v>
+      </c>
+      <c r="E21">
+        <v>1.024</v>
+      </c>
+      <c r="F21">
+        <v>1.024</v>
+      </c>
+      <c r="G21">
+        <v>1.024</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -13209,20 +13302,20 @@
       <c r="B23" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="44">
-        <v>1.04</v>
-      </c>
-      <c r="D23" s="44">
-        <v>1.04</v>
-      </c>
-      <c r="E23" s="44">
-        <v>1.04</v>
-      </c>
-      <c r="F23" s="44">
-        <v>1.04</v>
-      </c>
-      <c r="G23" s="44">
-        <v>1.04</v>
+      <c r="C23">
+        <v>1.024</v>
+      </c>
+      <c r="D23">
+        <v>1.024</v>
+      </c>
+      <c r="E23">
+        <v>1.024</v>
+      </c>
+      <c r="F23">
+        <v>1.024</v>
+      </c>
+      <c r="G23">
+        <v>1.024</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -17368,7 +17461,9 @@
   </sheetPr>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -17535,14 +17630,16 @@
       <c r="E7" s="45">
         <v>0</v>
       </c>
-      <c r="F7" s="45">
-        <v>0.62</v>
-      </c>
-      <c r="G7" s="45">
-        <v>0.62</v>
+      <c r="F7" s="12">
+        <f>1-(0.913+0.335-1)/0.335</f>
+        <v>0.25970149253731345</v>
+      </c>
+      <c r="G7" s="12">
+        <f>1-(0.913+0.335-1)/0.335</f>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H7" s="45">
-        <v>0.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -17578,14 +17675,16 @@
       <c r="E9" s="45">
         <v>0</v>
       </c>
-      <c r="F9" s="45">
-        <v>0.62</v>
-      </c>
-      <c r="G9" s="45">
-        <v>0.62</v>
+      <c r="F9" s="12">
+        <f>1-(0.913+0.335-1)/0.335</f>
+        <v>0.25970149253731345</v>
+      </c>
+      <c r="G9" s="12">
+        <f>1-(0.913+0.335-1)/0.335</f>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H9" s="45">
-        <v>0.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -17624,14 +17723,16 @@
       <c r="E11" s="45">
         <v>0</v>
       </c>
-      <c r="F11" s="45">
-        <v>0.62</v>
-      </c>
-      <c r="G11" s="45">
-        <v>0.62</v>
+      <c r="F11" s="12">
+        <f>1-(0.913+0.335-1)/0.335</f>
+        <v>0.25970149253731345</v>
+      </c>
+      <c r="G11" s="12">
+        <f>1-(0.913+0.335-1)/0.335</f>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H11" s="45">
-        <v>0.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -17667,14 +17768,16 @@
       <c r="E13" s="45">
         <v>0</v>
       </c>
-      <c r="F13" s="45">
-        <v>0.62</v>
-      </c>
-      <c r="G13" s="45">
-        <v>0.62</v>
+      <c r="F13" s="12">
+        <f>1-(0.913+0.335-1)/0.335</f>
+        <v>0.25970149253731345</v>
+      </c>
+      <c r="G13" s="12">
+        <f>1-(0.913+0.335-1)/0.335</f>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H13" s="45">
-        <v>0.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -17713,14 +17816,16 @@
       <c r="E15" s="45">
         <v>0</v>
       </c>
-      <c r="F15" s="45">
-        <v>0.62</v>
-      </c>
-      <c r="G15" s="45">
-        <v>0.62</v>
+      <c r="F15" s="12">
+        <f>1-(0.913+0.335-1)/0.335</f>
+        <v>0.25970149253731345</v>
+      </c>
+      <c r="G15" s="12">
+        <f>1-(0.913+0.335-1)/0.335</f>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H15" s="45">
-        <v>0.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -17756,14 +17861,16 @@
       <c r="E17" s="45">
         <v>0</v>
       </c>
-      <c r="F17" s="45">
-        <v>0.62</v>
-      </c>
-      <c r="G17" s="45">
-        <v>0.62</v>
+      <c r="F17" s="12">
+        <f>1-(0.913+0.335-1)/0.335</f>
+        <v>0.25970149253731345</v>
+      </c>
+      <c r="G17" s="12">
+        <f>1-(0.913+0.335-1)/0.335</f>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H17" s="45">
-        <v>0.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -19027,7 +19134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>

--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2018Jan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CCF695-47AC-7E43-8715-EB9172F164C2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E4F3E2-C009-204D-B3D6-298D0E8540ED}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="14" activeTab="19" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
+    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="6" activeTab="11" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -1024,18 +1024,38 @@
           <rPr>
             <b/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+          <t xml:space="preserve">Microsoft Office User: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This RR is from the book.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -1506,6 +1526,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="E24" authorId="1" shapeId="0" xr:uid="{85914FB7-A80F-DE47-BB2A-DDB105D2D696}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Effect on iron-deficiency anemia</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B25" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000015000000}">
       <text>
         <r>
@@ -1590,6 +1634,39 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{D7A75541-3D74-AA4A-BBBA-1460A2A946CC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Used RR from params and AF above</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1100-000001000000}">
       <text>
         <r>
@@ -5517,7 +5594,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5752,6 +5829,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="689">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -12929,8 +13007,8 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -14959,7 +15037,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15267,7 +15345,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -15333,91 +15411,91 @@
       <c r="A2" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="44">
-        <v>1</v>
-      </c>
-      <c r="D2" s="44">
-        <v>1</v>
-      </c>
-      <c r="E2" s="42">
-        <v>1</v>
-      </c>
-      <c r="F2" s="42">
-        <v>1</v>
-      </c>
-      <c r="G2" s="42">
-        <v>1</v>
-      </c>
-      <c r="H2" s="42">
-        <v>1</v>
-      </c>
-      <c r="I2" s="42">
-        <v>1</v>
-      </c>
-      <c r="J2" s="42">
-        <v>1</v>
-      </c>
-      <c r="K2" s="42">
-        <v>1</v>
-      </c>
-      <c r="L2" s="44">
-        <v>0.3</v>
-      </c>
-      <c r="M2" s="44">
-        <v>0.3</v>
-      </c>
-      <c r="N2" s="44">
-        <v>0.3</v>
-      </c>
-      <c r="O2" s="44">
-        <v>0.3</v>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1</v>
+      </c>
+      <c r="E2" s="146">
+        <v>1</v>
+      </c>
+      <c r="F2" s="146">
+        <v>1</v>
+      </c>
+      <c r="G2" s="146">
+        <v>1</v>
+      </c>
+      <c r="H2" s="146">
+        <v>1</v>
+      </c>
+      <c r="I2" s="146">
+        <v>1</v>
+      </c>
+      <c r="J2" s="146">
+        <v>1</v>
+      </c>
+      <c r="K2" s="146">
+        <v>1</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="M2" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="N2" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="O2" s="11">
+        <v>0.33</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="44">
-        <v>1</v>
-      </c>
-      <c r="D3" s="44">
-        <v>1</v>
-      </c>
-      <c r="E3" s="42">
-        <v>1</v>
-      </c>
-      <c r="F3" s="42">
-        <v>1</v>
-      </c>
-      <c r="G3" s="42">
-        <v>1</v>
-      </c>
-      <c r="H3" s="42">
-        <v>1</v>
-      </c>
-      <c r="I3" s="42">
-        <v>1</v>
-      </c>
-      <c r="J3" s="42">
-        <v>1</v>
-      </c>
-      <c r="K3" s="42">
-        <v>1</v>
-      </c>
-      <c r="L3" s="44">
-        <v>0.3</v>
-      </c>
-      <c r="M3" s="44">
-        <v>0.3</v>
-      </c>
-      <c r="N3" s="44">
-        <v>0.3</v>
-      </c>
-      <c r="O3" s="44">
-        <v>0.3</v>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="146">
+        <v>1</v>
+      </c>
+      <c r="F3" s="146">
+        <v>1</v>
+      </c>
+      <c r="G3" s="146">
+        <v>1</v>
+      </c>
+      <c r="H3" s="146">
+        <v>1</v>
+      </c>
+      <c r="I3" s="146">
+        <v>1</v>
+      </c>
+      <c r="J3" s="146">
+        <v>1</v>
+      </c>
+      <c r="K3" s="146">
+        <v>1</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="M3" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0.33</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -15451,17 +15529,17 @@
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4">
-        <v>0.3</v>
-      </c>
-      <c r="M4">
-        <v>0.3</v>
-      </c>
-      <c r="N4">
-        <v>0.3</v>
-      </c>
-      <c r="O4">
-        <v>0.3</v>
+      <c r="L4" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="O4" s="11">
+        <v>0.33</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -15495,17 +15573,17 @@
       <c r="K5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>0.3</v>
-      </c>
-      <c r="M5">
-        <v>0.3</v>
-      </c>
-      <c r="N5">
-        <v>0.3</v>
-      </c>
-      <c r="O5">
-        <v>0.3</v>
+      <c r="L5" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0.33</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -16178,11 +16256,11 @@
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="44">
-        <v>0.6</v>
-      </c>
-      <c r="F21" s="44">
-        <v>0.6</v>
+      <c r="E21" s="11">
+        <v>0.69</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0.69</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -16222,11 +16300,11 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="44">
-        <v>0.6</v>
-      </c>
-      <c r="F22" s="44">
-        <v>0.6</v>
+      <c r="E22" s="11">
+        <v>0.69</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0.69</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -16257,7 +16335,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C23">
@@ -16267,13 +16345,13 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>0.35</v>
+        <v>0.69</v>
       </c>
       <c r="F23">
-        <v>0.35</v>
+        <v>0.69</v>
       </c>
       <c r="G23">
-        <v>0.35</v>
+        <v>0.69</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -16301,7 +16379,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="11" t="s">
         <v>137</v>
       </c>
       <c r="C24">
@@ -16311,13 +16389,13 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>0.35</v>
+        <v>0.69</v>
       </c>
       <c r="F24">
-        <v>0.35</v>
+        <v>0.69</v>
       </c>
       <c r="G24">
-        <v>0.35</v>
+        <v>0.69</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -16345,7 +16423,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C25">
@@ -17461,8 +17539,8 @@
   </sheetPr>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A4" zoomScale="125" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -17538,14 +17616,17 @@
       <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.3</v>
+      <c r="F3">
+        <f>1-(0.822+0.335-1)/0.335</f>
+        <v>0.53134328358208949</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:H3" si="0">1-(0.822+0.335-1)/0.335</f>
+        <v>0.53134328358208949</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>0.53134328358208949</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">

--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2018Jan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E4F3E2-C009-204D-B3D6-298D0E8540ED}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587EF0E9-8DFA-784A-B9D3-AE001601A0B5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="6" activeTab="11" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
+    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="22" activeTab="25" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -3622,7 +3622,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="290">
   <si>
     <t>year</t>
   </si>
@@ -5826,10 +5826,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="689">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -13007,7 +13007,7 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -13469,7 +13469,7 @@
       <c r="A2" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="146" t="s">
         <v>73</v>
       </c>
       <c r="C2" t="s">
@@ -13492,7 +13492,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="145"/>
+      <c r="B3" s="146"/>
       <c r="C3" t="s">
         <v>154</v>
       </c>
@@ -13514,7 +13514,7 @@
       <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="145"/>
+      <c r="B4" s="146"/>
       <c r="C4" t="s">
         <v>164</v>
       </c>
@@ -13536,7 +13536,7 @@
       <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="146" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -13559,7 +13559,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="145"/>
+      <c r="B6" s="146"/>
       <c r="C6" t="s">
         <v>154</v>
       </c>
@@ -13580,7 +13580,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="145"/>
+      <c r="B7" s="146"/>
       <c r="C7" t="s">
         <v>164</v>
       </c>
@@ -13601,7 +13601,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="145" t="s">
+      <c r="B8" s="146" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -13624,7 +13624,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="145"/>
+      <c r="B9" s="146"/>
       <c r="C9" t="s">
         <v>154</v>
       </c>
@@ -13645,7 +13645,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="145"/>
+      <c r="B10" s="146"/>
       <c r="C10" t="s">
         <v>164</v>
       </c>
@@ -13666,7 +13666,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="145" t="s">
+      <c r="B11" s="146" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -13689,7 +13689,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="145"/>
+      <c r="B12" s="146"/>
       <c r="C12" t="s">
         <v>154</v>
       </c>
@@ -13710,7 +13710,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="145"/>
+      <c r="B13" s="146"/>
       <c r="C13" t="s">
         <v>164</v>
       </c>
@@ -13731,7 +13731,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="145" t="s">
+      <c r="B14" s="146" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -13754,7 +13754,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="145"/>
+      <c r="B15" s="146"/>
       <c r="C15" t="s">
         <v>154</v>
       </c>
@@ -13775,7 +13775,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="145"/>
+      <c r="B16" s="146"/>
       <c r="C16" t="s">
         <v>164</v>
       </c>
@@ -13829,7 +13829,7 @@
       <c r="A19" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="145" t="s">
+      <c r="B19" s="146" t="s">
         <v>73</v>
       </c>
       <c r="C19" t="s">
@@ -13852,7 +13852,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="145"/>
+      <c r="B20" s="146"/>
       <c r="C20" t="s">
         <v>154</v>
       </c>
@@ -13873,7 +13873,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="145"/>
+      <c r="B21" s="146"/>
       <c r="C21" t="s">
         <v>164</v>
       </c>
@@ -13894,7 +13894,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="145" t="s">
+      <c r="B22" s="146" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -13917,7 +13917,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="145"/>
+      <c r="B23" s="146"/>
       <c r="C23" t="s">
         <v>154</v>
       </c>
@@ -13938,7 +13938,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="145"/>
+      <c r="B24" s="146"/>
       <c r="C24" t="s">
         <v>164</v>
       </c>
@@ -13959,7 +13959,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="145" t="s">
+      <c r="B25" s="146" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -13982,7 +13982,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="145"/>
+      <c r="B26" s="146"/>
       <c r="C26" t="s">
         <v>154</v>
       </c>
@@ -14003,7 +14003,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="145"/>
+      <c r="B27" s="146"/>
       <c r="C27" t="s">
         <v>164</v>
       </c>
@@ -14024,7 +14024,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="145" t="s">
+      <c r="B28" s="146" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -14047,7 +14047,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="145"/>
+      <c r="B29" s="146"/>
       <c r="C29" t="s">
         <v>154</v>
       </c>
@@ -14068,7 +14068,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="145"/>
+      <c r="B30" s="146"/>
       <c r="C30" t="s">
         <v>164</v>
       </c>
@@ -14089,7 +14089,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="145" t="s">
+      <c r="B31" s="146" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -14112,7 +14112,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="145"/>
+      <c r="B32" s="146"/>
       <c r="C32" t="s">
         <v>154</v>
       </c>
@@ -14133,7 +14133,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="145"/>
+      <c r="B33" s="146"/>
       <c r="C33" t="s">
         <v>164</v>
       </c>
@@ -14180,7 +14180,7 @@
       <c r="A36" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B36" s="145" t="s">
+      <c r="B36" s="146" t="s">
         <v>73</v>
       </c>
       <c r="C36" t="s">
@@ -14203,7 +14203,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="145"/>
+      <c r="B37" s="146"/>
       <c r="C37" t="s">
         <v>154</v>
       </c>
@@ -14224,7 +14224,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="145"/>
+      <c r="B38" s="146"/>
       <c r="C38" t="s">
         <v>164</v>
       </c>
@@ -14246,7 +14246,7 @@
       <c r="I38" s="50"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="145" t="s">
+      <c r="B39" s="146" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
@@ -14269,7 +14269,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="145"/>
+      <c r="B40" s="146"/>
       <c r="C40" t="s">
         <v>154</v>
       </c>
@@ -14290,7 +14290,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="145"/>
+      <c r="B41" s="146"/>
       <c r="C41" t="s">
         <v>164</v>
       </c>
@@ -14311,7 +14311,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="145" t="s">
+      <c r="B42" s="146" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
@@ -14334,7 +14334,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="145"/>
+      <c r="B43" s="146"/>
       <c r="C43" t="s">
         <v>154</v>
       </c>
@@ -14355,7 +14355,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="145"/>
+      <c r="B44" s="146"/>
       <c r="C44" t="s">
         <v>164</v>
       </c>
@@ -14376,7 +14376,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="145" t="s">
+      <c r="B45" s="146" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -14399,7 +14399,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="145"/>
+      <c r="B46" s="146"/>
       <c r="C46" t="s">
         <v>154</v>
       </c>
@@ -14420,7 +14420,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="145"/>
+      <c r="B47" s="146"/>
       <c r="C47" t="s">
         <v>164</v>
       </c>
@@ -14441,7 +14441,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="145" t="s">
+      <c r="B48" s="146" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -14464,7 +14464,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="145"/>
+      <c r="B49" s="146"/>
       <c r="C49" t="s">
         <v>154</v>
       </c>
@@ -14485,7 +14485,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="145"/>
+      <c r="B50" s="146"/>
       <c r="C50" t="s">
         <v>164</v>
       </c>
@@ -14530,6 +14530,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -14540,11 +14545,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -15420,25 +15420,25 @@
       <c r="D2" s="11">
         <v>1</v>
       </c>
-      <c r="E2" s="146">
-        <v>1</v>
-      </c>
-      <c r="F2" s="146">
-        <v>1</v>
-      </c>
-      <c r="G2" s="146">
-        <v>1</v>
-      </c>
-      <c r="H2" s="146">
-        <v>1</v>
-      </c>
-      <c r="I2" s="146">
-        <v>1</v>
-      </c>
-      <c r="J2" s="146">
-        <v>1</v>
-      </c>
-      <c r="K2" s="146">
+      <c r="E2" s="145">
+        <v>1</v>
+      </c>
+      <c r="F2" s="145">
+        <v>1</v>
+      </c>
+      <c r="G2" s="145">
+        <v>1</v>
+      </c>
+      <c r="H2" s="145">
+        <v>1</v>
+      </c>
+      <c r="I2" s="145">
+        <v>1</v>
+      </c>
+      <c r="J2" s="145">
+        <v>1</v>
+      </c>
+      <c r="K2" s="145">
         <v>1</v>
       </c>
       <c r="L2" s="11">
@@ -15464,25 +15464,25 @@
       <c r="D3" s="11">
         <v>1</v>
       </c>
-      <c r="E3" s="146">
-        <v>1</v>
-      </c>
-      <c r="F3" s="146">
-        <v>1</v>
-      </c>
-      <c r="G3" s="146">
-        <v>1</v>
-      </c>
-      <c r="H3" s="146">
-        <v>1</v>
-      </c>
-      <c r="I3" s="146">
-        <v>1</v>
-      </c>
-      <c r="J3" s="146">
-        <v>1</v>
-      </c>
-      <c r="K3" s="146">
+      <c r="E3" s="145">
+        <v>1</v>
+      </c>
+      <c r="F3" s="145">
+        <v>1</v>
+      </c>
+      <c r="G3" s="145">
+        <v>1</v>
+      </c>
+      <c r="H3" s="145">
+        <v>1</v>
+      </c>
+      <c r="I3" s="145">
+        <v>1</v>
+      </c>
+      <c r="J3" s="145">
+        <v>1</v>
+      </c>
+      <c r="K3" s="145">
         <v>1</v>
       </c>
       <c r="L3" s="11">
@@ -24031,8 +24031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -24275,17 +24275,13 @@
       <c r="A39" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="B39" s="4"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">

--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2018Jan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587EF0E9-8DFA-784A-B9D3-AE001601A0B5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05694F9-C532-D446-8322-8E10995F2C58}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="22" activeTab="25" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
+    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="17" activeTab="19" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -17539,8 +17539,8 @@
   </sheetPr>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -17642,13 +17642,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>0.62</v>
+        <f>1-(0.871+F2-1)/F2</f>
+        <v>0.38507462686567184</v>
       </c>
       <c r="G4" s="4">
-        <v>0.62</v>
+        <f t="shared" ref="G4:H4" si="1">1-(0.871+G2-1)/G2</f>
+        <v>0.38507462686567184</v>
       </c>
       <c r="H4" s="4">
-        <v>0.62</v>
+        <f t="shared" si="1"/>
+        <v>0.38507462686567184</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -24031,7 +24034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>

--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2018Jan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05694F9-C532-D446-8322-8E10995F2C58}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A543966-2B25-CE46-8C0F-C999E97B3593}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="17" activeTab="19" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
+    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="23" activeTab="31" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -2053,7 +2053,7 @@
           <rPr>
             <b/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -2062,12 +2062,21 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Exposed to malaria
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Exposed to malaria
 </t>
         </r>
       </text>
@@ -3130,7 +3139,7 @@
           <rPr>
             <b/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -3139,12 +3148,21 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-From Jakub's book, annual incidence of severe acute wasting is annual prevalence * 1.6  (p. 147). Assuming the same to be true for moderate wasting.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>From Jakub's book, annual incidence of severe acute wasting is annual prevalence * 1.6  (p. 147). Assuming the same to be true for moderate wasting.</t>
         </r>
       </text>
     </comment>
@@ -3622,7 +3640,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="290">
   <si>
     <t>year</t>
   </si>
@@ -17539,8 +17557,8 @@
   </sheetPr>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27604,8 +27622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27656,9 +27674,7 @@
       <c r="A6" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="133" t="s">
-        <v>165</v>
-      </c>
+      <c r="B6" s="133"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
@@ -28927,7 +28943,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>

--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2018Jan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A543966-2B25-CE46-8C0F-C999E97B3593}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD110B6D-77BF-7B4D-A876-08C145F8EF44}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="23" activeTab="31" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
+    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="3" activeTab="4" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -5612,7 +5612,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5847,6 +5847,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="689">
@@ -27622,7 +27625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -28943,8 +28946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -28974,19 +28977,24 @@
         <v>213</v>
       </c>
       <c r="B2" s="15">
-        <v>7.1999999999999995E-2</v>
+        <f>6.4*26/100</f>
+        <v>1.6640000000000001</v>
       </c>
       <c r="C2" s="15">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="D2" s="15">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="E2" s="15">
-        <v>7.1999999999999995E-2</v>
+        <f>6.4*26/100</f>
+        <v>1.6640000000000001</v>
+      </c>
+      <c r="D2" s="147">
+        <f>21.7*26/100</f>
+        <v>5.6419999999999995</v>
+      </c>
+      <c r="E2" s="147">
+        <f>20.9*26/100</f>
+        <v>5.4340000000000002</v>
       </c>
       <c r="F2" s="15">
-        <v>7.1999999999999995E-2</v>
+        <f>(0.11*1817 + 0.069*1791 + 0.04*1768)/(1817+1791+1768) * 26</f>
+        <v>1.906323288690476</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2018Jan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD110B6D-77BF-7B4D-A876-08C145F8EF44}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F466E047-90A4-824B-BBC9-7CB75AD43AAC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="3" activeTab="4" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
+    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="15" activeTab="16" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -15057,8 +15057,8 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17561,7 +17561,7 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -28946,8 +28946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2018Jan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F466E047-90A4-824B-BBC9-7CB75AD43AAC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBCA404-1E9A-854E-A59D-A3B6291C71EF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="15" activeTab="16" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
+    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="8" activeTab="19" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -1574,7 +1574,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000016000000}">
+    <comment ref="E27" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000016000000}">
       <text>
         <r>
           <rPr>
@@ -1599,7 +1599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000017000000}">
+    <comment ref="B28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000017000000}">
       <text>
         <r>
           <rPr>
@@ -1793,6 +1793,72 @@
           </rPr>
           <t xml:space="preserve">
 LiST</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D43" authorId="0" shapeId="0" xr:uid="{1DA454D6-1357-6F4D-9C77-8C85CB0D2073}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>frac zinc deficient</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D46" authorId="0" shapeId="0" xr:uid="{C2EB7AF1-EDC2-CB4A-9D35-235071AB8AF4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>frac zinc deficient</t>
         </r>
       </text>
     </comment>
@@ -2718,7 +2784,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000011000000}">
+    <comment ref="B28" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000011000000}">
       <text>
         <r>
           <rPr>
@@ -2742,7 +2808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D31" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000012000000}">
+    <comment ref="D28" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000012000000}">
       <text>
         <r>
           <rPr>
@@ -2766,7 +2832,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000013000000}">
+    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000013000000}">
       <text>
         <r>
           <rPr>
@@ -2791,13 +2857,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D40" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000014000000}">
+    <comment ref="D37" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000014000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -2806,16 +2872,25 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Horton CCC 2008: $0.9 -&gt; use $1 because of inflation</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Horton CCC 2008: $0.9 -&gt; use $1 because of inflation</t>
         </r>
       </text>
     </comment>
-    <comment ref="B45" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000015000000}">
+    <comment ref="B42" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000015000000}">
       <text>
         <r>
           <rPr>
@@ -2839,7 +2914,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B46" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000016000000}">
+    <comment ref="B43" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000016000000}">
       <text>
         <r>
           <rPr>
@@ -2863,7 +2938,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B47" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000017000000}">
+    <comment ref="B44" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000017000000}">
       <text>
         <r>
           <rPr>
@@ -2887,7 +2962,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B48" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000018000000}">
+    <comment ref="B45" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000018000000}">
       <text>
         <r>
           <rPr>
@@ -2911,7 +2986,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D48" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000019000000}">
+    <comment ref="D45" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000019000000}">
       <text>
         <r>
           <rPr>
@@ -2935,7 +3010,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B49" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-1A00-00001A000000}">
+    <comment ref="B46" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-1A00-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -2959,7 +3034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D49" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-1A00-00001B000000}">
+    <comment ref="D46" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-1A00-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -2983,7 +3058,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B50" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-1A00-00001C000000}">
+    <comment ref="B47" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-1A00-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -3640,7 +3715,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="285">
   <si>
     <t>year</t>
   </si>
@@ -3798,9 +3873,6 @@
     <t>affected fraction</t>
   </si>
   <si>
-    <t>Prophylactic zinc supplementation</t>
-  </si>
-  <si>
     <t>Breastfeeding promotion</t>
   </si>
   <si>
@@ -3880,15 +3952,6 @@
   </si>
   <si>
     <t>General population</t>
-  </si>
-  <si>
-    <t>Iron fortification of wheat flour</t>
-  </si>
-  <si>
-    <t>Iron fortification of maize</t>
-  </si>
-  <si>
-    <t>Iron fortification of rice</t>
   </si>
   <si>
     <t>non-pregnant WRA</t>
@@ -4443,9 +4506,6 @@
     <t>Mg for eclampsia</t>
   </si>
   <si>
-    <t>Diarrhea</t>
-  </si>
-  <si>
     <t>Birth age program</t>
   </si>
   <si>
@@ -5845,11 +5905,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="689">
@@ -7961,7 +8021,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7972,18 +8032,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -8010,7 +8070,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="29" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C5" s="39">
         <v>57310019</v>
@@ -8027,7 +8087,7 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="18">
         <v>0.23</v>
@@ -8035,7 +8095,7 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="18">
         <v>0.28199999999999997</v>
@@ -8043,7 +8103,7 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="18">
         <v>1</v>
@@ -8051,7 +8111,7 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C10" s="18">
         <v>0.51</v>
@@ -8059,7 +8119,7 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C11" s="18">
         <v>0.37</v>
@@ -8067,7 +8127,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C12" s="18">
         <v>0.221</v>
@@ -8075,7 +8135,7 @@
     </row>
     <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C13" s="44">
         <v>0.9</v>
@@ -8083,7 +8143,7 @@
     </row>
     <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C14" s="44">
         <v>0.1</v>
@@ -8091,7 +8151,7 @@
     </row>
     <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C15" s="62">
         <v>0.2</v>
@@ -8107,10 +8167,10 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C18" s="18">
         <f>401/100</f>
@@ -8119,7 +8179,7 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C19" s="18">
         <v>0.13</v>
@@ -8127,7 +8187,7 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C20" s="18">
         <v>22.4</v>
@@ -8135,7 +8195,7 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C21" s="18">
         <v>25</v>
@@ -8143,7 +8203,7 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C22" s="18">
         <v>43</v>
@@ -8151,7 +8211,7 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C23" s="18">
         <v>67</v>
@@ -8163,10 +8223,10 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="33">
         <v>0.3</v>
@@ -8174,7 +8234,7 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="29" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C27" s="33">
         <v>0</v>
@@ -8182,7 +8242,7 @@
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="29" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C28" s="33">
         <v>0</v>
@@ -8190,7 +8250,7 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="29" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C29" s="33">
         <v>0.8</v>
@@ -8198,7 +8258,7 @@
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="33">
         <v>0.2</v>
@@ -8209,10 +8269,10 @@
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B33" s="79" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C33" s="39">
         <v>3032037</v>
@@ -8222,7 +8282,7 @@
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="79" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C34" s="39">
         <v>4756743</v>
@@ -8232,7 +8292,7 @@
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="79" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C35" s="39">
         <v>3406589</v>
@@ -8241,7 +8301,7 @@
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="79" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C36" s="39">
         <v>2174712</v>
@@ -8260,10 +8320,10 @@
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B39" s="79" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C39" s="37">
         <f>C33-C45</f>
@@ -8274,7 +8334,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="79" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C40" s="37">
         <f t="shared" ref="C40:C42" si="0">C34-C46</f>
@@ -8285,7 +8345,7 @@
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="79" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C41" s="37">
         <f t="shared" si="0"/>
@@ -8295,7 +8355,7 @@
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="79" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C42" s="37">
         <f t="shared" si="0"/>
@@ -8314,10 +8374,10 @@
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B45" s="79" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C45" s="32">
         <f>C51*$C$6</f>
@@ -8326,7 +8386,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="79" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C46" s="32">
         <f t="shared" ref="C46:C48" si="1">C52*$C$6</f>
@@ -8335,7 +8395,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="79" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C47" s="32">
         <f t="shared" si="1"/>
@@ -8344,7 +8404,7 @@
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="79" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C48" s="32">
         <f t="shared" si="1"/>
@@ -8353,10 +8413,10 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B51" s="79" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C51" s="110">
         <v>0.12704523580365737</v>
@@ -8364,7 +8424,7 @@
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="79" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C52" s="110">
         <v>0.4523580365736285</v>
@@ -8372,7 +8432,7 @@
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="79" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C53" s="110">
         <v>0.33397497593840231</v>
@@ -8380,7 +8440,7 @@
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="79" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C54" s="110">
         <v>8.662175168431184E-2</v>
@@ -8416,10 +8476,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>42</v>
@@ -8439,7 +8499,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="19">
         <f>1-D2-E2-F2</f>
@@ -8471,10 +8531,10 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="11">
@@ -8489,7 +8549,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -8506,7 +8566,7 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C7" s="49">
         <v>1</v>
@@ -8523,7 +8583,7 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C8" s="49">
         <v>1</v>
@@ -8554,10 +8614,10 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -8696,10 +8756,10 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B23" s="93" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C23" s="94">
         <v>1</v>
@@ -8717,7 +8777,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="93" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C24" s="94">
         <v>1</v>
@@ -8735,7 +8795,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="93" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C25" s="94">
         <v>1</v>
@@ -8753,7 +8813,7 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="96" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C26" s="94">
         <v>1</v>
@@ -8771,7 +8831,7 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="96" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C27" s="94">
         <v>1</v>
@@ -8789,7 +8849,7 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="96" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C28" s="94">
         <v>1</v>
@@ -8807,7 +8867,7 @@
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="97" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C29" s="94">
         <v>1</v>
@@ -8825,7 +8885,7 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="97" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C30" s="94">
         <v>1</v>
@@ -8843,7 +8903,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="97" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C31" s="94">
         <v>1</v>
@@ -8884,10 +8944,10 @@
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B35" s="99" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C35" s="94">
         <v>1</v>
@@ -8905,7 +8965,7 @@
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="99" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C36" s="94">
         <v>1</v>
@@ -8923,7 +8983,7 @@
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="99" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C37" s="94">
         <v>1</v>
@@ -8941,7 +9001,7 @@
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="99" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C38" s="94">
         <v>1</v>
@@ -8989,7 +9049,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -9013,28 +9073,28 @@
         <v>10</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -9042,7 +9102,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>14</v>
@@ -9940,7 +10000,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>14</v>
@@ -10031,7 +10091,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C26" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -10075,7 +10135,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C27" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -10210,7 +10270,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C30" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -10254,7 +10314,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C31" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -10389,7 +10449,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C34" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -10433,7 +10493,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C35" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -10568,7 +10628,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C38" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -10612,7 +10672,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C39" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -10747,7 +10807,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C42" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -10791,7 +10851,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C43" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -10839,13 +10899,13 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B46" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -10889,7 +10949,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C47" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -10936,7 +10996,7 @@
         <v>28</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -10980,7 +11040,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C49" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -11027,7 +11087,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -11071,7 +11131,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C51" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -11118,7 +11178,7 @@
         <v>31</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -11162,7 +11222,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C53" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -11209,7 +11269,7 @@
         <v>35</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -11253,7 +11313,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C55" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -11298,10 +11358,10 @@
     <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56" s="10"/>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -11345,7 +11405,7 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C57" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -11389,10 +11449,10 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -11436,7 +11496,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C59" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -11480,10 +11540,10 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -11527,7 +11587,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C61" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -11578,7 +11638,7 @@
         <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>37</v>
@@ -12294,7 +12354,7 @@
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>37</v>
@@ -12831,10 +12891,10 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A94" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>37</v>
@@ -13029,7 +13089,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13047,7 +13107,7 @@
         <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>6</v>
@@ -13067,10 +13127,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="4">
@@ -13091,10 +13151,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C4">
         <v>1.024</v>
@@ -13114,7 +13174,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>44</v>
@@ -13157,7 +13217,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -13177,7 +13237,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -13225,10 +13285,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -13248,7 +13308,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B13" s="63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -13268,7 +13328,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" s="63" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -13288,7 +13348,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
@@ -13308,7 +13368,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="63" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -13328,10 +13388,10 @@
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="54" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="6">
         <v>5.16</v>
@@ -13352,7 +13412,7 @@
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="55"/>
       <c r="B19" s="53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="6">
         <v>1</v>
@@ -13373,10 +13433,10 @@
     <row r="20" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C21">
         <v>1.024</v>
@@ -13396,10 +13456,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C23">
         <v>1.024</v>
@@ -13419,10 +13479,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C25" s="44">
         <v>1</v>
@@ -13462,13 +13522,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>6</v>
@@ -13488,13 +13548,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="146" t="s">
-        <v>73</v>
+        <v>153</v>
+      </c>
+      <c r="B2" s="147" t="s">
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D2" s="50">
         <v>1</v>
@@ -13513,9 +13573,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="146"/>
+      <c r="B3" s="147"/>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D3" s="50">
         <v>1</v>
@@ -13535,9 +13595,9 @@
       <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="146"/>
+      <c r="B4" s="147"/>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D4" s="50">
         <v>1</v>
@@ -13557,11 +13617,11 @@
       <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="146" t="s">
+      <c r="B5" s="147" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D5" s="50">
         <v>5.16</v>
@@ -13580,9 +13640,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="146"/>
+      <c r="B6" s="147"/>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D6" s="50">
         <v>5.16</v>
@@ -13601,9 +13661,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="146"/>
+      <c r="B7" s="147"/>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D7" s="50">
         <v>1</v>
@@ -13622,11 +13682,11 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="146" t="s">
+      <c r="B8" s="147" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D8" s="50">
         <v>1</v>
@@ -13645,9 +13705,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="146"/>
+      <c r="B9" s="147"/>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D9" s="50">
         <v>1</v>
@@ -13666,9 +13726,9 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="146"/>
+      <c r="B10" s="147"/>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D10" s="50">
         <v>1</v>
@@ -13687,11 +13747,11 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="146" t="s">
+      <c r="B11" s="147" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D11" s="50">
         <v>1</v>
@@ -13710,9 +13770,9 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="146"/>
+      <c r="B12" s="147"/>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D12" s="50">
         <v>1</v>
@@ -13731,9 +13791,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="146"/>
+      <c r="B13" s="147"/>
       <c r="C13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D13" s="50">
         <v>1</v>
@@ -13752,11 +13812,11 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="147" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D14" s="50">
         <v>1</v>
@@ -13775,9 +13835,9 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="146"/>
+      <c r="B15" s="147"/>
       <c r="C15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D15" s="50">
         <v>1</v>
@@ -13796,9 +13856,9 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="146"/>
+      <c r="B16" s="147"/>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D16" s="50">
         <v>1</v>
@@ -13818,10 +13878,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B17" s="61" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D17" s="57">
         <v>1.05</v>
@@ -13848,13 +13908,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="146" t="s">
-        <v>73</v>
+        <v>154</v>
+      </c>
+      <c r="B19" s="147" t="s">
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D19" s="50">
         <v>1</v>
@@ -13873,9 +13933,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="146"/>
+      <c r="B20" s="147"/>
       <c r="C20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D20" s="50">
         <v>1</v>
@@ -13894,9 +13954,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="146"/>
+      <c r="B21" s="147"/>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D21" s="50">
         <v>1</v>
@@ -13915,11 +13975,11 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="146" t="s">
+      <c r="B22" s="147" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D22" s="50">
         <v>1</v>
@@ -13938,9 +13998,9 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="146"/>
+      <c r="B23" s="147"/>
       <c r="C23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D23" s="50">
         <v>1</v>
@@ -13959,9 +14019,9 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="146"/>
+      <c r="B24" s="147"/>
       <c r="C24" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D24" s="50">
         <v>1</v>
@@ -13980,11 +14040,11 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="146" t="s">
+      <c r="B25" s="147" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D25" s="50">
         <v>1</v>
@@ -14003,9 +14063,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="146"/>
+      <c r="B26" s="147"/>
       <c r="C26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D26" s="50">
         <v>1</v>
@@ -14024,9 +14084,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="146"/>
+      <c r="B27" s="147"/>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D27" s="50">
         <v>1</v>
@@ -14045,11 +14105,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="146" t="s">
+      <c r="B28" s="147" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D28" s="50">
         <v>1</v>
@@ -14068,9 +14128,9 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="146"/>
+      <c r="B29" s="147"/>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D29" s="50">
         <v>1</v>
@@ -14089,9 +14149,9 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="146"/>
+      <c r="B30" s="147"/>
       <c r="C30" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D30" s="50">
         <v>1</v>
@@ -14110,11 +14170,11 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="146" t="s">
+      <c r="B31" s="147" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D31" s="50">
         <v>1</v>
@@ -14133,9 +14193,9 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="146"/>
+      <c r="B32" s="147"/>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D32" s="50">
         <v>1</v>
@@ -14154,9 +14214,9 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="146"/>
+      <c r="B33" s="147"/>
       <c r="C33" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D33" s="50">
         <v>1</v>
@@ -14176,10 +14236,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="56" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D34" s="57">
         <v>1.05</v>
@@ -14199,13 +14259,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B36" s="146" t="s">
-        <v>73</v>
+        <v>183</v>
+      </c>
+      <c r="B36" s="147" t="s">
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D36" s="50">
         <v>1</v>
@@ -14224,9 +14284,9 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="146"/>
+      <c r="B37" s="147"/>
       <c r="C37" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D37" s="50">
         <v>1</v>
@@ -14245,9 +14305,9 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="146"/>
+      <c r="B38" s="147"/>
       <c r="C38" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D38" s="50">
         <v>1</v>
@@ -14267,11 +14327,11 @@
       <c r="I38" s="50"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="146" t="s">
+      <c r="B39" s="147" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D39" s="50">
         <v>1</v>
@@ -14290,9 +14350,9 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="146"/>
+      <c r="B40" s="147"/>
       <c r="C40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D40" s="50">
         <v>1</v>
@@ -14311,9 +14371,9 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="146"/>
+      <c r="B41" s="147"/>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D41" s="50">
         <v>1</v>
@@ -14332,11 +14392,11 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="146" t="s">
+      <c r="B42" s="147" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D42" s="50">
         <v>1</v>
@@ -14355,9 +14415,9 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="146"/>
+      <c r="B43" s="147"/>
       <c r="C43" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D43" s="50">
         <v>1</v>
@@ -14376,9 +14436,9 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="146"/>
+      <c r="B44" s="147"/>
       <c r="C44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D44" s="50">
         <v>1</v>
@@ -14397,11 +14457,11 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="146" t="s">
+      <c r="B45" s="147" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D45" s="50">
         <v>1</v>
@@ -14420,9 +14480,9 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="146"/>
+      <c r="B46" s="147"/>
       <c r="C46" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D46" s="50">
         <v>1</v>
@@ -14441,9 +14501,9 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="146"/>
+      <c r="B47" s="147"/>
       <c r="C47" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D47" s="50">
         <v>1</v>
@@ -14462,11 +14522,11 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="146" t="s">
+      <c r="B48" s="147" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D48" s="50">
         <v>1</v>
@@ -14485,9 +14545,9 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="146"/>
+      <c r="B49" s="147"/>
       <c r="C49" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D49" s="50">
         <v>1</v>
@@ -14506,9 +14566,9 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="146"/>
+      <c r="B50" s="147"/>
       <c r="C50" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D50" s="50">
         <v>1</v>
@@ -14528,10 +14588,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B51" s="64" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D51" s="68">
         <v>1</v>
@@ -14587,27 +14647,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>160</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="69" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B2" s="70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
@@ -14620,7 +14680,7 @@
       </c>
       <c r="C3" s="73"/>
       <c r="D3" s="119" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E3" s="74"/>
     </row>
@@ -14631,7 +14691,7 @@
       </c>
       <c r="C4" s="73"/>
       <c r="D4" s="119" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E4" s="74"/>
     </row>
@@ -14642,7 +14702,7 @@
       </c>
       <c r="C5" s="73"/>
       <c r="D5" s="120" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E5" s="74"/>
     </row>
@@ -14653,14 +14713,14 @@
       </c>
       <c r="C6" s="73"/>
       <c r="D6" s="120" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E6" s="74"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="75"/>
       <c r="B7" s="76" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C7" s="77"/>
       <c r="D7" s="77"/>
@@ -14668,10 +14728,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="69" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="70"/>
       <c r="D9" s="70"/>
@@ -14716,7 +14776,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="75"/>
       <c r="B14" s="76" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C14" s="77"/>
       <c r="D14" s="77"/>
@@ -14724,10 +14784,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="69" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="70"/>
       <c r="D16" s="70"/>
@@ -14772,7 +14832,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="75"/>
       <c r="B21" s="76" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C21" s="77"/>
       <c r="D21" s="77"/>
@@ -14798,27 +14858,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2">
         <f>'Baseline year demographics'!C10</f>
@@ -14893,10 +14953,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8">
         <f>1.5*0.61</f>
@@ -14991,10 +15051,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15057,7 +15117,7 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -15070,7 +15130,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>48</v>
@@ -15090,7 +15150,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
@@ -15127,7 +15187,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
@@ -15164,7 +15224,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
@@ -15201,7 +15261,7 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
@@ -15238,7 +15298,7 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -15275,7 +15335,7 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
@@ -15314,7 +15374,7 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
         <v>49</v>
@@ -15363,10 +15423,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -15386,7 +15446,7 @@
         <v>48</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>6</v>
@@ -15404,36 +15464,36 @@
         <v>10</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="11">
         <v>1</v>
@@ -15477,7 +15537,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C3" s="11">
         <v>1</v>
@@ -15521,7 +15581,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -15565,7 +15625,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -15609,7 +15669,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -15653,7 +15713,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -15697,7 +15757,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -15741,7 +15801,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -15785,7 +15845,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -15829,7 +15889,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -15873,7 +15933,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -15917,7 +15977,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -15961,7 +16021,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -16005,7 +16065,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -16049,7 +16109,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -16093,7 +16153,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -16137,7 +16197,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -16181,7 +16241,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -16225,7 +16285,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -16269,7 +16329,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -16313,7 +16373,7 @@
     </row>
     <row r="22" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -16357,7 +16417,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B23" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -16401,7 +16461,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B24" s="11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -16445,7 +16505,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25">
         <v>0.83</v>
@@ -16489,10 +16549,10 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -16500,43 +16560,43 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="F27" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="G27" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="H27" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="I27" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="J27" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="K27" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="L27" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="M27" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="N27" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="O27" s="41">
-        <v>0.97599999999999998</v>
+      <c r="E27" s="42">
+        <v>0.9</v>
+      </c>
+      <c r="F27" s="42">
+        <v>0.9</v>
+      </c>
+      <c r="G27" s="42">
+        <v>0.9</v>
+      </c>
+      <c r="H27" s="42">
+        <v>0.9</v>
+      </c>
+      <c r="I27" s="42">
+        <v>0.9</v>
+      </c>
+      <c r="J27" s="42">
+        <v>0.9</v>
+      </c>
+      <c r="K27" s="42">
+        <v>0.9</v>
+      </c>
+      <c r="L27" s="42">
+        <v>0.9</v>
+      </c>
+      <c r="M27" s="42">
+        <v>0.9</v>
+      </c>
+      <c r="N27" s="42">
+        <v>0.9</v>
+      </c>
+      <c r="O27" s="42">
+        <v>0.9</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B28" s="4" t="s">
-        <v>81</v>
+      <c r="B28" s="45" t="s">
+        <v>140</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -16579,8 +16639,8 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B29" s="4" t="s">
-        <v>82</v>
+      <c r="B29" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -16623,8 +16683,8 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B30" s="4" t="s">
-        <v>97</v>
+      <c r="B30" s="45" t="s">
+        <v>142</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -16632,183 +16692,51 @@
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" s="42">
-        <v>0.9</v>
-      </c>
-      <c r="F30" s="42">
-        <v>0.9</v>
-      </c>
-      <c r="G30" s="42">
-        <v>0.9</v>
-      </c>
-      <c r="H30" s="42">
-        <v>0.9</v>
-      </c>
-      <c r="I30" s="42">
-        <v>0.9</v>
-      </c>
-      <c r="J30" s="42">
-        <v>0.9</v>
-      </c>
-      <c r="K30" s="42">
-        <v>0.9</v>
-      </c>
-      <c r="L30" s="42">
-        <v>0.9</v>
-      </c>
-      <c r="M30" s="42">
-        <v>0.9</v>
-      </c>
-      <c r="N30" s="42">
-        <v>0.9</v>
-      </c>
-      <c r="O30" s="42">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B31" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="41">
+      <c r="E30" s="41">
         <v>0.97599999999999998</v>
       </c>
-      <c r="F31" s="41">
+      <c r="F30" s="41">
         <v>0.97599999999999998</v>
       </c>
-      <c r="G31" s="41">
+      <c r="G30" s="41">
         <v>0.97599999999999998</v>
       </c>
-      <c r="H31" s="41">
+      <c r="H30" s="41">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I31" s="41">
+      <c r="I30" s="41">
         <v>0.97599999999999998</v>
       </c>
-      <c r="J31" s="41">
+      <c r="J30" s="41">
         <v>0.97599999999999998</v>
       </c>
-      <c r="K31" s="41">
+      <c r="K30" s="41">
         <v>0.97599999999999998</v>
       </c>
-      <c r="L31" s="41">
+      <c r="L30" s="41">
         <v>0.97599999999999998</v>
       </c>
-      <c r="M31" s="41">
+      <c r="M30" s="41">
         <v>0.97599999999999998</v>
       </c>
-      <c r="N31" s="41">
+      <c r="N30" s="41">
         <v>0.97599999999999998</v>
       </c>
-      <c r="O31" s="41">
+      <c r="O30" s="41">
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B32" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="F32" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="G32" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="H32" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="I32" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="J32" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="K32" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="L32" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="M32" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="N32" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="O32" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B33" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="F33" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="G33" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="H33" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="I33" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="J33" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="K33" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="L33" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="M33" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="N33" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="O33" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B41" s="4"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B43" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16837,7 +16765,7 @@
         <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>6</v>
@@ -16857,10 +16785,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C2" s="44">
         <v>1</v>
@@ -16880,10 +16808,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C4" s="44">
         <v>1</v>
@@ -16928,34 +16856,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>50</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17560,8 +17488,8 @@
   </sheetPr>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -17577,7 +17505,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -17606,10 +17534,10 @@
         <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -17629,7 +17557,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -17654,7 +17582,7 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -17678,10 +17606,10 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="44" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D5" s="45">
         <v>0</v>
@@ -17701,13 +17629,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D6" s="45">
         <v>0</v>
@@ -17727,7 +17655,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="45">
         <v>0</v>
@@ -17749,10 +17677,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D8" s="45">
         <v>0</v>
@@ -17772,7 +17700,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="45">
         <v>0</v>
@@ -17794,13 +17722,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D10" s="45">
         <v>0</v>
@@ -17820,7 +17748,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="45">
         <v>0</v>
@@ -17842,10 +17770,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D12" s="45">
         <v>0</v>
@@ -17865,7 +17793,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="45">
         <v>0</v>
@@ -17887,13 +17815,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D14" s="45">
         <v>0</v>
@@ -17913,7 +17841,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="45">
         <v>0</v>
@@ -17935,10 +17863,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D16" s="45">
         <v>0</v>
@@ -17958,7 +17886,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C17" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="45">
         <v>0</v>
@@ -17980,13 +17908,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D18" s="45">
         <v>0</v>
@@ -18006,7 +17934,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="45">
         <v>0</v>
@@ -18027,10 +17955,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D20" s="47">
         <v>0</v>
@@ -18051,7 +17979,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="47">
         <v>0</v>
@@ -18072,13 +18000,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D22" s="12">
         <v>0.7</v>
@@ -18100,7 +18028,7 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="12">
         <v>0.46</v>
@@ -18121,13 +18049,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D24" s="12">
         <v>0.7</v>
@@ -18148,7 +18076,7 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="12"/>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="12">
         <v>0.46</v>
@@ -18168,13 +18096,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D26" s="12">
         <v>0.7</v>
@@ -18194,7 +18122,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" s="12">
         <v>0.46</v>
@@ -18214,13 +18142,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>267</v>
+        <v>209</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D28" s="12">
         <v>1</v>
@@ -18240,7 +18168,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" s="12">
         <v>0.17</v>
@@ -18261,7 +18189,7 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" s="12">
         <v>0.17</v>
@@ -18281,13 +18209,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>267</v>
+        <v>209</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D31" s="12">
         <v>1</v>
@@ -18307,7 +18235,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" s="12">
         <v>0.69</v>
@@ -18328,7 +18256,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33" s="12">
         <v>0.69</v>
@@ -18348,13 +18276,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>267</v>
+        <v>209</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -18374,7 +18302,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" s="12">
         <v>0.36</v>
@@ -18395,7 +18323,7 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D36" s="12">
         <v>0.36</v>
@@ -18415,13 +18343,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>267</v>
+        <v>209</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -18441,7 +18369,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D38" s="12">
         <v>0.2</v>
@@ -18462,7 +18390,7 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D39" s="12">
         <v>0.2</v>
@@ -18482,13 +18410,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>267</v>
+        <v>209</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -18508,7 +18436,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41" s="12">
         <v>0.48</v>
@@ -18529,7 +18457,7 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42" s="12">
         <v>0.48</v>
@@ -18549,33 +18477,33 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>267</v>
+        <v>209</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D43" s="12">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="E43" s="12">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="F43" s="12">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="G43" s="12">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H43" s="12">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D44" s="12">
         <v>0.5</v>
@@ -18595,7 +18523,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C45" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D45" s="12">
         <v>0.65</v>
@@ -18614,34 +18542,31 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>140</v>
-      </c>
       <c r="B46" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D46" s="12">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="E46" s="12">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="F46" s="12">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="G46" s="12">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H46" s="12">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D47" s="12">
         <v>0.49</v>
@@ -18661,7 +18586,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C48" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D48" s="12">
         <v>0.52</v>
@@ -18681,13 +18606,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>267</v>
+        <v>209</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D49" s="12">
         <v>0.88</v>
@@ -18707,7 +18632,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D50" s="12">
         <v>0.93</v>
@@ -18727,13 +18652,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>267</v>
+        <v>209</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D51" s="12">
         <v>1</v>
@@ -18753,7 +18678,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D52" s="12">
         <v>0.86</v>
@@ -18796,24 +18721,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="59" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B2" s="60">
         <v>0.9</v>
@@ -18831,7 +18756,7 @@
     </row>
     <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="59" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B3" s="60">
         <v>1</v>
@@ -18849,7 +18774,7 @@
     </row>
     <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="59" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B4" s="60">
         <v>1</v>
@@ -18867,7 +18792,7 @@
     </row>
     <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="59" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B5" s="60">
         <v>1</v>
@@ -18885,7 +18810,7 @@
     </row>
     <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="59" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B6" s="60">
         <v>1</v>
@@ -18903,7 +18828,7 @@
     </row>
     <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="59" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B7" s="60">
         <v>0.93</v>
@@ -18921,7 +18846,7 @@
     </row>
     <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="59" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B8" s="60">
         <v>0.5</v>
@@ -18939,7 +18864,7 @@
     </row>
     <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="59" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B9" s="60">
         <v>0.5</v>
@@ -18957,7 +18882,7 @@
     </row>
     <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="59" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B10" s="60">
         <v>0.98</v>
@@ -19002,7 +18927,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -19011,28 +18936,28 @@
         <v>48</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H1" s="51"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -19050,7 +18975,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="4">
         <v>0.2</v>
@@ -19068,13 +18993,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -19093,7 +19018,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="12">
         <v>0.59</v>
@@ -19111,13 +19036,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D6" s="12">
         <v>1</v>
@@ -19136,7 +19061,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="12">
         <v>0.6</v>
@@ -19177,25 +19102,25 @@
   <sheetData>
     <row r="1" spans="1:6" ht="65" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B1" s="103" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="104" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D1" s="104" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E1" s="104" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B2" s="73" t="s">
         <v>51</v>
@@ -19240,7 +19165,7 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19257,10 +19182,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>6</v>
@@ -19278,36 +19203,36 @@
         <v>10</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -19352,7 +19277,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -19440,7 +19365,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -19484,7 +19409,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -19530,7 +19455,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -19576,7 +19501,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
@@ -19622,7 +19547,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -19669,7 +19594,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -19716,7 +19641,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C11" s="106">
         <v>0</v>
@@ -19764,7 +19689,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C12" s="106">
         <v>0</v>
@@ -19808,7 +19733,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C13" s="106">
         <v>0</v>
@@ -19852,10 +19777,10 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -19904,7 +19829,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -19952,7 +19877,7 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -20000,7 +19925,7 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -20048,7 +19973,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -20096,7 +20021,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -20144,10 +20069,10 @@
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -20192,7 +20117,7 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -20240,7 +20165,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -20288,7 +20213,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
@@ -20333,7 +20258,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
@@ -20381,7 +20306,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -20429,7 +20354,7 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
@@ -20478,7 +20403,7 @@
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
@@ -20523,7 +20448,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
@@ -20571,7 +20496,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -20619,7 +20544,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
@@ -20664,7 +20589,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
@@ -20712,7 +20637,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
@@ -20760,7 +20685,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
@@ -20808,7 +20733,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
@@ -20856,7 +20781,7 @@
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="44" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
@@ -20914,10 +20839,10 @@
     </row>
     <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
@@ -20961,7 +20886,7 @@
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -21005,7 +20930,7 @@
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
@@ -21049,7 +20974,7 @@
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -21093,7 +21018,7 @@
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
@@ -21137,7 +21062,7 @@
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -21181,7 +21106,7 @@
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
@@ -21225,7 +21150,7 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C46" s="3">
         <v>0</v>
@@ -21269,7 +21194,7 @@
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C47" s="3">
         <v>0</v>
@@ -21313,7 +21238,7 @@
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C48" s="3">
         <v>0</v>
@@ -21358,7 +21283,7 @@
     <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="11"/>
       <c r="B49" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" s="31">
         <f>'Baseline year demographics'!$C9</f>
@@ -21415,7 +21340,7 @@
     </row>
     <row r="50" spans="1:15" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C50" s="106">
         <v>0</v>
@@ -21470,7 +21395,7 @@
     </row>
     <row r="51" spans="1:15" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C51" s="106">
         <v>0</v>
@@ -21525,7 +21450,7 @@
     </row>
     <row r="52" spans="1:15" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C52" s="106">
         <v>0</v>
@@ -21580,7 +21505,7 @@
     </row>
     <row r="53" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C53" s="3">
         <v>0</v>
@@ -21634,7 +21559,7 @@
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -21651,10 +21576,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>6</v>
@@ -21672,36 +21597,36 @@
         <v>10</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="43">
         <v>1</v>
@@ -21746,7 +21671,7 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C3" s="43">
         <v>0</v>
@@ -21834,7 +21759,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" s="53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="43">
         <v>0</v>
@@ -21878,7 +21803,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C6" s="43">
         <v>0</v>
@@ -21922,7 +21847,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="43">
         <v>0</v>
@@ -21966,7 +21891,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C8" s="43">
         <v>0</v>
@@ -22010,7 +21935,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="43">
         <v>0</v>
@@ -22054,7 +21979,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C10" s="43">
         <v>0</v>
@@ -22098,7 +22023,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C11" s="108">
         <v>0</v>
@@ -22142,7 +22067,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C12" s="108">
         <v>0</v>
@@ -22186,7 +22111,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C13" s="108">
         <v>0</v>
@@ -22245,10 +22170,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="43">
         <v>0</v>
@@ -22293,7 +22218,7 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C16" s="43">
         <v>0</v>
@@ -22337,7 +22262,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C17" s="43">
         <v>0</v>
@@ -22381,7 +22306,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="43">
         <v>0</v>
@@ -22425,7 +22350,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C19" s="43">
         <v>0</v>
@@ -22469,7 +22394,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C20" s="43">
         <v>0</v>
@@ -22513,7 +22438,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C21" s="43">
         <v>1</v>
@@ -22557,7 +22482,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C22" s="43">
         <v>1</v>
@@ -22601,7 +22526,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C23" s="43">
         <v>1</v>
@@ -22660,10 +22585,10 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C25" s="43">
         <v>0</v>
@@ -22707,7 +22632,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C26" s="43">
         <v>0</v>
@@ -22751,7 +22676,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C27" s="43">
         <v>0</v>
@@ -22795,7 +22720,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C28" s="43">
         <v>0</v>
@@ -22839,7 +22764,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C29" s="43">
         <v>0</v>
@@ -22883,7 +22808,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C30" s="43">
         <v>0</v>
@@ -22927,7 +22852,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C31" s="43">
         <v>0</v>
@@ -22972,7 +22897,7 @@
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C32" s="43">
         <v>0</v>
@@ -23016,7 +22941,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C33" s="43">
         <v>0</v>
@@ -23060,7 +22985,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C34" s="43">
         <v>0</v>
@@ -23104,7 +23029,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C35" s="43">
         <v>0</v>
@@ -23148,7 +23073,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C36" s="43">
         <v>0</v>
@@ -23192,7 +23117,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C37" s="43">
         <v>0</v>
@@ -23236,7 +23161,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C38" s="43">
         <v>0</v>
@@ -23280,7 +23205,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C39" s="43">
         <v>0</v>
@@ -23324,7 +23249,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B40" s="11" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C40" s="43">
         <v>0</v>
@@ -23384,10 +23309,10 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C42" s="43">
         <v>1</v>
@@ -23431,7 +23356,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C43" s="43">
         <v>1</v>
@@ -23475,7 +23400,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C44" s="43">
         <v>1</v>
@@ -23519,7 +23444,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C45" s="43">
         <v>1</v>
@@ -23563,7 +23488,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C46" s="43">
         <v>1</v>
@@ -23607,7 +23532,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C47" s="43">
         <v>1</v>
@@ -23651,7 +23576,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C48" s="43">
         <v>1</v>
@@ -23695,7 +23620,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B49" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C49" s="43">
         <v>0</v>
@@ -23739,7 +23664,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B50" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C50" s="43">
         <v>0</v>
@@ -23783,7 +23708,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B51" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C51" s="43">
         <v>0</v>
@@ -23828,7 +23753,7 @@
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="11"/>
       <c r="B52" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C52" s="136">
         <v>1</v>
@@ -23872,7 +23797,7 @@
     </row>
     <row r="53" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C53" s="108">
         <v>1</v>
@@ -23916,7 +23841,7 @@
     </row>
     <row r="54" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B54" s="12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C54" s="108">
         <v>1</v>
@@ -23960,7 +23885,7 @@
     </row>
     <row r="55" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B55" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C55" s="108">
         <v>1</v>
@@ -24004,7 +23929,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -24053,10 +23978,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -24068,258 +23993,234 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="58" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>146</v>
+      <c r="A27" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>144</v>
+      <c r="A28" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>78</v>
+        <v>123</v>
+      </c>
+      <c r="B29" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>135</v>
+      <c r="A30" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>138</v>
-      </c>
+      <c r="A31" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>229</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="A33" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="4"/>
+        <v>147</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" s="4"/>
+      <c r="A36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="4"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>151</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B37" s="4"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="4"/>
+        <v>158</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -24331,10 +24232,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -24354,530 +24255,515 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="66" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="K3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H24" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I24" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>165</v>
+        <v>161</v>
+      </c>
+      <c r="I28" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" t="s">
-        <v>165</v>
+        <v>262</v>
+      </c>
+      <c r="H29" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" t="s">
-        <v>165</v>
+        <v>261</v>
+      </c>
+      <c r="H30" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
-        <v>78</v>
+      <c r="A31" t="s">
+        <v>131</v>
       </c>
       <c r="C31" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I31" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="H32" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="H33" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" t="s">
-        <v>165</v>
-      </c>
-      <c r="I34" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>138</v>
+      <c r="A32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" t="s">
+        <v>161</v>
+      </c>
+      <c r="I32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>258</v>
+      </c>
+      <c r="G33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>161</v>
       </c>
       <c r="C35" t="s">
-        <v>165</v>
-      </c>
-      <c r="I35" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>262</v>
-      </c>
-      <c r="G36" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+      <c r="D35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" t="s">
-        <v>165</v>
-      </c>
-      <c r="D37" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B39" t="s">
-        <v>165</v>
-      </c>
-      <c r="C39" t="s">
-        <v>165</v>
-      </c>
-      <c r="D39" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+      <c r="E39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+      <c r="E40" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E42" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E43" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="G41" t="s">
+        <v>161</v>
+      </c>
+      <c r="H41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>257</v>
+      </c>
+      <c r="G42" t="s">
+        <v>161</v>
+      </c>
+      <c r="H42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>256</v>
+      </c>
+      <c r="G43" t="s">
+        <v>161</v>
+      </c>
+      <c r="H43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>255</v>
+      </c>
       <c r="G44" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H44" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G45" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H45" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G46" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H46" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>259</v>
       </c>
-      <c r="G47" t="s">
-        <v>165</v>
-      </c>
       <c r="H47" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>257</v>
-      </c>
-      <c r="G48" t="s">
-        <v>165</v>
-      </c>
-      <c r="H48" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>258</v>
-      </c>
-      <c r="G49" t="s">
-        <v>165</v>
-      </c>
-      <c r="H49" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>263</v>
-      </c>
-      <c r="H50" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="B52" t="s">
-        <v>165</v>
-      </c>
-      <c r="F52" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="134" t="s">
-        <v>162</v>
-      </c>
-      <c r="B53" t="s">
-        <v>165</v>
-      </c>
-      <c r="F53" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="134" t="s">
-        <v>163</v>
-      </c>
-      <c r="B54" t="s">
-        <v>165</v>
-      </c>
-      <c r="F54" t="s">
-        <v>165</v>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="133" t="s">
+        <v>161</v>
+      </c>
+      <c r="G48" s="133" t="s">
+        <v>161</v>
+      </c>
+      <c r="H48" s="133" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="134" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" t="s">
+        <v>161</v>
+      </c>
+      <c r="F49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="134" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" t="s">
+        <v>161</v>
+      </c>
+      <c r="F50" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="134" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" t="s">
+        <v>161</v>
+      </c>
+      <c r="F51" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -24908,37 +24794,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -24946,28 +24832,28 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -24975,28 +24861,28 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -25004,28 +24890,28 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -25033,28 +24919,28 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -25062,108 +24948,108 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -25173,10 +25059,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25189,21 +25075,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="121" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B1" s="121" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C1" s="121" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D1" s="121" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="122" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="123">
         <v>0</v>
@@ -25217,7 +25103,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="124" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B3" s="125">
         <v>0</v>
@@ -25231,7 +25117,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="127" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B4" s="125">
         <v>0</v>
@@ -25245,7 +25131,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="127" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B5" s="126">
         <v>0</v>
@@ -25260,7 +25146,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="127" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B6" s="125">
         <v>0</v>
@@ -25275,7 +25161,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="128" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B7" s="129">
         <v>0.36</v>
@@ -25289,7 +25175,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="127" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B8" s="126">
         <v>0</v>
@@ -25303,7 +25189,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="127" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B9" s="126">
         <v>0</v>
@@ -25317,7 +25203,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="127" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B10" s="126">
         <v>0</v>
@@ -25331,7 +25217,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="127" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B11" s="126">
         <v>0</v>
@@ -25345,7 +25231,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="127" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B12" s="126">
         <v>0</v>
@@ -25359,7 +25245,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="127" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B13" s="126">
         <v>0</v>
@@ -25373,7 +25259,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="127" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B14" s="126">
         <v>0</v>
@@ -25387,7 +25273,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="127" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B15" s="126">
         <v>0</v>
@@ -25401,7 +25287,7 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="127" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B16" s="126">
         <v>0</v>
@@ -25413,9 +25299,9 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="127" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B17" s="126">
         <v>0</v>
@@ -25427,9 +25313,9 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="127" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B18" s="126">
         <v>0</v>
@@ -25441,9 +25327,9 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="127" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B19" s="126">
         <v>0</v>
@@ -25455,9 +25341,9 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="127" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B20" s="126">
         <v>0</v>
@@ -25469,9 +25355,9 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="127" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B21" s="126">
         <v>0</v>
@@ -25483,9 +25369,9 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="127" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B22" s="126">
         <v>0</v>
@@ -25497,9 +25383,9 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="127" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B23" s="126">
         <v>0</v>
@@ -25511,9 +25397,9 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="122" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B24" s="123">
         <v>0.34599999999999997</v>
@@ -25525,9 +25411,9 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="127" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="126">
         <v>0</v>
@@ -25539,9 +25425,9 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="127" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B26" s="126">
         <v>0</v>
@@ -25553,9 +25439,9 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="128" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B27" s="123">
         <v>0.80800000000000005</v>
@@ -25567,80 +25453,79 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="14">
-        <v>0</v>
-      </c>
-      <c r="C28" s="14">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="128" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="123">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="C28" s="123">
         <v>0.95</v>
       </c>
-      <c r="D28" s="18">
-        <v>0.13</v>
-      </c>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="129">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="127" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="126">
+        <v>262</v>
+      </c>
+      <c r="B29" s="125">
         <v>0</v>
       </c>
       <c r="C29" s="126">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="D29" s="126">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="127" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="126">
+        <v>261</v>
+      </c>
+      <c r="B30" s="125">
         <v>0</v>
       </c>
       <c r="C30" s="126">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="D30" s="126">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="128" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="123">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="C31" s="123">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="127" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="126">
+        <v>0</v>
+      </c>
+      <c r="C31" s="126">
+        <v>0.85</v>
+      </c>
+      <c r="D31" s="126">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="130" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="123">
+        <v>0.3538</v>
+      </c>
+      <c r="C32" s="123">
         <v>0.95</v>
       </c>
-      <c r="D31" s="129">
-        <v>2.61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="127" t="s">
-        <v>266</v>
-      </c>
-      <c r="B32" s="125">
-        <v>0</v>
-      </c>
-      <c r="C32" s="126">
-        <v>0.85</v>
-      </c>
-      <c r="D32" s="126">
-        <v>11</v>
+      <c r="D32" s="123">
+        <v>3.78</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="127" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B33" s="125">
         <v>0</v>
@@ -25649,191 +25534,191 @@
         <v>0.85</v>
       </c>
       <c r="D33" s="126">
-        <v>11</v>
+        <v>23.84</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="127" t="s">
-        <v>135</v>
-      </c>
-      <c r="B34" s="126">
-        <v>0</v>
-      </c>
-      <c r="C34" s="126">
+      <c r="A34" s="128" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="123">
+        <v>0</v>
+      </c>
+      <c r="C34" s="123">
+        <v>0.95</v>
+      </c>
+      <c r="D34" s="123">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="126">
+        <v>0</v>
+      </c>
+      <c r="C35" s="126">
         <v>0.85</v>
       </c>
-      <c r="D34" s="126">
-        <v>2.99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="130" t="s">
-        <v>138</v>
-      </c>
-      <c r="B35" s="123">
-        <v>0.3538</v>
-      </c>
-      <c r="C35" s="123">
-        <v>0.95</v>
-      </c>
-      <c r="D35" s="123">
-        <v>3.78</v>
+      <c r="D35" s="126">
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="127" t="s">
-        <v>262</v>
-      </c>
-      <c r="B36" s="125">
+        <v>132</v>
+      </c>
+      <c r="B36" s="126">
         <v>0</v>
       </c>
       <c r="C36" s="126">
         <v>0.85</v>
       </c>
       <c r="D36" s="126">
-        <v>23.84</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="128" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" s="123">
-        <v>0</v>
-      </c>
-      <c r="C37" s="123">
+      <c r="A37" s="127" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="126">
+        <v>0</v>
+      </c>
+      <c r="C37" s="126">
+        <v>0.85</v>
+      </c>
+      <c r="D37" s="126">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="123">
+        <v>0.1</v>
+      </c>
+      <c r="C38" s="123">
         <v>0.95</v>
       </c>
-      <c r="D37" s="123">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="127" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="126">
-        <v>0</v>
-      </c>
-      <c r="C38" s="126">
-        <v>0.85</v>
-      </c>
-      <c r="D38" s="126">
-        <v>50</v>
+      <c r="D38" s="123">
+        <v>4.6500000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="127" t="s">
-        <v>136</v>
-      </c>
-      <c r="B39" s="126">
-        <v>0</v>
-      </c>
-      <c r="C39" s="126">
-        <v>0.85</v>
-      </c>
-      <c r="D39" s="126">
-        <v>51</v>
+      <c r="A39" s="128" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="123">
+        <v>0</v>
+      </c>
+      <c r="C39" s="123">
+        <v>0.95</v>
+      </c>
+      <c r="D39" s="129">
+        <f>40*AVERAGE('Incidence of conditions'!B5:F5)</f>
+        <v>4.7195394035926403</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="127" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="126">
-        <v>0</v>
-      </c>
-      <c r="C40" s="126">
-        <v>0.85</v>
-      </c>
-      <c r="D40" s="126">
-        <v>4.6500000000000004</v>
+      <c r="A40" s="128" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="123">
+        <v>0</v>
+      </c>
+      <c r="C40" s="123">
+        <v>0.95</v>
+      </c>
+      <c r="D40" s="129">
+        <f>90*AVERAGE('Incidence of conditions'!B6:F6)</f>
+        <v>5.2956558655829511</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="131" t="s">
-        <v>137</v>
+      <c r="A41" s="128" t="s">
+        <v>47</v>
       </c>
       <c r="B41" s="123">
-        <v>0.1</v>
+        <v>0.89970000000000006</v>
       </c>
       <c r="C41" s="123">
         <v>0.95</v>
       </c>
       <c r="D41" s="123">
-        <v>4.6500000000000004</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="128" t="s">
-        <v>151</v>
-      </c>
-      <c r="B42" s="123">
-        <v>0</v>
+      <c r="A42" s="122" t="s">
+        <v>257</v>
+      </c>
+      <c r="B42" s="132">
+        <v>0.80700000000000005</v>
       </c>
       <c r="C42" s="123">
         <v>0.95</v>
       </c>
-      <c r="D42" s="129">
-        <f>40*AVERAGE('Incidence of conditions'!B5:F5)</f>
-        <v>4.7195394035926403</v>
+      <c r="D42" s="123">
+        <v>0.9</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="128" t="s">
-        <v>152</v>
-      </c>
-      <c r="B43" s="123">
-        <v>0</v>
+      <c r="A43" s="122" t="s">
+        <v>256</v>
+      </c>
+      <c r="B43" s="132">
+        <v>0.73199999999999998</v>
       </c>
       <c r="C43" s="123">
         <v>0.95</v>
       </c>
-      <c r="D43" s="129">
-        <f>90*AVERAGE('Incidence of conditions'!B6:F6)</f>
-        <v>5.2956558655829511</v>
+      <c r="D43" s="123">
+        <v>0.9</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="128" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="123">
-        <v>0.89970000000000006</v>
+      <c r="A44" s="122" t="s">
+        <v>255</v>
+      </c>
+      <c r="B44" s="132">
+        <v>0.316</v>
       </c>
       <c r="C44" s="123">
         <v>0.95</v>
       </c>
       <c r="D44" s="123">
-        <v>0.41</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="122" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B45" s="132">
-        <v>0.80700000000000005</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="C45" s="123">
         <v>0.95</v>
       </c>
       <c r="D45" s="123">
-        <v>0.9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="122" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B46" s="132">
-        <v>0.73199999999999998</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="C46" s="123">
         <v>0.95</v>
       </c>
       <c r="D46" s="123">
-        <v>0.9</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -25841,115 +25726,73 @@
         <v>259</v>
       </c>
       <c r="B47" s="132">
-        <v>0.316</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="C47" s="123">
         <v>0.95</v>
       </c>
-      <c r="D47" s="123">
-        <v>79</v>
+      <c r="D47" s="129">
+        <v>5.53</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="122" t="s">
-        <v>257</v>
-      </c>
-      <c r="B48" s="132">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="C48" s="123">
+      <c r="A48" s="127" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="126">
+        <v>0</v>
+      </c>
+      <c r="C48" s="126">
+        <v>0.85</v>
+      </c>
+      <c r="D48" s="126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="122" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="143">
+        <v>0</v>
+      </c>
+      <c r="C49" s="29">
         <v>0.95</v>
       </c>
-      <c r="D48" s="123">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="122" t="s">
-        <v>258</v>
-      </c>
-      <c r="B49" s="132">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="C49" s="123">
-        <v>0.95</v>
-      </c>
-      <c r="D49" s="123">
-        <v>102</v>
+      <c r="D49" s="142" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="122" t="s">
-        <v>263</v>
-      </c>
-      <c r="B50" s="132">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="C50" s="123">
+        <v>158</v>
+      </c>
+      <c r="B50" s="140">
+        <v>0</v>
+      </c>
+      <c r="C50" s="141">
         <v>0.95</v>
       </c>
-      <c r="D50" s="129">
-        <v>5.53</v>
+      <c r="D50" s="142" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="127" t="s">
-        <v>140</v>
-      </c>
-      <c r="B51" s="126">
-        <v>0</v>
-      </c>
-      <c r="C51" s="126">
-        <v>0.85</v>
-      </c>
-      <c r="D51" s="126">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="122" t="s">
-        <v>161</v>
-      </c>
-      <c r="B52" s="143">
-        <v>0</v>
-      </c>
-      <c r="C52" s="29">
+      <c r="A51" s="122" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="140">
+        <v>0</v>
+      </c>
+      <c r="C51" s="141">
         <v>0.95</v>
       </c>
-      <c r="D52" s="142" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="122" t="s">
-        <v>162</v>
-      </c>
-      <c r="B53" s="140">
-        <v>0</v>
-      </c>
-      <c r="C53" s="141">
-        <v>0.95</v>
-      </c>
-      <c r="D53" s="142" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="122" t="s">
-        <v>163</v>
-      </c>
-      <c r="B54" s="140">
-        <v>0</v>
-      </c>
-      <c r="C54" s="141">
-        <v>0.95</v>
-      </c>
-      <c r="D54" s="142" t="s">
-        <v>270</v>
+      <c r="D51" s="142" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D52">
+  <sortState ref="A2:D49">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -25973,10 +25816,10 @@
   <sheetData>
     <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C1" s="10">
         <v>2010</v>
@@ -26264,7 +26107,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>6</v>
@@ -26312,7 +26155,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B19" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K19" s="82">
         <f>'Prevalence of anaemia'!H3</f>
@@ -26321,7 +26164,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B20" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K20" s="82">
         <f>'Prevalence of anaemia'!I3</f>
@@ -26330,7 +26173,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B21" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K21" s="82">
         <f>'Prevalence of anaemia'!J3</f>
@@ -26339,7 +26182,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B22" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K22" s="82">
         <f>'Prevalence of anaemia'!K3</f>
@@ -26348,7 +26191,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B23" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K23" s="82">
         <f>'Prevalence of anaemia'!L3</f>
@@ -26357,7 +26200,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B24" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K24" s="82">
         <f>'Prevalence of anaemia'!M3</f>
@@ -26366,7 +26209,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B25" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K25" s="82">
         <f>'Prevalence of anaemia'!N3</f>
@@ -26375,7 +26218,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B26" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K26" s="82">
         <f>'Prevalence of anaemia'!O3</f>
@@ -26417,20 +26260,20 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F5240D-F5E2-7843-8F74-E64484849FE7}">
-  <dimension ref="A1:P107"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C1" s="86">
         <f>'Baseline year demographics'!$C2+1</f>
@@ -26495,7 +26338,7 @@
         <v>Balanced energy-protein supplementation</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C2" s="34"/>
     </row>
@@ -26505,7 +26348,7 @@
         <v>Balanced energy-protein supplementation</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C3" s="34"/>
     </row>
@@ -26515,7 +26358,7 @@
         <v>Birth age program</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C4" s="34"/>
     </row>
@@ -26525,7 +26368,7 @@
         <v>Birth age program</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C5" s="34"/>
     </row>
@@ -26535,7 +26378,7 @@
         <v>Calcium supplementation</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C6" s="34"/>
     </row>
@@ -26545,7 +26388,7 @@
         <v>Calcium supplementation</v>
       </c>
       <c r="B7" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C7" s="34"/>
     </row>
@@ -26555,7 +26398,7 @@
         <v>Cash transfers</v>
       </c>
       <c r="B8" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C8" s="34"/>
     </row>
@@ -26565,7 +26408,7 @@
         <v>Cash transfers</v>
       </c>
       <c r="B9" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C9" s="34"/>
     </row>
@@ -26575,7 +26418,7 @@
         <v>Family Planning</v>
       </c>
       <c r="B10" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C10" s="34"/>
     </row>
@@ -26585,7 +26428,7 @@
         <v>Family Planning</v>
       </c>
       <c r="B11" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C11" s="34"/>
     </row>
@@ -26595,7 +26438,7 @@
         <v>IFA fortification of maize</v>
       </c>
       <c r="B12" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C12" s="34"/>
     </row>
@@ -26605,7 +26448,7 @@
         <v>IFA fortification of maize</v>
       </c>
       <c r="B13" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C13" s="34"/>
     </row>
@@ -26615,7 +26458,7 @@
         <v>IFA fortification of rice</v>
       </c>
       <c r="B14" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C14" s="34"/>
     </row>
@@ -26625,7 +26468,7 @@
         <v>IFA fortification of rice</v>
       </c>
       <c r="B15" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C15" s="34"/>
     </row>
@@ -26635,7 +26478,7 @@
         <v>IFA fortification of wheat flour</v>
       </c>
       <c r="B16" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C16" s="34"/>
     </row>
@@ -26645,7 +26488,7 @@
         <v>IFA fortification of wheat flour</v>
       </c>
       <c r="B17" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C17" s="34"/>
     </row>
@@ -26655,7 +26498,7 @@
         <v>IFAS not poor: community</v>
       </c>
       <c r="B18" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C18" s="34"/>
     </row>
@@ -26665,7 +26508,7 @@
         <v>IFAS not poor: community</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C19" s="34"/>
     </row>
@@ -26675,7 +26518,7 @@
         <v>IFAS not poor: community (malaria area)</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C20" s="34"/>
     </row>
@@ -26685,7 +26528,7 @@
         <v>IFAS not poor: community (malaria area)</v>
       </c>
       <c r="B21" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C21" s="34"/>
     </row>
@@ -26695,7 +26538,7 @@
         <v>IFAS not poor: hospital</v>
       </c>
       <c r="B22" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C22" s="34"/>
     </row>
@@ -26705,7 +26548,7 @@
         <v>IFAS not poor: hospital</v>
       </c>
       <c r="B23" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C23" s="34"/>
     </row>
@@ -26715,7 +26558,7 @@
         <v>IFAS not poor: hospital (malaria area)</v>
       </c>
       <c r="B24" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C24" s="34"/>
     </row>
@@ -26725,7 +26568,7 @@
         <v>IFAS not poor: hospital (malaria area)</v>
       </c>
       <c r="B25" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C25" s="34"/>
     </row>
@@ -26735,7 +26578,7 @@
         <v>IFAS not poor: retailer</v>
       </c>
       <c r="B26" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C26" s="34"/>
     </row>
@@ -26745,7 +26588,7 @@
         <v>IFAS not poor: retailer</v>
       </c>
       <c r="B27" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C27" s="34"/>
     </row>
@@ -26755,7 +26598,7 @@
         <v>IFAS not poor: retailer (malaria area)</v>
       </c>
       <c r="B28" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C28" s="34"/>
     </row>
@@ -26765,7 +26608,7 @@
         <v>IFAS not poor: retailer (malaria area)</v>
       </c>
       <c r="B29" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C29" s="34"/>
     </row>
@@ -26775,7 +26618,7 @@
         <v>IFAS not poor: school</v>
       </c>
       <c r="B30" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C30" s="34"/>
     </row>
@@ -26785,7 +26628,7 @@
         <v>IFAS not poor: school</v>
       </c>
       <c r="B31" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C31" s="34"/>
     </row>
@@ -26795,7 +26638,7 @@
         <v>IFAS not poor: school (malaria area)</v>
       </c>
       <c r="B32" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C32" s="34"/>
     </row>
@@ -26805,7 +26648,7 @@
         <v>IFAS not poor: school (malaria area)</v>
       </c>
       <c r="B33" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C33" s="34"/>
     </row>
@@ -26815,7 +26658,7 @@
         <v>IFAS poor: community</v>
       </c>
       <c r="B34" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C34" s="34"/>
     </row>
@@ -26825,7 +26668,7 @@
         <v>IFAS poor: community</v>
       </c>
       <c r="B35" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C35" s="34"/>
     </row>
@@ -26835,7 +26678,7 @@
         <v>IFAS poor: community (malaria area)</v>
       </c>
       <c r="B36" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C36" s="34"/>
     </row>
@@ -26845,7 +26688,7 @@
         <v>IFAS poor: community (malaria area)</v>
       </c>
       <c r="B37" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C37" s="34"/>
     </row>
@@ -26855,7 +26698,7 @@
         <v>IFAS poor: hospital</v>
       </c>
       <c r="B38" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C38" s="34"/>
     </row>
@@ -26865,7 +26708,7 @@
         <v>IFAS poor: hospital</v>
       </c>
       <c r="B39" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C39" s="34"/>
     </row>
@@ -26875,7 +26718,7 @@
         <v>IFAS poor: hospital (malaria area)</v>
       </c>
       <c r="B40" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C40" s="34"/>
     </row>
@@ -26885,7 +26728,7 @@
         <v>IFAS poor: hospital (malaria area)</v>
       </c>
       <c r="B41" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C41" s="34"/>
     </row>
@@ -26895,7 +26738,7 @@
         <v>IFAS poor: school</v>
       </c>
       <c r="B42" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C42" s="34"/>
     </row>
@@ -26905,7 +26748,7 @@
         <v>IFAS poor: school</v>
       </c>
       <c r="B43" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C43" s="34"/>
     </row>
@@ -26915,7 +26758,7 @@
         <v>IFAS poor: school (malaria area)</v>
       </c>
       <c r="B44" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C44" s="34"/>
     </row>
@@ -26925,7 +26768,7 @@
         <v>IFAS poor: school (malaria area)</v>
       </c>
       <c r="B45" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C45" s="34"/>
     </row>
@@ -26935,7 +26778,7 @@
         <v>IPTp</v>
       </c>
       <c r="B46" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C46" s="34"/>
     </row>
@@ -26945,7 +26788,7 @@
         <v>IPTp</v>
       </c>
       <c r="B47" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C47" s="34"/>
     </row>
@@ -26955,7 +26798,7 @@
         <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
       <c r="B48" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C48" s="34"/>
     </row>
@@ -26965,7 +26808,7 @@
         <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
       <c r="B49" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C49" s="34"/>
     </row>
@@ -26975,7 +26818,7 @@
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
       </c>
       <c r="B50" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C50" s="34"/>
     </row>
@@ -26985,7 +26828,7 @@
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
       </c>
       <c r="B51" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C51" s="34"/>
     </row>
@@ -26995,7 +26838,7 @@
         <v>Iron and iodine fortification of salt</v>
       </c>
       <c r="B52" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C52" s="34"/>
     </row>
@@ -27005,549 +26848,489 @@
         <v>Iron and iodine fortification of salt</v>
       </c>
       <c r="B53" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C53" s="34"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="str">
         <f>'Programs to include'!A28</f>
-        <v>Iron fortification of maize</v>
+        <v>Long-lasting insecticide-treated bednets</v>
       </c>
       <c r="B54" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C54" s="34"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="str">
         <f>A54</f>
-        <v>Iron fortification of maize</v>
+        <v>Long-lasting insecticide-treated bednets</v>
       </c>
       <c r="B55" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C55" s="34"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="str">
         <f>'Programs to include'!A29</f>
-        <v>Iron fortification of rice</v>
+        <v>Mg for eclampsia</v>
       </c>
       <c r="B56" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C56" s="34"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="str">
         <f>A56</f>
-        <v>Iron fortification of rice</v>
+        <v>Mg for eclampsia</v>
       </c>
       <c r="B57" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C57" s="34"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="str">
         <f>'Programs to include'!A30</f>
-        <v>Iron fortification of wheat flour</v>
+        <v>Mg for pre-eclampsia</v>
       </c>
       <c r="B58" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C58" s="34"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="str">
         <f>A58</f>
-        <v>Iron fortification of wheat flour</v>
+        <v>Mg for pre-eclampsia</v>
       </c>
       <c r="B59" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C59" s="34"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="str">
         <f>'Programs to include'!A31</f>
-        <v>Long-lasting insecticide-treated bednets</v>
+        <v>Multiple micronutrient supplementation</v>
       </c>
       <c r="B60" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C60" s="34"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="str">
         <f>A60</f>
-        <v>Long-lasting insecticide-treated bednets</v>
+        <v>Multiple micronutrient supplementation</v>
       </c>
       <c r="B61" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C61" s="34"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="str">
         <f>'Programs to include'!A32</f>
-        <v>Mg for eclampsia</v>
+        <v>Multiple micronutrient supplementation (malaria area)</v>
       </c>
       <c r="B62" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C62" s="34"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="str">
         <f>A62</f>
-        <v>Mg for eclampsia</v>
+        <v>Multiple micronutrient supplementation (malaria area)</v>
       </c>
       <c r="B63" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C63" s="34"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="str">
         <f>'Programs to include'!A33</f>
-        <v>Mg for pre-eclampsia</v>
+        <v>Oral rehydration salts</v>
       </c>
       <c r="B64" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C64" s="34"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" t="str">
         <f>A64</f>
-        <v>Mg for pre-eclampsia</v>
+        <v>Oral rehydration salts</v>
       </c>
       <c r="B65" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C65" s="34"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" t="str">
         <f>'Programs to include'!A34</f>
-        <v>Multiple micronutrient supplementation</v>
+        <v>Public provision of complementary foods</v>
       </c>
       <c r="B66" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C66" s="34"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" t="str">
         <f>A66</f>
-        <v>Multiple micronutrient supplementation</v>
+        <v>Public provision of complementary foods</v>
       </c>
       <c r="B67" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C67" s="34"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" t="str">
         <f>'Programs to include'!A35</f>
-        <v>Multiple micronutrient supplementation (malaria area)</v>
+        <v>Public provision of complementary foods with iron</v>
       </c>
       <c r="B68" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C68" s="34"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" t="str">
         <f>A68</f>
-        <v>Multiple micronutrient supplementation (malaria area)</v>
+        <v>Public provision of complementary foods with iron</v>
       </c>
       <c r="B69" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C69" s="34"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" t="str">
         <f>'Programs to include'!A36</f>
-        <v>Oral rehydration salts</v>
+        <v>Public provision of complementary foods with iron (malaria area)</v>
       </c>
       <c r="B70" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C70" s="34"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" t="str">
         <f>A70</f>
-        <v>Oral rehydration salts</v>
+        <v>Public provision of complementary foods with iron (malaria area)</v>
       </c>
       <c r="B71" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C71" s="34"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" t="str">
         <f>'Programs to include'!A37</f>
-        <v>Public provision of complementary foods</v>
+        <v>Sprinkles</v>
       </c>
       <c r="B72" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C72" s="34"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" t="str">
         <f>A72</f>
-        <v>Public provision of complementary foods</v>
+        <v>Sprinkles</v>
       </c>
       <c r="B73" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C73" s="34"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" t="str">
         <f>'Programs to include'!A38</f>
-        <v>Public provision of complementary foods with iron</v>
+        <v>Sprinkles (malaria area)</v>
       </c>
       <c r="B74" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C74" s="34"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" t="str">
         <f>A74</f>
-        <v>Public provision of complementary foods with iron</v>
+        <v>Sprinkles (malaria area)</v>
       </c>
       <c r="B75" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C75" s="34"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" t="str">
         <f>'Programs to include'!A39</f>
-        <v>Public provision of complementary foods with iron (malaria area)</v>
+        <v>Treatment of MAM</v>
       </c>
       <c r="B76" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C76" s="34"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" t="str">
         <f>A76</f>
-        <v>Public provision of complementary foods with iron (malaria area)</v>
+        <v>Treatment of MAM</v>
       </c>
       <c r="B77" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C77" s="34"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" t="str">
         <f>'Programs to include'!A40</f>
-        <v>Sprinkles</v>
+        <v>Treatment of SAM</v>
       </c>
       <c r="B78" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C78" s="34"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" t="str">
         <f>A78</f>
-        <v>Sprinkles</v>
+        <v>Treatment of SAM</v>
       </c>
       <c r="B79" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C79" s="34"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" t="str">
         <f>'Programs to include'!A41</f>
-        <v>Sprinkles (malaria area)</v>
+        <v>Vitamin A supplementation</v>
       </c>
       <c r="B80" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C80" s="34"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" t="str">
         <f>A80</f>
-        <v>Sprinkles (malaria area)</v>
+        <v>Vitamin A supplementation</v>
       </c>
       <c r="B81" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C81" s="34"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" t="str">
         <f>'Programs to include'!A42</f>
-        <v>Treatment of MAM</v>
+        <v>WASH: Handwashing</v>
       </c>
       <c r="B82" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C82" s="34"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" t="str">
         <f>A82</f>
-        <v>Treatment of MAM</v>
+        <v>WASH: Handwashing</v>
       </c>
       <c r="B83" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C83" s="34"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" t="str">
         <f>'Programs to include'!A43</f>
-        <v>Treatment of SAM</v>
+        <v>WASH: Hygenic disposal</v>
       </c>
       <c r="B84" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C84" s="34"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" t="str">
         <f>A84</f>
-        <v>Treatment of SAM</v>
+        <v>WASH: Hygenic disposal</v>
       </c>
       <c r="B85" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C85" s="34"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" t="str">
         <f>'Programs to include'!A44</f>
-        <v>Vitamin A supplementation</v>
+        <v>WASH: Improved sanitation</v>
       </c>
       <c r="B86" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C86" s="34"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" t="str">
         <f>A86</f>
-        <v>Vitamin A supplementation</v>
+        <v>WASH: Improved sanitation</v>
       </c>
       <c r="B87" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C87" s="34"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" t="str">
         <f>'Programs to include'!A45</f>
-        <v>WASH: Handwashing</v>
+        <v>WASH: Improved water source</v>
       </c>
       <c r="B88" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C88" s="34"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" t="str">
         <f>A88</f>
-        <v>WASH: Handwashing</v>
+        <v>WASH: Improved water source</v>
       </c>
       <c r="B89" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C89" s="34"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" t="str">
         <f>'Programs to include'!A46</f>
-        <v>WASH: Hygenic disposal</v>
+        <v>WASH: Piped water</v>
       </c>
       <c r="B90" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C90" s="34"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" t="str">
         <f>A90</f>
-        <v>WASH: Hygenic disposal</v>
+        <v>WASH: Piped water</v>
       </c>
       <c r="B91" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C91" s="34"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" t="str">
         <f>'Programs to include'!A47</f>
-        <v>WASH: Improved sanitation</v>
+        <v>Zinc for treatment + ORS</v>
       </c>
       <c r="B92" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C92" s="34"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" t="str">
         <f>A92</f>
-        <v>WASH: Improved sanitation</v>
+        <v>Zinc for treatment + ORS</v>
       </c>
       <c r="B93" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C93" s="34"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" t="str">
         <f>'Programs to include'!A48</f>
-        <v>WASH: Improved water source</v>
+        <v>Zinc supplementation</v>
       </c>
       <c r="B94" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C94" s="34"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" t="str">
         <f>A94</f>
-        <v>WASH: Improved water source</v>
+        <v>Zinc supplementation</v>
       </c>
       <c r="B95" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C95" s="34"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" t="str">
         <f>'Programs to include'!A49</f>
-        <v>WASH: Piped water</v>
+        <v>IYCF 1</v>
       </c>
       <c r="B96" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C96" s="34"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" t="str">
         <f>A96</f>
-        <v>WASH: Piped water</v>
+        <v>IYCF 1</v>
       </c>
       <c r="B97" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C97" s="34"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" t="str">
         <f>'Programs to include'!A50</f>
-        <v>Zinc for treatment + ORS</v>
+        <v>IYCF 2</v>
       </c>
       <c r="B98" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C98" s="34"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" t="str">
         <f>A98</f>
-        <v>Zinc for treatment + ORS</v>
+        <v>IYCF 2</v>
       </c>
       <c r="B99" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C99" s="34"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" t="str">
         <f>'Programs to include'!A51</f>
-        <v>Zinc supplementation</v>
+        <v>IYCF 3</v>
       </c>
       <c r="B100" s="133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C100" s="34"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" t="str">
         <f>A100</f>
-        <v>Zinc supplementation</v>
+        <v>IYCF 3</v>
       </c>
       <c r="B101" s="133" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C101" s="34"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A102" t="str">
-        <f>'Programs to include'!A52</f>
-        <v>IYCF 1</v>
-      </c>
-      <c r="B102" s="133" t="s">
-        <v>287</v>
-      </c>
-      <c r="C102" s="34"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A103" t="str">
-        <f>A102</f>
-        <v>IYCF 1</v>
-      </c>
-      <c r="B103" s="133" t="s">
-        <v>288</v>
-      </c>
-      <c r="C103" s="34"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A104" t="str">
-        <f>'Programs to include'!A53</f>
-        <v>IYCF 2</v>
-      </c>
-      <c r="B104" s="133" t="s">
-        <v>287</v>
-      </c>
-      <c r="C104" s="34"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A105" t="str">
-        <f>A104</f>
-        <v>IYCF 2</v>
-      </c>
-      <c r="B105" s="133" t="s">
-        <v>288</v>
-      </c>
-      <c r="C105" s="34"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A106" t="str">
-        <f>'Programs to include'!A54</f>
-        <v>IYCF 3</v>
-      </c>
-      <c r="B106" s="133" t="s">
-        <v>287</v>
-      </c>
-      <c r="C106" s="34"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A107" t="str">
-        <f>A106</f>
-        <v>IYCF 3</v>
-      </c>
-      <c r="B107" s="133" t="s">
-        <v>288</v>
-      </c>
-      <c r="C107" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27560,7 +27343,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27571,48 +27354,48 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -27623,10 +27406,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27637,328 +27420,339 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="120" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B3" s="133"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B6" s="133"/>
+        <v>181</v>
+      </c>
+      <c r="B6" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B7" s="133" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B8" s="133"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B9" s="133"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B10" s="133"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B11" s="133" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B12" s="133"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B13" s="133" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B14" s="133"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B15" s="133" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B16" s="133"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B17" s="133" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B18" s="133"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B20" s="133"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B21" s="133" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B22" s="133"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B23" s="133" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B24" s="133" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="133"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B26" s="133" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B27" s="133" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>82</v>
+        <v>262</v>
+      </c>
+      <c r="B29" s="133" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>80</v>
+        <v>261</v>
+      </c>
+      <c r="B30" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" t="s">
-        <v>165</v>
+      <c r="A31" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B32" s="133" t="s">
-        <v>165</v>
+      <c r="A32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B33" s="133" t="s">
-        <v>165</v>
+      <c r="A33" t="s">
+        <v>258</v>
+      </c>
+      <c r="B33" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>135</v>
+      <c r="A34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="133" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>138</v>
-      </c>
-      <c r="B35" s="133" t="s">
-        <v>165</v>
+      <c r="A35" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>262</v>
-      </c>
-      <c r="B36" s="133" t="s">
-        <v>165</v>
+      <c r="A36" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
-        <v>75</v>
+      <c r="A38" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B39" s="133" t="s">
-        <v>165</v>
+        <v>147</v>
+      </c>
+      <c r="B39" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>74</v>
+        <v>148</v>
+      </c>
+      <c r="B40" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="29" t="s">
-        <v>137</v>
+      <c r="A41" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
-        <v>151</v>
+      <c r="A42" t="s">
+        <v>257</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
-        <v>152</v>
+      <c r="A43" t="s">
+        <v>256</v>
       </c>
       <c r="B43" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="4" t="s">
-        <v>47</v>
+      <c r="A44" t="s">
+        <v>255</v>
       </c>
       <c r="B44" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B46" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -27966,57 +27760,33 @@
         <v>259</v>
       </c>
       <c r="B47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>257</v>
-      </c>
-      <c r="B48" t="s">
-        <v>165</v>
+      <c r="A48" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="133" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>258</v>
+      <c r="A49" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="B49" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>263</v>
-      </c>
-      <c r="B50" t="s">
-        <v>165</v>
+      <c r="A50" s="11" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B51" s="133" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B52" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="11" t="s">
-        <v>163</v>
+      <c r="A51" s="11" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -28055,21 +27825,21 @@
         <v>10</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B2" s="111">
         <v>2.7000000000000001E-3</v>
@@ -28325,7 +28095,7 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B10" s="112">
         <v>0</v>
@@ -28357,7 +28127,7 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B11" s="112">
         <v>0</v>
@@ -28645,7 +28415,7 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B20" s="30">
         <v>0</v>
@@ -28677,7 +28447,7 @@
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B21" s="30">
         <v>0</v>
@@ -28709,7 +28479,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B22" s="30">
         <v>0</v>
@@ -28741,7 +28511,7 @@
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B23" s="30">
         <v>0</v>
@@ -28773,7 +28543,7 @@
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B24" s="30">
         <v>0</v>
@@ -28805,7 +28575,7 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B25" s="30">
         <v>0</v>
@@ -28837,7 +28607,7 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B26" s="30">
         <v>0</v>
@@ -28869,7 +28639,7 @@
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B27" s="30">
         <v>0</v>
@@ -28901,7 +28671,7 @@
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B28" s="30">
         <v>0</v>
@@ -28974,7 +28744,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B2" s="15">
         <f>6.4*26/100</f>
@@ -28984,11 +28754,11 @@
         <f>6.4*26/100</f>
         <v>1.6640000000000001</v>
       </c>
-      <c r="D2" s="147">
+      <c r="D2" s="146">
         <f>21.7*26/100</f>
         <v>5.6419999999999995</v>
       </c>
-      <c r="E2" s="147">
+      <c r="E2" s="146">
         <f>20.9*26/100</f>
         <v>5.4340000000000002</v>
       </c>
@@ -28999,7 +28769,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B3" s="30">
         <v>3.2000000000000001E-2</v>
@@ -29039,7 +28809,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B5" s="44">
         <f>Distributions!C10 * 2.6</f>
@@ -29064,7 +28834,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B6" s="44">
         <f>Distributions!C11 * 2.6</f>
@@ -29114,7 +28884,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>12</v>
@@ -29135,36 +28905,36 @@
         <v>10</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C2" s="82">
         <f t="shared" ref="C2:O2" si="0">1-C3</f>
@@ -29221,7 +28991,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C3" s="82">
         <f>C6</f>
@@ -29295,10 +29065,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C5" s="113">
         <v>0.1</v>
@@ -29347,10 +29117,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C6" s="113">
         <v>0.05</v>
@@ -29405,10 +29175,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C7" s="117">
         <v>2.7699999999999999E-2</v>
@@ -29667,7 +29437,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C10" s="111">
         <f>'Distributions data'!D9-C11</f>
@@ -29692,7 +29462,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C11" s="111">
         <f>'Distributions data'!D10</f>
@@ -29858,31 +29628,31 @@
         <v>12</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E1" s="144" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>271</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -29890,7 +29660,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D2" s="11">
         <v>984</v>
@@ -29919,10 +29689,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3" s="12" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D3">
         <v>0.13300000000000001</v>
@@ -29952,10 +29722,10 @@
     <row r="4" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
       <c r="B4" s="12" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D4" s="11">
         <v>4.5999999999999999E-2</v>
@@ -30001,7 +29771,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D8" s="11">
         <v>961</v>
@@ -30030,10 +29800,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B9" s="12" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D9" s="11">
         <v>9.4E-2</v>
@@ -30063,10 +29833,10 @@
     <row r="10" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="51"/>
       <c r="B10" s="12" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D10" s="11">
         <v>0.04</v>
@@ -30098,16 +29868,16 @@
         <v>6</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>9</v>
@@ -30119,7 +29889,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="133" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D14">
         <v>381</v>
@@ -30145,7 +29915,7 @@
         <v>37</v>
       </c>
       <c r="C15" s="133" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D15">
         <v>0.84</v>
@@ -30171,7 +29941,7 @@
         <v>38</v>
       </c>
       <c r="C16" s="133" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D16">
         <v>9.1999999999999998E-2</v>
@@ -30201,7 +29971,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="133" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D17">
         <v>5.8000000000000003E-2</v>
@@ -30227,7 +29997,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="133" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D18">
         <f>1-SUM(D15:D17)</f>
@@ -30274,21 +30044,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" x14ac:dyDescent="0.15">
       <c r="A2" s="87" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C2" s="118">
         <v>5.6000000000000001E-2</v>
@@ -30296,7 +30066,7 @@
     </row>
     <row r="3" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B3" s="88" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C3" s="118">
         <v>5.0000000000000001E-3</v>
@@ -30304,7 +30074,7 @@
     </row>
     <row r="4" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B4" s="88" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C4" s="118">
         <v>0</v>
@@ -30312,7 +30082,7 @@
     </row>
     <row r="5" spans="1:3" ht="39" x14ac:dyDescent="0.15">
       <c r="B5" s="89" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C5" s="118">
         <v>0.152</v>
@@ -30320,7 +30090,7 @@
     </row>
     <row r="6" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B6" s="89" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C6" s="118">
         <v>0.34200000000000003</v>
@@ -30328,7 +30098,7 @@
     </row>
     <row r="7" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B7" s="89" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C7" s="118">
         <v>0.29899999999999999</v>
@@ -30336,7 +30106,7 @@
     </row>
     <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="B8" s="90" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C8" s="118">
         <v>1E-3</v>
@@ -30344,7 +30114,7 @@
     </row>
     <row r="9" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B9" s="90" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C9" s="118">
         <v>5.0000000000000001E-3</v>
@@ -30352,7 +30122,7 @@
     </row>
     <row r="10" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B10" s="90" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C10" s="118">
         <v>0.14099999999999999</v>
@@ -30363,10 +30133,10 @@
     </row>
     <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A12" s="87" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B12" s="91" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C12" s="118">
         <v>0.20799999999999999</v>
@@ -30374,7 +30144,7 @@
     </row>
     <row r="13" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="B13" s="91" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C13" s="118">
         <v>3.5999999999999997E-2</v>
@@ -30382,7 +30152,7 @@
     </row>
     <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="B14" s="91" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C14" s="118">
         <v>0.11899999999999999</v>
@@ -30390,7 +30160,7 @@
     </row>
     <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="B15" s="91" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C15" s="118">
         <v>0.63700000000000001</v>

--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2018Jan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBCA404-1E9A-854E-A59D-A3B6291C71EF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E029BC97-0E76-2045-95B6-235EFC2978BE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="8" activeTab="19" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
+    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="23" activeTab="31" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -3715,7 +3715,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="285">
   <si>
     <t>year</t>
   </si>
@@ -13089,7 +13089,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -14611,11 +14611,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -14626,6 +14621,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -17488,7 +17488,7 @@
   </sheetPr>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="125" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -27408,8 +27408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27460,9 +27460,7 @@
       <c r="A6" t="s">
         <v>181</v>
       </c>
-      <c r="B6" s="133" t="s">
-        <v>161</v>
-      </c>
+      <c r="B6" s="133"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">

--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2018Jan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E029BC97-0E76-2045-95B6-235EFC2978BE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C7EC08-B28E-C847-A8DA-0F9B61F50115}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="23" activeTab="31" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
+    <workbookView xWindow="-38200" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="22" activeTab="27" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -2694,7 +2694,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -2703,12 +2703,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-DHS: percentage who received two or more doses</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DHS: percentage who received two or more doses</t>
         </r>
       </text>
     </comment>
@@ -3715,7 +3724,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="285">
   <si>
     <t>year</t>
   </si>
@@ -4583,7 +4592,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4794,6 +4803,19 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -18915,7 +18937,9 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="194" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -18953,7 +18977,7 @@
       <c r="A2" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="133" t="s">
         <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -19165,7 +19189,7 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21559,7 +21583,7 @@
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -24235,7 +24259,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -24775,7 +24799,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -24979,6 +25005,9 @@
       <c r="C7" t="s">
         <v>161</v>
       </c>
+      <c r="H7" t="s">
+        <v>161</v>
+      </c>
       <c r="I7" t="s">
         <v>161</v>
       </c>
@@ -24991,6 +25020,9 @@
       <c r="C8" t="s">
         <v>161</v>
       </c>
+      <c r="H8" t="s">
+        <v>161</v>
+      </c>
       <c r="I8" t="s">
         <v>161</v>
       </c>
@@ -25003,6 +25035,9 @@
       <c r="C9" t="s">
         <v>161</v>
       </c>
+      <c r="H9" t="s">
+        <v>161</v>
+      </c>
       <c r="I9" t="s">
         <v>161</v>
       </c>
@@ -25013,6 +25048,9 @@
         <v>114</v>
       </c>
       <c r="C10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" t="s">
         <v>161</v>
       </c>
       <c r="I10" t="s">
@@ -25062,7 +25100,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -26262,8 +26300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F5240D-F5E2-7843-8F74-E64484849FE7}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27408,8 +27446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27430,9 +27468,7 @@
       <c r="A2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="133" t="s">
-        <v>161</v>
-      </c>
+      <c r="B2" s="133"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="120" t="s">
@@ -27452,9 +27488,7 @@
       <c r="A5" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="133" t="s">
-        <v>161</v>
-      </c>
+      <c r="B5" s="133"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -27466,9 +27500,7 @@
       <c r="A7" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="133" t="s">
-        <v>161</v>
-      </c>
+      <c r="B7" s="133"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
@@ -27492,9 +27524,7 @@
       <c r="A11" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="133" t="s">
-        <v>161</v>
-      </c>
+      <c r="B11" s="133"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
@@ -27506,9 +27536,7 @@
       <c r="A13" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="133" t="s">
-        <v>161</v>
-      </c>
+      <c r="B13" s="133"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
@@ -27520,9 +27548,7 @@
       <c r="A15" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="133" t="s">
-        <v>161</v>
-      </c>
+      <c r="B15" s="133"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
@@ -27534,9 +27560,7 @@
       <c r="A17" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="133" t="s">
-        <v>161</v>
-      </c>
+      <c r="B17" s="133"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
@@ -27548,9 +27572,7 @@
       <c r="A19" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="133" t="s">
-        <v>161</v>
-      </c>
+      <c r="B19" s="133"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
@@ -27562,9 +27584,7 @@
       <c r="A21" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="133" t="s">
-        <v>161</v>
-      </c>
+      <c r="B21" s="133"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
@@ -27576,17 +27596,13 @@
       <c r="A23" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="133" t="s">
-        <v>161</v>
-      </c>
+      <c r="B23" s="133"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="133" t="s">
-        <v>161</v>
-      </c>
+      <c r="B24" s="133"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
@@ -27598,41 +27614,29 @@
       <c r="A26" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="133" t="s">
-        <v>161</v>
-      </c>
+      <c r="B26" s="133"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="133" t="s">
-        <v>161</v>
-      </c>
+      <c r="B27" s="133"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B28" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B29" s="133" t="s">
-        <v>161</v>
-      </c>
+      <c r="B29" s="133"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B30" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
@@ -27643,25 +27647,17 @@
       <c r="A32" t="s">
         <v>134</v>
       </c>
-      <c r="B32" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>258</v>
       </c>
-      <c r="B33" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="133" t="s">
-        <v>161</v>
-      </c>
+      <c r="B34" s="133"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
@@ -27672,9 +27668,6 @@
       <c r="A36" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B36" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
@@ -27685,104 +27678,69 @@
       <c r="A38" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B38" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B39" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B40" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B41" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>257</v>
       </c>
-      <c r="B42" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>256</v>
       </c>
-      <c r="B43" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>255</v>
       </c>
-      <c r="B44" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>253</v>
       </c>
-      <c r="B45" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>254</v>
       </c>
-      <c r="B46" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>259</v>
       </c>
-      <c r="B47" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B48" s="133" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B48" s="133"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B49" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="11" t="s">
         <v>159</v>
       </c>

--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2018Jan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C7EC08-B28E-C847-A8DA-0F9B61F50115}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98DD7BD-A0C9-7943-89B6-7D1BD4D528AC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38200" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="22" activeTab="27" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
+    <workbookView xWindow="-38200" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="22" activeTab="31" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -3724,7 +3724,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="285">
   <si>
     <t>year</t>
   </si>
@@ -24799,7 +24799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -27446,8 +27446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27468,7 +27468,9 @@
       <c r="A2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="133"/>
+      <c r="B2" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="120" t="s">
@@ -27488,7 +27490,9 @@
       <c r="A5" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="133"/>
+      <c r="B5" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -27500,7 +27504,9 @@
       <c r="A7" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="133"/>
+      <c r="B7" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
@@ -27524,7 +27530,9 @@
       <c r="A11" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="133"/>
+      <c r="B11" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
@@ -27536,7 +27544,9 @@
       <c r="A13" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="133"/>
+      <c r="B13" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
@@ -27548,7 +27558,9 @@
       <c r="A15" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="133"/>
+      <c r="B15" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
@@ -27560,7 +27572,9 @@
       <c r="A17" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="133"/>
+      <c r="B17" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
@@ -27572,7 +27586,9 @@
       <c r="A19" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="133"/>
+      <c r="B19" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
@@ -27584,7 +27600,9 @@
       <c r="A21" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="133"/>
+      <c r="B21" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
@@ -27596,13 +27614,17 @@
       <c r="A23" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="133"/>
+      <c r="B23" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="133"/>
+      <c r="B24" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
@@ -27614,29 +27636,41 @@
       <c r="A26" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="133"/>
+      <c r="B26" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="133"/>
+      <c r="B27" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="B28" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B29" s="133"/>
+      <c r="B29" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>261</v>
       </c>
+      <c r="B30" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
@@ -27647,17 +27681,25 @@
       <c r="A32" t="s">
         <v>134</v>
       </c>
+      <c r="B32" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>258</v>
       </c>
+      <c r="B33" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="133"/>
+      <c r="B34" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
@@ -27668,6 +27710,9 @@
       <c r="A36" s="4" t="s">
         <v>132</v>
       </c>
+      <c r="B36" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
@@ -27678,69 +27723,104 @@
       <c r="A38" s="29" t="s">
         <v>133</v>
       </c>
+      <c r="B38" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>147</v>
       </c>
+      <c r="B39" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>148</v>
       </c>
+      <c r="B40" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="B41" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>257</v>
       </c>
+      <c r="B42" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>256</v>
       </c>
+      <c r="B43" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>255</v>
       </c>
+      <c r="B44" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>253</v>
       </c>
+      <c r="B45" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>254</v>
       </c>
+      <c r="B46" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>259</v>
       </c>
+      <c r="B47" s="133" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B48" s="133"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B48" s="133" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="11" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B49" s="133" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="11" t="s">
         <v>159</v>
       </c>

--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2018Jan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98DD7BD-A0C9-7943-89B6-7D1BD4D528AC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D7F3D5-7CFE-464A-9B4D-1B1C2E86F335}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38200" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="22" activeTab="31" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
+    <workbookView xWindow="-38760" yWindow="-18760" windowWidth="38400" windowHeight="21140" firstSheet="22" activeTab="28" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -2478,7 +2478,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
@@ -2487,12 +2487,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-This is the fraction of the population eating these staples and belongs here.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is the fraction of the population eating these staples and belongs here.</t>
         </r>
       </text>
     </comment>
@@ -2847,7 +2856,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
@@ -2856,13 +2865,31 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-made up
-Janka: add $1 as cost of sprinkles</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">made up
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Janka: add $1 as cost of sprinkles</t>
         </r>
       </text>
     </comment>
@@ -4592,7 +4619,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4816,6 +4843,19 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -25099,8 +25139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25147,7 +25187,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="126">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D3" s="126">
         <v>0.8</v>
@@ -25161,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="126">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D4" s="126">
         <v>7</v>
@@ -25175,7 +25215,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="126">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D5" s="126">
         <f>180</f>
@@ -25190,7 +25230,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="126">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D6" s="126">
         <f>SUM('Programs family planning'!E2:E10)</f>
@@ -25219,7 +25259,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="126">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="D8" s="126">
         <v>0.75</v>
@@ -25233,7 +25273,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="126">
-        <v>0.12</v>
+        <v>0.95</v>
       </c>
       <c r="D9" s="126">
         <v>0.19</v>
@@ -25247,7 +25287,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="126">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D10" s="126">
         <v>0.73</v>
@@ -25261,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="126">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D11" s="126">
         <v>0.73</v>
@@ -25275,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="126">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D12" s="126">
         <v>1.78</v>
@@ -25289,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="126">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D13" s="126">
         <v>1.78</v>
@@ -25303,7 +25343,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="126">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D14" s="126">
         <v>0.24</v>
@@ -25317,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="126">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D15" s="126">
         <v>0.24</v>
@@ -25331,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="126">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D16" s="126">
         <v>0.55000000000000004</v>
@@ -25345,7 +25385,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="126">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D17" s="126">
         <v>0.55000000000000004</v>
@@ -25359,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="126">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D18" s="126">
         <v>0.73</v>
@@ -25373,7 +25413,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="126">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D19" s="126">
         <v>0.73</v>
@@ -25387,7 +25427,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="126">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D20" s="126">
         <v>1.78</v>
@@ -25401,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="126">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D21" s="126">
         <v>1.78</v>
@@ -25415,7 +25455,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="126">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D22" s="126">
         <v>0.55000000000000004</v>
@@ -25429,7 +25469,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="126">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D23" s="126">
         <v>0.55000000000000004</v>
@@ -25457,7 +25497,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="126">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D25" s="126">
         <v>1.78</v>
@@ -25471,7 +25511,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="126">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D26" s="126">
         <v>1.78</v>
@@ -25513,7 +25553,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="126">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D29" s="126">
         <v>11</v>
@@ -25527,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="126">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D30" s="126">
         <v>11</v>
@@ -25541,7 +25581,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="126">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D31" s="126">
         <v>2.99</v>
@@ -25569,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="126">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D33" s="126">
         <v>23.84</v>
@@ -25597,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="126">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D35" s="126">
         <v>50</v>
@@ -25611,7 +25651,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="126">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D36" s="126">
         <v>51</v>
@@ -25625,7 +25665,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="126">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D37" s="126">
         <v>4.6500000000000004</v>
@@ -25781,7 +25821,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="126">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="D48" s="126">
         <v>4</v>
@@ -27446,7 +27486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2018Jan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D7F3D5-7CFE-464A-9B4D-1B1C2E86F335}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1498F10D-0CA0-6F45-8BD2-105C9ED685B6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38760" yWindow="-18760" windowWidth="38400" windowHeight="21140" firstSheet="22" activeTab="28" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
+    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="22" activeTab="28" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -3751,7 +3751,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="285">
   <si>
     <t>year</t>
   </si>
@@ -25139,8 +25139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25245,7 +25245,7 @@
         <v>0.36</v>
       </c>
       <c r="C7" s="123">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="D7" s="123">
         <v>0.25</v>
@@ -27487,7 +27487,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27795,41 +27795,31 @@
       <c r="A42" t="s">
         <v>257</v>
       </c>
-      <c r="B42" s="133" t="s">
-        <v>161</v>
-      </c>
+      <c r="B42" s="133"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>256</v>
       </c>
-      <c r="B43" s="133" t="s">
-        <v>161</v>
-      </c>
+      <c r="B43" s="133"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>255</v>
       </c>
-      <c r="B44" s="133" t="s">
-        <v>161</v>
-      </c>
+      <c r="B44" s="133"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>253</v>
       </c>
-      <c r="B45" s="133" t="s">
-        <v>161</v>
-      </c>
+      <c r="B45" s="133"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>254</v>
       </c>
-      <c r="B46" s="133" t="s">
-        <v>161</v>
-      </c>
+      <c r="B46" s="133"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">

--- a/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
+++ b/input_spreadsheets/Tanzania/2018Jan/InputForCode_Tanzania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2018Jan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1498F10D-0CA0-6F45-8BD2-105C9ED685B6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D81EC5-8A6C-6F40-9A34-58B4162CE127}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="22" activeTab="28" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="15540" activeTab="2" xr2:uid="{9CA16DF4-3AE6-9240-921D-580CF0357D1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <sheet name="IYCF cost &amp; coverage" sheetId="35" r:id="rId15"/>
     <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId16"/>
     <sheet name="Programs birth outcomes" sheetId="22" r:id="rId17"/>
-    <sheet name="Programs anemia" sheetId="30" r:id="rId18"/>
+    <sheet name="Programs anaemia" sheetId="30" r:id="rId18"/>
     <sheet name="Programs wasting" sheetId="31" r:id="rId19"/>
     <sheet name="Programs for children" sheetId="28" r:id="rId20"/>
     <sheet name="Programs family planning" sheetId="34" r:id="rId21"/>
@@ -410,285 +410,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
-    <author>Janka Petravic</author>
-    <author xml:space="preserve"> Janka Petravic</author>
-  </authors>
-  <commentList>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-May not need these beyond calculation below</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST: 1.11</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This calculation 'dilutes' OR so that we cover 'everyone' with IYCF, not just frac poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{894C6F33-B8E6-8B45-8B5E-FDFEB9A77B85}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick had these in the params documentation</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>This assumes we deliver PPCF with education to the poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This assumes we deliver PPCF with education to the poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This assumes we deliver PPCF with education to the poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B18" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This should be changed later I guess</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This should be changed later I guess</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{9BF08685-00AE-914A-9178-3CDB9EDE5066}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assumed same as stunting</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Sam</author>
   </authors>
   <commentList>
     <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
@@ -719,7 +440,7 @@
 </comments>
 </file>
 
-<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -772,7 +493,7 @@
 </comments>
 </file>
 
-<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -855,7 +576,7 @@
 </comments>
 </file>
 
-<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author xml:space="preserve"> Janka Petravic</author>
@@ -962,23 +683,32 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
-% at risk from malaria</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>% at risk from malaria</t>
         </r>
       </text>
     </comment>
@@ -986,7 +716,7 @@
 </comments>
 </file>
 
-<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author xml:space="preserve"> Janka Petravic</author>
@@ -1627,7 +1357,7 @@
 </comments>
 </file>
 
-<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -1866,7 +1596,7 @@
 </comments>
 </file>
 
-<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ruth</author>
@@ -1900,7 +1630,7 @@
 </comments>
 </file>
 
-<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author xml:space="preserve"> Janka Petravic</author>
@@ -1961,7 +1691,7 @@
 </comments>
 </file>
 
-<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -2151,89 +1881,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author xml:space="preserve"> Janka Petravic</author>
-  </authors>
-  <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-calculated</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-calculated</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-calculated</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -2413,7 +2061,89 @@
 </comments>
 </file>
 
-<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author xml:space="preserve"> Janka Petravic</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+calculated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+calculated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+calculated</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ruth</author>
@@ -2533,23 +2263,32 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
-Same effect as iron fortification</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Same effect as iron fortification</t>
         </r>
       </text>
     </comment>
@@ -3122,7 +2861,7 @@
 </comments>
 </file>
 
-<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -3170,7 +2909,7 @@
 </comments>
 </file>
 
-<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -3463,7 +3202,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -3472,12 +3211,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-DHS</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DHS</t>
         </r>
       </text>
     </comment>
@@ -3720,9 +3468,11 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
+    <author>Janka Petravic</author>
+    <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="A46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -3742,7 +3492,259 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Not modelling death through anaemia</t>
+May not need these beyond calculation below</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST: 1.11</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This calculation 'dilutes' OR so that we cover 'everyone' with IYCF, not just frac poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{894C6F33-B8E6-8B45-8B5E-FDFEB9A77B85}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick had these in the params documentation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>This assumes we deliver PPCF with education to the poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This assumes we deliver PPCF with education to the poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>This assumes we deliver PPCF with education to the poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This should be changed later I guess</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This should be changed later I guess</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{9BF08685-00AE-914A-9178-3CDB9EDE5066}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed same as stunting</t>
         </r>
       </text>
     </comment>
@@ -4859,7 +4861,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4935,6 +4937,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5734,7 +5742,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5934,17 +5942,10 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -5961,15 +5962,21 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8083,7 +8090,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8523,7 +8530,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9087,14 +9094,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13139,7 +13146,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13151,7 +13157,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13573,7 +13579,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -13612,7 +13620,7 @@
       <c r="A2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="146" t="s">
         <v>72</v>
       </c>
       <c r="C2" t="s">
@@ -13635,7 +13643,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="147"/>
+      <c r="B3" s="146"/>
       <c r="C3" t="s">
         <v>150</v>
       </c>
@@ -13657,7 +13665,7 @@
       <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="147"/>
+      <c r="B4" s="146"/>
       <c r="C4" t="s">
         <v>160</v>
       </c>
@@ -13679,7 +13687,7 @@
       <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="147" t="s">
+      <c r="B5" s="146" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -13702,7 +13710,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="147"/>
+      <c r="B6" s="146"/>
       <c r="C6" t="s">
         <v>150</v>
       </c>
@@ -13723,7 +13731,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="147"/>
+      <c r="B7" s="146"/>
       <c r="C7" t="s">
         <v>160</v>
       </c>
@@ -13744,7 +13752,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="146" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -13767,7 +13775,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="147"/>
+      <c r="B9" s="146"/>
       <c r="C9" t="s">
         <v>150</v>
       </c>
@@ -13788,7 +13796,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="147"/>
+      <c r="B10" s="146"/>
       <c r="C10" t="s">
         <v>160</v>
       </c>
@@ -13809,7 +13817,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="147" t="s">
+      <c r="B11" s="146" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -13832,7 +13840,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="147"/>
+      <c r="B12" s="146"/>
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -13853,7 +13861,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="147"/>
+      <c r="B13" s="146"/>
       <c r="C13" t="s">
         <v>160</v>
       </c>
@@ -13874,7 +13882,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="146" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -13897,7 +13905,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="147"/>
+      <c r="B15" s="146"/>
       <c r="C15" t="s">
         <v>150</v>
       </c>
@@ -13918,7 +13926,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="147"/>
+      <c r="B16" s="146"/>
       <c r="C16" t="s">
         <v>160</v>
       </c>
@@ -13972,7 +13980,7 @@
       <c r="A19" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="147" t="s">
+      <c r="B19" s="146" t="s">
         <v>72</v>
       </c>
       <c r="C19" t="s">
@@ -13995,7 +14003,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="147"/>
+      <c r="B20" s="146"/>
       <c r="C20" t="s">
         <v>150</v>
       </c>
@@ -14016,7 +14024,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="147"/>
+      <c r="B21" s="146"/>
       <c r="C21" t="s">
         <v>160</v>
       </c>
@@ -14037,7 +14045,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="147" t="s">
+      <c r="B22" s="146" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -14060,7 +14068,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="147"/>
+      <c r="B23" s="146"/>
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -14081,7 +14089,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="147"/>
+      <c r="B24" s="146"/>
       <c r="C24" t="s">
         <v>160</v>
       </c>
@@ -14102,7 +14110,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="147" t="s">
+      <c r="B25" s="146" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -14125,7 +14133,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="147"/>
+      <c r="B26" s="146"/>
       <c r="C26" t="s">
         <v>150</v>
       </c>
@@ -14146,7 +14154,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="147"/>
+      <c r="B27" s="146"/>
       <c r="C27" t="s">
         <v>160</v>
       </c>
@@ -14167,7 +14175,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="147" t="s">
+      <c r="B28" s="146" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -14190,7 +14198,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="147"/>
+      <c r="B29" s="146"/>
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -14211,7 +14219,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="147"/>
+      <c r="B30" s="146"/>
       <c r="C30" t="s">
         <v>160</v>
       </c>
@@ -14232,7 +14240,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="147" t="s">
+      <c r="B31" s="146" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -14255,7 +14263,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="147"/>
+      <c r="B32" s="146"/>
       <c r="C32" t="s">
         <v>150</v>
       </c>
@@ -14276,7 +14284,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="147"/>
+      <c r="B33" s="146"/>
       <c r="C33" t="s">
         <v>160</v>
       </c>
@@ -14323,7 +14331,7 @@
       <c r="A36" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="147" t="s">
+      <c r="B36" s="146" t="s">
         <v>72</v>
       </c>
       <c r="C36" t="s">
@@ -14346,7 +14354,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="147"/>
+      <c r="B37" s="146"/>
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -14367,7 +14375,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="147"/>
+      <c r="B38" s="146"/>
       <c r="C38" t="s">
         <v>160</v>
       </c>
@@ -14389,7 +14397,7 @@
       <c r="I38" s="50"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="147" t="s">
+      <c r="B39" s="146" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
@@ -14412,7 +14420,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="147"/>
+      <c r="B40" s="146"/>
       <c r="C40" t="s">
         <v>150</v>
       </c>
@@ -14433,7 +14441,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="147"/>
+      <c r="B41" s="146"/>
       <c r="C41" t="s">
         <v>160</v>
       </c>
@@ -14454,7 +14462,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="147" t="s">
+      <c r="B42" s="146" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
@@ -14477,7 +14485,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="147"/>
+      <c r="B43" s="146"/>
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -14498,7 +14506,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="147"/>
+      <c r="B44" s="146"/>
       <c r="C44" t="s">
         <v>160</v>
       </c>
@@ -14519,7 +14527,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="147" t="s">
+      <c r="B45" s="146" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -14542,7 +14550,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="147"/>
+      <c r="B46" s="146"/>
       <c r="C46" t="s">
         <v>150</v>
       </c>
@@ -14563,7 +14571,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="147"/>
+      <c r="B47" s="146"/>
       <c r="C47" t="s">
         <v>160</v>
       </c>
@@ -14584,7 +14592,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="147" t="s">
+      <c r="B48" s="146" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -14607,7 +14615,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="147"/>
+      <c r="B49" s="146"/>
       <c r="C49" t="s">
         <v>150</v>
       </c>
@@ -14628,7 +14636,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="147"/>
+      <c r="B50" s="146"/>
       <c r="C50" t="s">
         <v>160</v>
       </c>
@@ -14673,6 +14681,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -14683,11 +14696,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -14911,7 +14919,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -15104,7 +15114,9 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -15180,7 +15192,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15488,7 +15500,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -15563,25 +15575,25 @@
       <c r="D2" s="11">
         <v>1</v>
       </c>
-      <c r="E2" s="145">
-        <v>1</v>
-      </c>
-      <c r="F2" s="145">
-        <v>1</v>
-      </c>
-      <c r="G2" s="145">
-        <v>1</v>
-      </c>
-      <c r="H2" s="145">
-        <v>1</v>
-      </c>
-      <c r="I2" s="145">
-        <v>1</v>
-      </c>
-      <c r="J2" s="145">
-        <v>1</v>
-      </c>
-      <c r="K2" s="145">
+      <c r="E2" s="134">
+        <v>1</v>
+      </c>
+      <c r="F2" s="134">
+        <v>1</v>
+      </c>
+      <c r="G2" s="134">
+        <v>1</v>
+      </c>
+      <c r="H2" s="134">
+        <v>1</v>
+      </c>
+      <c r="I2" s="134">
+        <v>1</v>
+      </c>
+      <c r="J2" s="134">
+        <v>1</v>
+      </c>
+      <c r="K2" s="134">
         <v>1</v>
       </c>
       <c r="L2" s="11">
@@ -15607,25 +15619,25 @@
       <c r="D3" s="11">
         <v>1</v>
       </c>
-      <c r="E3" s="145">
-        <v>1</v>
-      </c>
-      <c r="F3" s="145">
-        <v>1</v>
-      </c>
-      <c r="G3" s="145">
-        <v>1</v>
-      </c>
-      <c r="H3" s="145">
-        <v>1</v>
-      </c>
-      <c r="I3" s="145">
-        <v>1</v>
-      </c>
-      <c r="J3" s="145">
-        <v>1</v>
-      </c>
-      <c r="K3" s="145">
+      <c r="E3" s="134">
+        <v>1</v>
+      </c>
+      <c r="F3" s="134">
+        <v>1</v>
+      </c>
+      <c r="G3" s="134">
+        <v>1</v>
+      </c>
+      <c r="H3" s="134">
+        <v>1</v>
+      </c>
+      <c r="I3" s="134">
+        <v>1</v>
+      </c>
+      <c r="J3" s="134">
+        <v>1</v>
+      </c>
+      <c r="K3" s="134">
         <v>1</v>
       </c>
       <c r="L3" s="11">
@@ -16814,7 +16826,9 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -16827,7 +16841,7 @@
         <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>6</v>
@@ -16900,7 +16914,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -17550,8 +17566,8 @@
   </sheetPr>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="D43" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -18978,7 +18994,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="194" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -19017,7 +19033,7 @@
       <c r="A2" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="126" t="s">
         <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -19153,7 +19169,9 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -19228,8 +19246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B61" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19710,19 +19728,19 @@
       <c r="C11" s="106">
         <v>0</v>
       </c>
-      <c r="D11" s="139">
+      <c r="D11" s="132">
         <f>'Baseline year demographics'!$C8</f>
         <v>0.28199999999999997</v>
       </c>
-      <c r="E11" s="139">
+      <c r="E11" s="132">
         <f>'Baseline year demographics'!$C8</f>
         <v>0.28199999999999997</v>
       </c>
-      <c r="F11" s="139">
+      <c r="F11" s="132">
         <f>'Baseline year demographics'!$C8</f>
         <v>0.28199999999999997</v>
       </c>
-      <c r="G11" s="139">
+      <c r="G11" s="132">
         <f>'Baseline year demographics'!$C8</f>
         <v>0.28199999999999997</v>
       </c>
@@ -21623,7 +21641,7 @@
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -22218,19 +22236,19 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="135"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="135"/>
-      <c r="N14" s="135"/>
-      <c r="O14" s="135"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="128"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
@@ -22519,28 +22537,28 @@
       <c r="G21" s="43">
         <v>1</v>
       </c>
-      <c r="H21" s="136">
-        <v>0</v>
-      </c>
-      <c r="I21" s="136">
-        <v>0</v>
-      </c>
-      <c r="J21" s="136">
-        <v>0</v>
-      </c>
-      <c r="K21" s="136">
-        <v>0</v>
-      </c>
-      <c r="L21" s="136">
-        <v>0</v>
-      </c>
-      <c r="M21" s="136">
-        <v>0</v>
-      </c>
-      <c r="N21" s="136">
-        <v>0</v>
-      </c>
-      <c r="O21" s="136">
+      <c r="H21" s="129">
+        <v>0</v>
+      </c>
+      <c r="I21" s="129">
+        <v>0</v>
+      </c>
+      <c r="J21" s="129">
+        <v>0</v>
+      </c>
+      <c r="K21" s="129">
+        <v>0</v>
+      </c>
+      <c r="L21" s="129">
+        <v>0</v>
+      </c>
+      <c r="M21" s="129">
+        <v>0</v>
+      </c>
+      <c r="N21" s="129">
+        <v>0</v>
+      </c>
+      <c r="O21" s="129">
         <v>0</v>
       </c>
     </row>
@@ -22563,28 +22581,28 @@
       <c r="G22" s="43">
         <v>1</v>
       </c>
-      <c r="H22" s="136">
-        <v>0</v>
-      </c>
-      <c r="I22" s="136">
-        <v>0</v>
-      </c>
-      <c r="J22" s="136">
-        <v>0</v>
-      </c>
-      <c r="K22" s="136">
-        <v>0</v>
-      </c>
-      <c r="L22" s="136">
-        <v>0</v>
-      </c>
-      <c r="M22" s="136">
-        <v>0</v>
-      </c>
-      <c r="N22" s="136">
-        <v>0</v>
-      </c>
-      <c r="O22" s="136">
+      <c r="H22" s="129">
+        <v>0</v>
+      </c>
+      <c r="I22" s="129">
+        <v>0</v>
+      </c>
+      <c r="J22" s="129">
+        <v>0</v>
+      </c>
+      <c r="K22" s="129">
+        <v>0</v>
+      </c>
+      <c r="L22" s="129">
+        <v>0</v>
+      </c>
+      <c r="M22" s="129">
+        <v>0</v>
+      </c>
+      <c r="N22" s="129">
+        <v>0</v>
+      </c>
+      <c r="O22" s="129">
         <v>0</v>
       </c>
     </row>
@@ -22607,45 +22625,45 @@
       <c r="G23" s="43">
         <v>1</v>
       </c>
-      <c r="H23" s="136">
-        <v>0</v>
-      </c>
-      <c r="I23" s="136">
-        <v>0</v>
-      </c>
-      <c r="J23" s="136">
-        <v>0</v>
-      </c>
-      <c r="K23" s="136">
-        <v>0</v>
-      </c>
-      <c r="L23" s="136">
-        <v>0</v>
-      </c>
-      <c r="M23" s="136">
-        <v>0</v>
-      </c>
-      <c r="N23" s="136">
-        <v>0</v>
-      </c>
-      <c r="O23" s="136">
+      <c r="H23" s="129">
+        <v>0</v>
+      </c>
+      <c r="I23" s="129">
+        <v>0</v>
+      </c>
+      <c r="J23" s="129">
+        <v>0</v>
+      </c>
+      <c r="K23" s="129">
+        <v>0</v>
+      </c>
+      <c r="L23" s="129">
+        <v>0</v>
+      </c>
+      <c r="M23" s="129">
+        <v>0</v>
+      </c>
+      <c r="N23" s="129">
+        <v>0</v>
+      </c>
+      <c r="O23" s="129">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C24" s="135"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="135"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="135"/>
-      <c r="L24" s="135"/>
-      <c r="M24" s="135"/>
-      <c r="N24" s="135"/>
-      <c r="O24" s="135"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="128"/>
+      <c r="M24" s="128"/>
+      <c r="N24" s="128"/>
+      <c r="O24" s="128"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
@@ -23298,16 +23316,16 @@
       <c r="K39" s="43">
         <v>0</v>
       </c>
-      <c r="L39" s="136">
-        <v>1</v>
-      </c>
-      <c r="M39" s="136">
-        <v>1</v>
-      </c>
-      <c r="N39" s="136">
-        <v>1</v>
-      </c>
-      <c r="O39" s="136">
+      <c r="L39" s="129">
+        <v>1</v>
+      </c>
+      <c r="M39" s="129">
+        <v>1</v>
+      </c>
+      <c r="N39" s="129">
+        <v>1</v>
+      </c>
+      <c r="O39" s="129">
         <v>1</v>
       </c>
     </row>
@@ -23359,17 +23377,17 @@
       <c r="B41" s="12"/>
       <c r="C41" s="43"/>
       <c r="D41" s="43"/>
-      <c r="E41" s="137"/>
-      <c r="F41" s="137"/>
-      <c r="G41" s="137"/>
-      <c r="H41" s="137"/>
-      <c r="I41" s="137"/>
-      <c r="J41" s="135"/>
-      <c r="K41" s="135"/>
-      <c r="L41" s="135"/>
-      <c r="M41" s="135"/>
-      <c r="N41" s="135"/>
-      <c r="O41" s="135"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="130"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="128"/>
+      <c r="K41" s="128"/>
+      <c r="L41" s="128"/>
+      <c r="M41" s="128"/>
+      <c r="N41" s="128"/>
+      <c r="O41" s="128"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
@@ -23819,43 +23837,43 @@
       <c r="B52" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="136">
-        <v>1</v>
-      </c>
-      <c r="D52" s="136">
-        <v>1</v>
-      </c>
-      <c r="E52" s="136">
-        <v>1</v>
-      </c>
-      <c r="F52" s="136">
-        <v>1</v>
-      </c>
-      <c r="G52" s="136">
-        <v>1</v>
-      </c>
-      <c r="H52" s="136">
-        <v>1</v>
-      </c>
-      <c r="I52" s="136">
-        <v>1</v>
-      </c>
-      <c r="J52" s="136">
-        <v>1</v>
-      </c>
-      <c r="K52" s="136">
-        <v>1</v>
-      </c>
-      <c r="L52" s="136">
-        <v>1</v>
-      </c>
-      <c r="M52" s="136">
-        <v>1</v>
-      </c>
-      <c r="N52" s="136">
-        <v>1</v>
-      </c>
-      <c r="O52" s="136">
+      <c r="C52" s="129">
+        <v>1</v>
+      </c>
+      <c r="D52" s="129">
+        <v>1</v>
+      </c>
+      <c r="E52" s="129">
+        <v>1</v>
+      </c>
+      <c r="F52" s="129">
+        <v>1</v>
+      </c>
+      <c r="G52" s="129">
+        <v>1</v>
+      </c>
+      <c r="H52" s="129">
+        <v>1</v>
+      </c>
+      <c r="I52" s="129">
+        <v>1</v>
+      </c>
+      <c r="J52" s="129">
+        <v>1</v>
+      </c>
+      <c r="K52" s="129">
+        <v>1</v>
+      </c>
+      <c r="L52" s="129">
+        <v>1</v>
+      </c>
+      <c r="M52" s="129">
+        <v>1</v>
+      </c>
+      <c r="N52" s="129">
+        <v>1</v>
+      </c>
+      <c r="O52" s="129">
         <v>1</v>
       </c>
     </row>
@@ -23869,37 +23887,37 @@
       <c r="D53" s="108">
         <v>0</v>
       </c>
-      <c r="E53" s="138">
-        <v>1</v>
-      </c>
-      <c r="F53" s="138">
-        <v>1</v>
-      </c>
-      <c r="G53" s="138">
-        <v>1</v>
-      </c>
-      <c r="H53" s="138">
-        <v>1</v>
-      </c>
-      <c r="I53" s="138">
-        <v>1</v>
-      </c>
-      <c r="J53" s="138">
-        <v>1</v>
-      </c>
-      <c r="K53" s="138">
-        <v>1</v>
-      </c>
-      <c r="L53" s="138">
-        <v>1</v>
-      </c>
-      <c r="M53" s="138">
-        <v>1</v>
-      </c>
-      <c r="N53" s="138">
-        <v>1</v>
-      </c>
-      <c r="O53" s="138">
+      <c r="E53" s="131">
+        <v>1</v>
+      </c>
+      <c r="F53" s="131">
+        <v>1</v>
+      </c>
+      <c r="G53" s="131">
+        <v>1</v>
+      </c>
+      <c r="H53" s="131">
+        <v>1</v>
+      </c>
+      <c r="I53" s="131">
+        <v>1</v>
+      </c>
+      <c r="J53" s="131">
+        <v>1</v>
+      </c>
+      <c r="K53" s="131">
+        <v>1</v>
+      </c>
+      <c r="L53" s="131">
+        <v>1</v>
+      </c>
+      <c r="M53" s="131">
+        <v>1</v>
+      </c>
+      <c r="N53" s="131">
+        <v>1</v>
+      </c>
+      <c r="O53" s="131">
         <v>1</v>
       </c>
     </row>
@@ -24045,7 +24063,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -24299,7 +24317,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -24787,18 +24805,18 @@
       <c r="A48" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B48" s="133" t="s">
+      <c r="B48" s="126" t="s">
         <v>161</v>
       </c>
-      <c r="G48" s="133" t="s">
+      <c r="G48" s="126" t="s">
         <v>161</v>
       </c>
-      <c r="H48" s="133" t="s">
+      <c r="H48" s="126" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="134" t="s">
+      <c r="A49" s="127" t="s">
         <v>157</v>
       </c>
       <c r="B49" t="s">
@@ -24809,7 +24827,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="134" t="s">
+      <c r="A50" s="127" t="s">
         <v>158</v>
       </c>
       <c r="B50" t="s">
@@ -24820,7 +24838,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="134" t="s">
+      <c r="A51" s="127" t="s">
         <v>159</v>
       </c>
       <c r="B51" t="s">
@@ -24840,7 +24858,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I47" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -25139,8 +25157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25152,720 +25170,720 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="145" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="145" t="s">
         <v>208</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="145" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="121" t="s">
+      <c r="D1" s="145" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="141" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="123">
-        <v>0</v>
-      </c>
-      <c r="C2" s="123">
+      <c r="B2" s="121">
+        <v>0</v>
+      </c>
+      <c r="C2" s="121">
         <v>0.95</v>
       </c>
-      <c r="D2" s="123">
+      <c r="D2" s="121">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="123" t="s">
         <v>263</v>
       </c>
-      <c r="B3" s="125">
-        <v>0</v>
-      </c>
-      <c r="C3" s="126">
+      <c r="B3" s="122">
+        <v>0</v>
+      </c>
+      <c r="C3" s="123">
         <v>0.95</v>
       </c>
-      <c r="D3" s="126">
+      <c r="D3" s="123">
         <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="123" t="s">
         <v>260</v>
       </c>
-      <c r="B4" s="125">
-        <v>0</v>
-      </c>
-      <c r="C4" s="126">
+      <c r="B4" s="122">
+        <v>0</v>
+      </c>
+      <c r="C4" s="123">
         <v>0.95</v>
       </c>
-      <c r="D4" s="126">
+      <c r="D4" s="123">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="126">
-        <v>0</v>
-      </c>
-      <c r="C5" s="126">
+      <c r="B5" s="123">
+        <v>0</v>
+      </c>
+      <c r="C5" s="123">
         <v>0.95</v>
       </c>
-      <c r="D5" s="126">
+      <c r="D5" s="123">
         <f>180</f>
         <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="B6" s="125">
-        <v>0</v>
-      </c>
-      <c r="C6" s="126">
+      <c r="B6" s="122">
+        <v>0</v>
+      </c>
+      <c r="C6" s="123">
         <v>0.95</v>
       </c>
-      <c r="D6" s="126">
+      <c r="D6" s="123">
         <f>SUM('Programs family planning'!E2:E10)</f>
         <v>0.82100000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="142" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="129">
+      <c r="B7" s="124">
         <v>0.36</v>
       </c>
-      <c r="C7" s="123">
+      <c r="C7" s="121">
         <v>0.95</v>
       </c>
-      <c r="D7" s="123">
+      <c r="D7" s="121">
         <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="123" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="126">
-        <v>0</v>
-      </c>
-      <c r="C8" s="126">
+      <c r="B8" s="123">
+        <v>0</v>
+      </c>
+      <c r="C8" s="123">
         <v>0.95</v>
       </c>
-      <c r="D8" s="126">
+      <c r="D8" s="123">
         <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="127" t="s">
+      <c r="A9" s="123" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="126">
-        <v>0</v>
-      </c>
-      <c r="C9" s="126">
+      <c r="B9" s="123">
+        <v>0</v>
+      </c>
+      <c r="C9" s="123">
         <v>0.95</v>
       </c>
-      <c r="D9" s="126">
+      <c r="D9" s="123">
         <v>0.19</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="123" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="126">
-        <v>0</v>
-      </c>
-      <c r="C10" s="126">
+      <c r="B10" s="123">
+        <v>0</v>
+      </c>
+      <c r="C10" s="123">
         <v>0.95</v>
       </c>
-      <c r="D10" s="126">
+      <c r="D10" s="123">
         <v>0.73</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="127" t="s">
+      <c r="A11" s="123" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="126">
-        <v>0</v>
-      </c>
-      <c r="C11" s="126">
+      <c r="B11" s="123">
+        <v>0</v>
+      </c>
+      <c r="C11" s="123">
         <v>0.95</v>
       </c>
-      <c r="D11" s="126">
+      <c r="D11" s="123">
         <v>0.73</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="127" t="s">
+      <c r="A12" s="123" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="126">
-        <v>0</v>
-      </c>
-      <c r="C12" s="126">
+      <c r="B12" s="123">
+        <v>0</v>
+      </c>
+      <c r="C12" s="123">
         <v>0.95</v>
       </c>
-      <c r="D12" s="126">
+      <c r="D12" s="123">
         <v>1.78</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="123" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="126">
-        <v>0</v>
-      </c>
-      <c r="C13" s="126">
+      <c r="B13" s="123">
+        <v>0</v>
+      </c>
+      <c r="C13" s="123">
         <v>0.95</v>
       </c>
-      <c r="D13" s="126">
+      <c r="D13" s="123">
         <v>1.78</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="127" t="s">
+      <c r="A14" s="123" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="126">
-        <v>0</v>
-      </c>
-      <c r="C14" s="126">
+      <c r="B14" s="123">
+        <v>0</v>
+      </c>
+      <c r="C14" s="123">
         <v>0.95</v>
       </c>
-      <c r="D14" s="126">
+      <c r="D14" s="123">
         <v>0.24</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="123" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="126">
-        <v>0</v>
-      </c>
-      <c r="C15" s="126">
+      <c r="B15" s="123">
+        <v>0</v>
+      </c>
+      <c r="C15" s="123">
         <v>0.95</v>
       </c>
-      <c r="D15" s="126">
+      <c r="D15" s="123">
         <v>0.24</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="127" t="s">
+      <c r="A16" s="123" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="126">
-        <v>0</v>
-      </c>
-      <c r="C16" s="126">
+      <c r="B16" s="123">
+        <v>0</v>
+      </c>
+      <c r="C16" s="123">
         <v>0.95</v>
       </c>
-      <c r="D16" s="126">
+      <c r="D16" s="123">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="127" t="s">
+      <c r="A17" s="123" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="126">
-        <v>0</v>
-      </c>
-      <c r="C17" s="126">
+      <c r="B17" s="123">
+        <v>0</v>
+      </c>
+      <c r="C17" s="123">
         <v>0.95</v>
       </c>
-      <c r="D17" s="126">
+      <c r="D17" s="123">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="127" t="s">
+      <c r="A18" s="123" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="126">
-        <v>0</v>
-      </c>
-      <c r="C18" s="126">
+      <c r="B18" s="123">
+        <v>0</v>
+      </c>
+      <c r="C18" s="123">
         <v>0.95</v>
       </c>
-      <c r="D18" s="126">
+      <c r="D18" s="123">
         <v>0.73</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="127" t="s">
+      <c r="A19" s="123" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="126">
-        <v>0</v>
-      </c>
-      <c r="C19" s="126">
+      <c r="B19" s="123">
+        <v>0</v>
+      </c>
+      <c r="C19" s="123">
         <v>0.95</v>
       </c>
-      <c r="D19" s="126">
+      <c r="D19" s="123">
         <v>0.73</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="127" t="s">
+      <c r="A20" s="123" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="126">
-        <v>0</v>
-      </c>
-      <c r="C20" s="126">
+      <c r="B20" s="123">
+        <v>0</v>
+      </c>
+      <c r="C20" s="123">
         <v>0.95</v>
       </c>
-      <c r="D20" s="126">
+      <c r="D20" s="123">
         <v>1.78</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="127" t="s">
+      <c r="A21" s="123" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="126">
-        <v>0</v>
-      </c>
-      <c r="C21" s="126">
+      <c r="B21" s="123">
+        <v>0</v>
+      </c>
+      <c r="C21" s="123">
         <v>0.95</v>
       </c>
-      <c r="D21" s="126">
+      <c r="D21" s="123">
         <v>1.78</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="127" t="s">
+      <c r="A22" s="123" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="126">
-        <v>0</v>
-      </c>
-      <c r="C22" s="126">
+      <c r="B22" s="123">
+        <v>0</v>
+      </c>
+      <c r="C22" s="123">
         <v>0.95</v>
       </c>
-      <c r="D22" s="126">
+      <c r="D22" s="123">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="127" t="s">
+      <c r="A23" s="123" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="126">
-        <v>0</v>
-      </c>
-      <c r="C23" s="126">
+      <c r="B23" s="123">
+        <v>0</v>
+      </c>
+      <c r="C23" s="123">
         <v>0.95</v>
       </c>
-      <c r="D23" s="126">
+      <c r="D23" s="123">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="122" t="s">
+      <c r="A24" s="141" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="123">
+      <c r="B24" s="121">
         <v>0.34599999999999997</v>
       </c>
-      <c r="C24" s="123">
+      <c r="C24" s="121">
         <v>0.95</v>
       </c>
-      <c r="D24" s="123">
+      <c r="D24" s="121">
         <v>2.06</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="127" t="s">
+      <c r="A25" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="126">
-        <v>0</v>
-      </c>
-      <c r="C25" s="126">
+      <c r="B25" s="123">
+        <v>0</v>
+      </c>
+      <c r="C25" s="123">
         <v>0.95</v>
       </c>
-      <c r="D25" s="126">
+      <c r="D25" s="123">
         <v>1.78</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="127" t="s">
+      <c r="A26" s="123" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="126">
-        <v>0</v>
-      </c>
-      <c r="C26" s="126">
+      <c r="B26" s="123">
+        <v>0</v>
+      </c>
+      <c r="C26" s="123">
         <v>0.95</v>
       </c>
-      <c r="D26" s="126">
+      <c r="D26" s="123">
         <v>1.78</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="128" t="s">
+      <c r="A27" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="123">
+      <c r="B27" s="121">
         <v>0.80800000000000005</v>
       </c>
-      <c r="C27" s="123">
+      <c r="C27" s="121">
         <v>0.95</v>
       </c>
-      <c r="D27" s="123">
+      <c r="D27" s="121">
         <v>0.05</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="128" t="s">
+      <c r="A28" s="142" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="123">
+      <c r="B28" s="121">
         <v>0.50800000000000001</v>
       </c>
-      <c r="C28" s="123">
+      <c r="C28" s="121">
         <v>0.95</v>
       </c>
-      <c r="D28" s="129">
+      <c r="D28" s="124">
         <v>2.61</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="127" t="s">
+      <c r="A29" s="123" t="s">
         <v>262</v>
       </c>
-      <c r="B29" s="125">
-        <v>0</v>
-      </c>
-      <c r="C29" s="126">
+      <c r="B29" s="122">
+        <v>0</v>
+      </c>
+      <c r="C29" s="123">
         <v>0.95</v>
       </c>
-      <c r="D29" s="126">
+      <c r="D29" s="123">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="127" t="s">
+      <c r="A30" s="123" t="s">
         <v>261</v>
       </c>
-      <c r="B30" s="125">
-        <v>0</v>
-      </c>
-      <c r="C30" s="126">
+      <c r="B30" s="122">
+        <v>0</v>
+      </c>
+      <c r="C30" s="123">
         <v>0.95</v>
       </c>
-      <c r="D30" s="126">
+      <c r="D30" s="123">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="127" t="s">
+      <c r="A31" s="123" t="s">
         <v>131</v>
       </c>
-      <c r="B31" s="126">
-        <v>0</v>
-      </c>
-      <c r="C31" s="126">
+      <c r="B31" s="123">
+        <v>0</v>
+      </c>
+      <c r="C31" s="123">
         <v>0.95</v>
       </c>
-      <c r="D31" s="126">
+      <c r="D31" s="123">
         <v>2.99</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="130" t="s">
+      <c r="A32" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="B32" s="123">
+      <c r="B32" s="121">
         <v>0.3538</v>
       </c>
-      <c r="C32" s="123">
+      <c r="C32" s="121">
         <v>0.95</v>
       </c>
-      <c r="D32" s="123">
+      <c r="D32" s="121">
         <v>3.78</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="127" t="s">
+      <c r="A33" s="123" t="s">
         <v>258</v>
       </c>
-      <c r="B33" s="125">
-        <v>0</v>
-      </c>
-      <c r="C33" s="126">
+      <c r="B33" s="122">
+        <v>0</v>
+      </c>
+      <c r="C33" s="123">
         <v>0.95</v>
       </c>
-      <c r="D33" s="126">
+      <c r="D33" s="123">
         <v>23.84</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="128" t="s">
+      <c r="A34" s="142" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="123">
-        <v>0</v>
-      </c>
-      <c r="C34" s="123">
+      <c r="B34" s="121">
+        <v>0</v>
+      </c>
+      <c r="C34" s="121">
         <v>0.95</v>
       </c>
-      <c r="D34" s="123">
+      <c r="D34" s="121">
         <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="127" t="s">
+      <c r="A35" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="126">
-        <v>0</v>
-      </c>
-      <c r="C35" s="126">
+      <c r="B35" s="123">
+        <v>0</v>
+      </c>
+      <c r="C35" s="123">
         <v>0.95</v>
       </c>
-      <c r="D35" s="126">
+      <c r="D35" s="123">
         <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="127" t="s">
+      <c r="A36" s="123" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="126">
-        <v>0</v>
-      </c>
-      <c r="C36" s="126">
+      <c r="B36" s="123">
+        <v>0</v>
+      </c>
+      <c r="C36" s="123">
         <v>0.95</v>
       </c>
-      <c r="D36" s="126">
+      <c r="D36" s="123">
         <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="127" t="s">
+      <c r="A37" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="126">
-        <v>0</v>
-      </c>
-      <c r="C37" s="126">
+      <c r="B37" s="123">
+        <v>0</v>
+      </c>
+      <c r="C37" s="123">
         <v>0.95</v>
       </c>
-      <c r="D37" s="126">
+      <c r="D37" s="123">
         <v>4.6500000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="131" t="s">
+      <c r="A38" s="142" t="s">
         <v>133</v>
       </c>
-      <c r="B38" s="123">
+      <c r="B38" s="121">
         <v>0.1</v>
       </c>
-      <c r="C38" s="123">
+      <c r="C38" s="121">
         <v>0.95</v>
       </c>
-      <c r="D38" s="123">
+      <c r="D38" s="121">
         <v>4.6500000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="128" t="s">
+      <c r="A39" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="123">
-        <v>0</v>
-      </c>
-      <c r="C39" s="123">
+      <c r="B39" s="121">
+        <v>0</v>
+      </c>
+      <c r="C39" s="121">
         <v>0.95</v>
       </c>
-      <c r="D39" s="129">
+      <c r="D39" s="124">
         <f>40*AVERAGE('Incidence of conditions'!B5:F5)</f>
         <v>4.7195394035926403</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="128" t="s">
+      <c r="A40" s="142" t="s">
         <v>148</v>
       </c>
-      <c r="B40" s="123">
-        <v>0</v>
-      </c>
-      <c r="C40" s="123">
+      <c r="B40" s="121">
+        <v>0</v>
+      </c>
+      <c r="C40" s="121">
         <v>0.95</v>
       </c>
-      <c r="D40" s="129">
+      <c r="D40" s="124">
         <f>90*AVERAGE('Incidence of conditions'!B6:F6)</f>
         <v>5.2956558655829511</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="128" t="s">
+      <c r="A41" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="123">
+      <c r="B41" s="121">
         <v>0.89970000000000006</v>
       </c>
-      <c r="C41" s="123">
+      <c r="C41" s="121">
         <v>0.95</v>
       </c>
-      <c r="D41" s="123">
+      <c r="D41" s="121">
         <v>0.41</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="122" t="s">
+      <c r="A42" s="141" t="s">
         <v>257</v>
       </c>
-      <c r="B42" s="132">
+      <c r="B42" s="125">
         <v>0.80700000000000005</v>
       </c>
-      <c r="C42" s="123">
+      <c r="C42" s="121">
         <v>0.95</v>
       </c>
-      <c r="D42" s="123">
+      <c r="D42" s="121">
         <v>0.9</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="122" t="s">
+      <c r="A43" s="141" t="s">
         <v>256</v>
       </c>
-      <c r="B43" s="132">
+      <c r="B43" s="125">
         <v>0.73199999999999998</v>
       </c>
-      <c r="C43" s="123">
+      <c r="C43" s="121">
         <v>0.95</v>
       </c>
-      <c r="D43" s="123">
+      <c r="D43" s="121">
         <v>0.9</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="122" t="s">
+      <c r="A44" s="141" t="s">
         <v>255</v>
       </c>
-      <c r="B44" s="132">
+      <c r="B44" s="125">
         <v>0.316</v>
       </c>
-      <c r="C44" s="123">
+      <c r="C44" s="121">
         <v>0.95</v>
       </c>
-      <c r="D44" s="123">
+      <c r="D44" s="121">
         <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="122" t="s">
+      <c r="A45" s="141" t="s">
         <v>253</v>
       </c>
-      <c r="B45" s="132">
+      <c r="B45" s="125">
         <v>0.59699999999999998</v>
       </c>
-      <c r="C45" s="123">
+      <c r="C45" s="121">
         <v>0.95</v>
       </c>
-      <c r="D45" s="123">
+      <c r="D45" s="121">
         <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="122" t="s">
+      <c r="A46" s="141" t="s">
         <v>254</v>
       </c>
-      <c r="B46" s="132">
+      <c r="B46" s="125">
         <v>0.19900000000000001</v>
       </c>
-      <c r="C46" s="123">
+      <c r="C46" s="121">
         <v>0.95</v>
       </c>
-      <c r="D46" s="123">
+      <c r="D46" s="121">
         <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="122" t="s">
+      <c r="A47" s="141" t="s">
         <v>259</v>
       </c>
-      <c r="B47" s="132">
+      <c r="B47" s="125">
         <v>0.13400000000000001</v>
       </c>
-      <c r="C47" s="123">
+      <c r="C47" s="121">
         <v>0.95</v>
       </c>
-      <c r="D47" s="129">
+      <c r="D47" s="124">
         <v>5.53</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="127" t="s">
+      <c r="A48" s="123" t="s">
         <v>136</v>
       </c>
-      <c r="B48" s="126">
-        <v>0</v>
-      </c>
-      <c r="C48" s="126">
+      <c r="B48" s="123">
+        <v>0</v>
+      </c>
+      <c r="C48" s="123">
         <v>0.95</v>
       </c>
-      <c r="D48" s="126">
+      <c r="D48" s="123">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="122" t="s">
+      <c r="A49" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="B49" s="143">
-        <v>0</v>
-      </c>
-      <c r="C49" s="29">
+      <c r="B49" s="136">
+        <v>0</v>
+      </c>
+      <c r="C49" s="137">
         <v>0.95</v>
       </c>
-      <c r="D49" s="142" t="s">
+      <c r="D49" s="138" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="122" t="s">
+      <c r="A50" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="B50" s="140">
-        <v>0</v>
-      </c>
-      <c r="C50" s="141">
+      <c r="B50" s="139">
+        <v>0</v>
+      </c>
+      <c r="C50" s="140">
         <v>0.95</v>
       </c>
-      <c r="D50" s="142" t="s">
+      <c r="D50" s="138" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="122" t="s">
+      <c r="A51" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="B51" s="140">
-        <v>0</v>
-      </c>
-      <c r="C51" s="141">
+      <c r="B51" s="139">
+        <v>0</v>
+      </c>
+      <c r="C51" s="140">
         <v>0.95</v>
       </c>
-      <c r="D51" s="142" t="s">
+      <c r="D51" s="138" t="s">
         <v>265</v>
       </c>
     </row>
@@ -25883,7 +25901,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732C9C65-1200-044E-9799-D4D48ED0657E}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -25934,206 +25954,71 @@
       <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="82">
-        <f>SUM(Distributions!$C$4:$C$5)</f>
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="D2" s="82">
-        <f>SUM(Distributions!$C$4:$C$5)</f>
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="E2" s="82">
-        <f>SUM(Distributions!$C$4:$C$5)</f>
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="F2" s="82">
-        <f>SUM(Distributions!$C$4:$C$5)</f>
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="G2" s="82">
-        <f>SUM(Distributions!$C$4:$C$5)</f>
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="H2" s="82">
-        <f>SUM(Distributions!$C$4:$C$5)</f>
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="I2" s="82">
-        <f>SUM(Distributions!$C$4:$C$5)</f>
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="J2" s="82">
-        <f>SUM(Distributions!$C$4:$C$5)</f>
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="K2" s="82">
-        <f>SUM(Distributions!$C$4:$C$5)</f>
-        <v>0.13300000000000001</v>
-      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="82">
-        <f>SUM(Distributions!D$4:D$5)</f>
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="D3" s="82">
-        <f>SUM(Distributions!D$4:D$5)</f>
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="E3" s="82">
-        <f>SUM(Distributions!D$4:D$5)</f>
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="F3" s="82">
-        <f>SUM(Distributions!D$4:D$5)</f>
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="G3" s="82">
-        <f>SUM(Distributions!D$4:D$5)</f>
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="H3" s="82">
-        <f>SUM(Distributions!D$4:D$5)</f>
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="I3" s="82">
-        <f>SUM(Distributions!D$4:D$5)</f>
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="J3" s="82">
-        <f>SUM(Distributions!D$4:D$5)</f>
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="K3" s="82">
-        <f>SUM(Distributions!D$4:D$5)</f>
-        <v>0.13300000000000001</v>
-      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82">
-        <f>SUM(Distributions!E$4:E$5)</f>
-        <v>0.19108504098360654</v>
-      </c>
-      <c r="D4" s="82">
-        <f>SUM(Distributions!E$4:E$5)</f>
-        <v>0.19108504098360654</v>
-      </c>
-      <c r="E4" s="82">
-        <f>SUM(Distributions!E$4:E$5)</f>
-        <v>0.19108504098360654</v>
-      </c>
-      <c r="F4" s="82">
-        <f>SUM(Distributions!E$4:E$5)</f>
-        <v>0.19108504098360654</v>
-      </c>
-      <c r="G4" s="82">
-        <f>SUM(Distributions!E$4:E$5)</f>
-        <v>0.19108504098360654</v>
-      </c>
-      <c r="H4" s="82">
-        <f>SUM(Distributions!E$4:E$5)</f>
-        <v>0.19108504098360654</v>
-      </c>
-      <c r="I4" s="82">
-        <f>SUM(Distributions!E$4:E$5)</f>
-        <v>0.19108504098360654</v>
-      </c>
-      <c r="J4" s="82">
-        <f>SUM(Distributions!E$4:E$5)</f>
-        <v>0.19108504098360654</v>
-      </c>
-      <c r="K4" s="82">
-        <f>SUM(Distributions!E$4:E$5)</f>
-        <v>0.19108504098360654</v>
-      </c>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="82">
-        <f>SUM(Distributions!F$4:F$5)</f>
-        <v>0.37891670566214319</v>
-      </c>
-      <c r="D5" s="82">
-        <f>SUM(Distributions!F$4:F$5)</f>
-        <v>0.37891670566214319</v>
-      </c>
-      <c r="E5" s="82">
-        <f>SUM(Distributions!F$4:F$5)</f>
-        <v>0.37891670566214319</v>
-      </c>
-      <c r="F5" s="82">
-        <f>SUM(Distributions!F$4:F$5)</f>
-        <v>0.37891670566214319</v>
-      </c>
-      <c r="G5" s="82">
-        <f>SUM(Distributions!F$4:F$5)</f>
-        <v>0.37891670566214319</v>
-      </c>
-      <c r="H5" s="82">
-        <f>SUM(Distributions!F$4:F$5)</f>
-        <v>0.37891670566214319</v>
-      </c>
-      <c r="I5" s="82">
-        <f>SUM(Distributions!F$4:F$5)</f>
-        <v>0.37891670566214319</v>
-      </c>
-      <c r="J5" s="82">
-        <f>SUM(Distributions!F$4:F$5)</f>
-        <v>0.37891670566214319</v>
-      </c>
-      <c r="K5" s="82">
-        <f>SUM(Distributions!F$4:F$5)</f>
-        <v>0.37891670566214319</v>
-      </c>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="82">
-        <f>SUM(Distributions!G$4:G$5)</f>
-        <v>0.39358559498956158</v>
-      </c>
-      <c r="D6" s="82">
-        <f>SUM(Distributions!G$4:G$5)</f>
-        <v>0.39358559498956158</v>
-      </c>
-      <c r="E6" s="82">
-        <f>SUM(Distributions!G$4:G$5)</f>
-        <v>0.39358559498956158</v>
-      </c>
-      <c r="F6" s="82">
-        <f>SUM(Distributions!G$4:G$5)</f>
-        <v>0.39358559498956158</v>
-      </c>
-      <c r="G6" s="82">
-        <f>SUM(Distributions!G$4:G$5)</f>
-        <v>0.39358559498956158</v>
-      </c>
-      <c r="H6" s="82">
-        <f>SUM(Distributions!G$4:G$5)</f>
-        <v>0.39358559498956158</v>
-      </c>
-      <c r="I6" s="82">
-        <f>SUM(Distributions!G$4:G$5)</f>
-        <v>0.39358559498956158</v>
-      </c>
-      <c r="J6" s="82">
-        <f>SUM(Distributions!G$4:G$5)</f>
-        <v>0.39358559498956158</v>
-      </c>
-      <c r="K6" s="82">
-        <f>SUM(Distributions!G$4:G$5)</f>
-        <v>0.39358559498956158</v>
-      </c>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
@@ -26142,46 +26027,31 @@
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="82">
-        <f>SUM(Distributions!C10:C11)</f>
-        <v>9.4E-2</v>
-      </c>
+      <c r="K8" s="82"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="82">
-        <f>SUM(Distributions!D10:D11)</f>
-        <v>9.4E-2</v>
-      </c>
+      <c r="K9" s="82"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="82">
-        <f>SUM(Distributions!E10:E11)</f>
-        <v>6.9747692307692316E-2</v>
-      </c>
+      <c r="K10" s="82"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="82">
-        <f>SUM(Distributions!F10:F11)</f>
-        <v>5.2643124415341441E-2</v>
-      </c>
+      <c r="K11" s="82"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="82">
-        <f>SUM(Distributions!G10:G11)</f>
-        <v>2.9665156004880597E-2</v>
-      </c>
+      <c r="K12" s="82"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
@@ -26190,118 +26060,79 @@
       <c r="B14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="82">
-        <f>'Prevalence of anaemia'!C3</f>
-        <v>0.05</v>
-      </c>
+      <c r="K14" s="82"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="82">
-        <f>'Prevalence of anaemia'!D3</f>
-        <v>0.05</v>
-      </c>
+      <c r="K15" s="82"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="82">
-        <f>'Prevalence of anaemia'!E3</f>
-        <v>0.32801999999999998</v>
-      </c>
+      <c r="K16" s="82"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="82">
-        <f>'Prevalence of anaemia'!F3</f>
-        <v>0.30639</v>
-      </c>
+      <c r="K17" s="82"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="82">
-        <f>'Prevalence of anaemia'!G3</f>
-        <v>0.20314000000000002</v>
-      </c>
+      <c r="K18" s="82"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B19" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="82">
-        <f>'Prevalence of anaemia'!H3</f>
-        <v>0.19865999999999998</v>
-      </c>
+      <c r="K19" s="82"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B20" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="K20" s="82">
-        <f>'Prevalence of anaemia'!I3</f>
-        <v>0.18773999999999999</v>
-      </c>
+      <c r="K20" s="82"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B21" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="K21" s="82">
-        <f>'Prevalence of anaemia'!J3</f>
-        <v>0.18185999999999999</v>
-      </c>
+      <c r="K21" s="82"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B22" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="K22" s="82">
-        <f>'Prevalence of anaemia'!K3</f>
-        <v>0.18564</v>
-      </c>
+      <c r="K22" s="82"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B23" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="K23" s="82">
-        <f>'Prevalence of anaemia'!L3</f>
-        <v>0.19865999999999998</v>
-      </c>
+      <c r="K23" s="82"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B24" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="K24" s="82">
-        <f>'Prevalence of anaemia'!M3</f>
-        <v>0.18773999999999999</v>
-      </c>
+      <c r="K24" s="82"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B25" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K25" s="82">
-        <f>'Prevalence of anaemia'!N3</f>
-        <v>0.18185999999999999</v>
-      </c>
+      <c r="K25" s="82"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B26" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="K26" s="82">
-        <f>'Prevalence of anaemia'!O3</f>
-        <v>0.18564</v>
-      </c>
+      <c r="K26" s="82"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
@@ -26341,7 +26172,7 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -26415,7 +26246,7 @@
         <f>'Programs to include'!A2</f>
         <v>Balanced energy-protein supplementation</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C2" s="34"/>
@@ -26425,7 +26256,7 @@
         <f>A2</f>
         <v>Balanced energy-protein supplementation</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C3" s="34"/>
@@ -26435,7 +26266,7 @@
         <f>'Programs to include'!A3</f>
         <v>Birth age program</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C4" s="34"/>
@@ -26445,7 +26276,7 @@
         <f>A4</f>
         <v>Birth age program</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C5" s="34"/>
@@ -26455,7 +26286,7 @@
         <f>'Programs to include'!A4</f>
         <v>Calcium supplementation</v>
       </c>
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C6" s="34"/>
@@ -26465,7 +26296,7 @@
         <f>A6</f>
         <v>Calcium supplementation</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C7" s="34"/>
@@ -26475,7 +26306,7 @@
         <f>'Programs to include'!A5</f>
         <v>Cash transfers</v>
       </c>
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C8" s="34"/>
@@ -26485,7 +26316,7 @@
         <f>A8</f>
         <v>Cash transfers</v>
       </c>
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C9" s="34"/>
@@ -26495,7 +26326,7 @@
         <f>'Programs to include'!A6</f>
         <v>Family Planning</v>
       </c>
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C10" s="34"/>
@@ -26505,7 +26336,7 @@
         <f>A10</f>
         <v>Family Planning</v>
       </c>
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C11" s="34"/>
@@ -26515,7 +26346,7 @@
         <f>'Programs to include'!A7</f>
         <v>IFA fortification of maize</v>
       </c>
-      <c r="B12" s="133" t="s">
+      <c r="B12" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C12" s="34"/>
@@ -26525,7 +26356,7 @@
         <f>A12</f>
         <v>IFA fortification of maize</v>
       </c>
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C13" s="34"/>
@@ -26535,7 +26366,7 @@
         <f>'Programs to include'!A8</f>
         <v>IFA fortification of rice</v>
       </c>
-      <c r="B14" s="133" t="s">
+      <c r="B14" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C14" s="34"/>
@@ -26545,7 +26376,7 @@
         <f>A14</f>
         <v>IFA fortification of rice</v>
       </c>
-      <c r="B15" s="133" t="s">
+      <c r="B15" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C15" s="34"/>
@@ -26555,7 +26386,7 @@
         <f>'Programs to include'!A9</f>
         <v>IFA fortification of wheat flour</v>
       </c>
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C16" s="34"/>
@@ -26565,7 +26396,7 @@
         <f>A16</f>
         <v>IFA fortification of wheat flour</v>
       </c>
-      <c r="B17" s="133" t="s">
+      <c r="B17" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C17" s="34"/>
@@ -26575,7 +26406,7 @@
         <f>'Programs to include'!A10</f>
         <v>IFAS not poor: community</v>
       </c>
-      <c r="B18" s="133" t="s">
+      <c r="B18" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C18" s="34"/>
@@ -26585,7 +26416,7 @@
         <f>A18</f>
         <v>IFAS not poor: community</v>
       </c>
-      <c r="B19" s="133" t="s">
+      <c r="B19" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C19" s="34"/>
@@ -26595,7 +26426,7 @@
         <f>'Programs to include'!A11</f>
         <v>IFAS not poor: community (malaria area)</v>
       </c>
-      <c r="B20" s="133" t="s">
+      <c r="B20" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C20" s="34"/>
@@ -26605,7 +26436,7 @@
         <f>A20</f>
         <v>IFAS not poor: community (malaria area)</v>
       </c>
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C21" s="34"/>
@@ -26615,7 +26446,7 @@
         <f>'Programs to include'!A12</f>
         <v>IFAS not poor: hospital</v>
       </c>
-      <c r="B22" s="133" t="s">
+      <c r="B22" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C22" s="34"/>
@@ -26625,7 +26456,7 @@
         <f>A22</f>
         <v>IFAS not poor: hospital</v>
       </c>
-      <c r="B23" s="133" t="s">
+      <c r="B23" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C23" s="34"/>
@@ -26635,7 +26466,7 @@
         <f>'Programs to include'!A13</f>
         <v>IFAS not poor: hospital (malaria area)</v>
       </c>
-      <c r="B24" s="133" t="s">
+      <c r="B24" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C24" s="34"/>
@@ -26645,7 +26476,7 @@
         <f>A24</f>
         <v>IFAS not poor: hospital (malaria area)</v>
       </c>
-      <c r="B25" s="133" t="s">
+      <c r="B25" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C25" s="34"/>
@@ -26655,7 +26486,7 @@
         <f>'Programs to include'!A14</f>
         <v>IFAS not poor: retailer</v>
       </c>
-      <c r="B26" s="133" t="s">
+      <c r="B26" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C26" s="34"/>
@@ -26665,7 +26496,7 @@
         <f>A26</f>
         <v>IFAS not poor: retailer</v>
       </c>
-      <c r="B27" s="133" t="s">
+      <c r="B27" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C27" s="34"/>
@@ -26675,7 +26506,7 @@
         <f>'Programs to include'!A15</f>
         <v>IFAS not poor: retailer (malaria area)</v>
       </c>
-      <c r="B28" s="133" t="s">
+      <c r="B28" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C28" s="34"/>
@@ -26685,7 +26516,7 @@
         <f>A28</f>
         <v>IFAS not poor: retailer (malaria area)</v>
       </c>
-      <c r="B29" s="133" t="s">
+      <c r="B29" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C29" s="34"/>
@@ -26695,7 +26526,7 @@
         <f>'Programs to include'!A16</f>
         <v>IFAS not poor: school</v>
       </c>
-      <c r="B30" s="133" t="s">
+      <c r="B30" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C30" s="34"/>
@@ -26705,7 +26536,7 @@
         <f>A30</f>
         <v>IFAS not poor: school</v>
       </c>
-      <c r="B31" s="133" t="s">
+      <c r="B31" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C31" s="34"/>
@@ -26715,7 +26546,7 @@
         <f>'Programs to include'!A17</f>
         <v>IFAS not poor: school (malaria area)</v>
       </c>
-      <c r="B32" s="133" t="s">
+      <c r="B32" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C32" s="34"/>
@@ -26725,7 +26556,7 @@
         <f>A32</f>
         <v>IFAS not poor: school (malaria area)</v>
       </c>
-      <c r="B33" s="133" t="s">
+      <c r="B33" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C33" s="34"/>
@@ -26735,7 +26566,7 @@
         <f>'Programs to include'!A18</f>
         <v>IFAS poor: community</v>
       </c>
-      <c r="B34" s="133" t="s">
+      <c r="B34" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C34" s="34"/>
@@ -26745,7 +26576,7 @@
         <f>A34</f>
         <v>IFAS poor: community</v>
       </c>
-      <c r="B35" s="133" t="s">
+      <c r="B35" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C35" s="34"/>
@@ -26755,7 +26586,7 @@
         <f>'Programs to include'!A19</f>
         <v>IFAS poor: community (malaria area)</v>
       </c>
-      <c r="B36" s="133" t="s">
+      <c r="B36" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C36" s="34"/>
@@ -26765,7 +26596,7 @@
         <f>A36</f>
         <v>IFAS poor: community (malaria area)</v>
       </c>
-      <c r="B37" s="133" t="s">
+      <c r="B37" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C37" s="34"/>
@@ -26775,7 +26606,7 @@
         <f>'Programs to include'!A20</f>
         <v>IFAS poor: hospital</v>
       </c>
-      <c r="B38" s="133" t="s">
+      <c r="B38" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C38" s="34"/>
@@ -26785,7 +26616,7 @@
         <f>A38</f>
         <v>IFAS poor: hospital</v>
       </c>
-      <c r="B39" s="133" t="s">
+      <c r="B39" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C39" s="34"/>
@@ -26795,7 +26626,7 @@
         <f>'Programs to include'!A21</f>
         <v>IFAS poor: hospital (malaria area)</v>
       </c>
-      <c r="B40" s="133" t="s">
+      <c r="B40" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C40" s="34"/>
@@ -26805,7 +26636,7 @@
         <f>A40</f>
         <v>IFAS poor: hospital (malaria area)</v>
       </c>
-      <c r="B41" s="133" t="s">
+      <c r="B41" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C41" s="34"/>
@@ -26815,7 +26646,7 @@
         <f>'Programs to include'!A22</f>
         <v>IFAS poor: school</v>
       </c>
-      <c r="B42" s="133" t="s">
+      <c r="B42" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C42" s="34"/>
@@ -26825,7 +26656,7 @@
         <f>A42</f>
         <v>IFAS poor: school</v>
       </c>
-      <c r="B43" s="133" t="s">
+      <c r="B43" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C43" s="34"/>
@@ -26835,7 +26666,7 @@
         <f>'Programs to include'!A23</f>
         <v>IFAS poor: school (malaria area)</v>
       </c>
-      <c r="B44" s="133" t="s">
+      <c r="B44" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C44" s="34"/>
@@ -26845,7 +26676,7 @@
         <f>A44</f>
         <v>IFAS poor: school (malaria area)</v>
       </c>
-      <c r="B45" s="133" t="s">
+      <c r="B45" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C45" s="34"/>
@@ -26855,7 +26686,7 @@
         <f>'Programs to include'!A24</f>
         <v>IPTp</v>
       </c>
-      <c r="B46" s="133" t="s">
+      <c r="B46" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C46" s="34"/>
@@ -26865,7 +26696,7 @@
         <f>A46</f>
         <v>IPTp</v>
       </c>
-      <c r="B47" s="133" t="s">
+      <c r="B47" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C47" s="34"/>
@@ -26875,7 +26706,7 @@
         <f>'Programs to include'!A25</f>
         <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
-      <c r="B48" s="133" t="s">
+      <c r="B48" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C48" s="34"/>
@@ -26885,7 +26716,7 @@
         <f>A48</f>
         <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
-      <c r="B49" s="133" t="s">
+      <c r="B49" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C49" s="34"/>
@@ -26895,7 +26726,7 @@
         <f>'Programs to include'!A26</f>
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
       </c>
-      <c r="B50" s="133" t="s">
+      <c r="B50" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C50" s="34"/>
@@ -26905,7 +26736,7 @@
         <f>A50</f>
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
       </c>
-      <c r="B51" s="133" t="s">
+      <c r="B51" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C51" s="34"/>
@@ -26915,7 +26746,7 @@
         <f>'Programs to include'!A27</f>
         <v>Iron and iodine fortification of salt</v>
       </c>
-      <c r="B52" s="133" t="s">
+      <c r="B52" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C52" s="34"/>
@@ -26925,7 +26756,7 @@
         <f>A52</f>
         <v>Iron and iodine fortification of salt</v>
       </c>
-      <c r="B53" s="133" t="s">
+      <c r="B53" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C53" s="34"/>
@@ -26935,7 +26766,7 @@
         <f>'Programs to include'!A28</f>
         <v>Long-lasting insecticide-treated bednets</v>
       </c>
-      <c r="B54" s="133" t="s">
+      <c r="B54" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C54" s="34"/>
@@ -26945,7 +26776,7 @@
         <f>A54</f>
         <v>Long-lasting insecticide-treated bednets</v>
       </c>
-      <c r="B55" s="133" t="s">
+      <c r="B55" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C55" s="34"/>
@@ -26955,7 +26786,7 @@
         <f>'Programs to include'!A29</f>
         <v>Mg for eclampsia</v>
       </c>
-      <c r="B56" s="133" t="s">
+      <c r="B56" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C56" s="34"/>
@@ -26965,7 +26796,7 @@
         <f>A56</f>
         <v>Mg for eclampsia</v>
       </c>
-      <c r="B57" s="133" t="s">
+      <c r="B57" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C57" s="34"/>
@@ -26975,7 +26806,7 @@
         <f>'Programs to include'!A30</f>
         <v>Mg for pre-eclampsia</v>
       </c>
-      <c r="B58" s="133" t="s">
+      <c r="B58" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C58" s="34"/>
@@ -26985,7 +26816,7 @@
         <f>A58</f>
         <v>Mg for pre-eclampsia</v>
       </c>
-      <c r="B59" s="133" t="s">
+      <c r="B59" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C59" s="34"/>
@@ -26995,7 +26826,7 @@
         <f>'Programs to include'!A31</f>
         <v>Multiple micronutrient supplementation</v>
       </c>
-      <c r="B60" s="133" t="s">
+      <c r="B60" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C60" s="34"/>
@@ -27005,7 +26836,7 @@
         <f>A60</f>
         <v>Multiple micronutrient supplementation</v>
       </c>
-      <c r="B61" s="133" t="s">
+      <c r="B61" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C61" s="34"/>
@@ -27015,7 +26846,7 @@
         <f>'Programs to include'!A32</f>
         <v>Multiple micronutrient supplementation (malaria area)</v>
       </c>
-      <c r="B62" s="133" t="s">
+      <c r="B62" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C62" s="34"/>
@@ -27025,7 +26856,7 @@
         <f>A62</f>
         <v>Multiple micronutrient supplementation (malaria area)</v>
       </c>
-      <c r="B63" s="133" t="s">
+      <c r="B63" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C63" s="34"/>
@@ -27035,7 +26866,7 @@
         <f>'Programs to include'!A33</f>
         <v>Oral rehydration salts</v>
       </c>
-      <c r="B64" s="133" t="s">
+      <c r="B64" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C64" s="34"/>
@@ -27045,7 +26876,7 @@
         <f>A64</f>
         <v>Oral rehydration salts</v>
       </c>
-      <c r="B65" s="133" t="s">
+      <c r="B65" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C65" s="34"/>
@@ -27055,7 +26886,7 @@
         <f>'Programs to include'!A34</f>
         <v>Public provision of complementary foods</v>
       </c>
-      <c r="B66" s="133" t="s">
+      <c r="B66" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C66" s="34"/>
@@ -27065,7 +26896,7 @@
         <f>A66</f>
         <v>Public provision of complementary foods</v>
       </c>
-      <c r="B67" s="133" t="s">
+      <c r="B67" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C67" s="34"/>
@@ -27075,7 +26906,7 @@
         <f>'Programs to include'!A35</f>
         <v>Public provision of complementary foods with iron</v>
       </c>
-      <c r="B68" s="133" t="s">
+      <c r="B68" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C68" s="34"/>
@@ -27085,7 +26916,7 @@
         <f>A68</f>
         <v>Public provision of complementary foods with iron</v>
       </c>
-      <c r="B69" s="133" t="s">
+      <c r="B69" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C69" s="34"/>
@@ -27095,7 +26926,7 @@
         <f>'Programs to include'!A36</f>
         <v>Public provision of complementary foods with iron (malaria area)</v>
       </c>
-      <c r="B70" s="133" t="s">
+      <c r="B70" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C70" s="34"/>
@@ -27105,7 +26936,7 @@
         <f>A70</f>
         <v>Public provision of complementary foods with iron (malaria area)</v>
       </c>
-      <c r="B71" s="133" t="s">
+      <c r="B71" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C71" s="34"/>
@@ -27115,7 +26946,7 @@
         <f>'Programs to include'!A37</f>
         <v>Sprinkles</v>
       </c>
-      <c r="B72" s="133" t="s">
+      <c r="B72" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C72" s="34"/>
@@ -27125,7 +26956,7 @@
         <f>A72</f>
         <v>Sprinkles</v>
       </c>
-      <c r="B73" s="133" t="s">
+      <c r="B73" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C73" s="34"/>
@@ -27135,7 +26966,7 @@
         <f>'Programs to include'!A38</f>
         <v>Sprinkles (malaria area)</v>
       </c>
-      <c r="B74" s="133" t="s">
+      <c r="B74" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C74" s="34"/>
@@ -27145,7 +26976,7 @@
         <f>A74</f>
         <v>Sprinkles (malaria area)</v>
       </c>
-      <c r="B75" s="133" t="s">
+      <c r="B75" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C75" s="34"/>
@@ -27155,7 +26986,7 @@
         <f>'Programs to include'!A39</f>
         <v>Treatment of MAM</v>
       </c>
-      <c r="B76" s="133" t="s">
+      <c r="B76" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C76" s="34"/>
@@ -27165,7 +26996,7 @@
         <f>A76</f>
         <v>Treatment of MAM</v>
       </c>
-      <c r="B77" s="133" t="s">
+      <c r="B77" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C77" s="34"/>
@@ -27175,7 +27006,7 @@
         <f>'Programs to include'!A40</f>
         <v>Treatment of SAM</v>
       </c>
-      <c r="B78" s="133" t="s">
+      <c r="B78" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C78" s="34"/>
@@ -27185,7 +27016,7 @@
         <f>A78</f>
         <v>Treatment of SAM</v>
       </c>
-      <c r="B79" s="133" t="s">
+      <c r="B79" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C79" s="34"/>
@@ -27195,7 +27026,7 @@
         <f>'Programs to include'!A41</f>
         <v>Vitamin A supplementation</v>
       </c>
-      <c r="B80" s="133" t="s">
+      <c r="B80" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C80" s="34"/>
@@ -27205,7 +27036,7 @@
         <f>A80</f>
         <v>Vitamin A supplementation</v>
       </c>
-      <c r="B81" s="133" t="s">
+      <c r="B81" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C81" s="34"/>
@@ -27215,7 +27046,7 @@
         <f>'Programs to include'!A42</f>
         <v>WASH: Handwashing</v>
       </c>
-      <c r="B82" s="133" t="s">
+      <c r="B82" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C82" s="34"/>
@@ -27225,7 +27056,7 @@
         <f>A82</f>
         <v>WASH: Handwashing</v>
       </c>
-      <c r="B83" s="133" t="s">
+      <c r="B83" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C83" s="34"/>
@@ -27235,7 +27066,7 @@
         <f>'Programs to include'!A43</f>
         <v>WASH: Hygenic disposal</v>
       </c>
-      <c r="B84" s="133" t="s">
+      <c r="B84" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C84" s="34"/>
@@ -27245,7 +27076,7 @@
         <f>A84</f>
         <v>WASH: Hygenic disposal</v>
       </c>
-      <c r="B85" s="133" t="s">
+      <c r="B85" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C85" s="34"/>
@@ -27255,7 +27086,7 @@
         <f>'Programs to include'!A44</f>
         <v>WASH: Improved sanitation</v>
       </c>
-      <c r="B86" s="133" t="s">
+      <c r="B86" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C86" s="34"/>
@@ -27265,7 +27096,7 @@
         <f>A86</f>
         <v>WASH: Improved sanitation</v>
       </c>
-      <c r="B87" s="133" t="s">
+      <c r="B87" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C87" s="34"/>
@@ -27275,7 +27106,7 @@
         <f>'Programs to include'!A45</f>
         <v>WASH: Improved water source</v>
       </c>
-      <c r="B88" s="133" t="s">
+      <c r="B88" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C88" s="34"/>
@@ -27285,7 +27116,7 @@
         <f>A88</f>
         <v>WASH: Improved water source</v>
       </c>
-      <c r="B89" s="133" t="s">
+      <c r="B89" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C89" s="34"/>
@@ -27295,7 +27126,7 @@
         <f>'Programs to include'!A46</f>
         <v>WASH: Piped water</v>
       </c>
-      <c r="B90" s="133" t="s">
+      <c r="B90" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C90" s="34"/>
@@ -27305,7 +27136,7 @@
         <f>A90</f>
         <v>WASH: Piped water</v>
       </c>
-      <c r="B91" s="133" t="s">
+      <c r="B91" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C91" s="34"/>
@@ -27315,7 +27146,7 @@
         <f>'Programs to include'!A47</f>
         <v>Zinc for treatment + ORS</v>
       </c>
-      <c r="B92" s="133" t="s">
+      <c r="B92" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C92" s="34"/>
@@ -27325,7 +27156,7 @@
         <f>A92</f>
         <v>Zinc for treatment + ORS</v>
       </c>
-      <c r="B93" s="133" t="s">
+      <c r="B93" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C93" s="34"/>
@@ -27335,7 +27166,7 @@
         <f>'Programs to include'!A48</f>
         <v>Zinc supplementation</v>
       </c>
-      <c r="B94" s="133" t="s">
+      <c r="B94" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C94" s="34"/>
@@ -27345,7 +27176,7 @@
         <f>A94</f>
         <v>Zinc supplementation</v>
       </c>
-      <c r="B95" s="133" t="s">
+      <c r="B95" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C95" s="34"/>
@@ -27355,7 +27186,7 @@
         <f>'Programs to include'!A49</f>
         <v>IYCF 1</v>
       </c>
-      <c r="B96" s="133" t="s">
+      <c r="B96" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C96" s="34"/>
@@ -27365,7 +27196,7 @@
         <f>A96</f>
         <v>IYCF 1</v>
       </c>
-      <c r="B97" s="133" t="s">
+      <c r="B97" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C97" s="34"/>
@@ -27375,7 +27206,7 @@
         <f>'Programs to include'!A50</f>
         <v>IYCF 2</v>
       </c>
-      <c r="B98" s="133" t="s">
+      <c r="B98" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C98" s="34"/>
@@ -27385,7 +27216,7 @@
         <f>A98</f>
         <v>IYCF 2</v>
       </c>
-      <c r="B99" s="133" t="s">
+      <c r="B99" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C99" s="34"/>
@@ -27395,7 +27226,7 @@
         <f>'Programs to include'!A51</f>
         <v>IYCF 3</v>
       </c>
-      <c r="B100" s="133" t="s">
+      <c r="B100" s="126" t="s">
         <v>282</v>
       </c>
       <c r="C100" s="34"/>
@@ -27405,7 +27236,7 @@
         <f>A100</f>
         <v>IYCF 3</v>
       </c>
-      <c r="B101" s="133" t="s">
+      <c r="B101" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C101" s="34"/>
@@ -27421,7 +27252,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27487,7 +27318,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="D53" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27508,7 +27339,7 @@
       <c r="A2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="126" t="s">
         <v>161</v>
       </c>
     </row>
@@ -27516,13 +27347,13 @@
       <c r="A3" s="120" t="s">
         <v>263</v>
       </c>
-      <c r="B3" s="133"/>
+      <c r="B3" s="126"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="126" t="s">
         <v>161</v>
       </c>
     </row>
@@ -27530,7 +27361,7 @@
       <c r="A5" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="126" t="s">
         <v>161</v>
       </c>
     </row>
@@ -27538,13 +27369,13 @@
       <c r="A6" t="s">
         <v>181</v>
       </c>
-      <c r="B6" s="133"/>
+      <c r="B6" s="126"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="126" t="s">
         <v>161</v>
       </c>
     </row>
@@ -27552,25 +27383,25 @@
       <c r="A8" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="133"/>
+      <c r="B8" s="126"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="133"/>
+      <c r="B9" s="126"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="133"/>
+      <c r="B10" s="126"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="126" t="s">
         <v>161</v>
       </c>
     </row>
@@ -27578,13 +27409,13 @@
       <c r="A12" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="133"/>
+      <c r="B12" s="126"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="126" t="s">
         <v>161</v>
       </c>
     </row>
@@ -27592,13 +27423,13 @@
       <c r="A14" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="133"/>
+      <c r="B14" s="126"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="133" t="s">
+      <c r="B15" s="126" t="s">
         <v>161</v>
       </c>
     </row>
@@ -27606,13 +27437,13 @@
       <c r="A16" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="133"/>
+      <c r="B16" s="126"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="133" t="s">
+      <c r="B17" s="126" t="s">
         <v>161</v>
       </c>
     </row>
@@ -27620,13 +27451,13 @@
       <c r="A18" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="133"/>
+      <c r="B18" s="126"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="133" t="s">
+      <c r="B19" s="126" t="s">
         <v>161</v>
       </c>
     </row>
@@ -27634,13 +27465,13 @@
       <c r="A20" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="133"/>
+      <c r="B20" s="126"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="126" t="s">
         <v>161</v>
       </c>
     </row>
@@ -27648,13 +27479,13 @@
       <c r="A22" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="133"/>
+      <c r="B22" s="126"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="133" t="s">
+      <c r="B23" s="126" t="s">
         <v>161</v>
       </c>
     </row>
@@ -27662,7 +27493,7 @@
       <c r="A24" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="133" t="s">
+      <c r="B24" s="126" t="s">
         <v>161</v>
       </c>
     </row>
@@ -27670,13 +27501,13 @@
       <c r="A25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="133"/>
+      <c r="B25" s="126"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="133" t="s">
+      <c r="B26" s="126" t="s">
         <v>161</v>
       </c>
     </row>
@@ -27684,7 +27515,7 @@
       <c r="A27" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="133" t="s">
+      <c r="B27" s="126" t="s">
         <v>161</v>
       </c>
     </row>
@@ -27692,7 +27523,7 @@
       <c r="A28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="133" t="s">
+      <c r="B28" s="126" t="s">
         <v>161</v>
       </c>
     </row>
@@ -27700,7 +27531,7 @@
       <c r="A29" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B29" s="133" t="s">
+      <c r="B29" s="126" t="s">
         <v>161</v>
       </c>
     </row>
@@ -27708,7 +27539,7 @@
       <c r="A30" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B30" s="133" t="s">
+      <c r="B30" s="126" t="s">
         <v>161</v>
       </c>
     </row>
@@ -27721,7 +27552,7 @@
       <c r="A32" t="s">
         <v>134</v>
       </c>
-      <c r="B32" s="133" t="s">
+      <c r="B32" s="126" t="s">
         <v>161</v>
       </c>
     </row>
@@ -27729,7 +27560,7 @@
       <c r="A33" t="s">
         <v>258</v>
       </c>
-      <c r="B33" s="133" t="s">
+      <c r="B33" s="126" t="s">
         <v>161</v>
       </c>
     </row>
@@ -27737,7 +27568,7 @@
       <c r="A34" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="133" t="s">
+      <c r="B34" s="126" t="s">
         <v>161</v>
       </c>
     </row>
@@ -27750,7 +27581,7 @@
       <c r="A36" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="133" t="s">
+      <c r="B36" s="126" t="s">
         <v>161</v>
       </c>
     </row>
@@ -27763,7 +27594,7 @@
       <c r="A38" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B38" s="133" t="s">
+      <c r="B38" s="126" t="s">
         <v>161</v>
       </c>
     </row>
@@ -27771,7 +27602,7 @@
       <c r="A39" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="133" t="s">
+      <c r="B39" s="126" t="s">
         <v>161</v>
       </c>
     </row>
@@ -27779,7 +27610,7 @@
       <c r="A40" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B40" s="133" t="s">
+      <c r="B40" s="126" t="s">
         <v>161</v>
       </c>
     </row>
@@ -27787,7 +27618,7 @@
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="133" t="s">
+      <c r="B41" s="126" t="s">
         <v>161</v>
       </c>
     </row>
@@ -27795,37 +27626,37 @@
       <c r="A42" t="s">
         <v>257</v>
       </c>
-      <c r="B42" s="133"/>
+      <c r="B42" s="126"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>256</v>
       </c>
-      <c r="B43" s="133"/>
+      <c r="B43" s="126"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>255</v>
       </c>
-      <c r="B44" s="133"/>
+      <c r="B44" s="126"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>253</v>
       </c>
-      <c r="B45" s="133"/>
+      <c r="B45" s="126"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>254</v>
       </c>
-      <c r="B46" s="133"/>
+      <c r="B46" s="126"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>259</v>
       </c>
-      <c r="B47" s="133" t="s">
+      <c r="B47" s="126" t="s">
         <v>161</v>
       </c>
     </row>
@@ -27833,7 +27664,7 @@
       <c r="A48" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B48" s="133" t="s">
+      <c r="B48" s="126" t="s">
         <v>161</v>
       </c>
     </row>
@@ -27841,7 +27672,7 @@
       <c r="A49" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B49" s="133" t="s">
+      <c r="B49" s="126" t="s">
         <v>161</v>
       </c>
     </row>
@@ -28820,11 +28651,11 @@
         <f>6.4*26/100</f>
         <v>1.6640000000000001</v>
       </c>
-      <c r="D2" s="146">
+      <c r="D2" s="135">
         <f>21.7*26/100</f>
         <v>5.6419999999999995</v>
       </c>
-      <c r="E2" s="146">
+      <c r="E2" s="135">
         <f>20.9*26/100</f>
         <v>5.4340000000000002</v>
       </c>
@@ -29699,7 +29530,7 @@
       <c r="D1" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="E1" s="144" t="s">
+      <c r="E1" s="133" t="s">
         <v>266</v>
       </c>
       <c r="F1" s="10" t="s">
@@ -29948,13 +29779,13 @@
       <c r="I13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="133"/>
+      <c r="J13" s="126"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="126" t="s">
         <v>274</v>
       </c>
       <c r="D14">
@@ -29980,7 +29811,7 @@
       <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="133" t="s">
+      <c r="C15" s="126" t="s">
         <v>275</v>
       </c>
       <c r="D15">
@@ -30006,7 +29837,7 @@
       <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="133" t="s">
+      <c r="C16" s="126" t="s">
         <v>275</v>
       </c>
       <c r="D16">
@@ -30036,7 +29867,7 @@
       <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="133" t="s">
+      <c r="C17" s="126" t="s">
         <v>275</v>
       </c>
       <c r="D17">
@@ -30062,7 +29893,7 @@
       <c r="B18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="133" t="s">
+      <c r="C18" s="126" t="s">
         <v>275</v>
       </c>
       <c r="D18">
@@ -30099,7 +29930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
